--- a/torso_Data.xlsx
+++ b/torso_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448.3258666992188</v>
+        <v>358.8440246582031</v>
       </c>
       <c r="C2" t="n">
-        <v>445.7982788085938</v>
+        <v>353.7275695800781</v>
       </c>
       <c r="D2" t="n">
-        <v>444.3982543945312</v>
+        <v>351.0477294921875</v>
       </c>
       <c r="E2" t="n">
-        <v>443.8388061523438</v>
+        <v>349.9331970214844</v>
       </c>
       <c r="F2" t="n">
-        <v>443.471923828125</v>
+        <v>350.0852661132812</v>
       </c>
       <c r="G2" t="n">
-        <v>443.044189453125</v>
+        <v>350.5972595214844</v>
       </c>
       <c r="H2" t="n">
-        <v>442.217529296875</v>
+        <v>351.0900268554688</v>
       </c>
       <c r="I2" t="n">
-        <v>441.0545043945312</v>
+        <v>351.5824890136719</v>
       </c>
       <c r="J2" t="n">
-        <v>439.384033203125</v>
+        <v>352.0834655761719</v>
       </c>
       <c r="K2" t="n">
-        <v>437.4290466308594</v>
+        <v>352.5416564941406</v>
       </c>
       <c r="L2" t="n">
-        <v>435.9361572265625</v>
+        <v>352.978759765625</v>
       </c>
       <c r="M2" t="n">
-        <v>434.2718505859375</v>
+        <v>353.4154052734375</v>
       </c>
       <c r="N2" t="n">
-        <v>432.5822448730469</v>
+        <v>353.5382690429688</v>
       </c>
       <c r="O2" t="n">
-        <v>430.7797241210938</v>
+        <v>353.5801696777344</v>
       </c>
       <c r="P2" t="n">
-        <v>429.6896667480469</v>
+        <v>353.5965576171875</v>
       </c>
       <c r="Q2" t="n">
-        <v>428.8849487304688</v>
+        <v>353.6062316894531</v>
       </c>
       <c r="R2" t="n">
-        <v>427.9371643066406</v>
+        <v>353.6139526367188</v>
       </c>
       <c r="S2" t="n">
-        <v>426.5332641601562</v>
+        <v>353.6211547851562</v>
       </c>
       <c r="T2" t="n">
-        <v>425.3641967773438</v>
+        <v>353.6282958984375</v>
       </c>
       <c r="U2" t="n">
-        <v>423.4562683105469</v>
+        <v>353.635009765625</v>
       </c>
       <c r="V2" t="n">
-        <v>421.2847290039062</v>
+        <v>353.6381225585938</v>
       </c>
       <c r="W2" t="n">
-        <v>419.5235900878906</v>
+        <v>353.642822265625</v>
       </c>
       <c r="X2" t="n">
-        <v>417.6618041992188</v>
+        <v>353.646728515625</v>
       </c>
       <c r="Y2" t="n">
-        <v>416.0933837890625</v>
+        <v>353.64990234375</v>
       </c>
       <c r="Z2" t="n">
-        <v>415.0286865234375</v>
+        <v>353.6535034179688</v>
       </c>
       <c r="AA2" t="n">
-        <v>414.4148254394531</v>
+        <v>353.6877136230469</v>
       </c>
       <c r="AB2" t="n">
-        <v>413.9240112304688</v>
+        <v>353.7158508300781</v>
       </c>
       <c r="AC2" t="n">
-        <v>413.2232971191406</v>
+        <v>353.7406005859375</v>
       </c>
       <c r="AD2" t="n">
-        <v>411.9183959960938</v>
+        <v>353.7616271972656</v>
       </c>
       <c r="AE2" t="n">
-        <v>409.7277221679688</v>
+        <v>353.776123046875</v>
       </c>
       <c r="AF2" t="n">
-        <v>407.9667358398438</v>
+        <v>353.787841796875</v>
       </c>
       <c r="AG2" t="n">
-        <v>406.9942932128906</v>
+        <v>353.7979431152344</v>
       </c>
       <c r="AH2" t="n">
-        <v>406.6289978027344</v>
+        <v>353.806396484375</v>
       </c>
       <c r="AI2" t="n">
-        <v>406.5072631835938</v>
+        <v>353.8134155273438</v>
       </c>
       <c r="AJ2" t="n">
-        <v>406.32861328125</v>
+        <v>353.8193969726562</v>
       </c>
       <c r="AK2" t="n">
-        <v>406.3714294433594</v>
+        <v>353.8227844238281</v>
       </c>
       <c r="AL2" t="n">
-        <v>406.3649291992188</v>
+        <v>353.826904296875</v>
       </c>
       <c r="AM2" t="n">
-        <v>406.4376220703125</v>
+        <v>353.8207397460938</v>
       </c>
       <c r="AN2" t="n">
-        <v>406.1548461914062</v>
+        <v>353.81591796875</v>
       </c>
       <c r="AO2" t="n">
-        <v>405.4424438476562</v>
+        <v>353.8098754882812</v>
       </c>
       <c r="AP2" t="n">
-        <v>404.5062866210938</v>
+        <v>353.80859375</v>
       </c>
       <c r="AQ2" t="n">
-        <v>403.950439453125</v>
+        <v>354.9515380859375</v>
       </c>
       <c r="AR2" t="n">
-        <v>403.6768188476562</v>
+        <v>361.6780090332031</v>
       </c>
       <c r="AS2" t="n">
-        <v>403.6078186035156</v>
+        <v>366.3424682617188</v>
       </c>
       <c r="AT2" t="n">
-        <v>403.5924072265625</v>
+        <v>376.8733520507812</v>
       </c>
       <c r="AU2" t="n">
-        <v>403.6365966796875</v>
+        <v>381.4840698242188</v>
       </c>
       <c r="AV2" t="n">
-        <v>403.791015625</v>
+        <v>384.804931640625</v>
       </c>
       <c r="AW2" t="n">
-        <v>403.9589233398438</v>
+        <v>388.5935974121094</v>
       </c>
       <c r="AX2" t="n">
-        <v>404.0594787597656</v>
+        <v>393.3782653808594</v>
       </c>
       <c r="AY2" t="n">
-        <v>404.1014404296875</v>
+        <v>398.8953247070312</v>
       </c>
       <c r="AZ2" t="n">
-        <v>404.0859375</v>
+        <v>404.849853515625</v>
       </c>
       <c r="BA2" t="n">
-        <v>403.9785461425781</v>
+        <v>409.46435546875</v>
       </c>
       <c r="BB2" t="n">
-        <v>403.6214599609375</v>
+        <v>413.5270690917969</v>
       </c>
       <c r="BC2" t="n">
-        <v>403.1252746582031</v>
+        <v>416.4530944824219</v>
       </c>
       <c r="BD2" t="n">
-        <v>402.5878295898438</v>
+        <v>419.5072021484375</v>
       </c>
       <c r="BE2" t="n">
-        <v>402.2706298828125</v>
+        <v>423.0931091308594</v>
       </c>
       <c r="BF2" t="n">
-        <v>401.8577575683594</v>
+        <v>424.9874267578125</v>
       </c>
       <c r="BG2" t="n">
-        <v>401.3553161621094</v>
+        <v>425.2621459960938</v>
       </c>
       <c r="BH2" t="n">
-        <v>400.7458190917969</v>
+        <v>423.7654113769531</v>
       </c>
       <c r="BI2" t="n">
-        <v>400.0834350585938</v>
+        <v>421.4484252929688</v>
       </c>
       <c r="BJ2" t="n">
-        <v>398.4113159179688</v>
+        <v>409.1684265136719</v>
       </c>
       <c r="BK2" t="n">
-        <v>395.601806640625</v>
+        <v>397.4061889648438</v>
       </c>
       <c r="BL2" t="n">
-        <v>392.885498046875</v>
+        <v>390.5300598144531</v>
       </c>
       <c r="BM2" t="n">
-        <v>390.2005615234375</v>
+        <v>378.2216796875</v>
       </c>
       <c r="BN2" t="n">
-        <v>387.3935546875</v>
+        <v>370.5088806152344</v>
       </c>
       <c r="BO2" t="n">
-        <v>384.9043579101562</v>
+        <v>362.9784545898438</v>
       </c>
       <c r="BP2" t="n">
-        <v>382.033935546875</v>
+        <v>355.973876953125</v>
       </c>
       <c r="BQ2" t="n">
-        <v>379.7108154296875</v>
+        <v>350.303955078125</v>
       </c>
       <c r="BR2" t="n">
-        <v>377.9449157714844</v>
+        <v>344.7261962890625</v>
       </c>
       <c r="BS2" t="n">
-        <v>376.21533203125</v>
+        <v>338.0899047851562</v>
       </c>
       <c r="BT2" t="n">
-        <v>372.7723388671875</v>
+        <v>329.8468322753906</v>
       </c>
       <c r="BU2" t="n">
-        <v>368.3768310546875</v>
+        <v>321.4620361328125</v>
       </c>
       <c r="BV2" t="n">
-        <v>363.8876647949219</v>
+        <v>314.4089660644531</v>
       </c>
       <c r="BW2" t="n">
-        <v>360.15966796875</v>
+        <v>308.9386291503906</v>
       </c>
       <c r="BX2" t="n">
-        <v>356.755126953125</v>
+        <v>303.6489562988281</v>
       </c>
       <c r="BY2" t="n">
-        <v>352.1871948242188</v>
+        <v>299.5885925292969</v>
       </c>
       <c r="BZ2" t="n">
-        <v>343.9827880859375</v>
+        <v>294.5153503417969</v>
       </c>
       <c r="CA2" t="n">
-        <v>333.4276123046875</v>
+        <v>288.3544616699219</v>
       </c>
       <c r="CB2" t="n">
-        <v>325.0321044921875</v>
+        <v>282.9441528320312</v>
       </c>
       <c r="CC2" t="n">
-        <v>321.0101623535156</v>
+        <v>278.6100158691406</v>
       </c>
       <c r="CD2" t="n">
-        <v>316.9588317871094</v>
+        <v>275.5552368164062</v>
       </c>
       <c r="CE2" t="n">
-        <v>312.5520324707031</v>
+        <v>272.8125</v>
       </c>
       <c r="CF2" t="n">
-        <v>304.7665100097656</v>
+        <v>270.6622314453125</v>
       </c>
       <c r="CG2" t="n">
-        <v>301.5015563964844</v>
+        <v>269.5222473144531</v>
       </c>
       <c r="CH2" t="n">
-        <v>299.2729187011719</v>
+        <v>269.5206909179688</v>
       </c>
       <c r="CI2" t="n">
-        <v>297.2901000976562</v>
+        <v>270.5830078125</v>
       </c>
       <c r="CJ2" t="n">
-        <v>295.5729370117188</v>
+        <v>271.5227661132812</v>
       </c>
       <c r="CK2" t="n">
-        <v>294.3072814941406</v>
+        <v>273.2619018554688</v>
       </c>
       <c r="CL2" t="n">
-        <v>292.2575988769531</v>
+        <v>276.0262145996094</v>
       </c>
       <c r="CM2" t="n">
-        <v>292.0160522460938</v>
+        <v>279.8528747558594</v>
       </c>
       <c r="CN2" t="n">
-        <v>291.9496765136719</v>
+        <v>284.885498046875</v>
       </c>
       <c r="CO2" t="n">
-        <v>291.9127197265625</v>
+        <v>289.6929626464844</v>
       </c>
       <c r="CP2" t="n">
-        <v>291.881591796875</v>
+        <v>294.7811889648438</v>
       </c>
       <c r="CQ2" t="n">
-        <v>291.841796875</v>
+        <v>300.6899719238281</v>
       </c>
       <c r="CR2" t="n">
-        <v>291.799560546875</v>
+        <v>313.065185546875</v>
       </c>
       <c r="CS2" t="n">
-        <v>291.7261962890625</v>
+        <v>317.7641296386719</v>
       </c>
       <c r="CT2" t="n">
-        <v>289.6710205078125</v>
+        <v>322.2652587890625</v>
       </c>
       <c r="CU2" t="n">
-        <v>287.4928894042969</v>
+        <v>328.9994812011719</v>
       </c>
       <c r="CV2" t="n">
-        <v>285.20703125</v>
+        <v>337.8170776367188</v>
       </c>
       <c r="CW2" t="n">
-        <v>282.7917785644531</v>
+        <v>345.2870483398438</v>
       </c>
       <c r="CX2" t="n">
-        <v>282.6091613769531</v>
+        <v>350.3424682617188</v>
       </c>
       <c r="CY2" t="n">
-        <v>282.5932312011719</v>
+        <v>354.9752502441406</v>
       </c>
       <c r="CZ2" t="n">
-        <v>282.6075134277344</v>
+        <v>359.2110900878906</v>
       </c>
       <c r="DA2" t="n">
-        <v>282.6337585449219</v>
+        <v>364.4649963378906</v>
       </c>
       <c r="DB2" t="n">
-        <v>282.7862854003906</v>
+        <v>375.3372192382812</v>
       </c>
       <c r="DC2" t="n">
-        <v>286.1402893066406</v>
+        <v>380.52734375</v>
       </c>
       <c r="DD2" t="n">
-        <v>288.7130737304688</v>
+        <v>384.6630249023438</v>
       </c>
       <c r="DE2" t="n">
-        <v>290.58544921875</v>
+        <v>388.1649169921875</v>
       </c>
       <c r="DF2" t="n">
-        <v>291.4164123535156</v>
+        <v>391.4682006835938</v>
       </c>
       <c r="DG2" t="n">
-        <v>291.4522705078125</v>
+        <v>394.5596923828125</v>
       </c>
       <c r="DH2" t="n">
-        <v>291.4398803710938</v>
+        <v>397.4708862304688</v>
       </c>
       <c r="DI2" t="n">
-        <v>291.4118041992188</v>
+        <v>398.4061279296875</v>
       </c>
       <c r="DJ2" t="n">
-        <v>291.4015502929688</v>
+        <v>399.25634765625</v>
       </c>
       <c r="DK2" t="n">
-        <v>291.3917236328125</v>
+        <v>399.5932006835938</v>
       </c>
       <c r="DL2" t="n">
-        <v>291.3821411132812</v>
+        <v>399.952392578125</v>
       </c>
       <c r="DM2" t="n">
-        <v>291.3782348632812</v>
+        <v>397.7841491699219</v>
       </c>
       <c r="DN2" t="n">
-        <v>291.6876220703125</v>
+        <v>394.0149230957031</v>
       </c>
       <c r="DO2" t="n">
-        <v>292.0662536621094</v>
+        <v>388.7188720703125</v>
       </c>
       <c r="DP2" t="n">
-        <v>292.7779235839844</v>
+        <v>386.24853515625</v>
       </c>
       <c r="DQ2" t="n">
-        <v>295.3618774414062</v>
+        <v>380.2836608886719</v>
       </c>
       <c r="DR2" t="n">
-        <v>295.9974060058594</v>
+        <v>377.2440185546875</v>
       </c>
       <c r="DS2" t="n">
-        <v>296.4182739257812</v>
+        <v>375.3735961914062</v>
       </c>
       <c r="DT2" t="n">
-        <v>295.4869689941406</v>
+        <v>371.8533020019531</v>
       </c>
       <c r="DU2" t="n">
-        <v>293.5712280273438</v>
+        <v>369.1550903320312</v>
       </c>
       <c r="DV2" t="n">
-        <v>288.956787109375</v>
+        <v>365.488037109375</v>
       </c>
       <c r="DW2" t="n">
-        <v>287.8937683105469</v>
+        <v>358.8835144042969</v>
       </c>
       <c r="DX2" t="n">
-        <v>287.4554748535156</v>
+        <v>356.474609375</v>
       </c>
       <c r="DY2" t="n">
-        <v>287.2416076660156</v>
+        <v>352.61376953125</v>
       </c>
       <c r="DZ2" t="n">
-        <v>287.2310791015625</v>
+        <v>351.6640930175781</v>
       </c>
       <c r="EA2" t="n">
-        <v>287.2363891601562</v>
+        <v>349.5556335449219</v>
       </c>
       <c r="EB2" t="n">
-        <v>287.2544250488281</v>
+        <v>344.3973999023438</v>
       </c>
       <c r="EC2" t="n">
-        <v>287.7301940917969</v>
+        <v>341.5365905761719</v>
       </c>
       <c r="ED2" t="n">
-        <v>288.1208190917969</v>
+        <v>338.6122436523438</v>
       </c>
       <c r="EE2" t="n">
-        <v>288.5308532714844</v>
+        <v>338.0248718261719</v>
       </c>
       <c r="EF2" t="n">
-        <v>289.3644409179688</v>
+        <v>338.6748657226562</v>
       </c>
       <c r="EG2" t="n">
-        <v>290.13671875</v>
+        <v>345.7611694335938</v>
       </c>
       <c r="EH2" t="n">
-        <v>290.857666015625</v>
+        <v>353.7049865722656</v>
       </c>
       <c r="EI2" t="n">
-        <v>291.2188415527344</v>
+        <v>355.4565124511719</v>
       </c>
       <c r="EJ2" t="n">
-        <v>291.6422119140625</v>
+        <v>356.2985534667969</v>
       </c>
       <c r="EK2" t="n">
-        <v>291.5918579101562</v>
+        <v>358.7975769042969</v>
       </c>
       <c r="EL2" t="n">
-        <v>291.0342712402344</v>
+        <v>361.936767578125</v>
       </c>
       <c r="EM2" t="n">
-        <v>288.9107055664062</v>
+        <v>368.7677612304688</v>
       </c>
       <c r="EN2" t="n">
-        <v>286.5044860839844</v>
+        <v>370.559326171875</v>
       </c>
       <c r="EO2" t="n">
-        <v>285.6618957519531</v>
+        <v>372.9649047851562</v>
       </c>
       <c r="EP2" t="n">
-        <v>285.2185668945312</v>
+        <v>374.7747192382812</v>
       </c>
       <c r="EQ2" t="n">
-        <v>285.0871276855469</v>
+        <v>378.9310913085938</v>
       </c>
       <c r="ER2" t="n">
-        <v>285.1312866210938</v>
+        <v>380.4754028320312</v>
       </c>
       <c r="ES2" t="n">
-        <v>285.2759704589844</v>
+        <v>380.9703063964844</v>
       </c>
       <c r="ET2" t="n">
-        <v>285.3719177246094</v>
+        <v>372.8944091796875</v>
       </c>
       <c r="EU2" t="n">
-        <v>285.5046691894531</v>
+        <v>360.7471313476562</v>
       </c>
       <c r="EV2" t="n">
-        <v>285.5325927734375</v>
+        <v>351.7704772949219</v>
       </c>
       <c r="EW2" t="n">
-        <v>285.4948120117188</v>
+        <v>339.1186218261719</v>
       </c>
       <c r="EX2" t="n">
-        <v>285.42724609375</v>
+        <v>336.59765625</v>
       </c>
       <c r="EY2" t="n">
-        <v>285.4201354980469</v>
+        <v>335.44580078125</v>
       </c>
       <c r="EZ2" t="n">
-        <v>285.4391174316406</v>
+        <v>333.2712097167969</v>
       </c>
       <c r="FA2" t="n">
-        <v>285.4417724609375</v>
+        <v>323.5323486328125</v>
       </c>
       <c r="FB2" t="n">
-        <v>285.3984069824219</v>
+        <v>316.6076965332031</v>
       </c>
       <c r="FC2" t="n">
-        <v>285.2756958007812</v>
+        <v>305.7848510742188</v>
       </c>
       <c r="FD2" t="n">
-        <v>285.1896057128906</v>
+        <v>303.7508850097656</v>
       </c>
       <c r="FE2" t="n">
-        <v>285.1726989746094</v>
+        <v>303.8438415527344</v>
       </c>
       <c r="FF2" t="n">
-        <v>285.1711730957031</v>
+        <v>304.2118225097656</v>
       </c>
       <c r="FG2" t="n">
-        <v>285.1613464355469</v>
+        <v>304.3157348632812</v>
       </c>
       <c r="FH2" t="n">
-        <v>285.1797790527344</v>
+        <v>304.0867004394531</v>
       </c>
       <c r="FI2" t="n">
-        <v>285.3136901855469</v>
+        <v>304.4912719726562</v>
       </c>
       <c r="FJ2" t="n">
-        <v>285.433837890625</v>
+        <v>307.14306640625</v>
       </c>
       <c r="FK2" t="n">
-        <v>285.5690612792969</v>
+        <v>317.8880615234375</v>
       </c>
       <c r="FL2" t="n">
-        <v>285.7103271484375</v>
+        <v>322.16357421875</v>
       </c>
       <c r="FM2" t="n">
-        <v>285.7945251464844</v>
+        <v>331.2297973632812</v>
       </c>
       <c r="FN2" t="n">
-        <v>286.540283203125</v>
+        <v>343.3045043945312</v>
       </c>
       <c r="FO2" t="n">
-        <v>288.9344177246094</v>
+        <v>348.5140380859375</v>
       </c>
       <c r="FP2" t="n">
-        <v>294.739990234375</v>
+        <v>352.9217834472656</v>
       </c>
       <c r="FQ2" t="n">
-        <v>299.3370361328125</v>
+        <v>361.7062377929688</v>
       </c>
       <c r="FR2" t="n">
-        <v>301.1386413574219</v>
+        <v>366.3985900878906</v>
       </c>
       <c r="FS2" t="n">
-        <v>307.6531677246094</v>
+        <v>373.9172973632812</v>
       </c>
       <c r="FT2" t="n">
-        <v>319.3592224121094</v>
+        <v>378.6526489257812</v>
       </c>
       <c r="FU2" t="n">
-        <v>324.1448669433594</v>
+        <v>380.365234375</v>
       </c>
       <c r="FV2" t="n">
-        <v>334.7711181640625</v>
+        <v>381.0884399414062</v>
       </c>
       <c r="FW2" t="n">
-        <v>342.7218322753906</v>
+        <v>379.9185791015625</v>
       </c>
       <c r="FX2" t="n">
-        <v>350.2904968261719</v>
+        <v>377.5185546875</v>
       </c>
       <c r="FY2" t="n">
-        <v>355.0747375488281</v>
+        <v>377.7578125</v>
       </c>
       <c r="FZ2" t="n">
-        <v>358.20703125</v>
+        <v>385.2196655273438</v>
       </c>
       <c r="GA2" t="n">
-        <v>359.62353515625</v>
+        <v>409.49609375</v>
       </c>
       <c r="GB2" t="n">
-        <v>360.7372436523438</v>
+        <v>412.7581176757812</v>
       </c>
       <c r="GC2" t="n">
-        <v>360.4961853027344</v>
+        <v>384.8912963867188</v>
       </c>
       <c r="GD2" t="n">
-        <v>360.5939331054688</v>
+        <v>364.8995666503906</v>
       </c>
       <c r="GE2" t="n">
-        <v>360.5836791992188</v>
+        <v>339.0477294921875</v>
       </c>
       <c r="GF2" t="n">
-        <v>350.171875</v>
+        <v>331.06640625</v>
       </c>
       <c r="GG2" t="n">
-        <v>341.4211730957031</v>
+        <v>327.9306335449219</v>
       </c>
       <c r="GH2" t="n">
-        <v>331.0758666992188</v>
+        <v>324.7521667480469</v>
       </c>
       <c r="GI2" t="n">
-        <v>322.9110107421875</v>
+        <v>321.8132019042969</v>
       </c>
       <c r="GJ2" t="n">
-        <v>311.4236450195312</v>
+        <v>318.5884094238281</v>
       </c>
       <c r="GK2" t="n">
-        <v>304.8355102539062</v>
+        <v>311.6576232910156</v>
       </c>
       <c r="GL2" t="n">
-        <v>296.7208862304688</v>
+        <v>309.004638671875</v>
       </c>
       <c r="GM2" t="n">
-        <v>288.5623779296875</v>
+        <v>306.1140441894531</v>
       </c>
       <c r="GN2" t="n">
-        <v>281.7287292480469</v>
+        <v>303.9283752441406</v>
       </c>
       <c r="GO2" t="n">
-        <v>280.1925659179688</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>279.8056030273438</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>279.1689758300781</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>278.755126953125</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>279.9428100585938</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>300.2239685058594</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>320.5513305664062</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>337.0072937011719</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>348.8247375488281</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>354.4467468261719</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>387.870849609375</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>411.4099731445312</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>419.5555114746094</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>432.6695251464844</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>445.864501953125</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>457.3779907226562</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>458.1199951171875</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>459.4960327148438</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>469.7747192382812</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>473.9856567382812</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>475.8987426757812</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>474.2230224609375</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>466.4819946289062</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>445.7159423828125</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>448.5247802734375</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>433.4644775390625</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>411.303955078125</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>394.8524475097656</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>390.4617919921875</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>388.8818969726562</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>391.7303161621094</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>393.1858825683594</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>393.9444580078125</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>395.5990905761719</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>396.5144653320312</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>397.8634643554688</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>400.2132568359375</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>403.50732421875</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>405.5219116210938</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>406.0123291015625</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>405.58984375</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>405.3577880859375</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>406.8405456542969</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>410.3350219726562</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>412.3316650390625</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>412.0479736328125</v>
-      </c>
-      <c r="II2" t="n">
-        <v>409.5408935546875</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>408.3010559082031</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>407.0587463378906</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>406.71728515625</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>406.751953125</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>406.6969604492188</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>406.78173828125</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>406.8518371582031</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>407.2883911132812</v>
+        <v>302.8676147460938</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>364.6210021972656</v>
+        <v>399.9117431640625</v>
       </c>
       <c r="C3" t="n">
-        <v>355.2019958496094</v>
+        <v>393.7055053710938</v>
       </c>
       <c r="D3" t="n">
-        <v>348.8456726074219</v>
+        <v>390.4816589355469</v>
       </c>
       <c r="E3" t="n">
-        <v>346.2566223144531</v>
+        <v>389.3857116699219</v>
       </c>
       <c r="F3" t="n">
-        <v>344.3236389160156</v>
+        <v>389.1107788085938</v>
       </c>
       <c r="G3" t="n">
-        <v>342.6217651367188</v>
+        <v>387.6029052734375</v>
       </c>
       <c r="H3" t="n">
-        <v>341.1788635253906</v>
+        <v>386.6121826171875</v>
       </c>
       <c r="I3" t="n">
-        <v>338.2710876464844</v>
+        <v>385.8157043457031</v>
       </c>
       <c r="J3" t="n">
-        <v>335.7396240234375</v>
+        <v>385.0391845703125</v>
       </c>
       <c r="K3" t="n">
-        <v>333.7335205078125</v>
+        <v>384.3479919433594</v>
       </c>
       <c r="L3" t="n">
-        <v>332.35888671875</v>
+        <v>383.7749328613281</v>
       </c>
       <c r="M3" t="n">
-        <v>331.3367004394531</v>
+        <v>383.3203430175781</v>
       </c>
       <c r="N3" t="n">
-        <v>330.1229248046875</v>
+        <v>382.9707641601562</v>
       </c>
       <c r="O3" t="n">
-        <v>328.5972900390625</v>
+        <v>382.7055358886719</v>
       </c>
       <c r="P3" t="n">
-        <v>326.9286804199219</v>
+        <v>382.5091552734375</v>
       </c>
       <c r="Q3" t="n">
-        <v>325.4973449707031</v>
+        <v>382.3641052246094</v>
       </c>
       <c r="R3" t="n">
-        <v>324.1324157714844</v>
+        <v>382.2612915039062</v>
       </c>
       <c r="S3" t="n">
-        <v>322.8380737304688</v>
+        <v>382.1941223144531</v>
       </c>
       <c r="T3" t="n">
-        <v>321.6868896484375</v>
+        <v>382.1575927734375</v>
       </c>
       <c r="U3" t="n">
-        <v>320.4854736328125</v>
+        <v>382.1383666992188</v>
       </c>
       <c r="V3" t="n">
-        <v>319.449951171875</v>
+        <v>382.1256713867188</v>
       </c>
       <c r="W3" t="n">
-        <v>318.6806030273438</v>
+        <v>382.0523986816406</v>
       </c>
       <c r="X3" t="n">
-        <v>318.3889770507812</v>
+        <v>381.9564514160156</v>
       </c>
       <c r="Y3" t="n">
-        <v>318.4499816894531</v>
+        <v>381.8228759765625</v>
       </c>
       <c r="Z3" t="n">
-        <v>318.8064575195312</v>
+        <v>381.6415710449219</v>
       </c>
       <c r="AA3" t="n">
-        <v>319.4400634765625</v>
+        <v>383.2148132324219</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.1997985839844</v>
+        <v>384.4593811035156</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.9364013671875</v>
+        <v>385.4376220703125</v>
       </c>
       <c r="AD3" t="n">
-        <v>321.5115661621094</v>
+        <v>386.2054138183594</v>
       </c>
       <c r="AE3" t="n">
-        <v>321.8064575195312</v>
+        <v>386.813720703125</v>
       </c>
       <c r="AF3" t="n">
-        <v>320.9136352539062</v>
+        <v>387.2838134765625</v>
       </c>
       <c r="AG3" t="n">
-        <v>319.7904357910156</v>
+        <v>387.6405334472656</v>
       </c>
       <c r="AH3" t="n">
-        <v>318.009033203125</v>
+        <v>387.9110717773438</v>
       </c>
       <c r="AI3" t="n">
-        <v>316.9014282226562</v>
+        <v>388.1095275878906</v>
       </c>
       <c r="AJ3" t="n">
-        <v>315.9612731933594</v>
+        <v>388.2542419433594</v>
       </c>
       <c r="AK3" t="n">
-        <v>315.0213012695312</v>
+        <v>388.35888671875</v>
       </c>
       <c r="AL3" t="n">
-        <v>314.1470031738281</v>
+        <v>388.4463500976562</v>
       </c>
       <c r="AM3" t="n">
-        <v>313.506591796875</v>
+        <v>388.4871520996094</v>
       </c>
       <c r="AN3" t="n">
-        <v>312.7815246582031</v>
+        <v>388.4756774902344</v>
       </c>
       <c r="AO3" t="n">
-        <v>312.1416015625</v>
+        <v>388.4451904296875</v>
       </c>
       <c r="AP3" t="n">
-        <v>311.739013671875</v>
+        <v>388.2269592285156</v>
       </c>
       <c r="AQ3" t="n">
-        <v>311.4017028808594</v>
+        <v>385.9452819824219</v>
       </c>
       <c r="AR3" t="n">
-        <v>311.1164245605469</v>
+        <v>382.127197265625</v>
       </c>
       <c r="AS3" t="n">
-        <v>310.9113464355469</v>
+        <v>380.2244567871094</v>
       </c>
       <c r="AT3" t="n">
-        <v>310.7582092285156</v>
+        <v>377.1382141113281</v>
       </c>
       <c r="AU3" t="n">
-        <v>310.6835632324219</v>
+        <v>375.6142883300781</v>
       </c>
       <c r="AV3" t="n">
-        <v>310.6007690429688</v>
+        <v>374.0218505859375</v>
       </c>
       <c r="AW3" t="n">
-        <v>310.4432678222656</v>
+        <v>374.017333984375</v>
       </c>
       <c r="AX3" t="n">
-        <v>310.3027648925781</v>
+        <v>372.3234558105469</v>
       </c>
       <c r="AY3" t="n">
-        <v>310.0777893066406</v>
+        <v>370.7526550292969</v>
       </c>
       <c r="AZ3" t="n">
-        <v>309.9303894042969</v>
+        <v>370.8445129394531</v>
       </c>
       <c r="BA3" t="n">
-        <v>309.8055419921875</v>
+        <v>370.7618408203125</v>
       </c>
       <c r="BB3" t="n">
-        <v>309.5730285644531</v>
+        <v>370.4994812011719</v>
       </c>
       <c r="BC3" t="n">
-        <v>309.2969665527344</v>
+        <v>369.8320007324219</v>
       </c>
       <c r="BD3" t="n">
-        <v>309.0077514648438</v>
+        <v>369.1343688964844</v>
       </c>
       <c r="BE3" t="n">
-        <v>308.7944641113281</v>
+        <v>368.2899169921875</v>
       </c>
       <c r="BF3" t="n">
-        <v>308.7576599121094</v>
+        <v>367.9943237304688</v>
       </c>
       <c r="BG3" t="n">
-        <v>308.8604125976562</v>
+        <v>367.8440246582031</v>
       </c>
       <c r="BH3" t="n">
-        <v>308.9950256347656</v>
+        <v>367.3486022949219</v>
       </c>
       <c r="BI3" t="n">
-        <v>309.0226440429688</v>
+        <v>366.8895263671875</v>
       </c>
       <c r="BJ3" t="n">
-        <v>309.0928649902344</v>
+        <v>367.0838317871094</v>
       </c>
       <c r="BK3" t="n">
-        <v>309.1183166503906</v>
+        <v>366.2702026367188</v>
       </c>
       <c r="BL3" t="n">
-        <v>309.2142028808594</v>
+        <v>365.8749694824219</v>
       </c>
       <c r="BM3" t="n">
-        <v>309.371826171875</v>
+        <v>366.5975952148438</v>
       </c>
       <c r="BN3" t="n">
-        <v>309.626220703125</v>
+        <v>367.0158386230469</v>
       </c>
       <c r="BO3" t="n">
-        <v>309.9861755371094</v>
+        <v>367.2720031738281</v>
       </c>
       <c r="BP3" t="n">
-        <v>310.2972717285156</v>
+        <v>367.7485961914062</v>
       </c>
       <c r="BQ3" t="n">
-        <v>310.3616027832031</v>
+        <v>369.9184265136719</v>
       </c>
       <c r="BR3" t="n">
-        <v>310.2672119140625</v>
+        <v>371.8595275878906</v>
       </c>
       <c r="BS3" t="n">
-        <v>310.3663024902344</v>
+        <v>373.6484985351562</v>
       </c>
       <c r="BT3" t="n">
-        <v>310.025390625</v>
+        <v>374.9122924804688</v>
       </c>
       <c r="BU3" t="n">
-        <v>309.2911987304688</v>
+        <v>375.5041198730469</v>
       </c>
       <c r="BV3" t="n">
-        <v>308.4629516601562</v>
+        <v>375.5104064941406</v>
       </c>
       <c r="BW3" t="n">
-        <v>307.9288024902344</v>
+        <v>375.0899963378906</v>
       </c>
       <c r="BX3" t="n">
-        <v>307.3838806152344</v>
+        <v>374.6305236816406</v>
       </c>
       <c r="BY3" t="n">
-        <v>307.2216186523438</v>
+        <v>373.8987121582031</v>
       </c>
       <c r="BZ3" t="n">
-        <v>306.4073181152344</v>
+        <v>373.4360046386719</v>
       </c>
       <c r="CA3" t="n">
-        <v>305.1683654785156</v>
+        <v>373.4429931640625</v>
       </c>
       <c r="CB3" t="n">
-        <v>304.1679382324219</v>
+        <v>373.4484558105469</v>
       </c>
       <c r="CC3" t="n">
-        <v>303.6347045898438</v>
+        <v>373.3263854980469</v>
       </c>
       <c r="CD3" t="n">
-        <v>303.3031921386719</v>
+        <v>373.0971069335938</v>
       </c>
       <c r="CE3" t="n">
-        <v>303.0751953125</v>
+        <v>373.0087890625</v>
       </c>
       <c r="CF3" t="n">
-        <v>303.978515625</v>
+        <v>372.9197998046875</v>
       </c>
       <c r="CG3" t="n">
-        <v>304.8116149902344</v>
+        <v>372.6095886230469</v>
       </c>
       <c r="CH3" t="n">
-        <v>305.3056335449219</v>
+        <v>372.1304321289062</v>
       </c>
       <c r="CI3" t="n">
-        <v>305.0072631835938</v>
+        <v>371.3470458984375</v>
       </c>
       <c r="CJ3" t="n">
-        <v>303.9308776855469</v>
+        <v>371.12353515625</v>
       </c>
       <c r="CK3" t="n">
-        <v>302.45849609375</v>
+        <v>369.2909545898438</v>
       </c>
       <c r="CL3" t="n">
-        <v>303.396728515625</v>
+        <v>367.7502136230469</v>
       </c>
       <c r="CM3" t="n">
-        <v>303.5697021484375</v>
+        <v>366.0777587890625</v>
       </c>
       <c r="CN3" t="n">
-        <v>303.5027770996094</v>
+        <v>364.3508911132812</v>
       </c>
       <c r="CO3" t="n">
-        <v>301.2626953125</v>
+        <v>363.4236755371094</v>
       </c>
       <c r="CP3" t="n">
-        <v>299.7699584960938</v>
+        <v>361.6569519042969</v>
       </c>
       <c r="CQ3" t="n">
-        <v>298.6928405761719</v>
+        <v>361.1697082519531</v>
       </c>
       <c r="CR3" t="n">
-        <v>297.8736877441406</v>
+        <v>360.1656494140625</v>
       </c>
       <c r="CS3" t="n">
-        <v>297.2068786621094</v>
+        <v>359.7450866699219</v>
       </c>
       <c r="CT3" t="n">
-        <v>296.2943725585938</v>
+        <v>359.3330078125</v>
       </c>
       <c r="CU3" t="n">
-        <v>296.0264892578125</v>
+        <v>358.8190002441406</v>
       </c>
       <c r="CV3" t="n">
-        <v>295.7191162109375</v>
+        <v>358.3907165527344</v>
       </c>
       <c r="CW3" t="n">
-        <v>295.1759948730469</v>
+        <v>358.0309143066406</v>
       </c>
       <c r="CX3" t="n">
-        <v>294.968017578125</v>
+        <v>357.6930541992188</v>
       </c>
       <c r="CY3" t="n">
-        <v>294.628173828125</v>
+        <v>357.3272094726562</v>
       </c>
       <c r="CZ3" t="n">
-        <v>294.47265625</v>
+        <v>356.92626953125</v>
       </c>
       <c r="DA3" t="n">
-        <v>294.3194580078125</v>
+        <v>356.6183166503906</v>
       </c>
       <c r="DB3" t="n">
-        <v>294.165283203125</v>
+        <v>356.3099365234375</v>
       </c>
       <c r="DC3" t="n">
-        <v>293.8248291015625</v>
+        <v>356.4219055175781</v>
       </c>
       <c r="DD3" t="n">
-        <v>293.6126708984375</v>
+        <v>356.3711547851562</v>
       </c>
       <c r="DE3" t="n">
-        <v>293.4228515625</v>
+        <v>356.3414001464844</v>
       </c>
       <c r="DF3" t="n">
-        <v>293.2449951171875</v>
+        <v>356.2965393066406</v>
       </c>
       <c r="DG3" t="n">
-        <v>293.6592407226562</v>
+        <v>356.140380859375</v>
       </c>
       <c r="DH3" t="n">
-        <v>294.1752319335938</v>
+        <v>356.3668823242188</v>
       </c>
       <c r="DI3" t="n">
-        <v>295.4997863769531</v>
+        <v>357.0707397460938</v>
       </c>
       <c r="DJ3" t="n">
-        <v>296.0361938476562</v>
+        <v>358.0370178222656</v>
       </c>
       <c r="DK3" t="n">
-        <v>296.4553527832031</v>
+        <v>359.9617614746094</v>
       </c>
       <c r="DL3" t="n">
-        <v>297.019775390625</v>
+        <v>361.8269958496094</v>
       </c>
       <c r="DM3" t="n">
-        <v>297.1918029785156</v>
+        <v>363.1078491210938</v>
       </c>
       <c r="DN3" t="n">
-        <v>297.4212036132812</v>
+        <v>363.8223571777344</v>
       </c>
       <c r="DO3" t="n">
-        <v>297.4755859375</v>
+        <v>361.5247802734375</v>
       </c>
       <c r="DP3" t="n">
-        <v>297.5105285644531</v>
+        <v>358.4949035644531</v>
       </c>
       <c r="DQ3" t="n">
-        <v>297.6794128417969</v>
+        <v>346.6915283203125</v>
       </c>
       <c r="DR3" t="n">
-        <v>297.7814331054688</v>
+        <v>339.7922973632812</v>
       </c>
       <c r="DS3" t="n">
-        <v>297.8518981933594</v>
+        <v>332.7348327636719</v>
       </c>
       <c r="DT3" t="n">
-        <v>297.8519897460938</v>
+        <v>317.8526611328125</v>
       </c>
       <c r="DU3" t="n">
-        <v>297.8238525390625</v>
+        <v>309.9231262207031</v>
       </c>
       <c r="DV3" t="n">
-        <v>297.629150390625</v>
+        <v>302.3597412109375</v>
       </c>
       <c r="DW3" t="n">
-        <v>297.5708618164062</v>
+        <v>287.4777221679688</v>
       </c>
       <c r="DX3" t="n">
-        <v>297.5924072265625</v>
+        <v>280.9823913574219</v>
       </c>
       <c r="DY3" t="n">
-        <v>297.7414855957031</v>
+        <v>272.0129699707031</v>
       </c>
       <c r="DZ3" t="n">
-        <v>297.7777404785156</v>
+        <v>270.5511474609375</v>
       </c>
       <c r="EA3" t="n">
-        <v>297.7587585449219</v>
+        <v>272.5982666015625</v>
       </c>
       <c r="EB3" t="n">
-        <v>297.6705017089844</v>
+        <v>282.9804382324219</v>
       </c>
       <c r="EC3" t="n">
-        <v>297.6069030761719</v>
+        <v>289.9443969726562</v>
       </c>
       <c r="ED3" t="n">
-        <v>297.5850524902344</v>
+        <v>311.0484924316406</v>
       </c>
       <c r="EE3" t="n">
-        <v>297.5665283203125</v>
+        <v>332.1375732421875</v>
       </c>
       <c r="EF3" t="n">
-        <v>297.5401916503906</v>
+        <v>339.1901550292969</v>
       </c>
       <c r="EG3" t="n">
-        <v>297.5328369140625</v>
+        <v>357.7672119140625</v>
       </c>
       <c r="EH3" t="n">
-        <v>297.5591430664062</v>
+        <v>368.0614318847656</v>
       </c>
       <c r="EI3" t="n">
-        <v>297.6148986816406</v>
+        <v>370.2837829589844</v>
       </c>
       <c r="EJ3" t="n">
-        <v>297.8804626464844</v>
+        <v>371.4811706542969</v>
       </c>
       <c r="EK3" t="n">
-        <v>298.3292236328125</v>
+        <v>378.0457458496094</v>
       </c>
       <c r="EL3" t="n">
-        <v>299.28857421875</v>
+        <v>380.3428649902344</v>
       </c>
       <c r="EM3" t="n">
-        <v>300.8368530273438</v>
+        <v>379.7778015136719</v>
       </c>
       <c r="EN3" t="n">
-        <v>301.004638671875</v>
+        <v>378.8815612792969</v>
       </c>
       <c r="EO3" t="n">
-        <v>301.310302734375</v>
+        <v>378.1202697753906</v>
       </c>
       <c r="EP3" t="n">
-        <v>301.8257141113281</v>
+        <v>378.2329711914062</v>
       </c>
       <c r="EQ3" t="n">
-        <v>303.4381408691406</v>
+        <v>378.0667419433594</v>
       </c>
       <c r="ER3" t="n">
-        <v>304.2597045898438</v>
+        <v>377.6647644042969</v>
       </c>
       <c r="ES3" t="n">
-        <v>305.7205810546875</v>
+        <v>377.770751953125</v>
       </c>
       <c r="ET3" t="n">
-        <v>306.3114929199219</v>
+        <v>381.0220031738281</v>
       </c>
       <c r="EU3" t="n">
-        <v>307.1023559570312</v>
+        <v>388.4432983398438</v>
       </c>
       <c r="EV3" t="n">
-        <v>307.5935668945312</v>
+        <v>392.1598205566406</v>
       </c>
       <c r="EW3" t="n">
-        <v>307.9922180175781</v>
+        <v>396.9145812988281</v>
       </c>
       <c r="EX3" t="n">
-        <v>308.3450622558594</v>
+        <v>400.5287780761719</v>
       </c>
       <c r="EY3" t="n">
-        <v>308.5082702636719</v>
+        <v>403.5045471191406</v>
       </c>
       <c r="EZ3" t="n">
-        <v>309.132568359375</v>
+        <v>406.7057495117188</v>
       </c>
       <c r="FA3" t="n">
-        <v>309.6963195800781</v>
+        <v>407.9666442871094</v>
       </c>
       <c r="FB3" t="n">
-        <v>310.2143859863281</v>
+        <v>408.7309265136719</v>
       </c>
       <c r="FC3" t="n">
-        <v>310.6336975097656</v>
+        <v>404.8424682617188</v>
       </c>
       <c r="FD3" t="n">
-        <v>309.4218444824219</v>
+        <v>401.4459228515625</v>
       </c>
       <c r="FE3" t="n">
-        <v>307.7780456542969</v>
+        <v>396.1632385253906</v>
       </c>
       <c r="FF3" t="n">
-        <v>307.3253173828125</v>
+        <v>395.0494079589844</v>
       </c>
       <c r="FG3" t="n">
-        <v>307.3894653320312</v>
+        <v>395.5666198730469</v>
       </c>
       <c r="FH3" t="n">
-        <v>308.3332824707031</v>
+        <v>397.6786804199219</v>
       </c>
       <c r="FI3" t="n">
-        <v>309.3966979980469</v>
+        <v>397.5414428710938</v>
       </c>
       <c r="FJ3" t="n">
-        <v>310.0579223632812</v>
+        <v>394.26318359375</v>
       </c>
       <c r="FK3" t="n">
-        <v>310.4826965332031</v>
+        <v>389.7271423339844</v>
       </c>
       <c r="FL3" t="n">
-        <v>310.3083801269531</v>
+        <v>388.6783447265625</v>
       </c>
       <c r="FM3" t="n">
-        <v>310.1253662109375</v>
+        <v>387.8315734863281</v>
       </c>
       <c r="FN3" t="n">
-        <v>310.0296630859375</v>
+        <v>388.3674621582031</v>
       </c>
       <c r="FO3" t="n">
-        <v>310.52001953125</v>
+        <v>388.9786987304688</v>
       </c>
       <c r="FP3" t="n">
-        <v>311.4189453125</v>
+        <v>389.7545776367188</v>
       </c>
       <c r="FQ3" t="n">
-        <v>311.187255859375</v>
+        <v>390.9172058105469</v>
       </c>
       <c r="FR3" t="n">
-        <v>311.0210266113281</v>
+        <v>392.0007934570312</v>
       </c>
       <c r="FS3" t="n">
-        <v>310.1549682617188</v>
+        <v>391.3936462402344</v>
       </c>
       <c r="FT3" t="n">
-        <v>313.1636352539062</v>
+        <v>390.646240234375</v>
       </c>
       <c r="FU3" t="n">
-        <v>314.5199279785156</v>
+        <v>387.3878479003906</v>
       </c>
       <c r="FV3" t="n">
-        <v>316.4422607421875</v>
+        <v>386.3004760742188</v>
       </c>
       <c r="FW3" t="n">
-        <v>316.8059997558594</v>
+        <v>391.4395751953125</v>
       </c>
       <c r="FX3" t="n">
-        <v>310.6043090820312</v>
+        <v>392.3490295410156</v>
       </c>
       <c r="FY3" t="n">
-        <v>305.7973937988281</v>
+        <v>397.4118347167969</v>
       </c>
       <c r="FZ3" t="n">
-        <v>303.5667724609375</v>
+        <v>402.9202880859375</v>
       </c>
       <c r="GA3" t="n">
-        <v>302.3328552246094</v>
+        <v>409.4322204589844</v>
       </c>
       <c r="GB3" t="n">
-        <v>300.7704467773438</v>
+        <v>408.7236328125</v>
       </c>
       <c r="GC3" t="n">
-        <v>300.1577758789062</v>
+        <v>409.2823791503906</v>
       </c>
       <c r="GD3" t="n">
-        <v>297.5971069335938</v>
+        <v>409.5947265625</v>
       </c>
       <c r="GE3" t="n">
-        <v>297.2003784179688</v>
+        <v>409.2969665527344</v>
       </c>
       <c r="GF3" t="n">
-        <v>295.7834777832031</v>
+        <v>408.6573791503906</v>
       </c>
       <c r="GG3" t="n">
-        <v>296.7781982421875</v>
+        <v>407.7344665527344</v>
       </c>
       <c r="GH3" t="n">
-        <v>299.2779541015625</v>
+        <v>410.0953674316406</v>
       </c>
       <c r="GI3" t="n">
-        <v>300.3848571777344</v>
+        <v>411.4476318359375</v>
       </c>
       <c r="GJ3" t="n">
-        <v>300.7086791992188</v>
+        <v>411.9700012207031</v>
       </c>
       <c r="GK3" t="n">
-        <v>297.712890625</v>
+        <v>411.5512390136719</v>
       </c>
       <c r="GL3" t="n">
-        <v>295.4156188964844</v>
+        <v>410.1404113769531</v>
       </c>
       <c r="GM3" t="n">
-        <v>295.3410949707031</v>
+        <v>409.6639709472656</v>
       </c>
       <c r="GN3" t="n">
-        <v>296.7939453125</v>
+        <v>411.6286010742188</v>
       </c>
       <c r="GO3" t="n">
-        <v>297.7434692382812</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>298.1465454101562</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>299.0090026855469</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>299.8571166992188</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>300.6068115234375</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>306.9019775390625</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>314.2010803222656</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>321.793212890625</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>332.2358703613281</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>343.1578369140625</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>408.0831909179688</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>440.0470581054688</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>456.023193359375</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>499.0744323730469</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>517.0861206054688</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>495.2954406738281</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>480.7666320800781</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>477.8297729492188</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>478.0582275390625</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>477.9349670410156</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>484.4483032226562</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>488.1099243164062</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>487.8135681152344</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>486.3094787597656</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>493.4578552246094</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>508.640380859375</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>511.1801147460938</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>512.25341796875</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>511.0196533203125</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>504.6419372558594</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>499.4411010742188</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>498.8601989746094</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>498.1482543945312</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>497.8121032714844</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>496.9857177734375</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>497.7807006835938</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>500.107666015625</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>505.4540710449219</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>509.4327697753906</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>509.6808776855469</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>508.1636352539062</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>507.4055786132812</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>507.0870361328125</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>507.4562072753906</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>507.2011108398438</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>507.1924133300781</v>
-      </c>
-      <c r="II3" t="n">
-        <v>507.5050659179688</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>507.9758911132812</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>510.2200622558594</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>512.0877075195312</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>512.7603759765625</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>512.6727294921875</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>512.5404052734375</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>512.4482421875</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>512.2839965820312</v>
+        <v>411.5364379882812</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1351.173583984375</v>
+        <v>1056.779296875</v>
       </c>
       <c r="C4" t="n">
-        <v>1367.839599609375</v>
+        <v>1069.204223632812</v>
       </c>
       <c r="D4" t="n">
-        <v>1376.16064453125</v>
+        <v>1076.158935546875</v>
       </c>
       <c r="E4" t="n">
-        <v>1379.010986328125</v>
+        <v>1079.001342773438</v>
       </c>
       <c r="F4" t="n">
-        <v>1378.088256835938</v>
+        <v>1079.741943359375</v>
       </c>
       <c r="G4" t="n">
-        <v>1375.834838867188</v>
+        <v>1078.524291992188</v>
       </c>
       <c r="H4" t="n">
-        <v>1370.895874023438</v>
+        <v>1077.520263671875</v>
       </c>
       <c r="I4" t="n">
-        <v>1365.571533203125</v>
+        <v>1076.812866210938</v>
       </c>
       <c r="J4" t="n">
-        <v>1360.088012695312</v>
+        <v>1076.362548828125</v>
       </c>
       <c r="K4" t="n">
-        <v>1357.297119140625</v>
+        <v>1075.958984375</v>
       </c>
       <c r="L4" t="n">
-        <v>1354.410400390625</v>
+        <v>1075.591674804688</v>
       </c>
       <c r="M4" t="n">
-        <v>1350.76953125</v>
+        <v>1075.253540039062</v>
       </c>
       <c r="N4" t="n">
-        <v>1347.497924804688</v>
+        <v>1074.923828125</v>
       </c>
       <c r="O4" t="n">
-        <v>1344.293334960938</v>
+        <v>1074.62255859375</v>
       </c>
       <c r="P4" t="n">
-        <v>1342.256958007812</v>
+        <v>1074.323364257812</v>
       </c>
       <c r="Q4" t="n">
-        <v>1341.477905273438</v>
+        <v>1074.036376953125</v>
       </c>
       <c r="R4" t="n">
-        <v>1341.636108398438</v>
+        <v>1073.762573242188</v>
       </c>
       <c r="S4" t="n">
-        <v>1341.727783203125</v>
+        <v>1073.4912109375</v>
       </c>
       <c r="T4" t="n">
-        <v>1341.537719726562</v>
+        <v>1073.2197265625</v>
       </c>
       <c r="U4" t="n">
-        <v>1340.07470703125</v>
+        <v>1072.974609375</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.436401367188</v>
+        <v>1072.859741210938</v>
       </c>
       <c r="W4" t="n">
-        <v>1333.877685546875</v>
+        <v>1072.84423828125</v>
       </c>
       <c r="X4" t="n">
-        <v>1329.445678710938</v>
+        <v>1072.82861328125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1323.46923828125</v>
+        <v>1072.839233398438</v>
       </c>
       <c r="Z4" t="n">
-        <v>1312.965942382812</v>
+        <v>1072.8662109375</v>
       </c>
       <c r="AA4" t="n">
-        <v>1300.440185546875</v>
+        <v>1073.194946289062</v>
       </c>
       <c r="AB4" t="n">
-        <v>1288.93896484375</v>
+        <v>1073.466186523438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1281.724243164062</v>
+        <v>1073.706298828125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1276.535034179688</v>
+        <v>1073.910400390625</v>
       </c>
       <c r="AE4" t="n">
-        <v>1271.51708984375</v>
+        <v>1074.051025390625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1267.39404296875</v>
+        <v>1074.164916992188</v>
       </c>
       <c r="AG4" t="n">
-        <v>1263.194580078125</v>
+        <v>1074.263549804688</v>
       </c>
       <c r="AH4" t="n">
-        <v>1256.153686523438</v>
+        <v>1074.346069335938</v>
       </c>
       <c r="AI4" t="n">
-        <v>1248.540283203125</v>
+        <v>1074.414794921875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1241.807373046875</v>
+        <v>1074.4736328125</v>
       </c>
       <c r="AK4" t="n">
-        <v>1235.097534179688</v>
+        <v>1074.506958007812</v>
       </c>
       <c r="AL4" t="n">
-        <v>1227.460815429688</v>
+        <v>1074.551147460938</v>
       </c>
       <c r="AM4" t="n">
-        <v>1220.068359375</v>
+        <v>1074.57763671875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1214.856689453125</v>
+        <v>1074.582885742188</v>
       </c>
       <c r="AO4" t="n">
-        <v>1208.887939453125</v>
+        <v>1074.584106445312</v>
       </c>
       <c r="AP4" t="n">
-        <v>1202.771850585938</v>
+        <v>1074.560913085938</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1199.14453125</v>
+        <v>1077.327392578125</v>
       </c>
       <c r="AR4" t="n">
-        <v>1196.9443359375</v>
+        <v>1084.972534179688</v>
       </c>
       <c r="AS4" t="n">
-        <v>1194.420654296875</v>
+        <v>1090.718017578125</v>
       </c>
       <c r="AT4" t="n">
-        <v>1191.837036132812</v>
+        <v>1102.560180664062</v>
       </c>
       <c r="AU4" t="n">
-        <v>1189.492309570312</v>
+        <v>1108.174682617188</v>
       </c>
       <c r="AV4" t="n">
-        <v>1186.81591796875</v>
+        <v>1113.891967773438</v>
       </c>
       <c r="AW4" t="n">
-        <v>1183.995361328125</v>
+        <v>1119.897094726562</v>
       </c>
       <c r="AX4" t="n">
-        <v>1181.780517578125</v>
+        <v>1123.744506835938</v>
       </c>
       <c r="AY4" t="n">
-        <v>1180.33544921875</v>
+        <v>1128.181762695312</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1179.005249023438</v>
+        <v>1135.016357421875</v>
       </c>
       <c r="BA4" t="n">
-        <v>1177.435791015625</v>
+        <v>1141.027465820312</v>
       </c>
       <c r="BB4" t="n">
-        <v>1175.956909179688</v>
+        <v>1144.719970703125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1174.4599609375</v>
+        <v>1147.667236328125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1172.884765625</v>
+        <v>1151.363037109375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1171.752197265625</v>
+        <v>1155.058959960938</v>
       </c>
       <c r="BF4" t="n">
-        <v>1170.723266601562</v>
+        <v>1157.427856445312</v>
       </c>
       <c r="BG4" t="n">
-        <v>1169.578369140625</v>
+        <v>1158.6611328125</v>
       </c>
       <c r="BH4" t="n">
-        <v>1168.521362304688</v>
+        <v>1163.561157226562</v>
       </c>
       <c r="BI4" t="n">
-        <v>1168.021362304688</v>
+        <v>1166.932006835938</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1167.729248046875</v>
+        <v>1171.444580078125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1167.402099609375</v>
+        <v>1172.9912109375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1166.5498046875</v>
+        <v>1173.709350585938</v>
       </c>
       <c r="BM4" t="n">
-        <v>1164.761352539062</v>
+        <v>1173.889526367188</v>
       </c>
       <c r="BN4" t="n">
-        <v>1160.935913085938</v>
+        <v>1173.067504882812</v>
       </c>
       <c r="BO4" t="n">
-        <v>1155.352294921875</v>
+        <v>1172.048828125</v>
       </c>
       <c r="BP4" t="n">
-        <v>1146.95703125</v>
+        <v>1170.7734375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1140.281127929688</v>
+        <v>1169.321166992188</v>
       </c>
       <c r="BR4" t="n">
-        <v>1136.1455078125</v>
+        <v>1165.631713867188</v>
       </c>
       <c r="BS4" t="n">
-        <v>1133.355102539062</v>
+        <v>1158.887573242188</v>
       </c>
       <c r="BT4" t="n">
-        <v>1131.561645507812</v>
+        <v>1154.924438476562</v>
       </c>
       <c r="BU4" t="n">
-        <v>1130.33251953125</v>
+        <v>1152.978149414062</v>
       </c>
       <c r="BV4" t="n">
-        <v>1128.489135742188</v>
+        <v>1152.191162109375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1124.449951171875</v>
+        <v>1151.889526367188</v>
       </c>
       <c r="BX4" t="n">
-        <v>1120.90185546875</v>
+        <v>1152.064697265625</v>
       </c>
       <c r="BY4" t="n">
-        <v>1116.712768554688</v>
+        <v>1152.479614257812</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1107.757080078125</v>
+        <v>1153.814453125</v>
       </c>
       <c r="CA4" t="n">
-        <v>1102.872314453125</v>
+        <v>1155.19482421875</v>
       </c>
       <c r="CB4" t="n">
-        <v>1098.821655273438</v>
+        <v>1156.44140625</v>
       </c>
       <c r="CC4" t="n">
-        <v>1095.390502929688</v>
+        <v>1157.603881835938</v>
       </c>
       <c r="CD4" t="n">
-        <v>1091.85107421875</v>
+        <v>1158.277587890625</v>
       </c>
       <c r="CE4" t="n">
-        <v>1087.015502929688</v>
+        <v>1158.97119140625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1075.576049804688</v>
+        <v>1159.7802734375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1073.050659179688</v>
+        <v>1161.084838867188</v>
       </c>
       <c r="CH4" t="n">
-        <v>1073.286254882812</v>
+        <v>1162.637817382812</v>
       </c>
       <c r="CI4" t="n">
-        <v>1073.735595703125</v>
+        <v>1165.330932617188</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1076.210083007812</v>
+        <v>1167.937866210938</v>
       </c>
       <c r="CK4" t="n">
-        <v>1080.790161132812</v>
+        <v>1176.543579101562</v>
       </c>
       <c r="CL4" t="n">
-        <v>1086.16162109375</v>
+        <v>1182.40673828125</v>
       </c>
       <c r="CM4" t="n">
-        <v>1087.05322265625</v>
+        <v>1187.323364257812</v>
       </c>
       <c r="CN4" t="n">
-        <v>1087.5546875</v>
+        <v>1193.299194335938</v>
       </c>
       <c r="CO4" t="n">
-        <v>1088.948608398438</v>
+        <v>1198.578979492188</v>
       </c>
       <c r="CP4" t="n">
-        <v>1089.656005859375</v>
+        <v>1200.60693359375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1090.15185546875</v>
+        <v>1201.701782226562</v>
       </c>
       <c r="CR4" t="n">
-        <v>1090.538818359375</v>
+        <v>1202.226318359375</v>
       </c>
       <c r="CS4" t="n">
-        <v>1090.890991210938</v>
+        <v>1202.187133789062</v>
       </c>
       <c r="CT4" t="n">
-        <v>1093.53662109375</v>
+        <v>1202.138305664062</v>
       </c>
       <c r="CU4" t="n">
-        <v>1097.015258789062</v>
+        <v>1201.949829101562</v>
       </c>
       <c r="CV4" t="n">
-        <v>1101.652709960938</v>
+        <v>1201.597900390625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1109.456176757812</v>
+        <v>1201.198974609375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1110.663818359375</v>
+        <v>1200.919067382812</v>
       </c>
       <c r="CY4" t="n">
-        <v>1111.3271484375</v>
+        <v>1200.745483398438</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1111.417236328125</v>
+        <v>1200.678833007812</v>
       </c>
       <c r="DA4" t="n">
-        <v>1111.477905273438</v>
+        <v>1200.751953125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1111.519165039062</v>
+        <v>1200.776611328125</v>
       </c>
       <c r="DC4" t="n">
-        <v>1111.432373046875</v>
+        <v>1200.815307617188</v>
       </c>
       <c r="DD4" t="n">
-        <v>1111.294067382812</v>
+        <v>1200.61767578125</v>
       </c>
       <c r="DE4" t="n">
-        <v>1111.154296875</v>
+        <v>1200.305297851562</v>
       </c>
       <c r="DF4" t="n">
-        <v>1110.922241210938</v>
+        <v>1199.876831054688</v>
       </c>
       <c r="DG4" t="n">
-        <v>1111.1337890625</v>
+        <v>1199.35400390625</v>
       </c>
       <c r="DH4" t="n">
-        <v>1111.219970703125</v>
+        <v>1191.14794921875</v>
       </c>
       <c r="DI4" t="n">
-        <v>1110.994262695312</v>
+        <v>1182.6298828125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1110.662109375</v>
+        <v>1172.451171875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1110.333862304688</v>
+        <v>1165.158203125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1109.657836914062</v>
+        <v>1156.93701171875</v>
       </c>
       <c r="DM4" t="n">
-        <v>1109.332885742188</v>
+        <v>1149.74169921875</v>
       </c>
       <c r="DN4" t="n">
-        <v>1108.731811523438</v>
+        <v>1142.879638671875</v>
       </c>
       <c r="DO4" t="n">
-        <v>1108.434448242188</v>
+        <v>1125.764038085938</v>
       </c>
       <c r="DP4" t="n">
-        <v>1108.07861328125</v>
+        <v>1118.444091796875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1107.312255859375</v>
+        <v>1111.349975585938</v>
       </c>
       <c r="DR4" t="n">
-        <v>1106.927856445312</v>
+        <v>1110.020629882812</v>
       </c>
       <c r="DS4" t="n">
-        <v>1106.648803710938</v>
+        <v>1109.409057617188</v>
       </c>
       <c r="DT4" t="n">
-        <v>1106.796997070312</v>
+        <v>1118.76220703125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1107.19091796875</v>
+        <v>1128.076049804688</v>
       </c>
       <c r="DV4" t="n">
-        <v>1108.45654296875</v>
+        <v>1138.109497070312</v>
       </c>
       <c r="DW4" t="n">
-        <v>1109.15283203125</v>
+        <v>1154.580444335938</v>
       </c>
       <c r="DX4" t="n">
-        <v>1109.812622070312</v>
+        <v>1159.376953125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1111.037963867188</v>
+        <v>1161.633422851562</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1111.643920898438</v>
+        <v>1161.58837890625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1112.20947265625</v>
+        <v>1161.676513671875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1112.411010742188</v>
+        <v>1159.58984375</v>
       </c>
       <c r="EC4" t="n">
-        <v>1112.395629882812</v>
+        <v>1160.9482421875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1112.381225585938</v>
+        <v>1170.896362304688</v>
       </c>
       <c r="EE4" t="n">
-        <v>1112.365112304688</v>
+        <v>1189.966064453125</v>
       </c>
       <c r="EF4" t="n">
-        <v>1112.32421875</v>
+        <v>1199.041625976562</v>
       </c>
       <c r="EG4" t="n">
-        <v>1112.293579101562</v>
+        <v>1225.799194335938</v>
       </c>
       <c r="EH4" t="n">
-        <v>1112.256225585938</v>
+        <v>1252.551025390625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1112.249145507812</v>
+        <v>1266.349487304688</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1112.216186523438</v>
+        <v>1282.24609375</v>
       </c>
       <c r="EK4" t="n">
-        <v>1112.53076171875</v>
+        <v>1313.127807617188</v>
       </c>
       <c r="EL4" t="n">
-        <v>1112.990112304688</v>
+        <v>1325.203369140625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1110.861572265625</v>
+        <v>1347.139892578125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1106.179565429688</v>
+        <v>1354.13623046875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1100.995239257812</v>
+        <v>1360.764404296875</v>
       </c>
       <c r="EP4" t="n">
-        <v>1095.773315429688</v>
+        <v>1361.767456054688</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1093.495361328125</v>
+        <v>1362.121948242188</v>
       </c>
       <c r="ER4" t="n">
-        <v>1094.614379882812</v>
+        <v>1361.813354492188</v>
       </c>
       <c r="ES4" t="n">
-        <v>1098.0478515625</v>
+        <v>1360.354248046875</v>
       </c>
       <c r="ET4" t="n">
-        <v>1100.618774414062</v>
+        <v>1349.36669921875</v>
       </c>
       <c r="EU4" t="n">
-        <v>1103.61865234375</v>
+        <v>1327.600463867188</v>
       </c>
       <c r="EV4" t="n">
-        <v>1103.2861328125</v>
+        <v>1317.912475585938</v>
       </c>
       <c r="EW4" t="n">
-        <v>1102.027465820312</v>
+        <v>1296.3271484375</v>
       </c>
       <c r="EX4" t="n">
-        <v>1100.774169921875</v>
+        <v>1280.420532226562</v>
       </c>
       <c r="EY4" t="n">
-        <v>1100.669799804688</v>
+        <v>1266.487548828125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1101.4208984375</v>
+        <v>1247.523193359375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1101.925048828125</v>
+        <v>1243.568603515625</v>
       </c>
       <c r="FB4" t="n">
-        <v>1101.598022460938</v>
+        <v>1243.541748046875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1099.766967773438</v>
+        <v>1244.949462890625</v>
       </c>
       <c r="FD4" t="n">
-        <v>1097.875244140625</v>
+        <v>1240.27392578125</v>
       </c>
       <c r="FE4" t="n">
-        <v>1097.469482421875</v>
+        <v>1218.779663085938</v>
       </c>
       <c r="FF4" t="n">
-        <v>1097.40966796875</v>
+        <v>1205.423095703125</v>
       </c>
       <c r="FG4" t="n">
-        <v>1097.1142578125</v>
+        <v>1174.503173828125</v>
       </c>
       <c r="FH4" t="n">
-        <v>1096.473999023438</v>
+        <v>1143.949829101562</v>
       </c>
       <c r="FI4" t="n">
-        <v>1095.756469726562</v>
+        <v>1132.239501953125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1095.278198242188</v>
+        <v>1121.366455078125</v>
       </c>
       <c r="FK4" t="n">
-        <v>1094.771484375</v>
+        <v>1102.05810546875</v>
       </c>
       <c r="FL4" t="n">
-        <v>1094.522583007812</v>
+        <v>1092.57080078125</v>
       </c>
       <c r="FM4" t="n">
-        <v>1094.286743164062</v>
+        <v>1071.295654296875</v>
       </c>
       <c r="FN4" t="n">
-        <v>1074.986328125</v>
+        <v>1049.374389648438</v>
       </c>
       <c r="FO4" t="n">
-        <v>1063.679565429688</v>
+        <v>1037.923461914062</v>
       </c>
       <c r="FP4" t="n">
-        <v>1044.761962890625</v>
+        <v>1026.720581054688</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1016.405151367188</v>
+        <v>1006.815734863281</v>
       </c>
       <c r="FR4" t="n">
-        <v>1008.545654296875</v>
+        <v>994.7523193359375</v>
       </c>
       <c r="FS4" t="n">
-        <v>997.2216186523438</v>
+        <v>972.3702392578125</v>
       </c>
       <c r="FT4" t="n">
-        <v>969.29638671875</v>
+        <v>952.9732666015625</v>
       </c>
       <c r="FU4" t="n">
-        <v>959.57080078125</v>
+        <v>939.5687866210938</v>
       </c>
       <c r="FV4" t="n">
-        <v>946.1109008789062</v>
+        <v>930.52685546875</v>
       </c>
       <c r="FW4" t="n">
-        <v>937.6995849609375</v>
+        <v>898.0106201171875</v>
       </c>
       <c r="FX4" t="n">
-        <v>927.6642456054688</v>
+        <v>887.09423828125</v>
       </c>
       <c r="FY4" t="n">
-        <v>922.6353149414062</v>
+        <v>856.3784790039062</v>
       </c>
       <c r="FZ4" t="n">
-        <v>917.1890869140625</v>
+        <v>832.3477783203125</v>
       </c>
       <c r="GA4" t="n">
-        <v>909.36376953125</v>
+        <v>787.87451171875</v>
       </c>
       <c r="GB4" t="n">
-        <v>899.1763916015625</v>
+        <v>777.5647583007812</v>
       </c>
       <c r="GC4" t="n">
-        <v>897.28466796875</v>
+        <v>776.0143432617188</v>
       </c>
       <c r="GD4" t="n">
-        <v>891.8268432617188</v>
+        <v>776.0794067382812</v>
       </c>
       <c r="GE4" t="n">
-        <v>885.5811767578125</v>
+        <v>775.3087158203125</v>
       </c>
       <c r="GF4" t="n">
-        <v>857.106689453125</v>
+        <v>775.06201171875</v>
       </c>
       <c r="GG4" t="n">
-        <v>834.1434326171875</v>
+        <v>772.9959106445312</v>
       </c>
       <c r="GH4" t="n">
-        <v>806.4310302734375</v>
+        <v>756.1771240234375</v>
       </c>
       <c r="GI4" t="n">
-        <v>786.5641479492188</v>
+        <v>748.0349731445312</v>
       </c>
       <c r="GJ4" t="n">
-        <v>762.9238891601562</v>
+        <v>741.9247436523438</v>
       </c>
       <c r="GK4" t="n">
-        <v>746.7733764648438</v>
+        <v>729.2178344726562</v>
       </c>
       <c r="GL4" t="n">
-        <v>736.2095336914062</v>
+        <v>723.783447265625</v>
       </c>
       <c r="GM4" t="n">
-        <v>722.4541015625</v>
+        <v>702.89306640625</v>
       </c>
       <c r="GN4" t="n">
-        <v>708.3482666015625</v>
+        <v>674.9837646484375</v>
       </c>
       <c r="GO4" t="n">
-        <v>700.3676147460938</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>697.0030517578125</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>688.5863037109375</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>680.7831420898438</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>674.2843017578125</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>659.8286743164062</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>649.9700927734375</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>638.8381958007812</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>624.279541015625</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>618.24658203125</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>600.50537109375</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>579.9417724609375</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>574.074951171875</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>576.2617797851562</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>609.6449584960938</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>655.93798828125</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>684.7799072265625</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>693.4553833007812</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>692.517822265625</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>692.4742431640625</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>692.3805541992188</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>692.6358642578125</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>697.8088989257812</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>697.7108764648438</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>661.7669067382812</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>626.630859375</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>625.9933471679688</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>626.624267578125</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>626.647705078125</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>626.1539916992188</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>608.780517578125</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>597.0479736328125</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>593.6431884765625</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>593.0115966796875</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>594.3612670898438</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>595.2357177734375</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>594.8842163085938</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>593.45654296875</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>595.0444946289062</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>599.0259399414062</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>606.1279296875</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>611.02734375</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>618.8670654296875</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>622.5081787109375</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>623.5916137695312</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>623.7001953125</v>
-      </c>
-      <c r="II4" t="n">
-        <v>622.1455078125</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>620.4802856445312</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>619.1378784179688</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>618.4119873046875</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>617.9188842773438</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>618.309814453125</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>618.7816772460938</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>619.1085815429688</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>619.7910766601562</v>
+        <v>665.5669555664062</v>
       </c>
     </row>
   </sheetData>

--- a/torso_Data.xlsx
+++ b/torso_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>226.0696411132812</v>
       </c>
       <c r="B2" t="n">
-        <v>358.8440246582031</v>
+        <v>226.3409271240234</v>
       </c>
       <c r="C2" t="n">
-        <v>353.7275695800781</v>
+        <v>226.3765258789062</v>
       </c>
       <c r="D2" t="n">
-        <v>351.0477294921875</v>
+        <v>226.3922119140625</v>
       </c>
       <c r="E2" t="n">
-        <v>349.9331970214844</v>
+        <v>226.4074554443359</v>
       </c>
       <c r="F2" t="n">
-        <v>350.0852661132812</v>
+        <v>226.4145812988281</v>
       </c>
       <c r="G2" t="n">
-        <v>350.5972595214844</v>
+        <v>226.4185485839844</v>
       </c>
       <c r="H2" t="n">
-        <v>351.0900268554688</v>
+        <v>226.421630859375</v>
       </c>
       <c r="I2" t="n">
-        <v>351.5824890136719</v>
+        <v>226.4253234863281</v>
       </c>
       <c r="J2" t="n">
-        <v>352.0834655761719</v>
+        <v>226.4283752441406</v>
       </c>
       <c r="K2" t="n">
-        <v>352.5416564941406</v>
+        <v>226.4309692382812</v>
       </c>
       <c r="L2" t="n">
-        <v>352.978759765625</v>
+        <v>226.5024566650391</v>
       </c>
       <c r="M2" t="n">
-        <v>353.4154052734375</v>
+        <v>226.5869140625</v>
       </c>
       <c r="N2" t="n">
-        <v>353.5382690429688</v>
+        <v>226.6708068847656</v>
       </c>
       <c r="O2" t="n">
-        <v>353.5801696777344</v>
+        <v>226.7490844726562</v>
       </c>
       <c r="P2" t="n">
-        <v>353.5965576171875</v>
+        <v>226.73828125</v>
       </c>
       <c r="Q2" t="n">
-        <v>353.6062316894531</v>
+        <v>226.6763000488281</v>
       </c>
       <c r="R2" t="n">
-        <v>353.6139526367188</v>
+        <v>226.6000518798828</v>
       </c>
       <c r="S2" t="n">
-        <v>353.6211547851562</v>
+        <v>226.5193939208984</v>
       </c>
       <c r="T2" t="n">
-        <v>353.6282958984375</v>
+        <v>226.3749694824219</v>
       </c>
       <c r="U2" t="n">
-        <v>353.635009765625</v>
+        <v>226.2025604248047</v>
       </c>
       <c r="V2" t="n">
-        <v>353.6381225585938</v>
+        <v>225.8458709716797</v>
       </c>
       <c r="W2" t="n">
-        <v>353.642822265625</v>
+        <v>225.5831756591797</v>
       </c>
       <c r="X2" t="n">
-        <v>353.646728515625</v>
+        <v>226.2161254882812</v>
       </c>
       <c r="Y2" t="n">
-        <v>353.64990234375</v>
+        <v>229.1741638183594</v>
       </c>
       <c r="Z2" t="n">
-        <v>353.6535034179688</v>
+        <v>232.9852142333984</v>
       </c>
       <c r="AA2" t="n">
-        <v>353.6877136230469</v>
+        <v>236.7140808105469</v>
       </c>
       <c r="AB2" t="n">
-        <v>353.7158508300781</v>
+        <v>240.2587890625</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.7406005859375</v>
+        <v>242.9073944091797</v>
       </c>
       <c r="AD2" t="n">
-        <v>353.7616271972656</v>
+        <v>246.3114318847656</v>
       </c>
       <c r="AE2" t="n">
-        <v>353.776123046875</v>
+        <v>250.6542663574219</v>
       </c>
       <c r="AF2" t="n">
-        <v>353.787841796875</v>
+        <v>254.6620178222656</v>
       </c>
       <c r="AG2" t="n">
-        <v>353.7979431152344</v>
+        <v>258.5999450683594</v>
       </c>
       <c r="AH2" t="n">
-        <v>353.806396484375</v>
+        <v>260.7586059570312</v>
       </c>
       <c r="AI2" t="n">
-        <v>353.8134155273438</v>
+        <v>262.59716796875</v>
       </c>
       <c r="AJ2" t="n">
-        <v>353.8193969726562</v>
+        <v>264.4385681152344</v>
       </c>
       <c r="AK2" t="n">
-        <v>353.8227844238281</v>
+        <v>265.4088134765625</v>
       </c>
       <c r="AL2" t="n">
-        <v>353.826904296875</v>
+        <v>266.7024536132812</v>
       </c>
       <c r="AM2" t="n">
-        <v>353.8207397460938</v>
+        <v>267.8739624023438</v>
       </c>
       <c r="AN2" t="n">
-        <v>353.81591796875</v>
+        <v>269.0653381347656</v>
       </c>
       <c r="AO2" t="n">
-        <v>353.8098754882812</v>
+        <v>269.9812927246094</v>
       </c>
       <c r="AP2" t="n">
-        <v>353.80859375</v>
+        <v>271.9498291015625</v>
       </c>
       <c r="AQ2" t="n">
-        <v>354.9515380859375</v>
+        <v>275.0252685546875</v>
       </c>
       <c r="AR2" t="n">
-        <v>361.6780090332031</v>
+        <v>279.3257751464844</v>
       </c>
       <c r="AS2" t="n">
-        <v>366.3424682617188</v>
+        <v>283.4960632324219</v>
       </c>
       <c r="AT2" t="n">
-        <v>376.8733520507812</v>
+        <v>286.0687561035156</v>
       </c>
       <c r="AU2" t="n">
-        <v>381.4840698242188</v>
+        <v>287.5835876464844</v>
       </c>
       <c r="AV2" t="n">
-        <v>384.804931640625</v>
+        <v>288.5864868164062</v>
       </c>
       <c r="AW2" t="n">
-        <v>388.5935974121094</v>
+        <v>289.9468383789062</v>
       </c>
       <c r="AX2" t="n">
-        <v>393.3782653808594</v>
+        <v>292.2705383300781</v>
       </c>
       <c r="AY2" t="n">
-        <v>398.8953247070312</v>
+        <v>294.17822265625</v>
       </c>
       <c r="AZ2" t="n">
-        <v>404.849853515625</v>
+        <v>295.8049621582031</v>
       </c>
       <c r="BA2" t="n">
-        <v>409.46435546875</v>
+        <v>297.3569946289062</v>
       </c>
       <c r="BB2" t="n">
-        <v>413.5270690917969</v>
+        <v>299.0675659179688</v>
       </c>
       <c r="BC2" t="n">
-        <v>416.4530944824219</v>
+        <v>301.4331970214844</v>
       </c>
       <c r="BD2" t="n">
-        <v>419.5072021484375</v>
+        <v>303.9122619628906</v>
       </c>
       <c r="BE2" t="n">
-        <v>423.0931091308594</v>
+        <v>306.0636596679688</v>
       </c>
       <c r="BF2" t="n">
-        <v>424.9874267578125</v>
+        <v>307.8601989746094</v>
       </c>
       <c r="BG2" t="n">
-        <v>425.2621459960938</v>
+        <v>309.4806213378906</v>
       </c>
       <c r="BH2" t="n">
-        <v>423.7654113769531</v>
+        <v>311.5707702636719</v>
       </c>
       <c r="BI2" t="n">
-        <v>421.4484252929688</v>
+        <v>316.2247009277344</v>
       </c>
       <c r="BJ2" t="n">
-        <v>409.1684265136719</v>
+        <v>319.9778747558594</v>
       </c>
       <c r="BK2" t="n">
-        <v>397.4061889648438</v>
+        <v>323.1274719238281</v>
       </c>
       <c r="BL2" t="n">
-        <v>390.5300598144531</v>
+        <v>325.2505493164062</v>
       </c>
       <c r="BM2" t="n">
-        <v>378.2216796875</v>
+        <v>326.832275390625</v>
       </c>
       <c r="BN2" t="n">
-        <v>370.5088806152344</v>
+        <v>328.1519165039062</v>
       </c>
       <c r="BO2" t="n">
-        <v>362.9784545898438</v>
+        <v>330.2033081054688</v>
       </c>
       <c r="BP2" t="n">
-        <v>355.973876953125</v>
+        <v>332.2413940429688</v>
       </c>
       <c r="BQ2" t="n">
-        <v>350.303955078125</v>
+        <v>334.6780395507812</v>
       </c>
       <c r="BR2" t="n">
-        <v>344.7261962890625</v>
+        <v>337.5369873046875</v>
       </c>
       <c r="BS2" t="n">
-        <v>338.0899047851562</v>
+        <v>341.485107421875</v>
       </c>
       <c r="BT2" t="n">
-        <v>329.8468322753906</v>
+        <v>344.759033203125</v>
       </c>
       <c r="BU2" t="n">
-        <v>321.4620361328125</v>
+        <v>349.3025512695312</v>
       </c>
       <c r="BV2" t="n">
-        <v>314.4089660644531</v>
+        <v>352.8737182617188</v>
       </c>
       <c r="BW2" t="n">
-        <v>308.9386291503906</v>
+        <v>356.1705932617188</v>
       </c>
       <c r="BX2" t="n">
-        <v>303.6489562988281</v>
+        <v>357.7402038574219</v>
       </c>
       <c r="BY2" t="n">
-        <v>299.5885925292969</v>
+        <v>358.5923461914062</v>
       </c>
       <c r="BZ2" t="n">
-        <v>294.5153503417969</v>
+        <v>358.84912109375</v>
       </c>
       <c r="CA2" t="n">
-        <v>288.3544616699219</v>
+        <v>359.7272338867188</v>
       </c>
       <c r="CB2" t="n">
-        <v>282.9441528320312</v>
+        <v>360.5496826171875</v>
       </c>
       <c r="CC2" t="n">
-        <v>278.6100158691406</v>
+        <v>361.4466857910156</v>
       </c>
       <c r="CD2" t="n">
-        <v>275.5552368164062</v>
+        <v>362.6907958984375</v>
       </c>
       <c r="CE2" t="n">
-        <v>272.8125</v>
+        <v>363.59326171875</v>
       </c>
       <c r="CF2" t="n">
-        <v>270.6622314453125</v>
+        <v>363.9328308105469</v>
       </c>
       <c r="CG2" t="n">
-        <v>269.5222473144531</v>
+        <v>363.9074096679688</v>
       </c>
       <c r="CH2" t="n">
-        <v>269.5206909179688</v>
+        <v>363.8468017578125</v>
       </c>
       <c r="CI2" t="n">
-        <v>270.5830078125</v>
+        <v>363.8480224609375</v>
       </c>
       <c r="CJ2" t="n">
-        <v>271.5227661132812</v>
+        <v>363.8044738769531</v>
       </c>
       <c r="CK2" t="n">
-        <v>273.2619018554688</v>
+        <v>363.6849670410156</v>
       </c>
       <c r="CL2" t="n">
-        <v>276.0262145996094</v>
+        <v>363.439697265625</v>
       </c>
       <c r="CM2" t="n">
-        <v>279.8528747558594</v>
+        <v>363.0420532226562</v>
       </c>
       <c r="CN2" t="n">
-        <v>284.885498046875</v>
+        <v>362.426025390625</v>
       </c>
       <c r="CO2" t="n">
-        <v>289.6929626464844</v>
+        <v>361.5460510253906</v>
       </c>
       <c r="CP2" t="n">
-        <v>294.7811889648438</v>
+        <v>360.0963745117188</v>
       </c>
       <c r="CQ2" t="n">
-        <v>300.6899719238281</v>
+        <v>358.3626708984375</v>
       </c>
       <c r="CR2" t="n">
-        <v>313.065185546875</v>
+        <v>356.5093383789062</v>
       </c>
       <c r="CS2" t="n">
-        <v>317.7641296386719</v>
+        <v>355.3026733398438</v>
       </c>
       <c r="CT2" t="n">
-        <v>322.2652587890625</v>
+        <v>354.0805358886719</v>
       </c>
       <c r="CU2" t="n">
-        <v>328.9994812011719</v>
+        <v>351.8487243652344</v>
       </c>
       <c r="CV2" t="n">
-        <v>337.8170776367188</v>
+        <v>349.3606872558594</v>
       </c>
       <c r="CW2" t="n">
-        <v>345.2870483398438</v>
+        <v>347.0709838867188</v>
       </c>
       <c r="CX2" t="n">
-        <v>350.3424682617188</v>
+        <v>345.6095886230469</v>
       </c>
       <c r="CY2" t="n">
-        <v>354.9752502441406</v>
+        <v>343.64892578125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>359.2110900878906</v>
+        <v>342.3724670410156</v>
       </c>
       <c r="DA2" t="n">
-        <v>364.4649963378906</v>
+        <v>339.876953125</v>
       </c>
       <c r="DB2" t="n">
-        <v>375.3372192382812</v>
+        <v>339.0099487304688</v>
       </c>
       <c r="DC2" t="n">
-        <v>380.52734375</v>
+        <v>338.2596130371094</v>
       </c>
       <c r="DD2" t="n">
-        <v>384.6630249023438</v>
+        <v>337.6969604492188</v>
       </c>
       <c r="DE2" t="n">
-        <v>388.1649169921875</v>
+        <v>337.3070678710938</v>
       </c>
       <c r="DF2" t="n">
-        <v>391.4682006835938</v>
+        <v>337.1445007324219</v>
       </c>
       <c r="DG2" t="n">
-        <v>394.5596923828125</v>
+        <v>337.0389099121094</v>
       </c>
       <c r="DH2" t="n">
-        <v>397.4708862304688</v>
+        <v>336.9335632324219</v>
       </c>
       <c r="DI2" t="n">
-        <v>398.4061279296875</v>
+        <v>336.9081115722656</v>
       </c>
       <c r="DJ2" t="n">
-        <v>399.25634765625</v>
+        <v>336.8861083984375</v>
       </c>
       <c r="DK2" t="n">
-        <v>399.5932006835938</v>
+        <v>336.8487243652344</v>
       </c>
       <c r="DL2" t="n">
-        <v>399.952392578125</v>
+        <v>336.7938842773438</v>
       </c>
       <c r="DM2" t="n">
-        <v>397.7841491699219</v>
+        <v>336.75244140625</v>
       </c>
       <c r="DN2" t="n">
-        <v>394.0149230957031</v>
+        <v>336.7209167480469</v>
       </c>
       <c r="DO2" t="n">
-        <v>388.7188720703125</v>
+        <v>336.6818542480469</v>
       </c>
       <c r="DP2" t="n">
-        <v>386.24853515625</v>
+        <v>336.6662292480469</v>
       </c>
       <c r="DQ2" t="n">
-        <v>380.2836608886719</v>
+        <v>336.6482238769531</v>
       </c>
       <c r="DR2" t="n">
-        <v>377.2440185546875</v>
+        <v>336.6161499023438</v>
       </c>
       <c r="DS2" t="n">
-        <v>375.3735961914062</v>
+        <v>336.5799560546875</v>
       </c>
       <c r="DT2" t="n">
-        <v>371.8533020019531</v>
+        <v>336.100830078125</v>
       </c>
       <c r="DU2" t="n">
-        <v>369.1550903320312</v>
+        <v>335.871826171875</v>
       </c>
       <c r="DV2" t="n">
-        <v>365.488037109375</v>
+        <v>335.7648315429688</v>
       </c>
       <c r="DW2" t="n">
-        <v>358.8835144042969</v>
+        <v>335.68701171875</v>
       </c>
       <c r="DX2" t="n">
-        <v>356.474609375</v>
+        <v>335.6692504882812</v>
       </c>
       <c r="DY2" t="n">
-        <v>352.61376953125</v>
+        <v>335.6670532226562</v>
       </c>
       <c r="DZ2" t="n">
-        <v>351.6640930175781</v>
+        <v>335.6866455078125</v>
       </c>
       <c r="EA2" t="n">
-        <v>349.5556335449219</v>
+        <v>336.0069274902344</v>
       </c>
       <c r="EB2" t="n">
-        <v>344.3973999023438</v>
+        <v>336.3535766601562</v>
       </c>
       <c r="EC2" t="n">
-        <v>341.5365905761719</v>
+        <v>337.3887329101562</v>
       </c>
       <c r="ED2" t="n">
-        <v>338.6122436523438</v>
+        <v>337.8120422363281</v>
       </c>
       <c r="EE2" t="n">
-        <v>338.0248718261719</v>
+        <v>338.1856689453125</v>
       </c>
       <c r="EF2" t="n">
-        <v>338.6748657226562</v>
+        <v>338.1222229003906</v>
       </c>
       <c r="EG2" t="n">
-        <v>345.7611694335938</v>
+        <v>338.0668334960938</v>
       </c>
       <c r="EH2" t="n">
-        <v>353.7049865722656</v>
+        <v>338.1098937988281</v>
       </c>
       <c r="EI2" t="n">
-        <v>355.4565124511719</v>
+        <v>338.2193603515625</v>
       </c>
       <c r="EJ2" t="n">
-        <v>356.2985534667969</v>
+        <v>338.2916259765625</v>
       </c>
       <c r="EK2" t="n">
-        <v>358.7975769042969</v>
+        <v>338.4483337402344</v>
       </c>
       <c r="EL2" t="n">
-        <v>361.936767578125</v>
+        <v>338.5418090820312</v>
       </c>
       <c r="EM2" t="n">
-        <v>368.7677612304688</v>
+        <v>338.9059753417969</v>
       </c>
       <c r="EN2" t="n">
-        <v>370.559326171875</v>
+        <v>340.8163452148438</v>
       </c>
       <c r="EO2" t="n">
-        <v>372.9649047851562</v>
+        <v>342.6399536132812</v>
       </c>
       <c r="EP2" t="n">
-        <v>374.7747192382812</v>
+        <v>344.0624389648438</v>
       </c>
       <c r="EQ2" t="n">
-        <v>378.9310913085938</v>
+        <v>344.3811645507812</v>
       </c>
       <c r="ER2" t="n">
-        <v>380.4754028320312</v>
+        <v>344.6773986816406</v>
       </c>
       <c r="ES2" t="n">
-        <v>380.9703063964844</v>
+        <v>344.7059631347656</v>
       </c>
       <c r="ET2" t="n">
-        <v>372.8944091796875</v>
+        <v>344.7255859375</v>
       </c>
       <c r="EU2" t="n">
-        <v>360.7471313476562</v>
+        <v>344.7277221679688</v>
       </c>
       <c r="EV2" t="n">
-        <v>351.7704772949219</v>
+        <v>344.7120666503906</v>
       </c>
       <c r="EW2" t="n">
-        <v>339.1186218261719</v>
+        <v>344.6820373535156</v>
       </c>
       <c r="EX2" t="n">
-        <v>336.59765625</v>
+        <v>344.6622924804688</v>
       </c>
       <c r="EY2" t="n">
-        <v>335.44580078125</v>
+        <v>344.6526794433594</v>
       </c>
       <c r="EZ2" t="n">
-        <v>333.2712097167969</v>
+        <v>344.6534729003906</v>
       </c>
       <c r="FA2" t="n">
-        <v>323.5323486328125</v>
+        <v>344.6617126464844</v>
       </c>
       <c r="FB2" t="n">
-        <v>316.6076965332031</v>
+        <v>344.6607971191406</v>
       </c>
       <c r="FC2" t="n">
-        <v>305.7848510742188</v>
+        <v>344.6581420898438</v>
       </c>
       <c r="FD2" t="n">
-        <v>303.7508850097656</v>
+        <v>344.6533813476562</v>
       </c>
       <c r="FE2" t="n">
-        <v>303.8438415527344</v>
+        <v>344.6491088867188</v>
       </c>
       <c r="FF2" t="n">
-        <v>304.2118225097656</v>
+        <v>344.6447448730469</v>
       </c>
       <c r="FG2" t="n">
-        <v>304.3157348632812</v>
+        <v>344.6422729492188</v>
       </c>
       <c r="FH2" t="n">
-        <v>304.0867004394531</v>
+        <v>344.4759521484375</v>
       </c>
       <c r="FI2" t="n">
-        <v>304.4912719726562</v>
+        <v>344.2547607421875</v>
       </c>
       <c r="FJ2" t="n">
-        <v>307.14306640625</v>
+        <v>344.1098327636719</v>
       </c>
       <c r="FK2" t="n">
-        <v>317.8880615234375</v>
+        <v>344.0550231933594</v>
       </c>
       <c r="FL2" t="n">
-        <v>322.16357421875</v>
+        <v>344.050048828125</v>
       </c>
       <c r="FM2" t="n">
-        <v>331.2297973632812</v>
+        <v>344.0425415039062</v>
       </c>
       <c r="FN2" t="n">
-        <v>343.3045043945312</v>
+        <v>344.0460815429688</v>
       </c>
       <c r="FO2" t="n">
-        <v>348.5140380859375</v>
+        <v>344.0503540039062</v>
       </c>
       <c r="FP2" t="n">
-        <v>352.9217834472656</v>
+        <v>344.0579528808594</v>
       </c>
       <c r="FQ2" t="n">
-        <v>361.7062377929688</v>
+        <v>344.0635986328125</v>
       </c>
       <c r="FR2" t="n">
-        <v>366.3985900878906</v>
+        <v>344.0661926269531</v>
       </c>
       <c r="FS2" t="n">
-        <v>373.9172973632812</v>
+        <v>344.1309814453125</v>
       </c>
       <c r="FT2" t="n">
-        <v>378.6526489257812</v>
+        <v>344.1994934082031</v>
       </c>
       <c r="FU2" t="n">
-        <v>380.365234375</v>
+        <v>344.3902893066406</v>
       </c>
       <c r="FV2" t="n">
-        <v>381.0884399414062</v>
+        <v>344.494873046875</v>
       </c>
       <c r="FW2" t="n">
-        <v>379.9185791015625</v>
+        <v>344.8546752929688</v>
       </c>
       <c r="FX2" t="n">
-        <v>377.5185546875</v>
+        <v>344.9171142578125</v>
       </c>
       <c r="FY2" t="n">
-        <v>377.7578125</v>
+        <v>344.9130859375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>385.2196655273438</v>
+        <v>344.8913879394531</v>
       </c>
       <c r="GA2" t="n">
-        <v>409.49609375</v>
+        <v>344.7015380859375</v>
       </c>
       <c r="GB2" t="n">
-        <v>412.7581176757812</v>
+        <v>344.5313720703125</v>
       </c>
       <c r="GC2" t="n">
-        <v>384.8912963867188</v>
+        <v>344.1858520507812</v>
       </c>
       <c r="GD2" t="n">
-        <v>364.8995666503906</v>
+        <v>343.8246459960938</v>
       </c>
       <c r="GE2" t="n">
-        <v>339.0477294921875</v>
+        <v>343.6294860839844</v>
       </c>
       <c r="GF2" t="n">
-        <v>331.06640625</v>
+        <v>343.2212524414062</v>
       </c>
       <c r="GG2" t="n">
-        <v>327.9306335449219</v>
+        <v>343.0474548339844</v>
       </c>
       <c r="GH2" t="n">
-        <v>324.7521667480469</v>
+        <v>342.6647338867188</v>
       </c>
       <c r="GI2" t="n">
-        <v>321.8132019042969</v>
+        <v>341.6522827148438</v>
       </c>
       <c r="GJ2" t="n">
-        <v>318.5884094238281</v>
+        <v>341.13623046875</v>
       </c>
       <c r="GK2" t="n">
-        <v>311.6576232910156</v>
+        <v>340.2899780273438</v>
       </c>
       <c r="GL2" t="n">
-        <v>309.004638671875</v>
+        <v>340.07666015625</v>
       </c>
       <c r="GM2" t="n">
-        <v>306.1140441894531</v>
+        <v>340.041748046875</v>
       </c>
       <c r="GN2" t="n">
-        <v>303.9283752441406</v>
+        <v>340.0055541992188</v>
       </c>
       <c r="GO2" t="n">
-        <v>302.8676147460938</v>
+        <v>339.9707641601562</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>339.9070739746094</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>339.8235473632812</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>339.6920166015625</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>339.4384460449219</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>338.1861877441406</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>337.0956115722656</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>335.1254272460938</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>334.5157165527344</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>334.3401489257812</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>333.9442749023438</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>333.4334716796875</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>332.6068420410156</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>331.0990600585938</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>329.3133544921875</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>328.7346801757812</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>327.70849609375</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>327.4470520019531</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>327.1964111328125</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>327.0178833007812</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>326.4324340820312</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>326.006103515625</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>325.2435607910156</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>324.7089233398438</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>324.1691284179688</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>323.6080627441406</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>321.6258239746094</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>319.8985290527344</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>318.3851928710938</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>316.8984375</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>315.0440673828125</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>312.7108764648438</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>308.0727233886719</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>305.6286010742188</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>299.5016174316406</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>293.0879821777344</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>287.5138244628906</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>281.6316833496094</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>277.578125</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>274.2143859863281</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>273.4766235351562</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>273.4447937011719</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>273.8397216796875</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>274.0209045410156</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>275.3092651367188</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>281.0215454101562</v>
+      </c>
+      <c r="II2" t="n">
+        <v>285.2597045898438</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>286.0210571289062</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>291.8958129882812</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>292.6282043457031</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>291.9354553222656</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>291.408935546875</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>290.1838989257812</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>265.4420471191406</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>248.8692016601562</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>243.1055908203125</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>252.0017700195312</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>241.9545593261719</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>214.0567169189453</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>193.1618041992188</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>182.0294189453125</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>170.7049255371094</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>158.7040557861328</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>160.3934936523438</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>166.4004364013672</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>171.8442687988281</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>175.2895812988281</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>190.2528381347656</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>205.6840209960938</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>221.6473236083984</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>241.4865417480469</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>247.5504455566406</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>247.3134002685547</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>236.1349334716797</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>211.0442810058594</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>202.2012939453125</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>194.976318359375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>258.6875915527344</v>
       </c>
       <c r="B3" t="n">
-        <v>399.9117431640625</v>
+        <v>258.0448608398438</v>
       </c>
       <c r="C3" t="n">
-        <v>393.7055053710938</v>
+        <v>257.9241027832031</v>
       </c>
       <c r="D3" t="n">
-        <v>390.4816589355469</v>
+        <v>257.8328857421875</v>
       </c>
       <c r="E3" t="n">
-        <v>389.3857116699219</v>
+        <v>257.759521484375</v>
       </c>
       <c r="F3" t="n">
-        <v>389.1107788085938</v>
+        <v>257.6995239257812</v>
       </c>
       <c r="G3" t="n">
-        <v>387.6029052734375</v>
+        <v>257.6522521972656</v>
       </c>
       <c r="H3" t="n">
-        <v>386.6121826171875</v>
+        <v>257.6149291992188</v>
       </c>
       <c r="I3" t="n">
-        <v>385.8157043457031</v>
+        <v>257.5849914550781</v>
       </c>
       <c r="J3" t="n">
-        <v>385.0391845703125</v>
+        <v>257.5609741210938</v>
       </c>
       <c r="K3" t="n">
-        <v>384.3479919433594</v>
+        <v>257.5416870117188</v>
       </c>
       <c r="L3" t="n">
-        <v>383.7749328613281</v>
+        <v>257.5180053710938</v>
       </c>
       <c r="M3" t="n">
-        <v>383.3203430175781</v>
+        <v>257.503662109375</v>
       </c>
       <c r="N3" t="n">
-        <v>382.9707641601562</v>
+        <v>257.5035400390625</v>
       </c>
       <c r="O3" t="n">
-        <v>382.7055358886719</v>
+        <v>257.5228271484375</v>
       </c>
       <c r="P3" t="n">
-        <v>382.5091552734375</v>
+        <v>257.5253295898438</v>
       </c>
       <c r="Q3" t="n">
-        <v>382.3641052246094</v>
+        <v>257.5162963867188</v>
       </c>
       <c r="R3" t="n">
-        <v>382.2612915039062</v>
+        <v>257.5010070800781</v>
       </c>
       <c r="S3" t="n">
-        <v>382.1941223144531</v>
+        <v>257.498046875</v>
       </c>
       <c r="T3" t="n">
-        <v>382.1575927734375</v>
+        <v>257.66650390625</v>
       </c>
       <c r="U3" t="n">
-        <v>382.1383666992188</v>
+        <v>258.2557678222656</v>
       </c>
       <c r="V3" t="n">
-        <v>382.1256713867188</v>
+        <v>259.4387817382812</v>
       </c>
       <c r="W3" t="n">
-        <v>382.0523986816406</v>
+        <v>261.3807373046875</v>
       </c>
       <c r="X3" t="n">
-        <v>381.9564514160156</v>
+        <v>263.7705688476562</v>
       </c>
       <c r="Y3" t="n">
-        <v>381.8228759765625</v>
+        <v>263.5093078613281</v>
       </c>
       <c r="Z3" t="n">
-        <v>381.6415710449219</v>
+        <v>263.4057006835938</v>
       </c>
       <c r="AA3" t="n">
-        <v>383.2148132324219</v>
+        <v>265.7440185546875</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.4593811035156</v>
+        <v>267.1508178710938</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.4376220703125</v>
+        <v>267.6362915039062</v>
       </c>
       <c r="AD3" t="n">
-        <v>386.2054138183594</v>
+        <v>267.40966796875</v>
       </c>
       <c r="AE3" t="n">
-        <v>386.813720703125</v>
+        <v>266.619384765625</v>
       </c>
       <c r="AF3" t="n">
-        <v>387.2838134765625</v>
+        <v>265.7048950195312</v>
       </c>
       <c r="AG3" t="n">
-        <v>387.6405334472656</v>
+        <v>265.0400085449219</v>
       </c>
       <c r="AH3" t="n">
-        <v>387.9110717773438</v>
+        <v>264.5515747070312</v>
       </c>
       <c r="AI3" t="n">
-        <v>388.1095275878906</v>
+        <v>264.0470581054688</v>
       </c>
       <c r="AJ3" t="n">
-        <v>388.2542419433594</v>
+        <v>263.7214965820312</v>
       </c>
       <c r="AK3" t="n">
-        <v>388.35888671875</v>
+        <v>263.8813781738281</v>
       </c>
       <c r="AL3" t="n">
-        <v>388.4463500976562</v>
+        <v>264.359130859375</v>
       </c>
       <c r="AM3" t="n">
-        <v>388.4871520996094</v>
+        <v>265.1745910644531</v>
       </c>
       <c r="AN3" t="n">
-        <v>388.4756774902344</v>
+        <v>265.666259765625</v>
       </c>
       <c r="AO3" t="n">
-        <v>388.4451904296875</v>
+        <v>265.014404296875</v>
       </c>
       <c r="AP3" t="n">
-        <v>388.2269592285156</v>
+        <v>262.2546081542969</v>
       </c>
       <c r="AQ3" t="n">
-        <v>385.9452819824219</v>
+        <v>261.6774597167969</v>
       </c>
       <c r="AR3" t="n">
-        <v>382.127197265625</v>
+        <v>261.1730346679688</v>
       </c>
       <c r="AS3" t="n">
-        <v>380.2244567871094</v>
+        <v>261.8265075683594</v>
       </c>
       <c r="AT3" t="n">
-        <v>377.1382141113281</v>
+        <v>262.98974609375</v>
       </c>
       <c r="AU3" t="n">
-        <v>375.6142883300781</v>
+        <v>267.0188293457031</v>
       </c>
       <c r="AV3" t="n">
-        <v>374.0218505859375</v>
+        <v>275.5062866210938</v>
       </c>
       <c r="AW3" t="n">
-        <v>374.017333984375</v>
+        <v>283.8382568359375</v>
       </c>
       <c r="AX3" t="n">
-        <v>372.3234558105469</v>
+        <v>287.9572143554688</v>
       </c>
       <c r="AY3" t="n">
-        <v>370.7526550292969</v>
+        <v>289.8887634277344</v>
       </c>
       <c r="AZ3" t="n">
-        <v>370.8445129394531</v>
+        <v>290.7202453613281</v>
       </c>
       <c r="BA3" t="n">
-        <v>370.7618408203125</v>
+        <v>290.9697570800781</v>
       </c>
       <c r="BB3" t="n">
-        <v>370.4994812011719</v>
+        <v>290.4801025390625</v>
       </c>
       <c r="BC3" t="n">
-        <v>369.8320007324219</v>
+        <v>289.6620788574219</v>
       </c>
       <c r="BD3" t="n">
-        <v>369.1343688964844</v>
+        <v>288.1109008789062</v>
       </c>
       <c r="BE3" t="n">
-        <v>368.2899169921875</v>
+        <v>286.4445190429688</v>
       </c>
       <c r="BF3" t="n">
-        <v>367.9943237304688</v>
+        <v>283.9295959472656</v>
       </c>
       <c r="BG3" t="n">
-        <v>367.8440246582031</v>
+        <v>281.3014526367188</v>
       </c>
       <c r="BH3" t="n">
-        <v>367.3486022949219</v>
+        <v>279.7179565429688</v>
       </c>
       <c r="BI3" t="n">
-        <v>366.8895263671875</v>
+        <v>279.00830078125</v>
       </c>
       <c r="BJ3" t="n">
-        <v>367.0838317871094</v>
+        <v>279.8504028320312</v>
       </c>
       <c r="BK3" t="n">
-        <v>366.2702026367188</v>
+        <v>280.84375</v>
       </c>
       <c r="BL3" t="n">
-        <v>365.8749694824219</v>
+        <v>281.8219604492188</v>
       </c>
       <c r="BM3" t="n">
-        <v>366.5975952148438</v>
+        <v>282.5321655273438</v>
       </c>
       <c r="BN3" t="n">
-        <v>367.0158386230469</v>
+        <v>283.1657409667969</v>
       </c>
       <c r="BO3" t="n">
-        <v>367.2720031738281</v>
+        <v>284.3833618164062</v>
       </c>
       <c r="BP3" t="n">
-        <v>367.7485961914062</v>
+        <v>285.5575256347656</v>
       </c>
       <c r="BQ3" t="n">
-        <v>369.9184265136719</v>
+        <v>286.7554016113281</v>
       </c>
       <c r="BR3" t="n">
-        <v>371.8595275878906</v>
+        <v>287.6275329589844</v>
       </c>
       <c r="BS3" t="n">
-        <v>373.6484985351562</v>
+        <v>289.1183166503906</v>
       </c>
       <c r="BT3" t="n">
-        <v>374.9122924804688</v>
+        <v>291.2925720214844</v>
       </c>
       <c r="BU3" t="n">
-        <v>375.5041198730469</v>
+        <v>292.6573791503906</v>
       </c>
       <c r="BV3" t="n">
-        <v>375.5104064941406</v>
+        <v>293.2071228027344</v>
       </c>
       <c r="BW3" t="n">
-        <v>375.0899963378906</v>
+        <v>292.6942749023438</v>
       </c>
       <c r="BX3" t="n">
-        <v>374.6305236816406</v>
+        <v>291.8742980957031</v>
       </c>
       <c r="BY3" t="n">
-        <v>373.8987121582031</v>
+        <v>291.2409057617188</v>
       </c>
       <c r="BZ3" t="n">
-        <v>373.4360046386719</v>
+        <v>290.7966918945312</v>
       </c>
       <c r="CA3" t="n">
-        <v>373.4429931640625</v>
+        <v>290.5315856933594</v>
       </c>
       <c r="CB3" t="n">
-        <v>373.4484558105469</v>
+        <v>290.1361694335938</v>
       </c>
       <c r="CC3" t="n">
-        <v>373.3263854980469</v>
+        <v>289.6113891601562</v>
       </c>
       <c r="CD3" t="n">
-        <v>373.0971069335938</v>
+        <v>289.1156921386719</v>
       </c>
       <c r="CE3" t="n">
-        <v>373.0087890625</v>
+        <v>288.5229187011719</v>
       </c>
       <c r="CF3" t="n">
-        <v>372.9197998046875</v>
+        <v>287.8073120117188</v>
       </c>
       <c r="CG3" t="n">
-        <v>372.6095886230469</v>
+        <v>287.2691040039062</v>
       </c>
       <c r="CH3" t="n">
-        <v>372.1304321289062</v>
+        <v>286.9752197265625</v>
       </c>
       <c r="CI3" t="n">
-        <v>371.3470458984375</v>
+        <v>286.8867492675781</v>
       </c>
       <c r="CJ3" t="n">
-        <v>371.12353515625</v>
+        <v>286.8544616699219</v>
       </c>
       <c r="CK3" t="n">
-        <v>369.2909545898438</v>
+        <v>287.1684265136719</v>
       </c>
       <c r="CL3" t="n">
-        <v>367.7502136230469</v>
+        <v>287.9944763183594</v>
       </c>
       <c r="CM3" t="n">
-        <v>366.0777587890625</v>
+        <v>288.6661682128906</v>
       </c>
       <c r="CN3" t="n">
-        <v>364.3508911132812</v>
+        <v>289.4386291503906</v>
       </c>
       <c r="CO3" t="n">
-        <v>363.4236755371094</v>
+        <v>290.0491333007812</v>
       </c>
       <c r="CP3" t="n">
-        <v>361.6569519042969</v>
+        <v>291.2561645507812</v>
       </c>
       <c r="CQ3" t="n">
-        <v>361.1697082519531</v>
+        <v>292.1715393066406</v>
       </c>
       <c r="CR3" t="n">
-        <v>360.1656494140625</v>
+        <v>293.0104370117188</v>
       </c>
       <c r="CS3" t="n">
-        <v>359.7450866699219</v>
+        <v>293.8113403320312</v>
       </c>
       <c r="CT3" t="n">
-        <v>359.3330078125</v>
+        <v>293.7869567871094</v>
       </c>
       <c r="CU3" t="n">
-        <v>358.8190002441406</v>
+        <v>293.5212097167969</v>
       </c>
       <c r="CV3" t="n">
-        <v>358.3907165527344</v>
+        <v>293.1984252929688</v>
       </c>
       <c r="CW3" t="n">
-        <v>358.0309143066406</v>
+        <v>292.8925476074219</v>
       </c>
       <c r="CX3" t="n">
-        <v>357.6930541992188</v>
+        <v>292.6244812011719</v>
       </c>
       <c r="CY3" t="n">
-        <v>357.3272094726562</v>
+        <v>292.5100708007812</v>
       </c>
       <c r="CZ3" t="n">
-        <v>356.92626953125</v>
+        <v>292.7454528808594</v>
       </c>
       <c r="DA3" t="n">
-        <v>356.6183166503906</v>
+        <v>293.6272277832031</v>
       </c>
       <c r="DB3" t="n">
-        <v>356.3099365234375</v>
+        <v>294.3388977050781</v>
       </c>
       <c r="DC3" t="n">
-        <v>356.4219055175781</v>
+        <v>294.8997497558594</v>
       </c>
       <c r="DD3" t="n">
-        <v>356.3711547851562</v>
+        <v>295.2404479980469</v>
       </c>
       <c r="DE3" t="n">
-        <v>356.3414001464844</v>
+        <v>295.2840270996094</v>
       </c>
       <c r="DF3" t="n">
-        <v>356.2965393066406</v>
+        <v>295.2679748535156</v>
       </c>
       <c r="DG3" t="n">
-        <v>356.140380859375</v>
+        <v>295.2474365234375</v>
       </c>
       <c r="DH3" t="n">
-        <v>356.3668823242188</v>
+        <v>295.0650939941406</v>
       </c>
       <c r="DI3" t="n">
-        <v>357.0707397460938</v>
+        <v>295.0537719726562</v>
       </c>
       <c r="DJ3" t="n">
-        <v>358.0370178222656</v>
+        <v>295.063232421875</v>
       </c>
       <c r="DK3" t="n">
-        <v>359.9617614746094</v>
+        <v>295.0682983398438</v>
       </c>
       <c r="DL3" t="n">
-        <v>361.8269958496094</v>
+        <v>295.0525207519531</v>
       </c>
       <c r="DM3" t="n">
-        <v>363.1078491210938</v>
+        <v>295.0038452148438</v>
       </c>
       <c r="DN3" t="n">
-        <v>363.8223571777344</v>
+        <v>294.9384765625</v>
       </c>
       <c r="DO3" t="n">
-        <v>361.5247802734375</v>
+        <v>294.828857421875</v>
       </c>
       <c r="DP3" t="n">
-        <v>358.4949035644531</v>
+        <v>294.8171081542969</v>
       </c>
       <c r="DQ3" t="n">
-        <v>346.6915283203125</v>
+        <v>294.854248046875</v>
       </c>
       <c r="DR3" t="n">
-        <v>339.7922973632812</v>
+        <v>294.8779296875</v>
       </c>
       <c r="DS3" t="n">
-        <v>332.7348327636719</v>
+        <v>294.8824462890625</v>
       </c>
       <c r="DT3" t="n">
-        <v>317.8526611328125</v>
+        <v>294.8790283203125</v>
       </c>
       <c r="DU3" t="n">
-        <v>309.9231262207031</v>
+        <v>294.8849487304688</v>
       </c>
       <c r="DV3" t="n">
-        <v>302.3597412109375</v>
+        <v>294.8816833496094</v>
       </c>
       <c r="DW3" t="n">
-        <v>287.4777221679688</v>
+        <v>294.8683471679688</v>
       </c>
       <c r="DX3" t="n">
-        <v>280.9823913574219</v>
+        <v>294.8649291992188</v>
       </c>
       <c r="DY3" t="n">
-        <v>272.0129699707031</v>
+        <v>294.8629760742188</v>
       </c>
       <c r="DZ3" t="n">
-        <v>270.5511474609375</v>
+        <v>294.8612670898438</v>
       </c>
       <c r="EA3" t="n">
-        <v>272.5982666015625</v>
+        <v>294.8507080078125</v>
       </c>
       <c r="EB3" t="n">
-        <v>282.9804382324219</v>
+        <v>294.83154296875</v>
       </c>
       <c r="EC3" t="n">
-        <v>289.9443969726562</v>
+        <v>294.8858337402344</v>
       </c>
       <c r="ED3" t="n">
-        <v>311.0484924316406</v>
+        <v>295.0191345214844</v>
       </c>
       <c r="EE3" t="n">
-        <v>332.1375732421875</v>
+        <v>295.5589294433594</v>
       </c>
       <c r="EF3" t="n">
-        <v>339.1901550292969</v>
+        <v>295.8712158203125</v>
       </c>
       <c r="EG3" t="n">
-        <v>357.7672119140625</v>
+        <v>296.029052734375</v>
       </c>
       <c r="EH3" t="n">
-        <v>368.0614318847656</v>
+        <v>296.0607604980469</v>
       </c>
       <c r="EI3" t="n">
-        <v>370.2837829589844</v>
+        <v>296.1734619140625</v>
       </c>
       <c r="EJ3" t="n">
-        <v>371.4811706542969</v>
+        <v>296.2264404296875</v>
       </c>
       <c r="EK3" t="n">
-        <v>378.0457458496094</v>
+        <v>296.3027648925781</v>
       </c>
       <c r="EL3" t="n">
-        <v>380.3428649902344</v>
+        <v>296.3209838867188</v>
       </c>
       <c r="EM3" t="n">
-        <v>379.7778015136719</v>
+        <v>296.3391418457031</v>
       </c>
       <c r="EN3" t="n">
-        <v>378.8815612792969</v>
+        <v>296.2389526367188</v>
       </c>
       <c r="EO3" t="n">
-        <v>378.1202697753906</v>
+        <v>296.1420288085938</v>
       </c>
       <c r="EP3" t="n">
-        <v>378.2329711914062</v>
+        <v>295.8775939941406</v>
       </c>
       <c r="EQ3" t="n">
-        <v>378.0667419433594</v>
+        <v>295.7831726074219</v>
       </c>
       <c r="ER3" t="n">
-        <v>377.6647644042969</v>
+        <v>295.4806518554688</v>
       </c>
       <c r="ES3" t="n">
-        <v>377.770751953125</v>
+        <v>295.3161315917969</v>
       </c>
       <c r="ET3" t="n">
-        <v>381.0220031738281</v>
+        <v>294.8973083496094</v>
       </c>
       <c r="EU3" t="n">
-        <v>388.4432983398438</v>
+        <v>294.7539978027344</v>
       </c>
       <c r="EV3" t="n">
-        <v>392.1598205566406</v>
+        <v>294.6209716796875</v>
       </c>
       <c r="EW3" t="n">
-        <v>396.9145812988281</v>
+        <v>294.3827209472656</v>
       </c>
       <c r="EX3" t="n">
-        <v>400.5287780761719</v>
+        <v>294.2361145019531</v>
       </c>
       <c r="EY3" t="n">
-        <v>403.5045471191406</v>
+        <v>294.1299438476562</v>
       </c>
       <c r="EZ3" t="n">
-        <v>406.7057495117188</v>
+        <v>294.0599365234375</v>
       </c>
       <c r="FA3" t="n">
-        <v>407.9666442871094</v>
+        <v>294.017333984375</v>
       </c>
       <c r="FB3" t="n">
-        <v>408.7309265136719</v>
+        <v>294.0057373046875</v>
       </c>
       <c r="FC3" t="n">
-        <v>404.8424682617188</v>
+        <v>293.9940795898438</v>
       </c>
       <c r="FD3" t="n">
-        <v>401.4459228515625</v>
+        <v>293.9673461914062</v>
       </c>
       <c r="FE3" t="n">
-        <v>396.1632385253906</v>
+        <v>293.89892578125</v>
       </c>
       <c r="FF3" t="n">
-        <v>395.0494079589844</v>
+        <v>293.86962890625</v>
       </c>
       <c r="FG3" t="n">
-        <v>395.5666198730469</v>
+        <v>293.8519287109375</v>
       </c>
       <c r="FH3" t="n">
-        <v>397.6786804199219</v>
+        <v>293.7903137207031</v>
       </c>
       <c r="FI3" t="n">
-        <v>397.5414428710938</v>
+        <v>293.7514343261719</v>
       </c>
       <c r="FJ3" t="n">
-        <v>394.26318359375</v>
+        <v>293.7112731933594</v>
       </c>
       <c r="FK3" t="n">
-        <v>389.7271423339844</v>
+        <v>293.6997375488281</v>
       </c>
       <c r="FL3" t="n">
-        <v>388.6783447265625</v>
+        <v>293.7055053710938</v>
       </c>
       <c r="FM3" t="n">
-        <v>387.8315734863281</v>
+        <v>293.71142578125</v>
       </c>
       <c r="FN3" t="n">
-        <v>388.3674621582031</v>
+        <v>293.7279357910156</v>
       </c>
       <c r="FO3" t="n">
-        <v>388.9786987304688</v>
+        <v>293.7519226074219</v>
       </c>
       <c r="FP3" t="n">
-        <v>389.7545776367188</v>
+        <v>293.7956237792969</v>
       </c>
       <c r="FQ3" t="n">
-        <v>390.9172058105469</v>
+        <v>293.8358764648438</v>
       </c>
       <c r="FR3" t="n">
-        <v>392.0007934570312</v>
+        <v>293.8655395507812</v>
       </c>
       <c r="FS3" t="n">
-        <v>391.3936462402344</v>
+        <v>294.1047058105469</v>
       </c>
       <c r="FT3" t="n">
-        <v>390.646240234375</v>
+        <v>294.3779296875</v>
       </c>
       <c r="FU3" t="n">
-        <v>387.3878479003906</v>
+        <v>294.8841857910156</v>
       </c>
       <c r="FV3" t="n">
-        <v>386.3004760742188</v>
+        <v>295.0032348632812</v>
       </c>
       <c r="FW3" t="n">
-        <v>391.4395751953125</v>
+        <v>295.0785827636719</v>
       </c>
       <c r="FX3" t="n">
-        <v>392.3490295410156</v>
+        <v>295.0057373046875</v>
       </c>
       <c r="FY3" t="n">
-        <v>397.4118347167969</v>
+        <v>295.0055236816406</v>
       </c>
       <c r="FZ3" t="n">
-        <v>402.9202880859375</v>
+        <v>295.0401611328125</v>
       </c>
       <c r="GA3" t="n">
-        <v>409.4322204589844</v>
+        <v>295.0902709960938</v>
       </c>
       <c r="GB3" t="n">
-        <v>408.7236328125</v>
+        <v>295.1027526855469</v>
       </c>
       <c r="GC3" t="n">
-        <v>409.2823791503906</v>
+        <v>295.0992126464844</v>
       </c>
       <c r="GD3" t="n">
-        <v>409.5947265625</v>
+        <v>295.0408325195312</v>
       </c>
       <c r="GE3" t="n">
-        <v>409.2969665527344</v>
+        <v>295.0020141601562</v>
       </c>
       <c r="GF3" t="n">
-        <v>408.6573791503906</v>
+        <v>294.9462890625</v>
       </c>
       <c r="GG3" t="n">
-        <v>407.7344665527344</v>
+        <v>294.9324035644531</v>
       </c>
       <c r="GH3" t="n">
-        <v>410.0953674316406</v>
+        <v>294.9670715332031</v>
       </c>
       <c r="GI3" t="n">
-        <v>411.4476318359375</v>
+        <v>295.0769958496094</v>
       </c>
       <c r="GJ3" t="n">
-        <v>411.9700012207031</v>
+        <v>295.12255859375</v>
       </c>
       <c r="GK3" t="n">
-        <v>411.5512390136719</v>
+        <v>295.1908264160156</v>
       </c>
       <c r="GL3" t="n">
-        <v>410.1404113769531</v>
+        <v>295.2518920898438</v>
       </c>
       <c r="GM3" t="n">
-        <v>409.6639709472656</v>
+        <v>295.290771484375</v>
       </c>
       <c r="GN3" t="n">
-        <v>411.6286010742188</v>
+        <v>295.2894897460938</v>
       </c>
       <c r="GO3" t="n">
-        <v>411.5364379882812</v>
+        <v>295.2714538574219</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>295.1872863769531</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>295.04833984375</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>294.8993835449219</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>294.8268127441406</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>294.7406311035156</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>294.7101440429688</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>294.6286010742188</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>294.513427734375</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>294.58447265625</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>294.9725036621094</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>295.3919372558594</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>295.5263366699219</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>295.8564147949219</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>295.2908935546875</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>295.1392211914062</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>295.217529296875</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>295.4612731933594</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>296.3873596191406</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>296.4863891601562</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>293.0303344726562</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>291.020263671875</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>288.8825988769531</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>288.4057312011719</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>287.8501892089844</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>287.6965637207031</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>285.7388305664062</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>283.9486694335938</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>284.2880249023438</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>285.4931335449219</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>286.5574340820312</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>287.0057678222656</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>287.1430969238281</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>287.1644897460938</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>283.2987060546875</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>279.0003356933594</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>278.7835693359375</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>279.5583190917969</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>279.6315612792969</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>273.9600830078125</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>272.3717956542969</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>270.2124328613281</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>268.8665161132812</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>268.4166564941406</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>269.2441711425781</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>270.8783874511719</v>
+      </c>
+      <c r="II3" t="n">
+        <v>272.8656311035156</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>274.2235717773438</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>275.4940185546875</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>292.8096008300781</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>320.4620361328125</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>408.1488342285156</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>457.6961059570312</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>479.7981262207031</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>471.0936279296875</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>453.12939453125</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>430.1204833984375</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>399.4942016601562</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>369.2744750976562</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>344.3868408203125</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>318.6694946289062</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>306.2279357910156</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>324.1525573730469</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>355.3673095703125</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>386.9683227539062</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>424.4481811523438</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>427.1576843261719</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>418.9958801269531</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>408.6746520996094</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>401.6398010253906</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>397.9246520996094</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>398.7430419921875</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>400.6095581054688</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>409.9531555175781</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>418.0383605957031</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>419.1813659667969</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>424.019775390625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>906.4866333007812</v>
       </c>
       <c r="B4" t="n">
-        <v>1056.779296875</v>
+        <v>906.5546875</v>
       </c>
       <c r="C4" t="n">
-        <v>1069.204223632812</v>
+        <v>906.5819091796875</v>
       </c>
       <c r="D4" t="n">
-        <v>1076.158935546875</v>
+        <v>906.5957641601562</v>
       </c>
       <c r="E4" t="n">
-        <v>1079.001342773438</v>
+        <v>906.6068115234375</v>
       </c>
       <c r="F4" t="n">
-        <v>1079.741943359375</v>
+        <v>906.6149291992188</v>
       </c>
       <c r="G4" t="n">
-        <v>1078.524291992188</v>
+        <v>906.6199340820312</v>
       </c>
       <c r="H4" t="n">
-        <v>1077.520263671875</v>
+        <v>906.6212158203125</v>
       </c>
       <c r="I4" t="n">
-        <v>1076.812866210938</v>
+        <v>906.6199951171875</v>
       </c>
       <c r="J4" t="n">
-        <v>1076.362548828125</v>
+        <v>906.6173095703125</v>
       </c>
       <c r="K4" t="n">
-        <v>1075.958984375</v>
+        <v>906.613525390625</v>
       </c>
       <c r="L4" t="n">
-        <v>1075.591674804688</v>
+        <v>906.0789184570312</v>
       </c>
       <c r="M4" t="n">
-        <v>1075.253540039062</v>
+        <v>905.487548828125</v>
       </c>
       <c r="N4" t="n">
-        <v>1074.923828125</v>
+        <v>904.9338989257812</v>
       </c>
       <c r="O4" t="n">
-        <v>1074.62255859375</v>
+        <v>904.4031982421875</v>
       </c>
       <c r="P4" t="n">
-        <v>1074.323364257812</v>
+        <v>903.7828369140625</v>
       </c>
       <c r="Q4" t="n">
-        <v>1074.036376953125</v>
+        <v>903.045654296875</v>
       </c>
       <c r="R4" t="n">
-        <v>1073.762573242188</v>
+        <v>902.258056640625</v>
       </c>
       <c r="S4" t="n">
-        <v>1073.4912109375</v>
+        <v>901.4660034179688</v>
       </c>
       <c r="T4" t="n">
-        <v>1073.2197265625</v>
+        <v>900.1458740234375</v>
       </c>
       <c r="U4" t="n">
-        <v>1072.974609375</v>
+        <v>898.1806640625</v>
       </c>
       <c r="V4" t="n">
-        <v>1072.859741210938</v>
+        <v>893.8870849609375</v>
       </c>
       <c r="W4" t="n">
-        <v>1072.84423828125</v>
+        <v>888.7625122070312</v>
       </c>
       <c r="X4" t="n">
-        <v>1072.82861328125</v>
+        <v>883.343505859375</v>
       </c>
       <c r="Y4" t="n">
-        <v>1072.839233398438</v>
+        <v>881.2933349609375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1072.8662109375</v>
+        <v>880.1050415039062</v>
       </c>
       <c r="AA4" t="n">
-        <v>1073.194946289062</v>
+        <v>878.4888916015625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1073.466186523438</v>
+        <v>878.36962890625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1073.706298828125</v>
+        <v>882.1019897460938</v>
       </c>
       <c r="AD4" t="n">
-        <v>1073.910400390625</v>
+        <v>889.5396118164062</v>
       </c>
       <c r="AE4" t="n">
-        <v>1074.051025390625</v>
+        <v>897.9828491210938</v>
       </c>
       <c r="AF4" t="n">
-        <v>1074.164916992188</v>
+        <v>904.2908325195312</v>
       </c>
       <c r="AG4" t="n">
-        <v>1074.263549804688</v>
+        <v>909.3128051757812</v>
       </c>
       <c r="AH4" t="n">
-        <v>1074.346069335938</v>
+        <v>914.7642211914062</v>
       </c>
       <c r="AI4" t="n">
-        <v>1074.414794921875</v>
+        <v>922.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1074.4736328125</v>
+        <v>928.3290405273438</v>
       </c>
       <c r="AK4" t="n">
-        <v>1074.506958007812</v>
+        <v>933.3134155273438</v>
       </c>
       <c r="AL4" t="n">
-        <v>1074.551147460938</v>
+        <v>940.2150268554688</v>
       </c>
       <c r="AM4" t="n">
-        <v>1074.57763671875</v>
+        <v>947.2452392578125</v>
       </c>
       <c r="AN4" t="n">
-        <v>1074.582885742188</v>
+        <v>954.2432861328125</v>
       </c>
       <c r="AO4" t="n">
-        <v>1074.584106445312</v>
+        <v>959.75244140625</v>
       </c>
       <c r="AP4" t="n">
-        <v>1074.560913085938</v>
+        <v>968.7615356445312</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1077.327392578125</v>
+        <v>985.5608520507812</v>
       </c>
       <c r="AR4" t="n">
-        <v>1084.972534179688</v>
+        <v>1011.245971679688</v>
       </c>
       <c r="AS4" t="n">
-        <v>1090.718017578125</v>
+        <v>1042.920288085938</v>
       </c>
       <c r="AT4" t="n">
-        <v>1102.560180664062</v>
+        <v>1072.703735351562</v>
       </c>
       <c r="AU4" t="n">
-        <v>1108.174682617188</v>
+        <v>1099.22412109375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1113.891967773438</v>
+        <v>1127.608520507812</v>
       </c>
       <c r="AW4" t="n">
-        <v>1119.897094726562</v>
+        <v>1158.076171875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1123.744506835938</v>
+        <v>1189.974609375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1128.181762695312</v>
+        <v>1222.382446289062</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1135.016357421875</v>
+        <v>1253.720825195312</v>
       </c>
       <c r="BA4" t="n">
-        <v>1141.027465820312</v>
+        <v>1281.008911132812</v>
       </c>
       <c r="BB4" t="n">
-        <v>1144.719970703125</v>
+        <v>1304.193725585938</v>
       </c>
       <c r="BC4" t="n">
-        <v>1147.667236328125</v>
+        <v>1324.742065429688</v>
       </c>
       <c r="BD4" t="n">
-        <v>1151.363037109375</v>
+        <v>1347.80078125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1155.058959960938</v>
+        <v>1370.743896484375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1157.427856445312</v>
+        <v>1391.090698242188</v>
       </c>
       <c r="BG4" t="n">
-        <v>1158.6611328125</v>
+        <v>1409.868896484375</v>
       </c>
       <c r="BH4" t="n">
-        <v>1163.561157226562</v>
+        <v>1424.990600585938</v>
       </c>
       <c r="BI4" t="n">
-        <v>1166.932006835938</v>
+        <v>1458.25048828125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1171.444580078125</v>
+        <v>1478.734252929688</v>
       </c>
       <c r="BK4" t="n">
-        <v>1172.9912109375</v>
+        <v>1498.723266601562</v>
       </c>
       <c r="BL4" t="n">
-        <v>1173.709350585938</v>
+        <v>1516.847412109375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1173.889526367188</v>
+        <v>1533.124633789062</v>
       </c>
       <c r="BN4" t="n">
-        <v>1173.067504882812</v>
+        <v>1549.411376953125</v>
       </c>
       <c r="BO4" t="n">
-        <v>1172.048828125</v>
+        <v>1567.816040039062</v>
       </c>
       <c r="BP4" t="n">
-        <v>1170.7734375</v>
+        <v>1585.826171875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1169.321166992188</v>
+        <v>1602.98193359375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1165.631713867188</v>
+        <v>1621.52685546875</v>
       </c>
       <c r="BS4" t="n">
-        <v>1158.887573242188</v>
+        <v>1643.357788085938</v>
       </c>
       <c r="BT4" t="n">
-        <v>1154.924438476562</v>
+        <v>1662.825805664062</v>
       </c>
       <c r="BU4" t="n">
-        <v>1152.978149414062</v>
+        <v>1676.962036132812</v>
       </c>
       <c r="BV4" t="n">
-        <v>1152.191162109375</v>
+        <v>1701.187866210938</v>
       </c>
       <c r="BW4" t="n">
-        <v>1151.889526367188</v>
+        <v>1727.013549804688</v>
       </c>
       <c r="BX4" t="n">
-        <v>1152.064697265625</v>
+        <v>1753.04248046875</v>
       </c>
       <c r="BY4" t="n">
-        <v>1152.479614257812</v>
+        <v>1772.061279296875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1153.814453125</v>
+        <v>1794.067504882812</v>
       </c>
       <c r="CA4" t="n">
-        <v>1155.19482421875</v>
+        <v>1818.936401367188</v>
       </c>
       <c r="CB4" t="n">
-        <v>1156.44140625</v>
+        <v>1838.847534179688</v>
       </c>
       <c r="CC4" t="n">
-        <v>1157.603881835938</v>
+        <v>1859.684814453125</v>
       </c>
       <c r="CD4" t="n">
-        <v>1158.277587890625</v>
+        <v>1876.935424804688</v>
       </c>
       <c r="CE4" t="n">
-        <v>1158.97119140625</v>
+        <v>1891.551635742188</v>
       </c>
       <c r="CF4" t="n">
-        <v>1159.7802734375</v>
+        <v>1909.880737304688</v>
       </c>
       <c r="CG4" t="n">
-        <v>1161.084838867188</v>
+        <v>1928.719848632812</v>
       </c>
       <c r="CH4" t="n">
-        <v>1162.637817382812</v>
+        <v>1941.899047851562</v>
       </c>
       <c r="CI4" t="n">
-        <v>1165.330932617188</v>
+        <v>1948.894897460938</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1167.937866210938</v>
+        <v>1955.38330078125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1176.543579101562</v>
+        <v>1962.906616210938</v>
       </c>
       <c r="CL4" t="n">
-        <v>1182.40673828125</v>
+        <v>1972.822387695312</v>
       </c>
       <c r="CM4" t="n">
-        <v>1187.323364257812</v>
+        <v>1984.671142578125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1193.299194335938</v>
+        <v>1994.413330078125</v>
       </c>
       <c r="CO4" t="n">
-        <v>1198.578979492188</v>
+        <v>2003.800170898438</v>
       </c>
       <c r="CP4" t="n">
-        <v>1200.60693359375</v>
+        <v>2010.998657226562</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1201.701782226562</v>
+        <v>2015.640380859375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1202.226318359375</v>
+        <v>2018.642456054688</v>
       </c>
       <c r="CS4" t="n">
-        <v>1202.187133789062</v>
+        <v>2022.4072265625</v>
       </c>
       <c r="CT4" t="n">
-        <v>1202.138305664062</v>
+        <v>2030.1669921875</v>
       </c>
       <c r="CU4" t="n">
-        <v>1201.949829101562</v>
+        <v>2042.712280273438</v>
       </c>
       <c r="CV4" t="n">
-        <v>1201.597900390625</v>
+        <v>2059.052734375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1201.198974609375</v>
+        <v>2072.119384765625</v>
       </c>
       <c r="CX4" t="n">
-        <v>1200.919067382812</v>
+        <v>2081.8642578125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1200.745483398438</v>
+        <v>2093.90966796875</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1200.678833007812</v>
+        <v>2100.119873046875</v>
       </c>
       <c r="DA4" t="n">
-        <v>1200.751953125</v>
+        <v>2110.94140625</v>
       </c>
       <c r="DB4" t="n">
-        <v>1200.776611328125</v>
+        <v>2116.56396484375</v>
       </c>
       <c r="DC4" t="n">
-        <v>1200.815307617188</v>
+        <v>2119.793701171875</v>
       </c>
       <c r="DD4" t="n">
-        <v>1200.61767578125</v>
+        <v>2123.05712890625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1200.305297851562</v>
+        <v>2123.36669921875</v>
       </c>
       <c r="DF4" t="n">
-        <v>1199.876831054688</v>
+        <v>2123.30029296875</v>
       </c>
       <c r="DG4" t="n">
-        <v>1199.35400390625</v>
+        <v>2123.57666015625</v>
       </c>
       <c r="DH4" t="n">
-        <v>1191.14794921875</v>
+        <v>2124.23095703125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1182.6298828125</v>
+        <v>2124.400146484375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1172.451171875</v>
+        <v>2124.848876953125</v>
       </c>
       <c r="DK4" t="n">
-        <v>1165.158203125</v>
+        <v>2128.001708984375</v>
       </c>
       <c r="DL4" t="n">
-        <v>1156.93701171875</v>
+        <v>2133.53271484375</v>
       </c>
       <c r="DM4" t="n">
-        <v>1149.74169921875</v>
+        <v>2136.990234375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1142.879638671875</v>
+        <v>2138.357177734375</v>
       </c>
       <c r="DO4" t="n">
-        <v>1125.764038085938</v>
+        <v>2139.097900390625</v>
       </c>
       <c r="DP4" t="n">
-        <v>1118.444091796875</v>
+        <v>2139.191162109375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1111.349975585938</v>
+        <v>2139.26513671875</v>
       </c>
       <c r="DR4" t="n">
-        <v>1110.020629882812</v>
+        <v>2139.29931640625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1109.409057617188</v>
+        <v>2139.345703125</v>
       </c>
       <c r="DT4" t="n">
-        <v>1118.76220703125</v>
+        <v>2139.448486328125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1128.076049804688</v>
+        <v>2139.443359375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1138.109497070312</v>
+        <v>2139.44580078125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1154.580444335938</v>
+        <v>2139.440673828125</v>
       </c>
       <c r="DX4" t="n">
-        <v>1159.376953125</v>
+        <v>2139.3994140625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1161.633422851562</v>
+        <v>2139.303466796875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1161.58837890625</v>
+        <v>2135.866455078125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1161.676513671875</v>
+        <v>2133.427001953125</v>
       </c>
       <c r="EB4" t="n">
-        <v>1159.58984375</v>
+        <v>2129.59765625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1160.9482421875</v>
+        <v>2119.534912109375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1170.896362304688</v>
+        <v>2115.35107421875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1189.966064453125</v>
+        <v>2108.422607421875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1199.041625976562</v>
+        <v>2105.771728515625</v>
       </c>
       <c r="EG4" t="n">
-        <v>1225.799194335938</v>
+        <v>2105.51123046875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1252.551025390625</v>
+        <v>2105.627685546875</v>
       </c>
       <c r="EI4" t="n">
-        <v>1266.349487304688</v>
+        <v>2105.771728515625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1282.24609375</v>
+        <v>2105.73876953125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1313.127807617188</v>
+        <v>2106.2626953125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1325.203369140625</v>
+        <v>2106.79931640625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1347.139892578125</v>
+        <v>2107.263671875</v>
       </c>
       <c r="EN4" t="n">
-        <v>1354.13623046875</v>
+        <v>2107.40576171875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1360.764404296875</v>
+        <v>2107.50927734375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1361.767456054688</v>
+        <v>2107.466064453125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1362.121948242188</v>
+        <v>2106.344482421875</v>
       </c>
       <c r="ER4" t="n">
-        <v>1361.813354492188</v>
+        <v>2104.22509765625</v>
       </c>
       <c r="ES4" t="n">
-        <v>1360.354248046875</v>
+        <v>2104.073486328125</v>
       </c>
       <c r="ET4" t="n">
-        <v>1349.36669921875</v>
+        <v>2103.791748046875</v>
       </c>
       <c r="EU4" t="n">
-        <v>1327.600463867188</v>
+        <v>2103.66357421875</v>
       </c>
       <c r="EV4" t="n">
-        <v>1317.912475585938</v>
+        <v>2103.571044921875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1296.3271484375</v>
+        <v>2103.357421875</v>
       </c>
       <c r="EX4" t="n">
-        <v>1280.420532226562</v>
+        <v>2103.0224609375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1266.487548828125</v>
+        <v>2102.496337890625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1247.523193359375</v>
+        <v>2101.66796875</v>
       </c>
       <c r="FA4" t="n">
-        <v>1243.568603515625</v>
+        <v>2100.2236328125</v>
       </c>
       <c r="FB4" t="n">
-        <v>1243.541748046875</v>
+        <v>2099.9111328125</v>
       </c>
       <c r="FC4" t="n">
-        <v>1244.949462890625</v>
+        <v>2099.787109375</v>
       </c>
       <c r="FD4" t="n">
-        <v>1240.27392578125</v>
+        <v>2099.63818359375</v>
       </c>
       <c r="FE4" t="n">
-        <v>1218.779663085938</v>
+        <v>2099.611572265625</v>
       </c>
       <c r="FF4" t="n">
-        <v>1205.423095703125</v>
+        <v>2099.9521484375</v>
       </c>
       <c r="FG4" t="n">
-        <v>1174.503173828125</v>
+        <v>2100.124267578125</v>
       </c>
       <c r="FH4" t="n">
-        <v>1143.949829101562</v>
+        <v>2100.350341796875</v>
       </c>
       <c r="FI4" t="n">
-        <v>1132.239501953125</v>
+        <v>2100.491943359375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1121.366455078125</v>
+        <v>2100.743896484375</v>
       </c>
       <c r="FK4" t="n">
-        <v>1102.05810546875</v>
+        <v>2100.87548828125</v>
       </c>
       <c r="FL4" t="n">
-        <v>1092.57080078125</v>
+        <v>2100.81884765625</v>
       </c>
       <c r="FM4" t="n">
-        <v>1071.295654296875</v>
+        <v>2100.672607421875</v>
       </c>
       <c r="FN4" t="n">
-        <v>1049.374389648438</v>
+        <v>2100.611572265625</v>
       </c>
       <c r="FO4" t="n">
-        <v>1037.923461914062</v>
+        <v>2100.5322265625</v>
       </c>
       <c r="FP4" t="n">
-        <v>1026.720581054688</v>
+        <v>2100.379638671875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1006.815734863281</v>
+        <v>2100.249267578125</v>
       </c>
       <c r="FR4" t="n">
-        <v>994.7523193359375</v>
+        <v>2100.173828125</v>
       </c>
       <c r="FS4" t="n">
-        <v>972.3702392578125</v>
+        <v>2099.275390625</v>
       </c>
       <c r="FT4" t="n">
-        <v>952.9732666015625</v>
+        <v>2098.475341796875</v>
       </c>
       <c r="FU4" t="n">
-        <v>939.5687866210938</v>
+        <v>2096.146240234375</v>
       </c>
       <c r="FV4" t="n">
-        <v>930.52685546875</v>
+        <v>2094.734130859375</v>
       </c>
       <c r="FW4" t="n">
-        <v>898.0106201171875</v>
+        <v>2091.605712890625</v>
       </c>
       <c r="FX4" t="n">
-        <v>887.09423828125</v>
+        <v>2091.243896484375</v>
       </c>
       <c r="FY4" t="n">
-        <v>856.3784790039062</v>
+        <v>2091.33056640625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>832.3477783203125</v>
+        <v>2091.393798828125</v>
       </c>
       <c r="GA4" t="n">
-        <v>787.87451171875</v>
+        <v>2091.496826171875</v>
       </c>
       <c r="GB4" t="n">
-        <v>777.5647583007812</v>
+        <v>2091.604736328125</v>
       </c>
       <c r="GC4" t="n">
-        <v>776.0143432617188</v>
+        <v>2092.584716796875</v>
       </c>
       <c r="GD4" t="n">
-        <v>776.0794067382812</v>
+        <v>2093.580322265625</v>
       </c>
       <c r="GE4" t="n">
-        <v>775.3087158203125</v>
+        <v>2094.121337890625</v>
       </c>
       <c r="GF4" t="n">
-        <v>775.06201171875</v>
+        <v>2094.63916015625</v>
       </c>
       <c r="GG4" t="n">
-        <v>772.9959106445312</v>
+        <v>2092.04443359375</v>
       </c>
       <c r="GH4" t="n">
-        <v>756.1771240234375</v>
+        <v>2083.84814453125</v>
       </c>
       <c r="GI4" t="n">
-        <v>748.0349731445312</v>
+        <v>2080.073486328125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>741.9247436523438</v>
+        <v>2078.57177734375</v>
       </c>
       <c r="GK4" t="n">
-        <v>729.2178344726562</v>
+        <v>2076.3037109375</v>
       </c>
       <c r="GL4" t="n">
-        <v>723.783447265625</v>
+        <v>2074.60205078125</v>
       </c>
       <c r="GM4" t="n">
-        <v>702.89306640625</v>
+        <v>2074.094482421875</v>
       </c>
       <c r="GN4" t="n">
-        <v>674.9837646484375</v>
+        <v>2074.220947265625</v>
       </c>
       <c r="GO4" t="n">
-        <v>665.5669555664062</v>
+        <v>2074.309814453125</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>2074.67041015625</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>2075.1552734375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2076.057373046875</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2076.496337890625</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2077.65966796875</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2078.2509765625</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2084.571533203125</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2093.950439453125</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2096.350830078125</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2096.07275390625</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2082.931640625</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2073.369384765625</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2049.215576171875</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2031.820556640625</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2021.705932617188</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1968.877685546875</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1955.2939453125</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1907.321411132812</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1853.04541015625</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1811.862670898438</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1791.69970703125</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1745.34228515625</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1695.866943359375</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1663.693481445312</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1649.323120117188</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1628.707397460938</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1601.579223632812</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1570.899780273438</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1538.16357421875</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1496.632080078125</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1457.036743164062</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1416.5146484375</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1393.336547851562</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1353.399047851562</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1317.732421875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1276.729370117188</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1244.148559570312</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1217.551879882812</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1170.37451171875</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1149.687255859375</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1109.476928710938</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1071.427368164062</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1022.282409667969</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>965.7560424804688</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>904.3955688476562</v>
+      </c>
+      <c r="II4" t="n">
+        <v>840.6484375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>785.2659912109375</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>724.7890625</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>661.3364868164062</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>601.7589721679688</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>548.393310546875</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>530.762939453125</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>521.6161499023438</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>521.5171508789062</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>528.0633544921875</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>554.2247314453125</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>595.062255859375</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>617.185302734375</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>644.360107421875</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>698.5447387695312</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>727.9893188476562</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>739.756103515625</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>742.7935180664062</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>745.2401733398438</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>773.8958129882812</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>825.0799560546875</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>857.8942260742188</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>886.6216430664062</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>916.055419921875</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>928.95751953125</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>934.9957275390625</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>939.2320556640625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>908.909912109375</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>882.1680908203125</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>875.7979125976562</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>850.025634765625</v>
       </c>
     </row>
   </sheetData>

--- a/torso_Data.xlsx
+++ b/torso_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>226.0696411132812</v>
+        <v>411.4286804199219</v>
       </c>
       <c r="B2" t="n">
-        <v>226.3409271240234</v>
+        <v>413.5271911621094</v>
       </c>
       <c r="C2" t="n">
-        <v>226.3765258789062</v>
+        <v>414.5379638671875</v>
       </c>
       <c r="D2" t="n">
-        <v>226.3922119140625</v>
+        <v>415.9268493652344</v>
       </c>
       <c r="E2" t="n">
-        <v>226.4074554443359</v>
+        <v>417.0565185546875</v>
       </c>
       <c r="F2" t="n">
-        <v>226.4145812988281</v>
+        <v>418.0633544921875</v>
       </c>
       <c r="G2" t="n">
-        <v>226.4185485839844</v>
+        <v>418.9723205566406</v>
       </c>
       <c r="H2" t="n">
-        <v>226.421630859375</v>
+        <v>419.3475952148438</v>
       </c>
       <c r="I2" t="n">
-        <v>226.4253234863281</v>
+        <v>419.5324096679688</v>
       </c>
       <c r="J2" t="n">
-        <v>226.4283752441406</v>
+        <v>419.4699401855469</v>
       </c>
       <c r="K2" t="n">
-        <v>226.4309692382812</v>
+        <v>418.3387756347656</v>
       </c>
       <c r="L2" t="n">
-        <v>226.5024566650391</v>
+        <v>416.1448364257812</v>
       </c>
       <c r="M2" t="n">
-        <v>226.5869140625</v>
+        <v>411.6588745117188</v>
       </c>
       <c r="N2" t="n">
-        <v>226.6708068847656</v>
+        <v>403.1492919921875</v>
       </c>
       <c r="O2" t="n">
-        <v>226.7490844726562</v>
+        <v>395.1006469726562</v>
       </c>
       <c r="P2" t="n">
-        <v>226.73828125</v>
+        <v>390.3250122070312</v>
       </c>
       <c r="Q2" t="n">
-        <v>226.6763000488281</v>
+        <v>387.2872314453125</v>
       </c>
       <c r="R2" t="n">
-        <v>226.6000518798828</v>
+        <v>385.3207702636719</v>
       </c>
       <c r="S2" t="n">
-        <v>226.5193939208984</v>
+        <v>383.9442749023438</v>
       </c>
       <c r="T2" t="n">
-        <v>226.3749694824219</v>
+        <v>382.2852783203125</v>
       </c>
       <c r="U2" t="n">
-        <v>226.2025604248047</v>
+        <v>379.7799072265625</v>
       </c>
       <c r="V2" t="n">
-        <v>225.8458709716797</v>
+        <v>376.7705688476562</v>
       </c>
       <c r="W2" t="n">
-        <v>225.5831756591797</v>
+        <v>374.1936645507812</v>
       </c>
       <c r="X2" t="n">
-        <v>226.2161254882812</v>
+        <v>372.6240844726562</v>
       </c>
       <c r="Y2" t="n">
-        <v>229.1741638183594</v>
+        <v>371.1751098632812</v>
       </c>
       <c r="Z2" t="n">
-        <v>232.9852142333984</v>
+        <v>369.4324951171875</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.7140808105469</v>
+        <v>367.1852111816406</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.2587890625</v>
+        <v>364.7557067871094</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.9073944091797</v>
+        <v>363.3441772460938</v>
       </c>
       <c r="AD2" t="n">
-        <v>246.3114318847656</v>
+        <v>363.316650390625</v>
       </c>
       <c r="AE2" t="n">
-        <v>250.6542663574219</v>
+        <v>363.706787109375</v>
       </c>
       <c r="AF2" t="n">
-        <v>254.6620178222656</v>
+        <v>364.3378295898438</v>
       </c>
       <c r="AG2" t="n">
-        <v>258.5999450683594</v>
+        <v>365.0383911132812</v>
       </c>
       <c r="AH2" t="n">
-        <v>260.7586059570312</v>
+        <v>365.5791931152344</v>
       </c>
       <c r="AI2" t="n">
-        <v>262.59716796875</v>
+        <v>365.8717346191406</v>
       </c>
       <c r="AJ2" t="n">
-        <v>264.4385681152344</v>
+        <v>366.0417175292969</v>
       </c>
       <c r="AK2" t="n">
-        <v>265.4088134765625</v>
+        <v>366.1705932617188</v>
       </c>
       <c r="AL2" t="n">
-        <v>266.7024536132812</v>
+        <v>366.2760620117188</v>
       </c>
       <c r="AM2" t="n">
-        <v>267.8739624023438</v>
+        <v>366.4035034179688</v>
       </c>
       <c r="AN2" t="n">
-        <v>269.0653381347656</v>
+        <v>366.5526733398438</v>
       </c>
       <c r="AO2" t="n">
-        <v>269.9812927246094</v>
+        <v>366.594970703125</v>
       </c>
       <c r="AP2" t="n">
-        <v>271.9498291015625</v>
+        <v>366.601806640625</v>
       </c>
       <c r="AQ2" t="n">
-        <v>275.0252685546875</v>
+        <v>366.5969543457031</v>
       </c>
       <c r="AR2" t="n">
-        <v>279.3257751464844</v>
+        <v>366.4815063476562</v>
       </c>
       <c r="AS2" t="n">
-        <v>283.4960632324219</v>
+        <v>365.5863037109375</v>
       </c>
       <c r="AT2" t="n">
-        <v>286.0687561035156</v>
+        <v>363.4514770507812</v>
       </c>
       <c r="AU2" t="n">
-        <v>287.5835876464844</v>
+        <v>358.6721496582031</v>
       </c>
       <c r="AV2" t="n">
-        <v>288.5864868164062</v>
+        <v>351.9193115234375</v>
       </c>
       <c r="AW2" t="n">
-        <v>289.9468383789062</v>
+        <v>345.7822875976562</v>
       </c>
       <c r="AX2" t="n">
-        <v>292.2705383300781</v>
+        <v>339.9494018554688</v>
       </c>
       <c r="AY2" t="n">
-        <v>294.17822265625</v>
+        <v>334.1420288085938</v>
       </c>
       <c r="AZ2" t="n">
-        <v>295.8049621582031</v>
+        <v>326.736083984375</v>
       </c>
       <c r="BA2" t="n">
-        <v>297.3569946289062</v>
+        <v>319.2710571289062</v>
       </c>
       <c r="BB2" t="n">
-        <v>299.0675659179688</v>
+        <v>310.7449035644531</v>
       </c>
       <c r="BC2" t="n">
-        <v>301.4331970214844</v>
+        <v>302.068359375</v>
       </c>
       <c r="BD2" t="n">
-        <v>303.9122619628906</v>
+        <v>295.7873840332031</v>
       </c>
       <c r="BE2" t="n">
-        <v>306.0636596679688</v>
+        <v>288.8404846191406</v>
       </c>
       <c r="BF2" t="n">
-        <v>307.8601989746094</v>
+        <v>282.04443359375</v>
       </c>
       <c r="BG2" t="n">
-        <v>309.4806213378906</v>
+        <v>276.7003479003906</v>
       </c>
       <c r="BH2" t="n">
-        <v>311.5707702636719</v>
+        <v>272.2868041992188</v>
       </c>
       <c r="BI2" t="n">
-        <v>316.2247009277344</v>
+        <v>269.1164245605469</v>
       </c>
       <c r="BJ2" t="n">
-        <v>319.9778747558594</v>
+        <v>266.7059020996094</v>
       </c>
       <c r="BK2" t="n">
-        <v>323.1274719238281</v>
+        <v>264.8428344726562</v>
       </c>
       <c r="BL2" t="n">
-        <v>325.2505493164062</v>
+        <v>262.5160522460938</v>
       </c>
       <c r="BM2" t="n">
-        <v>326.832275390625</v>
+        <v>258.9140319824219</v>
       </c>
       <c r="BN2" t="n">
-        <v>328.1519165039062</v>
+        <v>254.20654296875</v>
       </c>
       <c r="BO2" t="n">
-        <v>330.2033081054688</v>
+        <v>250.1019134521484</v>
       </c>
       <c r="BP2" t="n">
-        <v>332.2413940429688</v>
+        <v>247.259765625</v>
       </c>
       <c r="BQ2" t="n">
-        <v>334.6780395507812</v>
+        <v>245.0839538574219</v>
       </c>
       <c r="BR2" t="n">
-        <v>337.5369873046875</v>
+        <v>242.8552551269531</v>
       </c>
       <c r="BS2" t="n">
-        <v>341.485107421875</v>
+        <v>241.0555877685547</v>
       </c>
       <c r="BT2" t="n">
-        <v>344.759033203125</v>
+        <v>239.3633880615234</v>
       </c>
       <c r="BU2" t="n">
-        <v>349.3025512695312</v>
+        <v>237.8983764648438</v>
       </c>
       <c r="BV2" t="n">
-        <v>352.8737182617188</v>
+        <v>237.0839538574219</v>
       </c>
       <c r="BW2" t="n">
-        <v>356.1705932617188</v>
+        <v>236.6146240234375</v>
       </c>
       <c r="BX2" t="n">
-        <v>357.7402038574219</v>
+        <v>236.2229156494141</v>
       </c>
       <c r="BY2" t="n">
-        <v>358.5923461914062</v>
+        <v>235.7219085693359</v>
       </c>
       <c r="BZ2" t="n">
-        <v>358.84912109375</v>
+        <v>235.4868774414062</v>
       </c>
       <c r="CA2" t="n">
-        <v>359.7272338867188</v>
+        <v>235.3841552734375</v>
       </c>
       <c r="CB2" t="n">
-        <v>360.5496826171875</v>
+        <v>235.3421325683594</v>
       </c>
       <c r="CC2" t="n">
-        <v>361.4466857910156</v>
+        <v>235.3268280029297</v>
       </c>
       <c r="CD2" t="n">
-        <v>362.6907958984375</v>
+        <v>235.3222961425781</v>
       </c>
       <c r="CE2" t="n">
-        <v>363.59326171875</v>
+        <v>235.3251495361328</v>
       </c>
       <c r="CF2" t="n">
-        <v>363.9328308105469</v>
+        <v>235.3928375244141</v>
       </c>
       <c r="CG2" t="n">
-        <v>363.9074096679688</v>
+        <v>236.458740234375</v>
       </c>
       <c r="CH2" t="n">
-        <v>363.8468017578125</v>
+        <v>238.5769348144531</v>
       </c>
       <c r="CI2" t="n">
-        <v>363.8480224609375</v>
+        <v>241.2483520507812</v>
       </c>
       <c r="CJ2" t="n">
-        <v>363.8044738769531</v>
+        <v>243.0322570800781</v>
       </c>
       <c r="CK2" t="n">
-        <v>363.6849670410156</v>
+        <v>244.1740417480469</v>
       </c>
       <c r="CL2" t="n">
-        <v>363.439697265625</v>
+        <v>244.8664245605469</v>
       </c>
       <c r="CM2" t="n">
-        <v>363.0420532226562</v>
+        <v>244.9255218505859</v>
       </c>
       <c r="CN2" t="n">
-        <v>362.426025390625</v>
+        <v>244.9580535888672</v>
       </c>
       <c r="CO2" t="n">
-        <v>361.5460510253906</v>
+        <v>244.9730529785156</v>
       </c>
       <c r="CP2" t="n">
-        <v>360.0963745117188</v>
+        <v>244.9842071533203</v>
       </c>
       <c r="CQ2" t="n">
-        <v>358.3626708984375</v>
+        <v>244.99462890625</v>
       </c>
       <c r="CR2" t="n">
-        <v>356.5093383789062</v>
+        <v>245.0157470703125</v>
       </c>
       <c r="CS2" t="n">
-        <v>355.3026733398438</v>
+        <v>245.0033721923828</v>
       </c>
       <c r="CT2" t="n">
-        <v>354.0805358886719</v>
+        <v>244.3069763183594</v>
       </c>
       <c r="CU2" t="n">
-        <v>351.8487243652344</v>
+        <v>242.7540588378906</v>
       </c>
       <c r="CV2" t="n">
-        <v>349.3606872558594</v>
+        <v>240.6675415039062</v>
       </c>
       <c r="CW2" t="n">
-        <v>347.0709838867188</v>
+        <v>239.1057739257812</v>
       </c>
       <c r="CX2" t="n">
-        <v>345.6095886230469</v>
+        <v>238.6873016357422</v>
       </c>
       <c r="CY2" t="n">
-        <v>343.64892578125</v>
+        <v>238.6595153808594</v>
       </c>
       <c r="CZ2" t="n">
-        <v>342.3724670410156</v>
+        <v>238.7239379882812</v>
       </c>
       <c r="DA2" t="n">
-        <v>339.876953125</v>
+        <v>238.9848937988281</v>
       </c>
       <c r="DB2" t="n">
-        <v>339.0099487304688</v>
+        <v>239.4099273681641</v>
       </c>
       <c r="DC2" t="n">
-        <v>338.2596130371094</v>
+        <v>239.6649475097656</v>
       </c>
       <c r="DD2" t="n">
-        <v>337.6969604492188</v>
+        <v>239.9324951171875</v>
       </c>
       <c r="DE2" t="n">
-        <v>337.3070678710938</v>
+        <v>241.4287567138672</v>
       </c>
       <c r="DF2" t="n">
-        <v>337.1445007324219</v>
+        <v>244.2007751464844</v>
       </c>
       <c r="DG2" t="n">
-        <v>337.0389099121094</v>
+        <v>248.1808624267578</v>
       </c>
       <c r="DH2" t="n">
-        <v>336.9335632324219</v>
+        <v>253.1764984130859</v>
       </c>
       <c r="DI2" t="n">
-        <v>336.9081115722656</v>
+        <v>258.2324523925781</v>
       </c>
       <c r="DJ2" t="n">
-        <v>336.8861083984375</v>
+        <v>262.9557495117188</v>
       </c>
       <c r="DK2" t="n">
-        <v>336.8487243652344</v>
+        <v>269.2323303222656</v>
       </c>
       <c r="DL2" t="n">
-        <v>336.7938842773438</v>
+        <v>282.5330200195312</v>
       </c>
       <c r="DM2" t="n">
-        <v>336.75244140625</v>
+        <v>289.8631286621094</v>
       </c>
       <c r="DN2" t="n">
-        <v>336.7209167480469</v>
+        <v>297.5916137695312</v>
       </c>
       <c r="DO2" t="n">
-        <v>336.6818542480469</v>
+        <v>304.8880920410156</v>
       </c>
       <c r="DP2" t="n">
-        <v>336.6662292480469</v>
+        <v>322.951904296875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>336.6482238769531</v>
+        <v>332.4566955566406</v>
       </c>
       <c r="DR2" t="n">
-        <v>336.6161499023438</v>
+        <v>340.361328125</v>
       </c>
       <c r="DS2" t="n">
-        <v>336.5799560546875</v>
+        <v>352.05419921875</v>
       </c>
       <c r="DT2" t="n">
-        <v>336.100830078125</v>
+        <v>357.4201049804688</v>
       </c>
       <c r="DU2" t="n">
-        <v>335.871826171875</v>
+        <v>360.9577026367188</v>
       </c>
       <c r="DV2" t="n">
-        <v>335.7648315429688</v>
+        <v>363.6633911132812</v>
       </c>
       <c r="DW2" t="n">
-        <v>335.68701171875</v>
+        <v>367.2680053710938</v>
       </c>
       <c r="DX2" t="n">
-        <v>335.6692504882812</v>
+        <v>369.690185546875</v>
       </c>
       <c r="DY2" t="n">
-        <v>335.6670532226562</v>
+        <v>372.5548095703125</v>
       </c>
       <c r="DZ2" t="n">
-        <v>335.6866455078125</v>
+        <v>376.4078369140625</v>
       </c>
       <c r="EA2" t="n">
-        <v>336.0069274902344</v>
+        <v>377.4939270019531</v>
       </c>
       <c r="EB2" t="n">
-        <v>336.3535766601562</v>
+        <v>379.446533203125</v>
       </c>
       <c r="EC2" t="n">
-        <v>337.3887329101562</v>
+        <v>379.9044189453125</v>
       </c>
       <c r="ED2" t="n">
-        <v>337.8120422363281</v>
+        <v>380.45263671875</v>
       </c>
       <c r="EE2" t="n">
-        <v>338.1856689453125</v>
+        <v>380.5086669921875</v>
       </c>
       <c r="EF2" t="n">
-        <v>338.1222229003906</v>
+        <v>379.5877685546875</v>
       </c>
       <c r="EG2" t="n">
-        <v>338.0668334960938</v>
+        <v>374.7601623535156</v>
       </c>
       <c r="EH2" t="n">
-        <v>338.1098937988281</v>
+        <v>372.2032165527344</v>
       </c>
       <c r="EI2" t="n">
-        <v>338.2193603515625</v>
+        <v>367.487548828125</v>
       </c>
       <c r="EJ2" t="n">
-        <v>338.2916259765625</v>
+        <v>365.0213317871094</v>
       </c>
       <c r="EK2" t="n">
-        <v>338.4483337402344</v>
+        <v>359.6139526367188</v>
       </c>
       <c r="EL2" t="n">
-        <v>338.5418090820312</v>
+        <v>354.5737915039062</v>
       </c>
       <c r="EM2" t="n">
-        <v>338.9059753417969</v>
+        <v>343.8990478515625</v>
       </c>
       <c r="EN2" t="n">
-        <v>340.8163452148438</v>
+        <v>337.839599609375</v>
       </c>
       <c r="EO2" t="n">
-        <v>342.6399536132812</v>
+        <v>323.9862670898438</v>
       </c>
       <c r="EP2" t="n">
-        <v>344.0624389648438</v>
+        <v>319.1481323242188</v>
       </c>
       <c r="EQ2" t="n">
-        <v>344.3811645507812</v>
+        <v>311.2617797851562</v>
       </c>
       <c r="ER2" t="n">
-        <v>344.6773986816406</v>
+        <v>305.9432678222656</v>
       </c>
       <c r="ES2" t="n">
-        <v>344.7059631347656</v>
+        <v>300.098876953125</v>
       </c>
       <c r="ET2" t="n">
-        <v>344.7255859375</v>
+        <v>298.7290344238281</v>
       </c>
       <c r="EU2" t="n">
-        <v>344.7277221679688</v>
+        <v>297.5722961425781</v>
       </c>
       <c r="EV2" t="n">
-        <v>344.7120666503906</v>
+        <v>294.3005676269531</v>
       </c>
       <c r="EW2" t="n">
-        <v>344.6820373535156</v>
+        <v>285.9913330078125</v>
       </c>
       <c r="EX2" t="n">
-        <v>344.6622924804688</v>
+        <v>281.1331481933594</v>
       </c>
       <c r="EY2" t="n">
-        <v>344.6526794433594</v>
+        <v>275.1872863769531</v>
       </c>
       <c r="EZ2" t="n">
-        <v>344.6534729003906</v>
+        <v>275.9833374023438</v>
       </c>
       <c r="FA2" t="n">
-        <v>344.6617126464844</v>
+        <v>279.2908935546875</v>
       </c>
       <c r="FB2" t="n">
-        <v>344.6607971191406</v>
+        <v>283.5241088867188</v>
       </c>
       <c r="FC2" t="n">
-        <v>344.6581420898438</v>
+        <v>287.5876159667969</v>
       </c>
       <c r="FD2" t="n">
-        <v>344.6533813476562</v>
+        <v>290.7691650390625</v>
       </c>
       <c r="FE2" t="n">
-        <v>344.6491088867188</v>
+        <v>292.358154296875</v>
       </c>
       <c r="FF2" t="n">
-        <v>344.6447448730469</v>
+        <v>297.0933532714844</v>
       </c>
       <c r="FG2" t="n">
-        <v>344.6422729492188</v>
+        <v>299.3674011230469</v>
       </c>
       <c r="FH2" t="n">
-        <v>344.4759521484375</v>
+        <v>303.09326171875</v>
       </c>
       <c r="FI2" t="n">
-        <v>344.2547607421875</v>
+        <v>306.8736572265625</v>
       </c>
       <c r="FJ2" t="n">
-        <v>344.1098327636719</v>
+        <v>321.2884826660156</v>
       </c>
       <c r="FK2" t="n">
-        <v>344.0550231933594</v>
+        <v>331.5263366699219</v>
       </c>
       <c r="FL2" t="n">
-        <v>344.050048828125</v>
+        <v>355.6652526855469</v>
       </c>
       <c r="FM2" t="n">
-        <v>344.0425415039062</v>
+        <v>365.4527282714844</v>
       </c>
       <c r="FN2" t="n">
-        <v>344.0460815429688</v>
+        <v>376.5582885742188</v>
       </c>
       <c r="FO2" t="n">
-        <v>344.0503540039062</v>
+        <v>395.0460815429688</v>
       </c>
       <c r="FP2" t="n">
-        <v>344.0579528808594</v>
+        <v>418.4483337402344</v>
       </c>
       <c r="FQ2" t="n">
-        <v>344.0635986328125</v>
+        <v>432.1238708496094</v>
       </c>
       <c r="FR2" t="n">
-        <v>344.0661926269531</v>
+        <v>447.0227661132812</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.1309814453125</v>
+        <v>449.0506591796875</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.1994934082031</v>
+        <v>448.4602661132812</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.3902893066406</v>
+        <v>452.2768859863281</v>
       </c>
       <c r="FV2" t="n">
-        <v>344.494873046875</v>
+        <v>457.8589172363281</v>
       </c>
       <c r="FW2" t="n">
-        <v>344.8546752929688</v>
+        <v>467.7935485839844</v>
       </c>
       <c r="FX2" t="n">
-        <v>344.9171142578125</v>
+        <v>470.163330078125</v>
       </c>
       <c r="FY2" t="n">
-        <v>344.9130859375</v>
+        <v>470.9220581054688</v>
       </c>
       <c r="FZ2" t="n">
-        <v>344.8913879394531</v>
+        <v>471.8208618164062</v>
       </c>
       <c r="GA2" t="n">
-        <v>344.7015380859375</v>
+        <v>473.3248596191406</v>
       </c>
       <c r="GB2" t="n">
-        <v>344.5313720703125</v>
+        <v>478.4573974609375</v>
       </c>
       <c r="GC2" t="n">
-        <v>344.1858520507812</v>
+        <v>484.5974731445312</v>
       </c>
       <c r="GD2" t="n">
-        <v>343.8246459960938</v>
+        <v>486.17578125</v>
       </c>
       <c r="GE2" t="n">
-        <v>343.6294860839844</v>
+        <v>484.8734741210938</v>
       </c>
       <c r="GF2" t="n">
-        <v>343.2212524414062</v>
+        <v>478.6026611328125</v>
       </c>
       <c r="GG2" t="n">
-        <v>343.0474548339844</v>
+        <v>455.8589172363281</v>
       </c>
       <c r="GH2" t="n">
-        <v>342.6647338867188</v>
+        <v>445.490234375</v>
       </c>
       <c r="GI2" t="n">
-        <v>341.6522827148438</v>
+        <v>413.0545349121094</v>
       </c>
       <c r="GJ2" t="n">
-        <v>341.13623046875</v>
+        <v>400.4783325195312</v>
       </c>
       <c r="GK2" t="n">
-        <v>340.2899780273438</v>
+        <v>389.1864624023438</v>
       </c>
       <c r="GL2" t="n">
-        <v>340.07666015625</v>
+        <v>380.1929321289062</v>
       </c>
       <c r="GM2" t="n">
-        <v>340.041748046875</v>
+        <v>356.8362426757812</v>
       </c>
       <c r="GN2" t="n">
-        <v>340.0055541992188</v>
+        <v>343.890869140625</v>
       </c>
       <c r="GO2" t="n">
-        <v>339.9707641601562</v>
+        <v>343.9327392578125</v>
       </c>
       <c r="GP2" t="n">
-        <v>339.9070739746094</v>
+        <v>344.7122802734375</v>
       </c>
       <c r="GQ2" t="n">
-        <v>339.8235473632812</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>339.6920166015625</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>339.4384460449219</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>338.1861877441406</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>337.0956115722656</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>335.1254272460938</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>334.5157165527344</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>334.3401489257812</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>333.9442749023438</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>333.4334716796875</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>332.6068420410156</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>331.0990600585938</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>329.3133544921875</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>328.7346801757812</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>327.70849609375</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>327.4470520019531</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>327.1964111328125</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>327.0178833007812</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>326.4324340820312</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>326.006103515625</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>325.2435607910156</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>324.7089233398438</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>324.1691284179688</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>323.6080627441406</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>321.6258239746094</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>319.8985290527344</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>318.3851928710938</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>316.8984375</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>315.0440673828125</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>312.7108764648438</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>308.0727233886719</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>305.6286010742188</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>299.5016174316406</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>293.0879821777344</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>287.5138244628906</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>281.6316833496094</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>277.578125</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>274.2143859863281</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>273.4766235351562</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>273.4447937011719</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>273.8397216796875</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>274.0209045410156</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>275.3092651367188</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>281.0215454101562</v>
-      </c>
-      <c r="II2" t="n">
-        <v>285.2597045898438</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>286.0210571289062</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>291.8958129882812</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>292.6282043457031</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>291.9354553222656</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>291.408935546875</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>290.1838989257812</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>265.4420471191406</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>248.8692016601562</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>243.1055908203125</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>252.0017700195312</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>241.9545593261719</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>214.0567169189453</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>193.1618041992188</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>182.0294189453125</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>170.7049255371094</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>158.7040557861328</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>160.3934936523438</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>166.4004364013672</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>171.8442687988281</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>175.2895812988281</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>190.2528381347656</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>205.6840209960938</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>221.6473236083984</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>241.4865417480469</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>247.5504455566406</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>247.3134002685547</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>236.1349334716797</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>211.0442810058594</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>202.2012939453125</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>194.976318359375</v>
+        <v>341.8226318359375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>258.6875915527344</v>
+        <v>356.4684753417969</v>
       </c>
       <c r="B3" t="n">
-        <v>258.0448608398438</v>
+        <v>351.7371826171875</v>
       </c>
       <c r="C3" t="n">
-        <v>257.9241027832031</v>
+        <v>347.2659301757812</v>
       </c>
       <c r="D3" t="n">
-        <v>257.8328857421875</v>
+        <v>344.7814331054688</v>
       </c>
       <c r="E3" t="n">
-        <v>257.759521484375</v>
+        <v>343.0444946289062</v>
       </c>
       <c r="F3" t="n">
-        <v>257.6995239257812</v>
+        <v>341.3155822753906</v>
       </c>
       <c r="G3" t="n">
-        <v>257.6522521972656</v>
+        <v>337.3432006835938</v>
       </c>
       <c r="H3" t="n">
-        <v>257.6149291992188</v>
+        <v>333.3502197265625</v>
       </c>
       <c r="I3" t="n">
-        <v>257.5849914550781</v>
+        <v>328.6347351074219</v>
       </c>
       <c r="J3" t="n">
-        <v>257.5609741210938</v>
+        <v>322.9674682617188</v>
       </c>
       <c r="K3" t="n">
-        <v>257.5416870117188</v>
+        <v>316.7617492675781</v>
       </c>
       <c r="L3" t="n">
-        <v>257.5180053710938</v>
+        <v>310.7188720703125</v>
       </c>
       <c r="M3" t="n">
-        <v>257.503662109375</v>
+        <v>303.8300170898438</v>
       </c>
       <c r="N3" t="n">
-        <v>257.5035400390625</v>
+        <v>293.2818298339844</v>
       </c>
       <c r="O3" t="n">
-        <v>257.5228271484375</v>
+        <v>282.5281677246094</v>
       </c>
       <c r="P3" t="n">
-        <v>257.5253295898438</v>
+        <v>272.3364562988281</v>
       </c>
       <c r="Q3" t="n">
-        <v>257.5162963867188</v>
+        <v>265.8802490234375</v>
       </c>
       <c r="R3" t="n">
-        <v>257.5010070800781</v>
+        <v>261.5157470703125</v>
       </c>
       <c r="S3" t="n">
-        <v>257.498046875</v>
+        <v>258.2847290039062</v>
       </c>
       <c r="T3" t="n">
-        <v>257.66650390625</v>
+        <v>254.9925079345703</v>
       </c>
       <c r="U3" t="n">
-        <v>258.2557678222656</v>
+        <v>251.4041290283203</v>
       </c>
       <c r="V3" t="n">
-        <v>259.4387817382812</v>
+        <v>247.6100921630859</v>
       </c>
       <c r="W3" t="n">
-        <v>261.3807373046875</v>
+        <v>244.0751495361328</v>
       </c>
       <c r="X3" t="n">
-        <v>263.7705688476562</v>
+        <v>241.0910186767578</v>
       </c>
       <c r="Y3" t="n">
-        <v>263.5093078613281</v>
+        <v>238.6954956054688</v>
       </c>
       <c r="Z3" t="n">
-        <v>263.4057006835938</v>
+        <v>236.7893981933594</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.7440185546875</v>
+        <v>235.4308471679688</v>
       </c>
       <c r="AB3" t="n">
-        <v>267.1508178710938</v>
+        <v>234.498779296875</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.6362915039062</v>
+        <v>233.9983673095703</v>
       </c>
       <c r="AD3" t="n">
-        <v>267.40966796875</v>
+        <v>233.8354187011719</v>
       </c>
       <c r="AE3" t="n">
-        <v>266.619384765625</v>
+        <v>233.9756622314453</v>
       </c>
       <c r="AF3" t="n">
-        <v>265.7048950195312</v>
+        <v>234.1838989257812</v>
       </c>
       <c r="AG3" t="n">
-        <v>265.0400085449219</v>
+        <v>234.4244079589844</v>
       </c>
       <c r="AH3" t="n">
-        <v>264.5515747070312</v>
+        <v>234.7273864746094</v>
       </c>
       <c r="AI3" t="n">
-        <v>264.0470581054688</v>
+        <v>235.0674591064453</v>
       </c>
       <c r="AJ3" t="n">
-        <v>263.7214965820312</v>
+        <v>235.3820953369141</v>
       </c>
       <c r="AK3" t="n">
-        <v>263.8813781738281</v>
+        <v>235.5826721191406</v>
       </c>
       <c r="AL3" t="n">
-        <v>264.359130859375</v>
+        <v>235.6543273925781</v>
       </c>
       <c r="AM3" t="n">
-        <v>265.1745910644531</v>
+        <v>235.6349487304688</v>
       </c>
       <c r="AN3" t="n">
-        <v>265.666259765625</v>
+        <v>235.5610809326172</v>
       </c>
       <c r="AO3" t="n">
-        <v>265.014404296875</v>
+        <v>235.4398040771484</v>
       </c>
       <c r="AP3" t="n">
-        <v>262.2546081542969</v>
+        <v>235.2872619628906</v>
       </c>
       <c r="AQ3" t="n">
-        <v>261.6774597167969</v>
+        <v>235.125244140625</v>
       </c>
       <c r="AR3" t="n">
-        <v>261.1730346679688</v>
+        <v>234.9735412597656</v>
       </c>
       <c r="AS3" t="n">
-        <v>261.8265075683594</v>
+        <v>235.1089630126953</v>
       </c>
       <c r="AT3" t="n">
-        <v>262.98974609375</v>
+        <v>235.3668365478516</v>
       </c>
       <c r="AU3" t="n">
-        <v>267.0188293457031</v>
+        <v>236.4563903808594</v>
       </c>
       <c r="AV3" t="n">
-        <v>275.5062866210938</v>
+        <v>237.5551605224609</v>
       </c>
       <c r="AW3" t="n">
-        <v>283.8382568359375</v>
+        <v>238.7651214599609</v>
       </c>
       <c r="AX3" t="n">
-        <v>287.9572143554688</v>
+        <v>239.7964935302734</v>
       </c>
       <c r="AY3" t="n">
-        <v>289.8887634277344</v>
+        <v>241.1846313476562</v>
       </c>
       <c r="AZ3" t="n">
-        <v>290.7202453613281</v>
+        <v>242.3626098632812</v>
       </c>
       <c r="BA3" t="n">
-        <v>290.9697570800781</v>
+        <v>243.2108764648438</v>
       </c>
       <c r="BB3" t="n">
-        <v>290.4801025390625</v>
+        <v>243.6581878662109</v>
       </c>
       <c r="BC3" t="n">
-        <v>289.6620788574219</v>
+        <v>244.80322265625</v>
       </c>
       <c r="BD3" t="n">
-        <v>288.1109008789062</v>
+        <v>245.9952392578125</v>
       </c>
       <c r="BE3" t="n">
-        <v>286.4445190429688</v>
+        <v>246.505615234375</v>
       </c>
       <c r="BF3" t="n">
-        <v>283.9295959472656</v>
+        <v>246.2422332763672</v>
       </c>
       <c r="BG3" t="n">
-        <v>281.3014526367188</v>
+        <v>245.5250854492188</v>
       </c>
       <c r="BH3" t="n">
-        <v>279.7179565429688</v>
+        <v>244.4831695556641</v>
       </c>
       <c r="BI3" t="n">
-        <v>279.00830078125</v>
+        <v>243.6514434814453</v>
       </c>
       <c r="BJ3" t="n">
-        <v>279.8504028320312</v>
+        <v>242.9427642822266</v>
       </c>
       <c r="BK3" t="n">
-        <v>280.84375</v>
+        <v>242.5942687988281</v>
       </c>
       <c r="BL3" t="n">
-        <v>281.8219604492188</v>
+        <v>242.5451354980469</v>
       </c>
       <c r="BM3" t="n">
-        <v>282.5321655273438</v>
+        <v>242.755615234375</v>
       </c>
       <c r="BN3" t="n">
-        <v>283.1657409667969</v>
+        <v>243.1457214355469</v>
       </c>
       <c r="BO3" t="n">
-        <v>284.3833618164062</v>
+        <v>243.4612731933594</v>
       </c>
       <c r="BP3" t="n">
-        <v>285.5575256347656</v>
+        <v>243.6376800537109</v>
       </c>
       <c r="BQ3" t="n">
-        <v>286.7554016113281</v>
+        <v>243.7711486816406</v>
       </c>
       <c r="BR3" t="n">
-        <v>287.6275329589844</v>
+        <v>243.9272918701172</v>
       </c>
       <c r="BS3" t="n">
-        <v>289.1183166503906</v>
+        <v>244.0731811523438</v>
       </c>
       <c r="BT3" t="n">
-        <v>291.2925720214844</v>
+        <v>244.2091369628906</v>
       </c>
       <c r="BU3" t="n">
-        <v>292.6573791503906</v>
+        <v>244.3229827880859</v>
       </c>
       <c r="BV3" t="n">
-        <v>293.2071228027344</v>
+        <v>244.4159545898438</v>
       </c>
       <c r="BW3" t="n">
-        <v>292.6942749023438</v>
+        <v>244.5525970458984</v>
       </c>
       <c r="BX3" t="n">
-        <v>291.8742980957031</v>
+        <v>244.7117309570312</v>
       </c>
       <c r="BY3" t="n">
-        <v>291.2409057617188</v>
+        <v>244.9004211425781</v>
       </c>
       <c r="BZ3" t="n">
-        <v>290.7966918945312</v>
+        <v>245.1119079589844</v>
       </c>
       <c r="CA3" t="n">
-        <v>290.5315856933594</v>
+        <v>245.3701171875</v>
       </c>
       <c r="CB3" t="n">
-        <v>290.1361694335938</v>
+        <v>245.6507720947266</v>
       </c>
       <c r="CC3" t="n">
-        <v>289.6113891601562</v>
+        <v>245.9611663818359</v>
       </c>
       <c r="CD3" t="n">
-        <v>289.1156921386719</v>
+        <v>246.2886962890625</v>
       </c>
       <c r="CE3" t="n">
-        <v>288.5229187011719</v>
+        <v>246.6044158935547</v>
       </c>
       <c r="CF3" t="n">
-        <v>287.8073120117188</v>
+        <v>246.9104919433594</v>
       </c>
       <c r="CG3" t="n">
-        <v>287.2691040039062</v>
+        <v>247.1694641113281</v>
       </c>
       <c r="CH3" t="n">
-        <v>286.9752197265625</v>
+        <v>247.3928527832031</v>
       </c>
       <c r="CI3" t="n">
-        <v>286.8867492675781</v>
+        <v>247.5978393554688</v>
       </c>
       <c r="CJ3" t="n">
-        <v>286.8544616699219</v>
+        <v>247.9781646728516</v>
       </c>
       <c r="CK3" t="n">
-        <v>287.1684265136719</v>
+        <v>248.4153594970703</v>
       </c>
       <c r="CL3" t="n">
-        <v>287.9944763183594</v>
+        <v>248.9253845214844</v>
       </c>
       <c r="CM3" t="n">
-        <v>288.6661682128906</v>
+        <v>249.1375885009766</v>
       </c>
       <c r="CN3" t="n">
-        <v>289.4386291503906</v>
+        <v>249.3206176757812</v>
       </c>
       <c r="CO3" t="n">
-        <v>290.0491333007812</v>
+        <v>249.4004669189453</v>
       </c>
       <c r="CP3" t="n">
-        <v>291.2561645507812</v>
+        <v>249.4585723876953</v>
       </c>
       <c r="CQ3" t="n">
-        <v>292.1715393066406</v>
+        <v>249.5128784179688</v>
       </c>
       <c r="CR3" t="n">
-        <v>293.0104370117188</v>
+        <v>249.6294250488281</v>
       </c>
       <c r="CS3" t="n">
-        <v>293.8113403320312</v>
+        <v>249.6596069335938</v>
       </c>
       <c r="CT3" t="n">
-        <v>293.7869567871094</v>
+        <v>249.7429809570312</v>
       </c>
       <c r="CU3" t="n">
-        <v>293.5212097167969</v>
+        <v>249.8898620605469</v>
       </c>
       <c r="CV3" t="n">
-        <v>293.1984252929688</v>
+        <v>250.0466003417969</v>
       </c>
       <c r="CW3" t="n">
-        <v>292.8925476074219</v>
+        <v>250.1237640380859</v>
       </c>
       <c r="CX3" t="n">
-        <v>292.6244812011719</v>
+        <v>250.1755676269531</v>
       </c>
       <c r="CY3" t="n">
-        <v>292.5100708007812</v>
+        <v>250.27587890625</v>
       </c>
       <c r="CZ3" t="n">
-        <v>292.7454528808594</v>
+        <v>250.3930053710938</v>
       </c>
       <c r="DA3" t="n">
-        <v>293.6272277832031</v>
+        <v>250.5199584960938</v>
       </c>
       <c r="DB3" t="n">
-        <v>294.3388977050781</v>
+        <v>250.5700225830078</v>
       </c>
       <c r="DC3" t="n">
-        <v>294.8997497558594</v>
+        <v>250.5033264160156</v>
       </c>
       <c r="DD3" t="n">
-        <v>295.2404479980469</v>
+        <v>250.3760681152344</v>
       </c>
       <c r="DE3" t="n">
-        <v>295.2840270996094</v>
+        <v>250.2302703857422</v>
       </c>
       <c r="DF3" t="n">
-        <v>295.2679748535156</v>
+        <v>250.0967712402344</v>
       </c>
       <c r="DG3" t="n">
-        <v>295.2474365234375</v>
+        <v>249.9718627929688</v>
       </c>
       <c r="DH3" t="n">
-        <v>295.0650939941406</v>
+        <v>249.8414916992188</v>
       </c>
       <c r="DI3" t="n">
-        <v>295.0537719726562</v>
+        <v>249.7340545654297</v>
       </c>
       <c r="DJ3" t="n">
-        <v>295.063232421875</v>
+        <v>249.6827392578125</v>
       </c>
       <c r="DK3" t="n">
-        <v>295.0682983398438</v>
+        <v>249.5279541015625</v>
       </c>
       <c r="DL3" t="n">
-        <v>295.0525207519531</v>
+        <v>249.5268859863281</v>
       </c>
       <c r="DM3" t="n">
-        <v>295.0038452148438</v>
+        <v>249.8685607910156</v>
       </c>
       <c r="DN3" t="n">
-        <v>294.9384765625</v>
+        <v>251.8593139648438</v>
       </c>
       <c r="DO3" t="n">
-        <v>294.828857421875</v>
+        <v>253.9117736816406</v>
       </c>
       <c r="DP3" t="n">
-        <v>294.8171081542969</v>
+        <v>255.7069854736328</v>
       </c>
       <c r="DQ3" t="n">
-        <v>294.854248046875</v>
+        <v>255.8522338867188</v>
       </c>
       <c r="DR3" t="n">
-        <v>294.8779296875</v>
+        <v>255.6750640869141</v>
       </c>
       <c r="DS3" t="n">
-        <v>294.8824462890625</v>
+        <v>255.488525390625</v>
       </c>
       <c r="DT3" t="n">
-        <v>294.8790283203125</v>
+        <v>255.4892883300781</v>
       </c>
       <c r="DU3" t="n">
-        <v>294.8849487304688</v>
+        <v>255.5635986328125</v>
       </c>
       <c r="DV3" t="n">
-        <v>294.8816833496094</v>
+        <v>252.1024780273438</v>
       </c>
       <c r="DW3" t="n">
-        <v>294.8683471679688</v>
+        <v>246.1075134277344</v>
       </c>
       <c r="DX3" t="n">
-        <v>294.8649291992188</v>
+        <v>243.9606323242188</v>
       </c>
       <c r="DY3" t="n">
-        <v>294.8629760742188</v>
+        <v>242.7160491943359</v>
       </c>
       <c r="DZ3" t="n">
-        <v>294.8612670898438</v>
+        <v>241.5591125488281</v>
       </c>
       <c r="EA3" t="n">
-        <v>294.8507080078125</v>
+        <v>241.1917877197266</v>
       </c>
       <c r="EB3" t="n">
-        <v>294.83154296875</v>
+        <v>240.5492553710938</v>
       </c>
       <c r="EC3" t="n">
-        <v>294.8858337402344</v>
+        <v>240.1823120117188</v>
       </c>
       <c r="ED3" t="n">
-        <v>295.0191345214844</v>
+        <v>239.4629516601562</v>
       </c>
       <c r="EE3" t="n">
-        <v>295.5589294433594</v>
+        <v>238.9894256591797</v>
       </c>
       <c r="EF3" t="n">
-        <v>295.8712158203125</v>
+        <v>238.2824554443359</v>
       </c>
       <c r="EG3" t="n">
-        <v>296.029052734375</v>
+        <v>236.5647735595703</v>
       </c>
       <c r="EH3" t="n">
-        <v>296.0607604980469</v>
+        <v>236.5160522460938</v>
       </c>
       <c r="EI3" t="n">
-        <v>296.1734619140625</v>
+        <v>237.2501373291016</v>
       </c>
       <c r="EJ3" t="n">
-        <v>296.2264404296875</v>
+        <v>237.9050750732422</v>
       </c>
       <c r="EK3" t="n">
-        <v>296.3027648925781</v>
+        <v>238.3271179199219</v>
       </c>
       <c r="EL3" t="n">
-        <v>296.3209838867188</v>
+        <v>238.5716705322266</v>
       </c>
       <c r="EM3" t="n">
-        <v>296.3391418457031</v>
+        <v>238.2908172607422</v>
       </c>
       <c r="EN3" t="n">
-        <v>296.2389526367188</v>
+        <v>238.5318450927734</v>
       </c>
       <c r="EO3" t="n">
-        <v>296.1420288085938</v>
+        <v>239.3853302001953</v>
       </c>
       <c r="EP3" t="n">
-        <v>295.8775939941406</v>
+        <v>241.3483123779297</v>
       </c>
       <c r="EQ3" t="n">
-        <v>295.7831726074219</v>
+        <v>244.1484527587891</v>
       </c>
       <c r="ER3" t="n">
-        <v>295.4806518554688</v>
+        <v>244.0518035888672</v>
       </c>
       <c r="ES3" t="n">
-        <v>295.3161315917969</v>
+        <v>244.9153442382812</v>
       </c>
       <c r="ET3" t="n">
-        <v>294.8973083496094</v>
+        <v>246.2877197265625</v>
       </c>
       <c r="EU3" t="n">
-        <v>294.7539978027344</v>
+        <v>246.9309692382812</v>
       </c>
       <c r="EV3" t="n">
-        <v>294.6209716796875</v>
+        <v>245.1561584472656</v>
       </c>
       <c r="EW3" t="n">
-        <v>294.3827209472656</v>
+        <v>244.6709594726562</v>
       </c>
       <c r="EX3" t="n">
-        <v>294.2361145019531</v>
+        <v>246.2093658447266</v>
       </c>
       <c r="EY3" t="n">
-        <v>294.1299438476562</v>
+        <v>248.0807037353516</v>
       </c>
       <c r="EZ3" t="n">
-        <v>294.0599365234375</v>
+        <v>247.08447265625</v>
       </c>
       <c r="FA3" t="n">
-        <v>294.017333984375</v>
+        <v>245.9094390869141</v>
       </c>
       <c r="FB3" t="n">
-        <v>294.0057373046875</v>
+        <v>244.4163818359375</v>
       </c>
       <c r="FC3" t="n">
-        <v>293.9940795898438</v>
+        <v>244.9915466308594</v>
       </c>
       <c r="FD3" t="n">
-        <v>293.9673461914062</v>
+        <v>247.3125152587891</v>
       </c>
       <c r="FE3" t="n">
-        <v>293.89892578125</v>
+        <v>249.4012908935547</v>
       </c>
       <c r="FF3" t="n">
-        <v>293.86962890625</v>
+        <v>260.2400207519531</v>
       </c>
       <c r="FG3" t="n">
-        <v>293.8519287109375</v>
+        <v>266.1131591796875</v>
       </c>
       <c r="FH3" t="n">
-        <v>293.7903137207031</v>
+        <v>275.1722412109375</v>
       </c>
       <c r="FI3" t="n">
-        <v>293.7514343261719</v>
+        <v>278.8556213378906</v>
       </c>
       <c r="FJ3" t="n">
-        <v>293.7112731933594</v>
+        <v>298.2778015136719</v>
       </c>
       <c r="FK3" t="n">
-        <v>293.6997375488281</v>
+        <v>312.4574279785156</v>
       </c>
       <c r="FL3" t="n">
-        <v>293.7055053710938</v>
+        <v>331.0364074707031</v>
       </c>
       <c r="FM3" t="n">
-        <v>293.71142578125</v>
+        <v>336.3407897949219</v>
       </c>
       <c r="FN3" t="n">
-        <v>293.7279357910156</v>
+        <v>341.3656005859375</v>
       </c>
       <c r="FO3" t="n">
-        <v>293.7519226074219</v>
+        <v>356.7001953125</v>
       </c>
       <c r="FP3" t="n">
-        <v>293.7956237792969</v>
+        <v>376.6929016113281</v>
       </c>
       <c r="FQ3" t="n">
-        <v>293.8358764648438</v>
+        <v>386.3772583007812</v>
       </c>
       <c r="FR3" t="n">
-        <v>293.8655395507812</v>
+        <v>394.108154296875</v>
       </c>
       <c r="FS3" t="n">
-        <v>294.1047058105469</v>
+        <v>389.931884765625</v>
       </c>
       <c r="FT3" t="n">
-        <v>294.3779296875</v>
+        <v>385.6631469726562</v>
       </c>
       <c r="FU3" t="n">
-        <v>294.8841857910156</v>
+        <v>377.7120361328125</v>
       </c>
       <c r="FV3" t="n">
-        <v>295.0032348632812</v>
+        <v>374.0353088378906</v>
       </c>
       <c r="FW3" t="n">
-        <v>295.0785827636719</v>
+        <v>373.4633178710938</v>
       </c>
       <c r="FX3" t="n">
-        <v>295.0057373046875</v>
+        <v>375.5333251953125</v>
       </c>
       <c r="FY3" t="n">
-        <v>295.0055236816406</v>
+        <v>376.7776489257812</v>
       </c>
       <c r="FZ3" t="n">
-        <v>295.0401611328125</v>
+        <v>377.9863586425781</v>
       </c>
       <c r="GA3" t="n">
-        <v>295.0902709960938</v>
+        <v>379.08203125</v>
       </c>
       <c r="GB3" t="n">
-        <v>295.1027526855469</v>
+        <v>382.1603088378906</v>
       </c>
       <c r="GC3" t="n">
-        <v>295.0992126464844</v>
+        <v>386.7289428710938</v>
       </c>
       <c r="GD3" t="n">
-        <v>295.0408325195312</v>
+        <v>390.5171508789062</v>
       </c>
       <c r="GE3" t="n">
-        <v>295.0020141601562</v>
+        <v>391.8490905761719</v>
       </c>
       <c r="GF3" t="n">
-        <v>294.9462890625</v>
+        <v>390.8562622070312</v>
       </c>
       <c r="GG3" t="n">
-        <v>294.9324035644531</v>
+        <v>392.1668090820312</v>
       </c>
       <c r="GH3" t="n">
-        <v>294.9670715332031</v>
+        <v>394.381591796875</v>
       </c>
       <c r="GI3" t="n">
-        <v>295.0769958496094</v>
+        <v>402.8414611816406</v>
       </c>
       <c r="GJ3" t="n">
-        <v>295.12255859375</v>
+        <v>404.5036010742188</v>
       </c>
       <c r="GK3" t="n">
-        <v>295.1908264160156</v>
+        <v>409.2341003417969</v>
       </c>
       <c r="GL3" t="n">
-        <v>295.2518920898438</v>
+        <v>412.1702270507812</v>
       </c>
       <c r="GM3" t="n">
-        <v>295.290771484375</v>
+        <v>416.7755126953125</v>
       </c>
       <c r="GN3" t="n">
-        <v>295.2894897460938</v>
+        <v>420.4381408691406</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.2714538574219</v>
+        <v>421.7400817871094</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.1872863769531</v>
+        <v>421.306640625</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.04833984375</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>294.8993835449219</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>294.8268127441406</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>294.7406311035156</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>294.7101440429688</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>294.6286010742188</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>294.513427734375</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>294.58447265625</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>294.9725036621094</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>295.3919372558594</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>295.5263366699219</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>295.8564147949219</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>295.2908935546875</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>295.1392211914062</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>295.217529296875</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>295.4612731933594</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>296.3873596191406</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>296.4863891601562</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>293.0303344726562</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>291.020263671875</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>288.8825988769531</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>288.4057312011719</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>287.8501892089844</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>287.6965637207031</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>285.7388305664062</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>283.9486694335938</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>284.2880249023438</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>285.4931335449219</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>286.5574340820312</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>287.0057678222656</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>287.1430969238281</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>287.1644897460938</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>283.2987060546875</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>279.0003356933594</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>278.7835693359375</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>279.5583190917969</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>279.6315612792969</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>273.9600830078125</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>272.3717956542969</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>270.2124328613281</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>268.8665161132812</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>268.4166564941406</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>269.2441711425781</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>270.8783874511719</v>
-      </c>
-      <c r="II3" t="n">
-        <v>272.8656311035156</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>274.2235717773438</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>275.4940185546875</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>292.8096008300781</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>320.4620361328125</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>408.1488342285156</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>457.6961059570312</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>479.7981262207031</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>471.0936279296875</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>453.12939453125</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>430.1204833984375</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>399.4942016601562</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>369.2744750976562</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>344.3868408203125</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>318.6694946289062</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>306.2279357910156</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>324.1525573730469</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>355.3673095703125</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>386.9683227539062</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>424.4481811523438</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>427.1576843261719</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>418.9958801269531</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>408.6746520996094</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>401.6398010253906</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>397.9246520996094</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>398.7430419921875</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>400.6095581054688</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>409.9531555175781</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>418.0383605957031</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>419.1813659667969</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>424.019775390625</v>
+        <v>414.6199340820312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>906.4866333007812</v>
+        <v>1224.671630859375</v>
       </c>
       <c r="B4" t="n">
-        <v>906.5546875</v>
+        <v>1235.329711914062</v>
       </c>
       <c r="C4" t="n">
-        <v>906.5819091796875</v>
+        <v>1242.346557617188</v>
       </c>
       <c r="D4" t="n">
-        <v>906.5957641601562</v>
+        <v>1243.376220703125</v>
       </c>
       <c r="E4" t="n">
-        <v>906.6068115234375</v>
+        <v>1242.438842773438</v>
       </c>
       <c r="F4" t="n">
-        <v>906.6149291992188</v>
+        <v>1241.141357421875</v>
       </c>
       <c r="G4" t="n">
-        <v>906.6199340820312</v>
+        <v>1238.042724609375</v>
       </c>
       <c r="H4" t="n">
-        <v>906.6212158203125</v>
+        <v>1235.78466796875</v>
       </c>
       <c r="I4" t="n">
-        <v>906.6199951171875</v>
+        <v>1236.433349609375</v>
       </c>
       <c r="J4" t="n">
-        <v>906.6173095703125</v>
+        <v>1236.774291992188</v>
       </c>
       <c r="K4" t="n">
-        <v>906.613525390625</v>
+        <v>1236.849975585938</v>
       </c>
       <c r="L4" t="n">
-        <v>906.0789184570312</v>
+        <v>1236.097045898438</v>
       </c>
       <c r="M4" t="n">
-        <v>905.487548828125</v>
+        <v>1247.612548828125</v>
       </c>
       <c r="N4" t="n">
-        <v>904.9338989257812</v>
+        <v>1262.236938476562</v>
       </c>
       <c r="O4" t="n">
-        <v>904.4031982421875</v>
+        <v>1274.628051757812</v>
       </c>
       <c r="P4" t="n">
-        <v>903.7828369140625</v>
+        <v>1286.932861328125</v>
       </c>
       <c r="Q4" t="n">
-        <v>903.045654296875</v>
+        <v>1296.258422851562</v>
       </c>
       <c r="R4" t="n">
-        <v>902.258056640625</v>
+        <v>1304.25439453125</v>
       </c>
       <c r="S4" t="n">
-        <v>901.4660034179688</v>
+        <v>1312.412109375</v>
       </c>
       <c r="T4" t="n">
-        <v>900.1458740234375</v>
+        <v>1324.16943359375</v>
       </c>
       <c r="U4" t="n">
-        <v>898.1806640625</v>
+        <v>1338.395629882812</v>
       </c>
       <c r="V4" t="n">
-        <v>893.8870849609375</v>
+        <v>1351.435546875</v>
       </c>
       <c r="W4" t="n">
-        <v>888.7625122070312</v>
+        <v>1360.737182617188</v>
       </c>
       <c r="X4" t="n">
-        <v>883.343505859375</v>
+        <v>1365.281005859375</v>
       </c>
       <c r="Y4" t="n">
-        <v>881.2933349609375</v>
+        <v>1367.43310546875</v>
       </c>
       <c r="Z4" t="n">
-        <v>880.1050415039062</v>
+        <v>1369.3662109375</v>
       </c>
       <c r="AA4" t="n">
-        <v>878.4888916015625</v>
+        <v>1373.0419921875</v>
       </c>
       <c r="AB4" t="n">
-        <v>878.36962890625</v>
+        <v>1375.814086914062</v>
       </c>
       <c r="AC4" t="n">
-        <v>882.1019897460938</v>
+        <v>1374.533325195312</v>
       </c>
       <c r="AD4" t="n">
-        <v>889.5396118164062</v>
+        <v>1369.10693359375</v>
       </c>
       <c r="AE4" t="n">
-        <v>897.9828491210938</v>
+        <v>1359.544067382812</v>
       </c>
       <c r="AF4" t="n">
-        <v>904.2908325195312</v>
+        <v>1345.814819335938</v>
       </c>
       <c r="AG4" t="n">
-        <v>909.3128051757812</v>
+        <v>1331.613403320312</v>
       </c>
       <c r="AH4" t="n">
-        <v>914.7642211914062</v>
+        <v>1322.182250976562</v>
       </c>
       <c r="AI4" t="n">
-        <v>922.5</v>
+        <v>1317.390869140625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>928.3290405273438</v>
+        <v>1314.93505859375</v>
       </c>
       <c r="AK4" t="n">
-        <v>933.3134155273438</v>
+        <v>1312.920776367188</v>
       </c>
       <c r="AL4" t="n">
-        <v>940.2150268554688</v>
+        <v>1310.81689453125</v>
       </c>
       <c r="AM4" t="n">
-        <v>947.2452392578125</v>
+        <v>1307.640502929688</v>
       </c>
       <c r="AN4" t="n">
-        <v>954.2432861328125</v>
+        <v>1303.472778320312</v>
       </c>
       <c r="AO4" t="n">
-        <v>959.75244140625</v>
+        <v>1302.085571289062</v>
       </c>
       <c r="AP4" t="n">
-        <v>968.7615356445312</v>
+        <v>1301.56982421875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>985.5608520507812</v>
+        <v>1301.30810546875</v>
       </c>
       <c r="AR4" t="n">
-        <v>1011.245971679688</v>
+        <v>1300.96728515625</v>
       </c>
       <c r="AS4" t="n">
-        <v>1042.920288085938</v>
+        <v>1299.84130859375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1072.703735351562</v>
+        <v>1294.678833007812</v>
       </c>
       <c r="AU4" t="n">
-        <v>1099.22412109375</v>
+        <v>1278.752685546875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1127.608520507812</v>
+        <v>1265.869873046875</v>
       </c>
       <c r="AW4" t="n">
-        <v>1158.076171875</v>
+        <v>1258.316162109375</v>
       </c>
       <c r="AX4" t="n">
-        <v>1189.974609375</v>
+        <v>1254.708251953125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1222.382446289062</v>
+        <v>1258.049926757812</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1253.720825195312</v>
+        <v>1267.4609375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1281.008911132812</v>
+        <v>1278.189697265625</v>
       </c>
       <c r="BB4" t="n">
-        <v>1304.193725585938</v>
+        <v>1284.997192382812</v>
       </c>
       <c r="BC4" t="n">
-        <v>1324.742065429688</v>
+        <v>1288.188354492188</v>
       </c>
       <c r="BD4" t="n">
-        <v>1347.80078125</v>
+        <v>1290.044677734375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1370.743896484375</v>
+        <v>1294.129638671875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1391.090698242188</v>
+        <v>1301.08935546875</v>
       </c>
       <c r="BG4" t="n">
-        <v>1409.868896484375</v>
+        <v>1312.327270507812</v>
       </c>
       <c r="BH4" t="n">
-        <v>1424.990600585938</v>
+        <v>1321.615844726562</v>
       </c>
       <c r="BI4" t="n">
-        <v>1458.25048828125</v>
+        <v>1328.508178710938</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1478.734252929688</v>
+        <v>1333.385498046875</v>
       </c>
       <c r="BK4" t="n">
-        <v>1498.723266601562</v>
+        <v>1336.111694335938</v>
       </c>
       <c r="BL4" t="n">
-        <v>1516.847412109375</v>
+        <v>1337.57275390625</v>
       </c>
       <c r="BM4" t="n">
-        <v>1533.124633789062</v>
+        <v>1338.406494140625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1549.411376953125</v>
+        <v>1337.283081054688</v>
       </c>
       <c r="BO4" t="n">
-        <v>1567.816040039062</v>
+        <v>1335.363525390625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1585.826171875</v>
+        <v>1333.814453125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1602.98193359375</v>
+        <v>1332.210693359375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1621.52685546875</v>
+        <v>1330.654296875</v>
       </c>
       <c r="BS4" t="n">
-        <v>1643.357788085938</v>
+        <v>1329.86962890625</v>
       </c>
       <c r="BT4" t="n">
-        <v>1662.825805664062</v>
+        <v>1329.594970703125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1676.962036132812</v>
+        <v>1329.52392578125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1701.187866210938</v>
+        <v>1329.490234375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1727.013549804688</v>
+        <v>1329.453735351562</v>
       </c>
       <c r="BX4" t="n">
-        <v>1753.04248046875</v>
+        <v>1329.421508789062</v>
       </c>
       <c r="BY4" t="n">
-        <v>1772.061279296875</v>
+        <v>1329.385986328125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1794.067504882812</v>
+        <v>1329.34765625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1818.936401367188</v>
+        <v>1329.302368164062</v>
       </c>
       <c r="CB4" t="n">
-        <v>1838.847534179688</v>
+        <v>1329.258911132812</v>
       </c>
       <c r="CC4" t="n">
-        <v>1859.684814453125</v>
+        <v>1329.211181640625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1876.935424804688</v>
+        <v>1329.16064453125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1891.551635742188</v>
+        <v>1329.112548828125</v>
       </c>
       <c r="CF4" t="n">
-        <v>1909.880737304688</v>
+        <v>1329.068359375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1928.719848632812</v>
+        <v>1329.037231445312</v>
       </c>
       <c r="CH4" t="n">
-        <v>1941.899047851562</v>
+        <v>1329.139526367188</v>
       </c>
       <c r="CI4" t="n">
-        <v>1948.894897460938</v>
+        <v>1329.39990234375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1955.38330078125</v>
+        <v>1333.585327148438</v>
       </c>
       <c r="CK4" t="n">
-        <v>1962.906616210938</v>
+        <v>1339.15478515625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1972.822387695312</v>
+        <v>1343.44189453125</v>
       </c>
       <c r="CM4" t="n">
-        <v>1984.671142578125</v>
+        <v>1343.586181640625</v>
       </c>
       <c r="CN4" t="n">
-        <v>1994.413330078125</v>
+        <v>1343.611694335938</v>
       </c>
       <c r="CO4" t="n">
-        <v>2003.800170898438</v>
+        <v>1343.620483398438</v>
       </c>
       <c r="CP4" t="n">
-        <v>2010.998657226562</v>
+        <v>1343.645874023438</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2015.640380859375</v>
+        <v>1343.679443359375</v>
       </c>
       <c r="CR4" t="n">
-        <v>2018.642456054688</v>
+        <v>1343.7509765625</v>
       </c>
       <c r="CS4" t="n">
-        <v>2022.4072265625</v>
+        <v>1343.78955078125</v>
       </c>
       <c r="CT4" t="n">
-        <v>2030.1669921875</v>
+        <v>1342.901245117188</v>
       </c>
       <c r="CU4" t="n">
-        <v>2042.712280273438</v>
+        <v>1340.859497070312</v>
       </c>
       <c r="CV4" t="n">
-        <v>2059.052734375</v>
+        <v>1337.099853515625</v>
       </c>
       <c r="CW4" t="n">
-        <v>2072.119384765625</v>
+        <v>1333.565551757812</v>
       </c>
       <c r="CX4" t="n">
-        <v>2081.8642578125</v>
+        <v>1331.977783203125</v>
       </c>
       <c r="CY4" t="n">
-        <v>2093.90966796875</v>
+        <v>1331.338500976562</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2100.119873046875</v>
+        <v>1331.995361328125</v>
       </c>
       <c r="DA4" t="n">
-        <v>2110.94140625</v>
+        <v>1335.477294921875</v>
       </c>
       <c r="DB4" t="n">
-        <v>2116.56396484375</v>
+        <v>1340.53369140625</v>
       </c>
       <c r="DC4" t="n">
-        <v>2119.793701171875</v>
+        <v>1342.994018554688</v>
       </c>
       <c r="DD4" t="n">
-        <v>2123.05712890625</v>
+        <v>1343.878540039062</v>
       </c>
       <c r="DE4" t="n">
-        <v>2123.36669921875</v>
+        <v>1344.231323242188</v>
       </c>
       <c r="DF4" t="n">
-        <v>2123.30029296875</v>
+        <v>1344.416381835938</v>
       </c>
       <c r="DG4" t="n">
-        <v>2123.57666015625</v>
+        <v>1344.580932617188</v>
       </c>
       <c r="DH4" t="n">
-        <v>2124.23095703125</v>
+        <v>1344.672241210938</v>
       </c>
       <c r="DI4" t="n">
-        <v>2124.400146484375</v>
+        <v>1344.71044921875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2124.848876953125</v>
+        <v>1344.631713867188</v>
       </c>
       <c r="DK4" t="n">
-        <v>2128.001708984375</v>
+        <v>1339.430786132812</v>
       </c>
       <c r="DL4" t="n">
-        <v>2133.53271484375</v>
+        <v>1316.15185546875</v>
       </c>
       <c r="DM4" t="n">
-        <v>2136.990234375</v>
+        <v>1309.085205078125</v>
       </c>
       <c r="DN4" t="n">
-        <v>2138.357177734375</v>
+        <v>1304.891479492188</v>
       </c>
       <c r="DO4" t="n">
-        <v>2139.097900390625</v>
+        <v>1302.547607421875</v>
       </c>
       <c r="DP4" t="n">
-        <v>2139.191162109375</v>
+        <v>1302.796020507812</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2139.26513671875</v>
+        <v>1303.370483398438</v>
       </c>
       <c r="DR4" t="n">
-        <v>2139.29931640625</v>
+        <v>1303.3505859375</v>
       </c>
       <c r="DS4" t="n">
-        <v>2139.345703125</v>
+        <v>1302.942260742188</v>
       </c>
       <c r="DT4" t="n">
-        <v>2139.448486328125</v>
+        <v>1302.902099609375</v>
       </c>
       <c r="DU4" t="n">
-        <v>2139.443359375</v>
+        <v>1303.01611328125</v>
       </c>
       <c r="DV4" t="n">
-        <v>2139.44580078125</v>
+        <v>1311.201782226562</v>
       </c>
       <c r="DW4" t="n">
-        <v>2139.440673828125</v>
+        <v>1317.425659179688</v>
       </c>
       <c r="DX4" t="n">
-        <v>2139.3994140625</v>
+        <v>1316.780151367188</v>
       </c>
       <c r="DY4" t="n">
-        <v>2139.303466796875</v>
+        <v>1313.044799804688</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2135.866455078125</v>
+        <v>1304.509765625</v>
       </c>
       <c r="EA4" t="n">
-        <v>2133.427001953125</v>
+        <v>1300.197143554688</v>
       </c>
       <c r="EB4" t="n">
-        <v>2129.59765625</v>
+        <v>1290.349365234375</v>
       </c>
       <c r="EC4" t="n">
-        <v>2119.534912109375</v>
+        <v>1287.503295898438</v>
       </c>
       <c r="ED4" t="n">
-        <v>2115.35107421875</v>
+        <v>1281.665161132812</v>
       </c>
       <c r="EE4" t="n">
-        <v>2108.422607421875</v>
+        <v>1279.007202148438</v>
       </c>
       <c r="EF4" t="n">
-        <v>2105.771728515625</v>
+        <v>1276.93896484375</v>
       </c>
       <c r="EG4" t="n">
-        <v>2105.51123046875</v>
+        <v>1271.938232421875</v>
       </c>
       <c r="EH4" t="n">
-        <v>2105.627685546875</v>
+        <v>1269.856323242188</v>
       </c>
       <c r="EI4" t="n">
-        <v>2105.771728515625</v>
+        <v>1261.657836914062</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2105.73876953125</v>
+        <v>1252.213745117188</v>
       </c>
       <c r="EK4" t="n">
-        <v>2106.2626953125</v>
+        <v>1230.363037109375</v>
       </c>
       <c r="EL4" t="n">
-        <v>2106.79931640625</v>
+        <v>1221.57666015625</v>
       </c>
       <c r="EM4" t="n">
-        <v>2107.263671875</v>
+        <v>1198.060668945312</v>
       </c>
       <c r="EN4" t="n">
-        <v>2107.40576171875</v>
+        <v>1184.079956054688</v>
       </c>
       <c r="EO4" t="n">
-        <v>2107.50927734375</v>
+        <v>1158.887573242188</v>
       </c>
       <c r="EP4" t="n">
-        <v>2107.466064453125</v>
+        <v>1147.991821289062</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2106.344482421875</v>
+        <v>1124.981079101562</v>
       </c>
       <c r="ER4" t="n">
-        <v>2104.22509765625</v>
+        <v>1117.571655273438</v>
       </c>
       <c r="ES4" t="n">
-        <v>2104.073486328125</v>
+        <v>1103.097045898438</v>
       </c>
       <c r="ET4" t="n">
-        <v>2103.791748046875</v>
+        <v>1092.996337890625</v>
       </c>
       <c r="EU4" t="n">
-        <v>2103.66357421875</v>
+        <v>1084.235107421875</v>
       </c>
       <c r="EV4" t="n">
-        <v>2103.571044921875</v>
+        <v>1067.769653320312</v>
       </c>
       <c r="EW4" t="n">
-        <v>2103.357421875</v>
+        <v>1044.49169921875</v>
       </c>
       <c r="EX4" t="n">
-        <v>2103.0224609375</v>
+        <v>1026.350830078125</v>
       </c>
       <c r="EY4" t="n">
-        <v>2102.496337890625</v>
+        <v>990.82080078125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2101.66796875</v>
+        <v>961.0465087890625</v>
       </c>
       <c r="FA4" t="n">
-        <v>2100.2236328125</v>
+        <v>944.107177734375</v>
       </c>
       <c r="FB4" t="n">
-        <v>2099.9111328125</v>
+        <v>926.8853759765625</v>
       </c>
       <c r="FC4" t="n">
-        <v>2099.787109375</v>
+        <v>896.9784545898438</v>
       </c>
       <c r="FD4" t="n">
-        <v>2099.63818359375</v>
+        <v>871.5233154296875</v>
       </c>
       <c r="FE4" t="n">
-        <v>2099.611572265625</v>
+        <v>861.0508422851562</v>
       </c>
       <c r="FF4" t="n">
-        <v>2099.9521484375</v>
+        <v>849.2758178710938</v>
       </c>
       <c r="FG4" t="n">
-        <v>2100.124267578125</v>
+        <v>843.8636474609375</v>
       </c>
       <c r="FH4" t="n">
-        <v>2100.350341796875</v>
+        <v>838.0693359375</v>
       </c>
       <c r="FI4" t="n">
-        <v>2100.491943359375</v>
+        <v>837.7601318359375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2100.743896484375</v>
+        <v>843.531005859375</v>
       </c>
       <c r="FK4" t="n">
-        <v>2100.87548828125</v>
+        <v>846.2169799804688</v>
       </c>
       <c r="FL4" t="n">
-        <v>2100.81884765625</v>
+        <v>843.183837890625</v>
       </c>
       <c r="FM4" t="n">
-        <v>2100.672607421875</v>
+        <v>842.738525390625</v>
       </c>
       <c r="FN4" t="n">
-        <v>2100.611572265625</v>
+        <v>837.4569091796875</v>
       </c>
       <c r="FO4" t="n">
-        <v>2100.5322265625</v>
+        <v>823.205078125</v>
       </c>
       <c r="FP4" t="n">
-        <v>2100.379638671875</v>
+        <v>822.126953125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2100.249267578125</v>
+        <v>825.9808959960938</v>
       </c>
       <c r="FR4" t="n">
-        <v>2100.173828125</v>
+        <v>833.7066040039062</v>
       </c>
       <c r="FS4" t="n">
-        <v>2099.275390625</v>
+        <v>849.1069946289062</v>
       </c>
       <c r="FT4" t="n">
-        <v>2098.475341796875</v>
+        <v>861.6643676757812</v>
       </c>
       <c r="FU4" t="n">
-        <v>2096.146240234375</v>
+        <v>873.1437377929688</v>
       </c>
       <c r="FV4" t="n">
-        <v>2094.734130859375</v>
+        <v>874.6270751953125</v>
       </c>
       <c r="FW4" t="n">
-        <v>2091.605712890625</v>
+        <v>873.3228149414062</v>
       </c>
       <c r="FX4" t="n">
-        <v>2091.243896484375</v>
+        <v>872.8539428710938</v>
       </c>
       <c r="FY4" t="n">
-        <v>2091.33056640625</v>
+        <v>872.9977416992188</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2091.393798828125</v>
+        <v>873.1124877929688</v>
       </c>
       <c r="GA4" t="n">
-        <v>2091.496826171875</v>
+        <v>873.3435668945312</v>
       </c>
       <c r="GB4" t="n">
-        <v>2091.604736328125</v>
+        <v>873.9998779296875</v>
       </c>
       <c r="GC4" t="n">
-        <v>2092.584716796875</v>
+        <v>857.4989624023438</v>
       </c>
       <c r="GD4" t="n">
-        <v>2093.580322265625</v>
+        <v>841.4295043945312</v>
       </c>
       <c r="GE4" t="n">
-        <v>2094.121337890625</v>
+        <v>835.104736328125</v>
       </c>
       <c r="GF4" t="n">
-        <v>2094.63916015625</v>
+        <v>832.290283203125</v>
       </c>
       <c r="GG4" t="n">
-        <v>2092.04443359375</v>
+        <v>830.3374633789062</v>
       </c>
       <c r="GH4" t="n">
-        <v>2083.84814453125</v>
+        <v>829.5114135742188</v>
       </c>
       <c r="GI4" t="n">
-        <v>2080.073486328125</v>
+        <v>832.057373046875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2078.57177734375</v>
+        <v>832.080322265625</v>
       </c>
       <c r="GK4" t="n">
-        <v>2076.3037109375</v>
+        <v>824.0509643554688</v>
       </c>
       <c r="GL4" t="n">
-        <v>2074.60205078125</v>
+        <v>817.5498657226562</v>
       </c>
       <c r="GM4" t="n">
-        <v>2074.094482421875</v>
+        <v>804.426513671875</v>
       </c>
       <c r="GN4" t="n">
-        <v>2074.220947265625</v>
+        <v>791.8362426757812</v>
       </c>
       <c r="GO4" t="n">
-        <v>2074.309814453125</v>
+        <v>784.3721923828125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2074.67041015625</v>
+        <v>769.9254150390625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2075.1552734375</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>2076.057373046875</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>2076.496337890625</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>2077.65966796875</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>2078.2509765625</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>2084.571533203125</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>2093.950439453125</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>2096.350830078125</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>2096.07275390625</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>2082.931640625</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>2073.369384765625</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>2049.215576171875</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>2031.820556640625</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>2021.705932617188</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1968.877685546875</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1955.2939453125</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1907.321411132812</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1853.04541015625</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1811.862670898438</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1791.69970703125</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1745.34228515625</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1695.866943359375</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1663.693481445312</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1649.323120117188</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1628.707397460938</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1601.579223632812</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1570.899780273438</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1538.16357421875</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1496.632080078125</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1457.036743164062</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1416.5146484375</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1393.336547851562</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1353.399047851562</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1317.732421875</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1276.729370117188</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1244.148559570312</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1217.551879882812</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>1170.37451171875</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>1149.687255859375</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>1109.476928710938</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>1071.427368164062</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>1022.282409667969</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>965.7560424804688</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>904.3955688476562</v>
-      </c>
-      <c r="II4" t="n">
-        <v>840.6484375</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>785.2659912109375</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>724.7890625</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>661.3364868164062</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>601.7589721679688</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>548.393310546875</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>530.762939453125</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>521.6161499023438</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>521.5171508789062</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>528.0633544921875</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>554.2247314453125</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>595.062255859375</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>617.185302734375</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>644.360107421875</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>698.5447387695312</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>727.9893188476562</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>739.756103515625</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>742.7935180664062</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>745.2401733398438</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>773.8958129882812</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>825.0799560546875</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>857.8942260742188</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>886.6216430664062</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>916.055419921875</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>928.95751953125</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>934.9957275390625</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>939.2320556640625</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>908.909912109375</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>882.1680908203125</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>875.7979125976562</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>850.025634765625</v>
+        <v>759.7279663085938</v>
       </c>
     </row>
   </sheetData>

--- a/torso_Data.xlsx
+++ b/torso_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>411.4286804199219</v>
+        <v>323.5249328613281</v>
       </c>
       <c r="B2" t="n">
-        <v>413.5271911621094</v>
+        <v>325.6360168457031</v>
       </c>
       <c r="C2" t="n">
-        <v>414.5379638671875</v>
+        <v>327.9544067382812</v>
       </c>
       <c r="D2" t="n">
-        <v>415.9268493652344</v>
+        <v>328.3529052734375</v>
       </c>
       <c r="E2" t="n">
-        <v>417.0565185546875</v>
+        <v>326.0250244140625</v>
       </c>
       <c r="F2" t="n">
-        <v>418.0633544921875</v>
+        <v>324.19873046875</v>
       </c>
       <c r="G2" t="n">
-        <v>418.9723205566406</v>
+        <v>323.3281860351562</v>
       </c>
       <c r="H2" t="n">
-        <v>419.3475952148438</v>
+        <v>322.9352111816406</v>
       </c>
       <c r="I2" t="n">
-        <v>419.5324096679688</v>
+        <v>323.0576171875</v>
       </c>
       <c r="J2" t="n">
-        <v>419.4699401855469</v>
+        <v>323.2860717773438</v>
       </c>
       <c r="K2" t="n">
-        <v>418.3387756347656</v>
+        <v>323.8558349609375</v>
       </c>
       <c r="L2" t="n">
-        <v>416.1448364257812</v>
+        <v>325.4409790039062</v>
       </c>
       <c r="M2" t="n">
-        <v>411.6588745117188</v>
+        <v>326.29248046875</v>
       </c>
       <c r="N2" t="n">
-        <v>403.1492919921875</v>
+        <v>326.9403381347656</v>
       </c>
       <c r="O2" t="n">
-        <v>395.1006469726562</v>
+        <v>327.576416015625</v>
       </c>
       <c r="P2" t="n">
-        <v>390.3250122070312</v>
+        <v>327.883544921875</v>
       </c>
       <c r="Q2" t="n">
-        <v>387.2872314453125</v>
+        <v>327.9910888671875</v>
       </c>
       <c r="R2" t="n">
-        <v>385.3207702636719</v>
+        <v>327.9191589355469</v>
       </c>
       <c r="S2" t="n">
-        <v>383.9442749023438</v>
+        <v>327.602783203125</v>
       </c>
       <c r="T2" t="n">
-        <v>382.2852783203125</v>
+        <v>327.0769653320312</v>
       </c>
       <c r="U2" t="n">
-        <v>379.7799072265625</v>
+        <v>326.5548095703125</v>
       </c>
       <c r="V2" t="n">
-        <v>376.7705688476562</v>
+        <v>325.9747314453125</v>
       </c>
       <c r="W2" t="n">
-        <v>374.1936645507812</v>
+        <v>325.3954772949219</v>
       </c>
       <c r="X2" t="n">
-        <v>372.6240844726562</v>
+        <v>324.454345703125</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.1751098632812</v>
+        <v>323.0077514648438</v>
       </c>
       <c r="Z2" t="n">
-        <v>369.4324951171875</v>
+        <v>321.5922546386719</v>
       </c>
       <c r="AA2" t="n">
-        <v>367.1852111816406</v>
+        <v>320.4935302734375</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.7557067871094</v>
+        <v>319.4918823242188</v>
       </c>
       <c r="AC2" t="n">
-        <v>363.3441772460938</v>
+        <v>318.7023315429688</v>
       </c>
       <c r="AD2" t="n">
-        <v>363.316650390625</v>
+        <v>318.0507202148438</v>
       </c>
       <c r="AE2" t="n">
-        <v>363.706787109375</v>
+        <v>317.0104675292969</v>
       </c>
       <c r="AF2" t="n">
-        <v>364.3378295898438</v>
+        <v>316.3049621582031</v>
       </c>
       <c r="AG2" t="n">
-        <v>365.0383911132812</v>
+        <v>315.8745422363281</v>
       </c>
       <c r="AH2" t="n">
-        <v>365.5791931152344</v>
+        <v>315.59326171875</v>
       </c>
       <c r="AI2" t="n">
-        <v>365.8717346191406</v>
+        <v>315.3643188476562</v>
       </c>
       <c r="AJ2" t="n">
-        <v>366.0417175292969</v>
+        <v>315.2053527832031</v>
       </c>
       <c r="AK2" t="n">
-        <v>366.1705932617188</v>
+        <v>315.1751708984375</v>
       </c>
       <c r="AL2" t="n">
-        <v>366.2760620117188</v>
+        <v>315.2072448730469</v>
       </c>
       <c r="AM2" t="n">
-        <v>366.4035034179688</v>
+        <v>315.2434692382812</v>
       </c>
       <c r="AN2" t="n">
-        <v>366.5526733398438</v>
+        <v>315.4840393066406</v>
       </c>
       <c r="AO2" t="n">
-        <v>366.594970703125</v>
+        <v>315.8947143554688</v>
       </c>
       <c r="AP2" t="n">
-        <v>366.601806640625</v>
+        <v>316.679931640625</v>
       </c>
       <c r="AQ2" t="n">
-        <v>366.5969543457031</v>
+        <v>318.1597900390625</v>
       </c>
       <c r="AR2" t="n">
-        <v>366.4815063476562</v>
+        <v>320.3827209472656</v>
       </c>
       <c r="AS2" t="n">
-        <v>365.5863037109375</v>
+        <v>322.5437622070312</v>
       </c>
       <c r="AT2" t="n">
-        <v>363.4514770507812</v>
+        <v>323.9271850585938</v>
       </c>
       <c r="AU2" t="n">
-        <v>358.6721496582031</v>
+        <v>324.66943359375</v>
       </c>
       <c r="AV2" t="n">
-        <v>351.9193115234375</v>
+        <v>325.1763305664062</v>
       </c>
       <c r="AW2" t="n">
-        <v>345.7822875976562</v>
+        <v>325.6110229492188</v>
       </c>
       <c r="AX2" t="n">
-        <v>339.9494018554688</v>
+        <v>325.8626098632812</v>
       </c>
       <c r="AY2" t="n">
-        <v>334.1420288085938</v>
+        <v>325.9710083007812</v>
       </c>
       <c r="AZ2" t="n">
-        <v>326.736083984375</v>
+        <v>326.0389404296875</v>
       </c>
       <c r="BA2" t="n">
-        <v>319.2710571289062</v>
+        <v>326.0689697265625</v>
       </c>
       <c r="BB2" t="n">
-        <v>310.7449035644531</v>
+        <v>326.0810852050781</v>
       </c>
       <c r="BC2" t="n">
-        <v>302.068359375</v>
+        <v>326.0764770507812</v>
       </c>
       <c r="BD2" t="n">
-        <v>295.7873840332031</v>
+        <v>326.068359375</v>
       </c>
       <c r="BE2" t="n">
-        <v>288.8404846191406</v>
+        <v>326.0560302734375</v>
       </c>
       <c r="BF2" t="n">
-        <v>282.04443359375</v>
+        <v>326.0413208007812</v>
       </c>
       <c r="BG2" t="n">
-        <v>276.7003479003906</v>
+        <v>326.0079345703125</v>
       </c>
       <c r="BH2" t="n">
-        <v>272.2868041992188</v>
+        <v>325.9528198242188</v>
       </c>
       <c r="BI2" t="n">
-        <v>269.1164245605469</v>
+        <v>325.87548828125</v>
       </c>
       <c r="BJ2" t="n">
-        <v>266.7059020996094</v>
+        <v>325.6910705566406</v>
       </c>
       <c r="BK2" t="n">
-        <v>264.8428344726562</v>
+        <v>325.4030151367188</v>
       </c>
       <c r="BL2" t="n">
-        <v>262.5160522460938</v>
+        <v>324.46044921875</v>
       </c>
       <c r="BM2" t="n">
-        <v>258.9140319824219</v>
+        <v>323.3978576660156</v>
       </c>
       <c r="BN2" t="n">
-        <v>254.20654296875</v>
+        <v>322.6705322265625</v>
       </c>
       <c r="BO2" t="n">
-        <v>250.1019134521484</v>
+        <v>322.3424072265625</v>
       </c>
       <c r="BP2" t="n">
-        <v>247.259765625</v>
+        <v>322.1820068359375</v>
       </c>
       <c r="BQ2" t="n">
-        <v>245.0839538574219</v>
+        <v>322.0817260742188</v>
       </c>
       <c r="BR2" t="n">
-        <v>242.8552551269531</v>
+        <v>322.0735473632812</v>
       </c>
       <c r="BS2" t="n">
-        <v>241.0555877685547</v>
+        <v>322.0798034667969</v>
       </c>
       <c r="BT2" t="n">
-        <v>239.3633880615234</v>
+        <v>322.085205078125</v>
       </c>
       <c r="BU2" t="n">
-        <v>237.8983764648438</v>
+        <v>322.0871276855469</v>
       </c>
       <c r="BV2" t="n">
-        <v>237.0839538574219</v>
+        <v>322.0907592773438</v>
       </c>
       <c r="BW2" t="n">
-        <v>236.6146240234375</v>
+        <v>322.0950927734375</v>
       </c>
       <c r="BX2" t="n">
-        <v>236.2229156494141</v>
+        <v>322.0983276367188</v>
       </c>
       <c r="BY2" t="n">
-        <v>235.7219085693359</v>
+        <v>322.1026306152344</v>
       </c>
       <c r="BZ2" t="n">
-        <v>235.4868774414062</v>
+        <v>322.1093139648438</v>
       </c>
       <c r="CA2" t="n">
-        <v>235.3841552734375</v>
+        <v>322.1195678710938</v>
       </c>
       <c r="CB2" t="n">
-        <v>235.3421325683594</v>
+        <v>322.0886840820312</v>
       </c>
       <c r="CC2" t="n">
-        <v>235.3268280029297</v>
+        <v>322.0596618652344</v>
       </c>
       <c r="CD2" t="n">
-        <v>235.3222961425781</v>
+        <v>322.0035400390625</v>
       </c>
       <c r="CE2" t="n">
-        <v>235.3251495361328</v>
+        <v>321.9529418945312</v>
       </c>
       <c r="CF2" t="n">
-        <v>235.3928375244141</v>
+        <v>321.90087890625</v>
       </c>
       <c r="CG2" t="n">
-        <v>236.458740234375</v>
+        <v>321.8399047851562</v>
       </c>
       <c r="CH2" t="n">
-        <v>238.5769348144531</v>
+        <v>321.7759399414062</v>
       </c>
       <c r="CI2" t="n">
-        <v>241.2483520507812</v>
+        <v>321.7166442871094</v>
       </c>
       <c r="CJ2" t="n">
-        <v>243.0322570800781</v>
+        <v>321.65185546875</v>
       </c>
       <c r="CK2" t="n">
-        <v>244.1740417480469</v>
+        <v>321.5953979492188</v>
       </c>
       <c r="CL2" t="n">
-        <v>244.8664245605469</v>
+        <v>321.5713806152344</v>
       </c>
       <c r="CM2" t="n">
-        <v>244.9255218505859</v>
+        <v>321.5299987792969</v>
       </c>
       <c r="CN2" t="n">
-        <v>244.9580535888672</v>
+        <v>321.4922790527344</v>
       </c>
       <c r="CO2" t="n">
-        <v>244.9730529785156</v>
+        <v>321.475341796875</v>
       </c>
       <c r="CP2" t="n">
-        <v>244.9842071533203</v>
+        <v>321.4563598632812</v>
       </c>
       <c r="CQ2" t="n">
-        <v>244.99462890625</v>
+        <v>321.439453125</v>
       </c>
       <c r="CR2" t="n">
-        <v>245.0157470703125</v>
+        <v>321.4010925292969</v>
       </c>
       <c r="CS2" t="n">
-        <v>245.0033721923828</v>
+        <v>321.3660278320312</v>
       </c>
       <c r="CT2" t="n">
-        <v>244.3069763183594</v>
+        <v>321.3336791992188</v>
       </c>
       <c r="CU2" t="n">
-        <v>242.7540588378906</v>
+        <v>321.2820739746094</v>
       </c>
       <c r="CV2" t="n">
-        <v>240.6675415039062</v>
+        <v>321.2249145507812</v>
       </c>
       <c r="CW2" t="n">
-        <v>239.1057739257812</v>
+        <v>321.1584777832031</v>
       </c>
       <c r="CX2" t="n">
-        <v>238.6873016357422</v>
+        <v>321.0883178710938</v>
       </c>
       <c r="CY2" t="n">
-        <v>238.6595153808594</v>
+        <v>321.0210876464844</v>
       </c>
       <c r="CZ2" t="n">
-        <v>238.7239379882812</v>
+        <v>320.9570922851562</v>
       </c>
       <c r="DA2" t="n">
-        <v>238.9848937988281</v>
+        <v>320.8897705078125</v>
       </c>
       <c r="DB2" t="n">
-        <v>239.4099273681641</v>
+        <v>320.7503662109375</v>
       </c>
       <c r="DC2" t="n">
-        <v>239.6649475097656</v>
+        <v>320.6825256347656</v>
       </c>
       <c r="DD2" t="n">
-        <v>239.9324951171875</v>
+        <v>320.6195373535156</v>
       </c>
       <c r="DE2" t="n">
-        <v>241.4287567138672</v>
+        <v>320.5442810058594</v>
       </c>
       <c r="DF2" t="n">
-        <v>244.2007751464844</v>
+        <v>320.4718627929688</v>
       </c>
       <c r="DG2" t="n">
-        <v>248.1808624267578</v>
+        <v>320.3938293457031</v>
       </c>
       <c r="DH2" t="n">
-        <v>253.1764984130859</v>
+        <v>320.2707214355469</v>
       </c>
       <c r="DI2" t="n">
-        <v>258.2324523925781</v>
+        <v>320.14453125</v>
       </c>
       <c r="DJ2" t="n">
-        <v>262.9557495117188</v>
+        <v>320.0252990722656</v>
       </c>
       <c r="DK2" t="n">
-        <v>269.2323303222656</v>
+        <v>319.8532104492188</v>
       </c>
       <c r="DL2" t="n">
-        <v>282.5330200195312</v>
+        <v>319.7696228027344</v>
       </c>
       <c r="DM2" t="n">
-        <v>289.8631286621094</v>
+        <v>319.7467956542969</v>
       </c>
       <c r="DN2" t="n">
-        <v>297.5916137695312</v>
+        <v>319.7043762207031</v>
       </c>
       <c r="DO2" t="n">
-        <v>304.8880920410156</v>
+        <v>319.6835327148438</v>
       </c>
       <c r="DP2" t="n">
-        <v>322.951904296875</v>
+        <v>319.66064453125</v>
       </c>
       <c r="DQ2" t="n">
-        <v>332.4566955566406</v>
+        <v>319.6350402832031</v>
       </c>
       <c r="DR2" t="n">
-        <v>340.361328125</v>
+        <v>319.6093139648438</v>
       </c>
       <c r="DS2" t="n">
-        <v>352.05419921875</v>
+        <v>319.5704345703125</v>
       </c>
       <c r="DT2" t="n">
-        <v>357.4201049804688</v>
+        <v>319.467041015625</v>
       </c>
       <c r="DU2" t="n">
-        <v>360.9577026367188</v>
+        <v>319.4071044921875</v>
       </c>
       <c r="DV2" t="n">
-        <v>363.6633911132812</v>
+        <v>319.2808532714844</v>
       </c>
       <c r="DW2" t="n">
-        <v>367.2680053710938</v>
+        <v>319.2105712890625</v>
       </c>
       <c r="DX2" t="n">
-        <v>369.690185546875</v>
+        <v>319.1289978027344</v>
       </c>
       <c r="DY2" t="n">
-        <v>372.5548095703125</v>
+        <v>318.9596557617188</v>
       </c>
       <c r="DZ2" t="n">
-        <v>376.4078369140625</v>
+        <v>318.870361328125</v>
       </c>
       <c r="EA2" t="n">
-        <v>377.4939270019531</v>
+        <v>318.6780395507812</v>
       </c>
       <c r="EB2" t="n">
-        <v>379.446533203125</v>
+        <v>318.5835876464844</v>
       </c>
       <c r="EC2" t="n">
-        <v>379.9044189453125</v>
+        <v>318.4788818359375</v>
       </c>
       <c r="ED2" t="n">
-        <v>380.45263671875</v>
+        <v>318.2848815917969</v>
       </c>
       <c r="EE2" t="n">
-        <v>380.5086669921875</v>
+        <v>318.1821594238281</v>
       </c>
       <c r="EF2" t="n">
-        <v>379.5877685546875</v>
+        <v>317.9844970703125</v>
       </c>
       <c r="EG2" t="n">
-        <v>374.7601623535156</v>
+        <v>317.8833618164062</v>
       </c>
       <c r="EH2" t="n">
-        <v>372.2032165527344</v>
+        <v>317.7816162109375</v>
       </c>
       <c r="EI2" t="n">
-        <v>367.487548828125</v>
+        <v>317.6031799316406</v>
       </c>
       <c r="EJ2" t="n">
-        <v>365.0213317871094</v>
+        <v>317.56298828125</v>
       </c>
       <c r="EK2" t="n">
-        <v>359.6139526367188</v>
+        <v>317.523681640625</v>
       </c>
       <c r="EL2" t="n">
-        <v>354.5737915039062</v>
+        <v>317.5068359375</v>
       </c>
       <c r="EM2" t="n">
-        <v>343.8990478515625</v>
+        <v>317.4889831542969</v>
       </c>
       <c r="EN2" t="n">
-        <v>337.839599609375</v>
+        <v>317.4810485839844</v>
       </c>
       <c r="EO2" t="n">
-        <v>323.9862670898438</v>
+        <v>317.4476623535156</v>
       </c>
       <c r="EP2" t="n">
-        <v>319.1481323242188</v>
+        <v>317.4317932128906</v>
       </c>
       <c r="EQ2" t="n">
-        <v>311.2617797851562</v>
+        <v>317.41748046875</v>
       </c>
       <c r="ER2" t="n">
-        <v>305.9432678222656</v>
+        <v>317.4124145507812</v>
       </c>
       <c r="ES2" t="n">
-        <v>300.098876953125</v>
+        <v>317.4119262695312</v>
       </c>
       <c r="ET2" t="n">
-        <v>298.7290344238281</v>
+        <v>317.4114074707031</v>
       </c>
       <c r="EU2" t="n">
-        <v>297.5722961425781</v>
+        <v>317.4114074707031</v>
       </c>
       <c r="EV2" t="n">
-        <v>294.3005676269531</v>
+        <v>317.4114379882812</v>
       </c>
       <c r="EW2" t="n">
-        <v>285.9913330078125</v>
+        <v>317.4118957519531</v>
       </c>
       <c r="EX2" t="n">
-        <v>281.1331481933594</v>
+        <v>317.4136047363281</v>
       </c>
       <c r="EY2" t="n">
-        <v>275.1872863769531</v>
+        <v>317.4197998046875</v>
       </c>
       <c r="EZ2" t="n">
-        <v>275.9833374023438</v>
+        <v>317.4317932128906</v>
       </c>
       <c r="FA2" t="n">
-        <v>279.2908935546875</v>
+        <v>317.4674682617188</v>
       </c>
       <c r="FB2" t="n">
-        <v>283.5241088867188</v>
+        <v>317.4810180664062</v>
       </c>
       <c r="FC2" t="n">
-        <v>287.5876159667969</v>
+        <v>317.4871826171875</v>
       </c>
       <c r="FD2" t="n">
-        <v>290.7691650390625</v>
+        <v>317.4878234863281</v>
       </c>
       <c r="FE2" t="n">
-        <v>292.358154296875</v>
+        <v>317.4879455566406</v>
       </c>
       <c r="FF2" t="n">
-        <v>297.0933532714844</v>
+        <v>317.4865112304688</v>
       </c>
       <c r="FG2" t="n">
-        <v>299.3674011230469</v>
+        <v>317.4837951660156</v>
       </c>
       <c r="FH2" t="n">
-        <v>303.09326171875</v>
+        <v>317.4820861816406</v>
       </c>
       <c r="FI2" t="n">
-        <v>306.8736572265625</v>
+        <v>317.4732666015625</v>
       </c>
       <c r="FJ2" t="n">
-        <v>321.2884826660156</v>
+        <v>317.4430541992188</v>
       </c>
       <c r="FK2" t="n">
-        <v>331.5263366699219</v>
+        <v>317.3993835449219</v>
       </c>
       <c r="FL2" t="n">
-        <v>355.6652526855469</v>
+        <v>317.2709350585938</v>
       </c>
       <c r="FM2" t="n">
-        <v>365.4527282714844</v>
+        <v>317.189697265625</v>
       </c>
       <c r="FN2" t="n">
-        <v>376.5582885742188</v>
+        <v>317.0408630371094</v>
       </c>
       <c r="FO2" t="n">
-        <v>395.0460815429688</v>
+        <v>316.9743957519531</v>
       </c>
       <c r="FP2" t="n">
-        <v>418.4483337402344</v>
+        <v>316.8469543457031</v>
       </c>
       <c r="FQ2" t="n">
-        <v>432.1238708496094</v>
+        <v>316.785888671875</v>
       </c>
       <c r="FR2" t="n">
-        <v>447.0227661132812</v>
+        <v>316.6763916015625</v>
       </c>
       <c r="FS2" t="n">
-        <v>449.0506591796875</v>
+        <v>316.6254577636719</v>
       </c>
       <c r="FT2" t="n">
-        <v>448.4602661132812</v>
+        <v>316.5205383300781</v>
       </c>
       <c r="FU2" t="n">
-        <v>452.2768859863281</v>
+        <v>316.4269104003906</v>
       </c>
       <c r="FV2" t="n">
-        <v>457.8589172363281</v>
+        <v>316.3622741699219</v>
       </c>
       <c r="FW2" t="n">
-        <v>467.7935485839844</v>
+        <v>316.2366943359375</v>
       </c>
       <c r="FX2" t="n">
-        <v>470.163330078125</v>
+        <v>316.1746826171875</v>
       </c>
       <c r="FY2" t="n">
-        <v>470.9220581054688</v>
+        <v>315.9599914550781</v>
       </c>
       <c r="FZ2" t="n">
-        <v>471.8208618164062</v>
+        <v>315.8685302734375</v>
       </c>
       <c r="GA2" t="n">
-        <v>473.3248596191406</v>
+        <v>315.7442626953125</v>
       </c>
       <c r="GB2" t="n">
-        <v>478.4573974609375</v>
+        <v>315.694091796875</v>
       </c>
       <c r="GC2" t="n">
-        <v>484.5974731445312</v>
+        <v>315.6114807128906</v>
       </c>
       <c r="GD2" t="n">
-        <v>486.17578125</v>
+        <v>315.55615234375</v>
       </c>
       <c r="GE2" t="n">
-        <v>484.8734741210938</v>
+        <v>315.4570922851562</v>
       </c>
       <c r="GF2" t="n">
-        <v>478.6026611328125</v>
+        <v>315.3604125976562</v>
       </c>
       <c r="GG2" t="n">
-        <v>455.8589172363281</v>
+        <v>315.3431091308594</v>
       </c>
       <c r="GH2" t="n">
-        <v>445.490234375</v>
+        <v>315.3129577636719</v>
       </c>
       <c r="GI2" t="n">
-        <v>413.0545349121094</v>
+        <v>315.3013000488281</v>
       </c>
       <c r="GJ2" t="n">
-        <v>400.4783325195312</v>
+        <v>315.2995300292969</v>
       </c>
       <c r="GK2" t="n">
-        <v>389.1864624023438</v>
+        <v>315.3031616210938</v>
       </c>
       <c r="GL2" t="n">
-        <v>380.1929321289062</v>
+        <v>315.3291625976562</v>
       </c>
       <c r="GM2" t="n">
-        <v>356.8362426757812</v>
+        <v>315.3987731933594</v>
       </c>
       <c r="GN2" t="n">
-        <v>343.890869140625</v>
+        <v>315.4156188964844</v>
       </c>
       <c r="GO2" t="n">
-        <v>343.9327392578125</v>
+        <v>315.4301147460938</v>
       </c>
       <c r="GP2" t="n">
-        <v>344.7122802734375</v>
+        <v>315.4347839355469</v>
       </c>
       <c r="GQ2" t="n">
-        <v>341.8226318359375</v>
+        <v>315.4375610351562</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>315.4383544921875</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>315.439697265625</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>315.3833923339844</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>315.3252258300781</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>315.2584838867188</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>315.1956176757812</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>315.1316833496094</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>315.0785827636719</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>315.0482177734375</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>315.0181274414062</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>315.0127868652344</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>315.0094299316406</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>315.0088195800781</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>315.0050354003906</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>314.9862365722656</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>314.9223327636719</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>314.8846435546875</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>314.8858032226562</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>314.8895874023438</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>314.8935241699219</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>314.8966369628906</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>314.8966064453125</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>314.8972778320312</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>314.8971252441406</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>314.8957214355469</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>314.8958129882812</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>314.9295043945312</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>314.9831237792969</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>315.0140075683594</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>315.0130615234375</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>315.0105590820312</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>315.0094604492188</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>314.9865112304688</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>314.9381103515625</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>314.9137268066406</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>314.8086547851562</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>314.7096557617188</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>314.5384521484375</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>314.4002685546875</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>314.2601623535156</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>314.3792114257812</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>314.4925231933594</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>314.4845275878906</v>
+      </c>
+      <c r="II2" t="n">
+        <v>314.4689636230469</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>314.4634399414062</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>314.4606018066406</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>314.4590454101562</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>314.424072265625</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>314.3720397949219</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>314.3550109863281</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>314.3494567871094</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>314.347900390625</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>314.3474731445312</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>314.3515014648438</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>314.3597106933594</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>314.3673095703125</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>315.0992431640625</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>315.5579223632812</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>315.7560424804688</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>315.7825317382812</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>315.7754821777344</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>315.7646179199219</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>315.7461547851562</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>315.7278137207031</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>315.62744140625</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>315.458740234375</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>315.27978515625</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>314.9988708496094</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>314.5350341796875</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>314.1677551269531</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>313.8027038574219</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>313.4620971679688</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>313.1032104492188</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>312.769287109375</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>312.470703125</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>312.41162109375</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>312.460205078125</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>312.6200561523438</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>313.1585693359375</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>313.5589904785156</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>313.6705322265625</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>313.6832275390625</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>313.6850891113281</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>313.6886596679688</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>313.3435363769531</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>313.0244445800781</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>312.6165771484375</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>310.3224487304688</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>308.91748046875</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>308.4203491210938</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>307.7113037109375</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>307.4568176269531</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>306.9488830566406</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>303.3173217773438</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>302.2128295898438</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>301.865234375</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>303.447509765625</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>304.0953674316406</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>305.4018859863281</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>306.9219055175781</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>309.235107421875</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>315.8019104003906</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>318.2457885742188</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>319.3001098632812</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>320.4422302246094</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>320.99267578125</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>320.8732299804688</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>320.6600341796875</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>319.5611572265625</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>316.4966735839844</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>308.2821044921875</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>306.2554931640625</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>305.4930725097656</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>304.36865234375</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>303.5699157714844</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>302.6882934570312</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>301.463623046875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>356.4684753417969</v>
+        <v>312.7689208984375</v>
       </c>
       <c r="B3" t="n">
-        <v>351.7371826171875</v>
+        <v>311.426513671875</v>
       </c>
       <c r="C3" t="n">
-        <v>347.2659301757812</v>
+        <v>311.5634460449219</v>
       </c>
       <c r="D3" t="n">
-        <v>344.7814331054688</v>
+        <v>310.5093383789062</v>
       </c>
       <c r="E3" t="n">
-        <v>343.0444946289062</v>
+        <v>306.6249084472656</v>
       </c>
       <c r="F3" t="n">
-        <v>341.3155822753906</v>
+        <v>303.6103820800781</v>
       </c>
       <c r="G3" t="n">
-        <v>337.3432006835938</v>
+        <v>301.8594665527344</v>
       </c>
       <c r="H3" t="n">
-        <v>333.3502197265625</v>
+        <v>300.9269409179688</v>
       </c>
       <c r="I3" t="n">
-        <v>328.6347351074219</v>
+        <v>301.7634582519531</v>
       </c>
       <c r="J3" t="n">
-        <v>322.9674682617188</v>
+        <v>302.5257568359375</v>
       </c>
       <c r="K3" t="n">
-        <v>316.7617492675781</v>
+        <v>304.0387268066406</v>
       </c>
       <c r="L3" t="n">
-        <v>310.7188720703125</v>
+        <v>305.0259399414062</v>
       </c>
       <c r="M3" t="n">
-        <v>303.8300170898438</v>
+        <v>305.9791564941406</v>
       </c>
       <c r="N3" t="n">
-        <v>293.2818298339844</v>
+        <v>305.6152954101562</v>
       </c>
       <c r="O3" t="n">
-        <v>282.5281677246094</v>
+        <v>304.9520874023438</v>
       </c>
       <c r="P3" t="n">
-        <v>272.3364562988281</v>
+        <v>303.9962158203125</v>
       </c>
       <c r="Q3" t="n">
-        <v>265.8802490234375</v>
+        <v>302.0640563964844</v>
       </c>
       <c r="R3" t="n">
-        <v>261.5157470703125</v>
+        <v>298.8891906738281</v>
       </c>
       <c r="S3" t="n">
-        <v>258.2847290039062</v>
+        <v>296.4949951171875</v>
       </c>
       <c r="T3" t="n">
-        <v>254.9925079345703</v>
+        <v>294.7578430175781</v>
       </c>
       <c r="U3" t="n">
-        <v>251.4041290283203</v>
+        <v>293.515869140625</v>
       </c>
       <c r="V3" t="n">
-        <v>247.6100921630859</v>
+        <v>293.0928344726562</v>
       </c>
       <c r="W3" t="n">
-        <v>244.0751495361328</v>
+        <v>295.1629028320312</v>
       </c>
       <c r="X3" t="n">
-        <v>241.0910186767578</v>
+        <v>297.5220336914062</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.6954956054688</v>
+        <v>299.3203430175781</v>
       </c>
       <c r="Z3" t="n">
-        <v>236.7893981933594</v>
+        <v>301.8486328125</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.4308471679688</v>
+        <v>304.95068359375</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.498779296875</v>
+        <v>307.1094360351562</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.9983673095703</v>
+        <v>309.0000915527344</v>
       </c>
       <c r="AD3" t="n">
-        <v>233.8354187011719</v>
+        <v>309.9933166503906</v>
       </c>
       <c r="AE3" t="n">
-        <v>233.9756622314453</v>
+        <v>310.1451416015625</v>
       </c>
       <c r="AF3" t="n">
-        <v>234.1838989257812</v>
+        <v>310.3563842773438</v>
       </c>
       <c r="AG3" t="n">
-        <v>234.4244079589844</v>
+        <v>310.4226989746094</v>
       </c>
       <c r="AH3" t="n">
-        <v>234.7273864746094</v>
+        <v>310.5006713867188</v>
       </c>
       <c r="AI3" t="n">
-        <v>235.0674591064453</v>
+        <v>310.2406005859375</v>
       </c>
       <c r="AJ3" t="n">
-        <v>235.3820953369141</v>
+        <v>309.6710815429688</v>
       </c>
       <c r="AK3" t="n">
-        <v>235.5826721191406</v>
+        <v>309.2031860351562</v>
       </c>
       <c r="AL3" t="n">
-        <v>235.6543273925781</v>
+        <v>309.0292663574219</v>
       </c>
       <c r="AM3" t="n">
-        <v>235.6349487304688</v>
+        <v>309.0438537597656</v>
       </c>
       <c r="AN3" t="n">
-        <v>235.5610809326172</v>
+        <v>309.0888671875</v>
       </c>
       <c r="AO3" t="n">
-        <v>235.4398040771484</v>
+        <v>309.2944641113281</v>
       </c>
       <c r="AP3" t="n">
-        <v>235.2872619628906</v>
+        <v>308.7243347167969</v>
       </c>
       <c r="AQ3" t="n">
-        <v>235.125244140625</v>
+        <v>308.2331237792969</v>
       </c>
       <c r="AR3" t="n">
-        <v>234.9735412597656</v>
+        <v>307.7848205566406</v>
       </c>
       <c r="AS3" t="n">
-        <v>235.1089630126953</v>
+        <v>307.3950805664062</v>
       </c>
       <c r="AT3" t="n">
-        <v>235.3668365478516</v>
+        <v>307.0378112792969</v>
       </c>
       <c r="AU3" t="n">
-        <v>236.4563903808594</v>
+        <v>306.9130554199219</v>
       </c>
       <c r="AV3" t="n">
-        <v>237.5551605224609</v>
+        <v>307.2442932128906</v>
       </c>
       <c r="AW3" t="n">
-        <v>238.7651214599609</v>
+        <v>308.0095520019531</v>
       </c>
       <c r="AX3" t="n">
-        <v>239.7964935302734</v>
+        <v>309.677734375</v>
       </c>
       <c r="AY3" t="n">
-        <v>241.1846313476562</v>
+        <v>310.7287292480469</v>
       </c>
       <c r="AZ3" t="n">
-        <v>242.3626098632812</v>
+        <v>311.5367126464844</v>
       </c>
       <c r="BA3" t="n">
-        <v>243.2108764648438</v>
+        <v>312.0050354003906</v>
       </c>
       <c r="BB3" t="n">
-        <v>243.6581878662109</v>
+        <v>312.3241882324219</v>
       </c>
       <c r="BC3" t="n">
-        <v>244.80322265625</v>
+        <v>312.5179748535156</v>
       </c>
       <c r="BD3" t="n">
-        <v>245.9952392578125</v>
+        <v>312.6177062988281</v>
       </c>
       <c r="BE3" t="n">
-        <v>246.505615234375</v>
+        <v>312.7049865722656</v>
       </c>
       <c r="BF3" t="n">
-        <v>246.2422332763672</v>
+        <v>312.6712341308594</v>
       </c>
       <c r="BG3" t="n">
-        <v>245.5250854492188</v>
+        <v>312.5422668457031</v>
       </c>
       <c r="BH3" t="n">
-        <v>244.4831695556641</v>
+        <v>312.453125</v>
       </c>
       <c r="BI3" t="n">
-        <v>243.6514434814453</v>
+        <v>312.4463195800781</v>
       </c>
       <c r="BJ3" t="n">
-        <v>242.9427642822266</v>
+        <v>312.4987487792969</v>
       </c>
       <c r="BK3" t="n">
-        <v>242.5942687988281</v>
+        <v>312.5667724609375</v>
       </c>
       <c r="BL3" t="n">
-        <v>242.5451354980469</v>
+        <v>312.760009765625</v>
       </c>
       <c r="BM3" t="n">
-        <v>242.755615234375</v>
+        <v>312.9758605957031</v>
       </c>
       <c r="BN3" t="n">
-        <v>243.1457214355469</v>
+        <v>313.1001281738281</v>
       </c>
       <c r="BO3" t="n">
-        <v>243.4612731933594</v>
+        <v>313.1526184082031</v>
       </c>
       <c r="BP3" t="n">
-        <v>243.6376800537109</v>
+        <v>313.1636352539062</v>
       </c>
       <c r="BQ3" t="n">
-        <v>243.7711486816406</v>
+        <v>313.1187744140625</v>
       </c>
       <c r="BR3" t="n">
-        <v>243.9272918701172</v>
+        <v>313.0690002441406</v>
       </c>
       <c r="BS3" t="n">
-        <v>244.0731811523438</v>
+        <v>313.0247192382812</v>
       </c>
       <c r="BT3" t="n">
-        <v>244.2091369628906</v>
+        <v>312.9962463378906</v>
       </c>
       <c r="BU3" t="n">
-        <v>244.3229827880859</v>
+        <v>312.9718627929688</v>
       </c>
       <c r="BV3" t="n">
-        <v>244.4159545898438</v>
+        <v>312.9578857421875</v>
       </c>
       <c r="BW3" t="n">
-        <v>244.5525970458984</v>
+        <v>312.9544982910156</v>
       </c>
       <c r="BX3" t="n">
-        <v>244.7117309570312</v>
+        <v>312.9570922851562</v>
       </c>
       <c r="BY3" t="n">
-        <v>244.9004211425781</v>
+        <v>312.9680480957031</v>
       </c>
       <c r="BZ3" t="n">
-        <v>245.1119079589844</v>
+        <v>312.9865112304688</v>
       </c>
       <c r="CA3" t="n">
-        <v>245.3701171875</v>
+        <v>313.0688781738281</v>
       </c>
       <c r="CB3" t="n">
-        <v>245.6507720947266</v>
+        <v>313.1423034667969</v>
       </c>
       <c r="CC3" t="n">
-        <v>245.9611663818359</v>
+        <v>313.198974609375</v>
       </c>
       <c r="CD3" t="n">
-        <v>246.2886962890625</v>
+        <v>313.2378234863281</v>
       </c>
       <c r="CE3" t="n">
-        <v>246.6044158935547</v>
+        <v>313.2909545898438</v>
       </c>
       <c r="CF3" t="n">
-        <v>246.9104919433594</v>
+        <v>313.3354187011719</v>
       </c>
       <c r="CG3" t="n">
-        <v>247.1694641113281</v>
+        <v>313.3709411621094</v>
       </c>
       <c r="CH3" t="n">
-        <v>247.3928527832031</v>
+        <v>313.389892578125</v>
       </c>
       <c r="CI3" t="n">
-        <v>247.5978393554688</v>
+        <v>313.4251098632812</v>
       </c>
       <c r="CJ3" t="n">
-        <v>247.9781646728516</v>
+        <v>313.4572143554688</v>
       </c>
       <c r="CK3" t="n">
-        <v>248.4153594970703</v>
+        <v>313.4446411132812</v>
       </c>
       <c r="CL3" t="n">
-        <v>248.9253845214844</v>
+        <v>313.4154968261719</v>
       </c>
       <c r="CM3" t="n">
-        <v>249.1375885009766</v>
+        <v>313.3768615722656</v>
       </c>
       <c r="CN3" t="n">
-        <v>249.3206176757812</v>
+        <v>313.3665466308594</v>
       </c>
       <c r="CO3" t="n">
-        <v>249.4004669189453</v>
+        <v>313.36572265625</v>
       </c>
       <c r="CP3" t="n">
-        <v>249.4585723876953</v>
+        <v>313.3597717285156</v>
       </c>
       <c r="CQ3" t="n">
-        <v>249.5128784179688</v>
+        <v>313.35986328125</v>
       </c>
       <c r="CR3" t="n">
-        <v>249.6294250488281</v>
+        <v>313.3616333007812</v>
       </c>
       <c r="CS3" t="n">
-        <v>249.6596069335938</v>
+        <v>313.36669921875</v>
       </c>
       <c r="CT3" t="n">
-        <v>249.7429809570312</v>
+        <v>313.5819702148438</v>
       </c>
       <c r="CU3" t="n">
-        <v>249.8898620605469</v>
+        <v>312.9277038574219</v>
       </c>
       <c r="CV3" t="n">
-        <v>250.0466003417969</v>
+        <v>312.3156127929688</v>
       </c>
       <c r="CW3" t="n">
-        <v>250.1237640380859</v>
+        <v>311.6961975097656</v>
       </c>
       <c r="CX3" t="n">
-        <v>250.1755676269531</v>
+        <v>311.1891479492188</v>
       </c>
       <c r="CY3" t="n">
-        <v>250.27587890625</v>
+        <v>310.8396606445312</v>
       </c>
       <c r="CZ3" t="n">
-        <v>250.3930053710938</v>
+        <v>310.6734924316406</v>
       </c>
       <c r="DA3" t="n">
-        <v>250.5199584960938</v>
+        <v>310.5847778320312</v>
       </c>
       <c r="DB3" t="n">
-        <v>250.5700225830078</v>
+        <v>310.4328918457031</v>
       </c>
       <c r="DC3" t="n">
-        <v>250.5033264160156</v>
+        <v>310.4007263183594</v>
       </c>
       <c r="DD3" t="n">
-        <v>250.3760681152344</v>
+        <v>310.3921203613281</v>
       </c>
       <c r="DE3" t="n">
-        <v>250.2302703857422</v>
+        <v>310.4046325683594</v>
       </c>
       <c r="DF3" t="n">
-        <v>250.0967712402344</v>
+        <v>310.41015625</v>
       </c>
       <c r="DG3" t="n">
-        <v>249.9718627929688</v>
+        <v>310.4317321777344</v>
       </c>
       <c r="DH3" t="n">
-        <v>249.8414916992188</v>
+        <v>310.4583435058594</v>
       </c>
       <c r="DI3" t="n">
-        <v>249.7340545654297</v>
+        <v>310.4472351074219</v>
       </c>
       <c r="DJ3" t="n">
-        <v>249.6827392578125</v>
+        <v>310.4414672851562</v>
       </c>
       <c r="DK3" t="n">
-        <v>249.5279541015625</v>
+        <v>311.4800415039062</v>
       </c>
       <c r="DL3" t="n">
-        <v>249.5268859863281</v>
+        <v>313.5783386230469</v>
       </c>
       <c r="DM3" t="n">
-        <v>249.8685607910156</v>
+        <v>314.3531494140625</v>
       </c>
       <c r="DN3" t="n">
-        <v>251.8593139648438</v>
+        <v>315.2344665527344</v>
       </c>
       <c r="DO3" t="n">
-        <v>253.9117736816406</v>
+        <v>315.4718933105469</v>
       </c>
       <c r="DP3" t="n">
-        <v>255.7069854736328</v>
+        <v>315.6154479980469</v>
       </c>
       <c r="DQ3" t="n">
-        <v>255.8522338867188</v>
+        <v>315.7002258300781</v>
       </c>
       <c r="DR3" t="n">
-        <v>255.6750640869141</v>
+        <v>315.7252807617188</v>
       </c>
       <c r="DS3" t="n">
-        <v>255.488525390625</v>
+        <v>315.7480163574219</v>
       </c>
       <c r="DT3" t="n">
-        <v>255.4892883300781</v>
+        <v>315.7972106933594</v>
       </c>
       <c r="DU3" t="n">
-        <v>255.5635986328125</v>
+        <v>315.8483276367188</v>
       </c>
       <c r="DV3" t="n">
-        <v>252.1024780273438</v>
+        <v>315.9459838867188</v>
       </c>
       <c r="DW3" t="n">
-        <v>246.1075134277344</v>
+        <v>315.9975280761719</v>
       </c>
       <c r="DX3" t="n">
-        <v>243.9606323242188</v>
+        <v>316.056396484375</v>
       </c>
       <c r="DY3" t="n">
-        <v>242.7160491943359</v>
+        <v>316.0923156738281</v>
       </c>
       <c r="DZ3" t="n">
-        <v>241.5591125488281</v>
+        <v>316.1108703613281</v>
       </c>
       <c r="EA3" t="n">
-        <v>241.1917877197266</v>
+        <v>316.1670227050781</v>
       </c>
       <c r="EB3" t="n">
-        <v>240.5492553710938</v>
+        <v>316.1962280273438</v>
       </c>
       <c r="EC3" t="n">
-        <v>240.1823120117188</v>
+        <v>316.2214660644531</v>
       </c>
       <c r="ED3" t="n">
-        <v>239.4629516601562</v>
+        <v>316.2574462890625</v>
       </c>
       <c r="EE3" t="n">
-        <v>238.9894256591797</v>
+        <v>316.2858276367188</v>
       </c>
       <c r="EF3" t="n">
-        <v>238.2824554443359</v>
+        <v>316.3835754394531</v>
       </c>
       <c r="EG3" t="n">
-        <v>236.5647735595703</v>
+        <v>316.4623718261719</v>
       </c>
       <c r="EH3" t="n">
-        <v>236.5160522460938</v>
+        <v>316.5385131835938</v>
       </c>
       <c r="EI3" t="n">
-        <v>237.2501373291016</v>
+        <v>316.6834106445312</v>
       </c>
       <c r="EJ3" t="n">
-        <v>237.9050750732422</v>
+        <v>316.7135009765625</v>
       </c>
       <c r="EK3" t="n">
-        <v>238.3271179199219</v>
+        <v>316.7307434082031</v>
       </c>
       <c r="EL3" t="n">
-        <v>238.5716705322266</v>
+        <v>316.73291015625</v>
       </c>
       <c r="EM3" t="n">
-        <v>238.2908172607422</v>
+        <v>316.6706237792969</v>
       </c>
       <c r="EN3" t="n">
-        <v>238.5318450927734</v>
+        <v>316.6455993652344</v>
       </c>
       <c r="EO3" t="n">
-        <v>239.3853302001953</v>
+        <v>315.5890808105469</v>
       </c>
       <c r="EP3" t="n">
-        <v>241.3483123779297</v>
+        <v>314.8090515136719</v>
       </c>
       <c r="EQ3" t="n">
-        <v>244.1484527587891</v>
+        <v>313.6768188476562</v>
       </c>
       <c r="ER3" t="n">
-        <v>244.0518035888672</v>
+        <v>312.9448852539062</v>
       </c>
       <c r="ES3" t="n">
-        <v>244.9153442382812</v>
+        <v>312.7005920410156</v>
       </c>
       <c r="ET3" t="n">
-        <v>246.2877197265625</v>
+        <v>312.35693359375</v>
       </c>
       <c r="EU3" t="n">
-        <v>246.9309692382812</v>
+        <v>312.2416076660156</v>
       </c>
       <c r="EV3" t="n">
-        <v>245.1561584472656</v>
+        <v>312.1487731933594</v>
       </c>
       <c r="EW3" t="n">
-        <v>244.6709594726562</v>
+        <v>312.0010986328125</v>
       </c>
       <c r="EX3" t="n">
-        <v>246.2093658447266</v>
+        <v>311.8880004882812</v>
       </c>
       <c r="EY3" t="n">
-        <v>248.0807037353516</v>
+        <v>311.9238891601562</v>
       </c>
       <c r="EZ3" t="n">
-        <v>247.08447265625</v>
+        <v>312.0362548828125</v>
       </c>
       <c r="FA3" t="n">
-        <v>245.9094390869141</v>
+        <v>313.8989562988281</v>
       </c>
       <c r="FB3" t="n">
-        <v>244.4163818359375</v>
+        <v>314.2787780761719</v>
       </c>
       <c r="FC3" t="n">
-        <v>244.9915466308594</v>
+        <v>314.5516662597656</v>
       </c>
       <c r="FD3" t="n">
-        <v>247.3125152587891</v>
+        <v>314.7024841308594</v>
       </c>
       <c r="FE3" t="n">
-        <v>249.4012908935547</v>
+        <v>314.7712097167969</v>
       </c>
       <c r="FF3" t="n">
-        <v>260.2400207519531</v>
+        <v>314.8231811523438</v>
       </c>
       <c r="FG3" t="n">
-        <v>266.1131591796875</v>
+        <v>315.0454711914062</v>
       </c>
       <c r="FH3" t="n">
-        <v>275.1722412109375</v>
+        <v>315.1685180664062</v>
       </c>
       <c r="FI3" t="n">
-        <v>278.8556213378906</v>
+        <v>315.3953247070312</v>
       </c>
       <c r="FJ3" t="n">
-        <v>298.2778015136719</v>
+        <v>315.5553894042969</v>
       </c>
       <c r="FK3" t="n">
-        <v>312.4574279785156</v>
+        <v>315.6156311035156</v>
       </c>
       <c r="FL3" t="n">
-        <v>331.0364074707031</v>
+        <v>315.7163391113281</v>
       </c>
       <c r="FM3" t="n">
-        <v>336.3407897949219</v>
+        <v>315.7454833984375</v>
       </c>
       <c r="FN3" t="n">
-        <v>341.3656005859375</v>
+        <v>315.8100280761719</v>
       </c>
       <c r="FO3" t="n">
-        <v>356.7001953125</v>
+        <v>315.8416137695312</v>
       </c>
       <c r="FP3" t="n">
-        <v>376.6929016113281</v>
+        <v>316.1197204589844</v>
       </c>
       <c r="FQ3" t="n">
-        <v>386.3772583007812</v>
+        <v>316.2929077148438</v>
       </c>
       <c r="FR3" t="n">
-        <v>394.108154296875</v>
+        <v>316.6269226074219</v>
       </c>
       <c r="FS3" t="n">
-        <v>389.931884765625</v>
+        <v>316.7413330078125</v>
       </c>
       <c r="FT3" t="n">
-        <v>385.6631469726562</v>
+        <v>316.9079284667969</v>
       </c>
       <c r="FU3" t="n">
-        <v>377.7120361328125</v>
+        <v>317.0036926269531</v>
       </c>
       <c r="FV3" t="n">
-        <v>374.0353088378906</v>
+        <v>317.0280456542969</v>
       </c>
       <c r="FW3" t="n">
-        <v>373.4633178710938</v>
+        <v>317.0205383300781</v>
       </c>
       <c r="FX3" t="n">
-        <v>375.5333251953125</v>
+        <v>316.9955139160156</v>
       </c>
       <c r="FY3" t="n">
-        <v>376.7776489257812</v>
+        <v>316.0209045410156</v>
       </c>
       <c r="FZ3" t="n">
-        <v>377.9863586425781</v>
+        <v>315.113525390625</v>
       </c>
       <c r="GA3" t="n">
-        <v>379.08203125</v>
+        <v>313.9240112304688</v>
       </c>
       <c r="GB3" t="n">
-        <v>382.1603088378906</v>
+        <v>313.519775390625</v>
       </c>
       <c r="GC3" t="n">
-        <v>386.7289428710938</v>
+        <v>312.926025390625</v>
       </c>
       <c r="GD3" t="n">
-        <v>390.5171508789062</v>
+        <v>312.6949157714844</v>
       </c>
       <c r="GE3" t="n">
-        <v>391.8490905761719</v>
+        <v>312.3670349121094</v>
       </c>
       <c r="GF3" t="n">
-        <v>390.8562622070312</v>
+        <v>312.1708984375</v>
       </c>
       <c r="GG3" t="n">
-        <v>392.1668090820312</v>
+        <v>312.1061401367188</v>
       </c>
       <c r="GH3" t="n">
-        <v>394.381591796875</v>
+        <v>312.0124816894531</v>
       </c>
       <c r="GI3" t="n">
-        <v>402.8414611816406</v>
+        <v>311.9556884765625</v>
       </c>
       <c r="GJ3" t="n">
-        <v>404.5036010742188</v>
+        <v>311.9212951660156</v>
       </c>
       <c r="GK3" t="n">
-        <v>409.2341003417969</v>
+        <v>311.9092712402344</v>
       </c>
       <c r="GL3" t="n">
-        <v>412.1702270507812</v>
+        <v>312.9608764648438</v>
       </c>
       <c r="GM3" t="n">
-        <v>416.7755126953125</v>
+        <v>314.3883666992188</v>
       </c>
       <c r="GN3" t="n">
-        <v>420.4381408691406</v>
+        <v>314.728271484375</v>
       </c>
       <c r="GO3" t="n">
-        <v>421.7400817871094</v>
+        <v>315.0578918457031</v>
       </c>
       <c r="GP3" t="n">
-        <v>421.306640625</v>
+        <v>315.1857604980469</v>
       </c>
       <c r="GQ3" t="n">
-        <v>414.6199340820312</v>
+        <v>315.3259887695312</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>315.3855895996094</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>315.4877319335938</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>315.5249938964844</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>315.5711669921875</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>315.6452331542969</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>315.7221984863281</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>315.7560424804688</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>315.7637939453125</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>315.7751159667969</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>315.7876892089844</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>315.7933654785156</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>315.8025512695312</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>315.8089599609375</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>315.7946166992188</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>315.8683471679688</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>315.0266723632812</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>313.7659912109375</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>313.0838317871094</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>312.6739501953125</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>312.4320068359375</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>312.2667541503906</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>312.2064208984375</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>312.1210632324219</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>312.0754699707031</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>312.0550231933594</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>312.0514221191406</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>313.2631530761719</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>314.6309204101562</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>315.1877136230469</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>315.4164428710938</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>315.6008911132812</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>315.7306213378906</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>315.7792663574219</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>315.8577575683594</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>315.9282531738281</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>315.9629516601562</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>315.9210205078125</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>315.8261413574219</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>315.7578430175781</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>315.7182922363281</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>315.6978149414062</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>315.6729125976562</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>315.6533813476562</v>
+      </c>
+      <c r="II3" t="n">
+        <v>315.6422119140625</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>315.63525390625</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>315.6308288574219</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>315.6279296875</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>315.8982543945312</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>314.2933959960938</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>313.3982849121094</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>312.8738098144531</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>312.5196838378906</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>312.2739562988281</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>312.1603698730469</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>312.1468505859375</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>312.150390625</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>312.1784362792969</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>314.0527954101562</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>315.1815490722656</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>315.8678588867188</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>316.0806579589844</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>316.1207275390625</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>316.0042114257812</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>315.9603576660156</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>316.26220703125</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>316.4314575195312</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>316.4865112304688</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>316.4852600097656</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>316.4591979980469</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>316.43359375</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>316.4022216796875</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>316.3677062988281</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>316.3338012695312</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>316.3033447265625</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>316.2799682617188</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>316.2574768066406</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>316.2335205078125</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>316.1473999023438</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>316.0208129882812</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>315.1051940917969</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>313.5274047851562</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>313.0201110839844</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>312.7478637695312</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>312.8255004882812</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>313.1961059570312</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>313.5650634765625</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>315.3458251953125</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>316.3538513183594</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>316.8883666992188</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>317.0844116210938</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>316.9901428222656</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>316.3755798339844</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>315.1598815917969</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>314.3020324707031</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>314.3640747070312</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>314.3376770019531</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>313.20751953125</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>313.1744079589844</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>314.7712097167969</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>316.5497436523438</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>317.6167602539062</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>310.1169128417969</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>308.0101318359375</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>306.5267639160156</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>304.7154235839844</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>298.5977478027344</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>297.7954406738281</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>299.6952514648438</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>302.0953063964844</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>304.2991027832031</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>302.4795532226562</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>299.5913391113281</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>296.4118041992188</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>297.20947265625</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>294.8460083007812</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>294.20751953125</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>293.7954711914062</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1224.671630859375</v>
+        <v>970.64453125</v>
       </c>
       <c r="B4" t="n">
-        <v>1235.329711914062</v>
+        <v>972.642578125</v>
       </c>
       <c r="C4" t="n">
-        <v>1242.346557617188</v>
+        <v>973.5866088867188</v>
       </c>
       <c r="D4" t="n">
-        <v>1243.376220703125</v>
+        <v>986.24072265625</v>
       </c>
       <c r="E4" t="n">
-        <v>1242.438842773438</v>
+        <v>1021.614868164062</v>
       </c>
       <c r="F4" t="n">
-        <v>1241.141357421875</v>
+        <v>1062.772583007812</v>
       </c>
       <c r="G4" t="n">
-        <v>1238.042724609375</v>
+        <v>1101.74072265625</v>
       </c>
       <c r="H4" t="n">
-        <v>1235.78466796875</v>
+        <v>1135.855590820312</v>
       </c>
       <c r="I4" t="n">
-        <v>1236.433349609375</v>
+        <v>1165.18359375</v>
       </c>
       <c r="J4" t="n">
-        <v>1236.774291992188</v>
+        <v>1194.730346679688</v>
       </c>
       <c r="K4" t="n">
-        <v>1236.849975585938</v>
+        <v>1228.83984375</v>
       </c>
       <c r="L4" t="n">
-        <v>1236.097045898438</v>
+        <v>1266.140380859375</v>
       </c>
       <c r="M4" t="n">
-        <v>1247.612548828125</v>
+        <v>1306.8271484375</v>
       </c>
       <c r="N4" t="n">
-        <v>1262.236938476562</v>
+        <v>1347.389526367188</v>
       </c>
       <c r="O4" t="n">
-        <v>1274.628051757812</v>
+        <v>1384.604736328125</v>
       </c>
       <c r="P4" t="n">
-        <v>1286.932861328125</v>
+        <v>1418.6650390625</v>
       </c>
       <c r="Q4" t="n">
-        <v>1296.258422851562</v>
+        <v>1449.731201171875</v>
       </c>
       <c r="R4" t="n">
-        <v>1304.25439453125</v>
+        <v>1479.882446289062</v>
       </c>
       <c r="S4" t="n">
-        <v>1312.412109375</v>
+        <v>1507.572387695312</v>
       </c>
       <c r="T4" t="n">
-        <v>1324.16943359375</v>
+        <v>1531.46630859375</v>
       </c>
       <c r="U4" t="n">
-        <v>1338.395629882812</v>
+        <v>1556.292846679688</v>
       </c>
       <c r="V4" t="n">
-        <v>1351.435546875</v>
+        <v>1578.916259765625</v>
       </c>
       <c r="W4" t="n">
-        <v>1360.737182617188</v>
+        <v>1601.451538085938</v>
       </c>
       <c r="X4" t="n">
-        <v>1365.281005859375</v>
+        <v>1627.969360351562</v>
       </c>
       <c r="Y4" t="n">
-        <v>1367.43310546875</v>
+        <v>1656.952758789062</v>
       </c>
       <c r="Z4" t="n">
-        <v>1369.3662109375</v>
+        <v>1682.297119140625</v>
       </c>
       <c r="AA4" t="n">
-        <v>1373.0419921875</v>
+        <v>1704.906005859375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1375.814086914062</v>
+        <v>1733.878173828125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1374.533325195312</v>
+        <v>1766.635864257812</v>
       </c>
       <c r="AD4" t="n">
-        <v>1369.10693359375</v>
+        <v>1801.814819335938</v>
       </c>
       <c r="AE4" t="n">
-        <v>1359.544067382812</v>
+        <v>1834.067626953125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1345.814819335938</v>
+        <v>1861.22607421875</v>
       </c>
       <c r="AG4" t="n">
-        <v>1331.613403320312</v>
+        <v>1884.688232421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1322.182250976562</v>
+        <v>1903.160522460938</v>
       </c>
       <c r="AI4" t="n">
-        <v>1317.390869140625</v>
+        <v>1918.732788085938</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1314.93505859375</v>
+        <v>1934.7431640625</v>
       </c>
       <c r="AK4" t="n">
-        <v>1312.920776367188</v>
+        <v>1946.783813476562</v>
       </c>
       <c r="AL4" t="n">
-        <v>1310.81689453125</v>
+        <v>1958.4990234375</v>
       </c>
       <c r="AM4" t="n">
-        <v>1307.640502929688</v>
+        <v>1971.26025390625</v>
       </c>
       <c r="AN4" t="n">
-        <v>1303.472778320312</v>
+        <v>1982.775024414062</v>
       </c>
       <c r="AO4" t="n">
-        <v>1302.085571289062</v>
+        <v>1993.246704101562</v>
       </c>
       <c r="AP4" t="n">
-        <v>1301.56982421875</v>
+        <v>1998.299072265625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1301.30810546875</v>
+        <v>2000.880126953125</v>
       </c>
       <c r="AR4" t="n">
-        <v>1300.96728515625</v>
+        <v>2002.571411132812</v>
       </c>
       <c r="AS4" t="n">
-        <v>1299.84130859375</v>
+        <v>2003.8642578125</v>
       </c>
       <c r="AT4" t="n">
-        <v>1294.678833007812</v>
+        <v>2005.112670898438</v>
       </c>
       <c r="AU4" t="n">
-        <v>1278.752685546875</v>
+        <v>2006.047607421875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1265.869873046875</v>
+        <v>2007.002807617188</v>
       </c>
       <c r="AW4" t="n">
-        <v>1258.316162109375</v>
+        <v>2010.112915039062</v>
       </c>
       <c r="AX4" t="n">
-        <v>1254.708251953125</v>
+        <v>2014.854248046875</v>
       </c>
       <c r="AY4" t="n">
-        <v>1258.049926757812</v>
+        <v>2022.91748046875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1267.4609375</v>
+        <v>2032.596435546875</v>
       </c>
       <c r="BA4" t="n">
-        <v>1278.189697265625</v>
+        <v>2038.014892578125</v>
       </c>
       <c r="BB4" t="n">
-        <v>1284.997192382812</v>
+        <v>2040.684692382812</v>
       </c>
       <c r="BC4" t="n">
-        <v>1288.188354492188</v>
+        <v>2044.603637695312</v>
       </c>
       <c r="BD4" t="n">
-        <v>1290.044677734375</v>
+        <v>2048.153564453125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1294.129638671875</v>
+        <v>2051.38623046875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1301.08935546875</v>
+        <v>2053.28759765625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1312.327270507812</v>
+        <v>2055.466796875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1321.615844726562</v>
+        <v>2057.1796875</v>
       </c>
       <c r="BI4" t="n">
-        <v>1328.508178710938</v>
+        <v>2058.24755859375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1333.385498046875</v>
+        <v>2059.618408203125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1336.111694335938</v>
+        <v>2060.98779296875</v>
       </c>
       <c r="BL4" t="n">
-        <v>1337.57275390625</v>
+        <v>2064.46875</v>
       </c>
       <c r="BM4" t="n">
-        <v>1338.406494140625</v>
+        <v>2069.31396484375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1337.283081054688</v>
+        <v>2073.142578125</v>
       </c>
       <c r="BO4" t="n">
-        <v>1335.363525390625</v>
+        <v>2075.724609375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1333.814453125</v>
+        <v>2078.6083984375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1332.210693359375</v>
+        <v>2077.8798828125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1330.654296875</v>
+        <v>2076.919677734375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1329.86962890625</v>
+        <v>2075.846923828125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1329.594970703125</v>
+        <v>2075.30908203125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1329.52392578125</v>
+        <v>2074.239501953125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1329.490234375</v>
+        <v>2073.0078125</v>
       </c>
       <c r="BW4" t="n">
-        <v>1329.453735351562</v>
+        <v>2071.840576171875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1329.421508789062</v>
+        <v>2070.449951171875</v>
       </c>
       <c r="BY4" t="n">
-        <v>1329.385986328125</v>
+        <v>2068.8515625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1329.34765625</v>
+        <v>2067.05712890625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1329.302368164062</v>
+        <v>2064.611328125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1329.258911132812</v>
+        <v>2064.643798828125</v>
       </c>
       <c r="CC4" t="n">
-        <v>1329.211181640625</v>
+        <v>2064.70458984375</v>
       </c>
       <c r="CD4" t="n">
-        <v>1329.16064453125</v>
+        <v>2064.801025390625</v>
       </c>
       <c r="CE4" t="n">
-        <v>1329.112548828125</v>
+        <v>2064.7451171875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1329.068359375</v>
+        <v>2064.690185546875</v>
       </c>
       <c r="CG4" t="n">
-        <v>1329.037231445312</v>
+        <v>2064.66162109375</v>
       </c>
       <c r="CH4" t="n">
-        <v>1329.139526367188</v>
+        <v>2064.613037109375</v>
       </c>
       <c r="CI4" t="n">
-        <v>1329.39990234375</v>
+        <v>2064.529052734375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1333.585327148438</v>
+        <v>2064.46044921875</v>
       </c>
       <c r="CK4" t="n">
-        <v>1339.15478515625</v>
+        <v>2064.4853515625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1343.44189453125</v>
+        <v>2064.517822265625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1343.586181640625</v>
+        <v>2064.562744140625</v>
       </c>
       <c r="CN4" t="n">
-        <v>1343.611694335938</v>
+        <v>2064.578369140625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1343.620483398438</v>
+        <v>2064.585693359375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1343.645874023438</v>
+        <v>2064.598388671875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1343.679443359375</v>
+        <v>2064.604248046875</v>
       </c>
       <c r="CR4" t="n">
-        <v>1343.7509765625</v>
+        <v>2064.693603515625</v>
       </c>
       <c r="CS4" t="n">
-        <v>1343.78955078125</v>
+        <v>2065.530029296875</v>
       </c>
       <c r="CT4" t="n">
-        <v>1342.901245117188</v>
+        <v>2066.548095703125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1340.859497070312</v>
+        <v>2065.446533203125</v>
       </c>
       <c r="CV4" t="n">
-        <v>1337.099853515625</v>
+        <v>2061.341796875</v>
       </c>
       <c r="CW4" t="n">
-        <v>1333.565551757812</v>
+        <v>2058.197998046875</v>
       </c>
       <c r="CX4" t="n">
-        <v>1331.977783203125</v>
+        <v>2055.899658203125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1331.338500976562</v>
+        <v>2055.10205078125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1331.995361328125</v>
+        <v>2054.95458984375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1335.477294921875</v>
+        <v>2054.937255859375</v>
       </c>
       <c r="DB4" t="n">
-        <v>1340.53369140625</v>
+        <v>2054.908447265625</v>
       </c>
       <c r="DC4" t="n">
-        <v>1342.994018554688</v>
+        <v>2054.95751953125</v>
       </c>
       <c r="DD4" t="n">
-        <v>1343.878540039062</v>
+        <v>2054.989013671875</v>
       </c>
       <c r="DE4" t="n">
-        <v>1344.231323242188</v>
+        <v>2055.00048828125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1344.416381835938</v>
+        <v>2055.018798828125</v>
       </c>
       <c r="DG4" t="n">
-        <v>1344.580932617188</v>
+        <v>2055.030517578125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1344.672241210938</v>
+        <v>2055.034423828125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1344.71044921875</v>
+        <v>2055.087890625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1344.631713867188</v>
+        <v>2055.13427734375</v>
       </c>
       <c r="DK4" t="n">
-        <v>1339.430786132812</v>
+        <v>2053.986083984375</v>
       </c>
       <c r="DL4" t="n">
-        <v>1316.15185546875</v>
+        <v>2058.443115234375</v>
       </c>
       <c r="DM4" t="n">
-        <v>1309.085205078125</v>
+        <v>2064.50830078125</v>
       </c>
       <c r="DN4" t="n">
-        <v>1304.891479492188</v>
+        <v>2071.310302734375</v>
       </c>
       <c r="DO4" t="n">
-        <v>1302.547607421875</v>
+        <v>2070.994873046875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1302.796020507812</v>
+        <v>2070.43310546875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1303.370483398438</v>
+        <v>2069.855712890625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1303.3505859375</v>
+        <v>2069.323974609375</v>
       </c>
       <c r="DS4" t="n">
-        <v>1302.942260742188</v>
+        <v>2068.953857421875</v>
       </c>
       <c r="DT4" t="n">
-        <v>1302.902099609375</v>
+        <v>2068.3037109375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1303.01611328125</v>
+        <v>2067.972900390625</v>
       </c>
       <c r="DV4" t="n">
-        <v>1311.201782226562</v>
+        <v>2067.34130859375</v>
       </c>
       <c r="DW4" t="n">
-        <v>1317.425659179688</v>
+        <v>2067.048583984375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1316.780151367188</v>
+        <v>2066.5361328125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1313.044799804688</v>
+        <v>2065.06201171875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1304.509765625</v>
+        <v>2063.997802734375</v>
       </c>
       <c r="EA4" t="n">
-        <v>1300.197143554688</v>
+        <v>2062.217529296875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1290.349365234375</v>
+        <v>2061.98388671875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1287.503295898438</v>
+        <v>2061.903564453125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1281.665161132812</v>
+        <v>2061.744140625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1279.007202148438</v>
+        <v>2061.657470703125</v>
       </c>
       <c r="EF4" t="n">
-        <v>1276.93896484375</v>
+        <v>2061.462890625</v>
       </c>
       <c r="EG4" t="n">
-        <v>1271.938232421875</v>
+        <v>2061.379150390625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1269.856323242188</v>
+        <v>2061.298095703125</v>
       </c>
       <c r="EI4" t="n">
-        <v>1261.657836914062</v>
+        <v>2061.138427734375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1252.213745117188</v>
+        <v>2061.104736328125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1230.363037109375</v>
+        <v>2061.08642578125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1221.57666015625</v>
+        <v>2061.0771484375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1198.060668945312</v>
+        <v>2058.716064453125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1184.079956054688</v>
+        <v>2053.34716796875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1158.887573242188</v>
+        <v>2041.865844726562</v>
       </c>
       <c r="EP4" t="n">
-        <v>1147.991821289062</v>
+        <v>2041.066162109375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1124.981079101562</v>
+        <v>2042.378051757812</v>
       </c>
       <c r="ER4" t="n">
-        <v>1117.571655273438</v>
+        <v>2043.817260742188</v>
       </c>
       <c r="ES4" t="n">
-        <v>1103.097045898438</v>
+        <v>2044.088012695312</v>
       </c>
       <c r="ET4" t="n">
-        <v>1092.996337890625</v>
+        <v>2044.5283203125</v>
       </c>
       <c r="EU4" t="n">
-        <v>1084.235107421875</v>
+        <v>2044.714599609375</v>
       </c>
       <c r="EV4" t="n">
-        <v>1067.769653320312</v>
+        <v>2044.869384765625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1044.49169921875</v>
+        <v>2045.132202148438</v>
       </c>
       <c r="EX4" t="n">
-        <v>1026.350830078125</v>
+        <v>2045.3544921875</v>
       </c>
       <c r="EY4" t="n">
-        <v>990.82080078125</v>
+        <v>2047.39697265625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>961.0465087890625</v>
+        <v>2051.294189453125</v>
       </c>
       <c r="FA4" t="n">
-        <v>944.107177734375</v>
+        <v>2060.394287109375</v>
       </c>
       <c r="FB4" t="n">
-        <v>926.8853759765625</v>
+        <v>2064.508544921875</v>
       </c>
       <c r="FC4" t="n">
-        <v>896.9784545898438</v>
+        <v>2065.402099609375</v>
       </c>
       <c r="FD4" t="n">
-        <v>871.5233154296875</v>
+        <v>2064.846923828125</v>
       </c>
       <c r="FE4" t="n">
-        <v>861.0508422851562</v>
+        <v>2064.539794921875</v>
       </c>
       <c r="FF4" t="n">
-        <v>849.2758178710938</v>
+        <v>2063.33544921875</v>
       </c>
       <c r="FG4" t="n">
-        <v>843.8636474609375</v>
+        <v>2060.499755859375</v>
       </c>
       <c r="FH4" t="n">
-        <v>838.0693359375</v>
+        <v>2059.024658203125</v>
       </c>
       <c r="FI4" t="n">
-        <v>837.7601318359375</v>
+        <v>2057.54296875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>843.531005859375</v>
+        <v>2056.833740234375</v>
       </c>
       <c r="FK4" t="n">
-        <v>846.2169799804688</v>
+        <v>2056.6982421875</v>
       </c>
       <c r="FL4" t="n">
-        <v>843.183837890625</v>
+        <v>2056.5146484375</v>
       </c>
       <c r="FM4" t="n">
-        <v>842.738525390625</v>
+        <v>2056.4697265625</v>
       </c>
       <c r="FN4" t="n">
-        <v>837.4569091796875</v>
+        <v>2056.3603515625</v>
       </c>
       <c r="FO4" t="n">
-        <v>823.205078125</v>
+        <v>2056.306884765625</v>
       </c>
       <c r="FP4" t="n">
-        <v>822.126953125</v>
+        <v>2056.819580078125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>825.9808959960938</v>
+        <v>2056.899658203125</v>
       </c>
       <c r="FR4" t="n">
-        <v>833.7066040039062</v>
+        <v>2056.791015625</v>
       </c>
       <c r="FS4" t="n">
-        <v>849.1069946289062</v>
+        <v>2056.678466796875</v>
       </c>
       <c r="FT4" t="n">
-        <v>861.6643676757812</v>
+        <v>2056.7421875</v>
       </c>
       <c r="FU4" t="n">
-        <v>873.1437377929688</v>
+        <v>2057.1953125</v>
       </c>
       <c r="FV4" t="n">
-        <v>874.6270751953125</v>
+        <v>2057.43701171875</v>
       </c>
       <c r="FW4" t="n">
-        <v>873.3228149414062</v>
+        <v>2057.46630859375</v>
       </c>
       <c r="FX4" t="n">
-        <v>872.8539428710938</v>
+        <v>2057.487548828125</v>
       </c>
       <c r="FY4" t="n">
-        <v>872.9977416992188</v>
+        <v>2050.60498046875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>873.1124877929688</v>
+        <v>2045.5673828125</v>
       </c>
       <c r="GA4" t="n">
-        <v>873.3435668945312</v>
+        <v>2043.634643554688</v>
       </c>
       <c r="GB4" t="n">
-        <v>873.9998779296875</v>
+        <v>2043.829711914062</v>
       </c>
       <c r="GC4" t="n">
-        <v>857.4989624023438</v>
+        <v>2044.549194335938</v>
       </c>
       <c r="GD4" t="n">
-        <v>841.4295043945312</v>
+        <v>2044.692138671875</v>
       </c>
       <c r="GE4" t="n">
-        <v>835.104736328125</v>
+        <v>2044.7861328125</v>
       </c>
       <c r="GF4" t="n">
-        <v>832.290283203125</v>
+        <v>2044.533203125</v>
       </c>
       <c r="GG4" t="n">
-        <v>830.3374633789062</v>
+        <v>2044.4873046875</v>
       </c>
       <c r="GH4" t="n">
-        <v>829.5114135742188</v>
+        <v>2044.424194335938</v>
       </c>
       <c r="GI4" t="n">
-        <v>832.057373046875</v>
+        <v>2044.467041015625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>832.080322265625</v>
+        <v>2044.54443359375</v>
       </c>
       <c r="GK4" t="n">
-        <v>824.0509643554688</v>
+        <v>2044.860229492188</v>
       </c>
       <c r="GL4" t="n">
-        <v>817.5498657226562</v>
+        <v>2046.646240234375</v>
       </c>
       <c r="GM4" t="n">
-        <v>804.426513671875</v>
+        <v>2059.898193359375</v>
       </c>
       <c r="GN4" t="n">
-        <v>791.8362426757812</v>
+        <v>2062.76220703125</v>
       </c>
       <c r="GO4" t="n">
-        <v>784.3721923828125</v>
+        <v>2063.1279296875</v>
       </c>
       <c r="GP4" t="n">
-        <v>769.9254150390625</v>
+        <v>2062.697265625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>759.7279663085938</v>
+        <v>2062.271484375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2062.1123046875</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2061.826904296875</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2058.1162109375</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2056.20166015625</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2055.4599609375</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2055.131591796875</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2054.86962890625</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2054.892333984375</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2054.910888671875</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2054.91259765625</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2054.91259765625</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2054.9072265625</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2054.896240234375</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>2053.8759765625</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>2049.935791015625</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>2037.441650390625</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>2033.414428710938</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>2034.547485351562</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>2035.493896484375</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>2036.571533203125</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>2036.968017578125</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>2037.0712890625</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>2037.2783203125</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>2037.656005859375</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>2038.155029296875</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>2038.757568359375</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>2044.9755859375</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>2056.3232421875</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>2062.720703125</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>2060.711669921875</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2058.9208984375</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2057.870849609375</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2057.571533203125</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2057.177978515625</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2056.614013671875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2056.087890625</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2055.863525390625</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2055.451171875</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2055.216796875</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2055.017578125</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2054.91748046875</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2054.911865234375</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2054.94140625</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2054.96240234375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2054.969970703125</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2054.973876953125</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2054.97216796875</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2045.485961914062</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2033.760131835938</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2031.288330078125</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2031.40234375</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2031.84716796875</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2032.33984375</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2033.484619140625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2035.765991210938</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2037.792358398438</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2040.3623046875</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2043.311889648438</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2051.92236328125</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2054.5634765625</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2052.984375</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2051.44287109375</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2049.3525390625</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2047.075805664062</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2044.643310546875</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2042.897338867188</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2042.34130859375</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2042.31689453125</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2042.329467773438</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2042.36865234375</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2042.418212890625</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2042.474975585938</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2042.541259765625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2042.615234375</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2042.732421875</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2042.884887695312</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2042.9853515625</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2040.722900390625</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2029.113525390625</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2025.68994140625</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2025.153198242188</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2026.534912109375</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2027.90380859375</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2027.42236328125</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2021.6943359375</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2014.19921875</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1998.821166992188</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1986.475341796875</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1983.537353515625</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1981.24365234375</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1983.4794921875</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1988.895629882812</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1993.527465820312</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1982.591674804688</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1957.234619140625</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1930.96533203125</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1909.011596679688</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1871.818969726562</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1809.52490234375</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1758.147338867188</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1690.539794921875</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1598.2353515625</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1544.592407226562</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1498.935913085938</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1446.9384765625</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1384.979736328125</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1332.673583984375</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1249.050048828125</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1192.315673828125</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1135.1376953125</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>1068.923706054688</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>1028.303955078125</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>997.03173828125</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>956.326171875</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>933.206298828125</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>914.1893310546875</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>894.6995849609375</v>
       </c>
     </row>
   </sheetData>

--- a/torso_Data.xlsx
+++ b/torso_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>323.5249328613281</v>
+        <v>296.7315673828125</v>
       </c>
       <c r="B2" t="n">
-        <v>325.6360168457031</v>
+        <v>296.20751953125</v>
       </c>
       <c r="C2" t="n">
-        <v>327.9544067382812</v>
+        <v>296.2501220703125</v>
       </c>
       <c r="D2" t="n">
-        <v>328.3529052734375</v>
+        <v>296.6658630371094</v>
       </c>
       <c r="E2" t="n">
-        <v>326.0250244140625</v>
+        <v>297.4907531738281</v>
       </c>
       <c r="F2" t="n">
-        <v>324.19873046875</v>
+        <v>297.7112121582031</v>
       </c>
       <c r="G2" t="n">
-        <v>323.3281860351562</v>
+        <v>296.7420043945312</v>
       </c>
       <c r="H2" t="n">
-        <v>322.9352111816406</v>
+        <v>296.4263305664062</v>
       </c>
       <c r="I2" t="n">
-        <v>323.0576171875</v>
+        <v>296.333251953125</v>
       </c>
       <c r="J2" t="n">
-        <v>323.2860717773438</v>
+        <v>296.3086547851562</v>
       </c>
       <c r="K2" t="n">
-        <v>323.8558349609375</v>
+        <v>296.0967102050781</v>
       </c>
       <c r="L2" t="n">
-        <v>325.4409790039062</v>
+        <v>295.6934204101562</v>
       </c>
       <c r="M2" t="n">
-        <v>326.29248046875</v>
+        <v>294.0240478515625</v>
       </c>
       <c r="N2" t="n">
-        <v>326.9403381347656</v>
+        <v>292.73388671875</v>
       </c>
       <c r="O2" t="n">
-        <v>327.576416015625</v>
+        <v>292.082275390625</v>
       </c>
       <c r="P2" t="n">
-        <v>327.883544921875</v>
+        <v>291.8211059570312</v>
       </c>
       <c r="Q2" t="n">
-        <v>327.9910888671875</v>
+        <v>291.7547302246094</v>
       </c>
       <c r="R2" t="n">
-        <v>327.9191589355469</v>
+        <v>291.9200744628906</v>
       </c>
       <c r="S2" t="n">
-        <v>327.602783203125</v>
+        <v>292.3177490234375</v>
       </c>
       <c r="T2" t="n">
-        <v>327.0769653320312</v>
+        <v>292.8634643554688</v>
       </c>
       <c r="U2" t="n">
-        <v>326.5548095703125</v>
+        <v>293.8348388671875</v>
       </c>
       <c r="V2" t="n">
-        <v>325.9747314453125</v>
+        <v>294.9551086425781</v>
       </c>
       <c r="W2" t="n">
-        <v>325.3954772949219</v>
+        <v>295.9546813964844</v>
       </c>
       <c r="X2" t="n">
-        <v>324.454345703125</v>
+        <v>296.8661499023438</v>
       </c>
       <c r="Y2" t="n">
-        <v>323.0077514648438</v>
+        <v>297.8627319335938</v>
       </c>
       <c r="Z2" t="n">
-        <v>321.5922546386719</v>
+        <v>299.3685913085938</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.4935302734375</v>
+        <v>301.1596069335938</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.4918823242188</v>
+        <v>303.4992065429688</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.7023315429688</v>
+        <v>306.3179321289062</v>
       </c>
       <c r="AD2" t="n">
-        <v>318.0507202148438</v>
+        <v>309.1011047363281</v>
       </c>
       <c r="AE2" t="n">
-        <v>317.0104675292969</v>
+        <v>310.936767578125</v>
       </c>
       <c r="AF2" t="n">
-        <v>316.3049621582031</v>
+        <v>312.0079956054688</v>
       </c>
       <c r="AG2" t="n">
-        <v>315.8745422363281</v>
+        <v>312.60693359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>315.59326171875</v>
+        <v>312.9475708007812</v>
       </c>
       <c r="AI2" t="n">
-        <v>315.3643188476562</v>
+        <v>313.1214599609375</v>
       </c>
       <c r="AJ2" t="n">
-        <v>315.2053527832031</v>
+        <v>313.1802978515625</v>
       </c>
       <c r="AK2" t="n">
-        <v>315.1751708984375</v>
+        <v>312.9562683105469</v>
       </c>
       <c r="AL2" t="n">
-        <v>315.2072448730469</v>
+        <v>312.5140380859375</v>
       </c>
       <c r="AM2" t="n">
-        <v>315.2434692382812</v>
+        <v>312.0848083496094</v>
       </c>
       <c r="AN2" t="n">
-        <v>315.4840393066406</v>
+        <v>311.7520446777344</v>
       </c>
       <c r="AO2" t="n">
-        <v>315.8947143554688</v>
+        <v>311.4210205078125</v>
       </c>
       <c r="AP2" t="n">
-        <v>316.679931640625</v>
+        <v>310.9424743652344</v>
       </c>
       <c r="AQ2" t="n">
-        <v>318.1597900390625</v>
+        <v>309.9951782226562</v>
       </c>
       <c r="AR2" t="n">
-        <v>320.3827209472656</v>
+        <v>309.2491760253906</v>
       </c>
       <c r="AS2" t="n">
-        <v>322.5437622070312</v>
+        <v>308.5946044921875</v>
       </c>
       <c r="AT2" t="n">
-        <v>323.9271850585938</v>
+        <v>307.4454040527344</v>
       </c>
       <c r="AU2" t="n">
-        <v>324.66943359375</v>
+        <v>306.2014465332031</v>
       </c>
       <c r="AV2" t="n">
-        <v>325.1763305664062</v>
+        <v>305.02294921875</v>
       </c>
       <c r="AW2" t="n">
-        <v>325.6110229492188</v>
+        <v>304.1786804199219</v>
       </c>
       <c r="AX2" t="n">
-        <v>325.8626098632812</v>
+        <v>303.3642578125</v>
       </c>
       <c r="AY2" t="n">
-        <v>325.9710083007812</v>
+        <v>302.6828002929688</v>
       </c>
       <c r="AZ2" t="n">
-        <v>326.0389404296875</v>
+        <v>302.3873291015625</v>
       </c>
       <c r="BA2" t="n">
-        <v>326.0689697265625</v>
+        <v>301.9971923828125</v>
       </c>
       <c r="BB2" t="n">
-        <v>326.0810852050781</v>
+        <v>301.7535095214844</v>
       </c>
       <c r="BC2" t="n">
-        <v>326.0764770507812</v>
+        <v>301.383544921875</v>
       </c>
       <c r="BD2" t="n">
-        <v>326.068359375</v>
+        <v>301.1863403320312</v>
       </c>
       <c r="BE2" t="n">
-        <v>326.0560302734375</v>
+        <v>301.0115051269531</v>
       </c>
       <c r="BF2" t="n">
-        <v>326.0413208007812</v>
+        <v>301.0798645019531</v>
       </c>
       <c r="BG2" t="n">
-        <v>326.0079345703125</v>
+        <v>301.2056884765625</v>
       </c>
       <c r="BH2" t="n">
-        <v>325.9528198242188</v>
+        <v>301.7486572265625</v>
       </c>
       <c r="BI2" t="n">
-        <v>325.87548828125</v>
+        <v>303.2307739257812</v>
       </c>
       <c r="BJ2" t="n">
-        <v>325.6910705566406</v>
+        <v>305.1002197265625</v>
       </c>
       <c r="BK2" t="n">
-        <v>325.4030151367188</v>
+        <v>307.2066040039062</v>
       </c>
       <c r="BL2" t="n">
-        <v>324.46044921875</v>
+        <v>309.076171875</v>
       </c>
       <c r="BM2" t="n">
-        <v>323.3978576660156</v>
+        <v>310.3935546875</v>
       </c>
       <c r="BN2" t="n">
-        <v>322.6705322265625</v>
+        <v>311.5378723144531</v>
       </c>
       <c r="BO2" t="n">
-        <v>322.3424072265625</v>
+        <v>312.3258361816406</v>
       </c>
       <c r="BP2" t="n">
-        <v>322.1820068359375</v>
+        <v>312.87939453125</v>
       </c>
       <c r="BQ2" t="n">
-        <v>322.0817260742188</v>
+        <v>313.3357543945312</v>
       </c>
       <c r="BR2" t="n">
-        <v>322.0735473632812</v>
+        <v>313.6248474121094</v>
       </c>
       <c r="BS2" t="n">
-        <v>322.0798034667969</v>
+        <v>313.8482360839844</v>
       </c>
       <c r="BT2" t="n">
-        <v>322.085205078125</v>
+        <v>313.8418273925781</v>
       </c>
       <c r="BU2" t="n">
-        <v>322.0871276855469</v>
+        <v>313.8032531738281</v>
       </c>
       <c r="BV2" t="n">
-        <v>322.0907592773438</v>
+        <v>313.7041625976562</v>
       </c>
       <c r="BW2" t="n">
-        <v>322.0950927734375</v>
+        <v>313.6493530273438</v>
       </c>
       <c r="BX2" t="n">
-        <v>322.0983276367188</v>
+        <v>313.3883361816406</v>
       </c>
       <c r="BY2" t="n">
-        <v>322.1026306152344</v>
+        <v>313.051025390625</v>
       </c>
       <c r="BZ2" t="n">
-        <v>322.1093139648438</v>
+        <v>312.4236755371094</v>
       </c>
       <c r="CA2" t="n">
-        <v>322.1195678710938</v>
+        <v>311.6228942871094</v>
       </c>
       <c r="CB2" t="n">
-        <v>322.0886840820312</v>
+        <v>310.580322265625</v>
       </c>
       <c r="CC2" t="n">
-        <v>322.0596618652344</v>
+        <v>309.9656066894531</v>
       </c>
       <c r="CD2" t="n">
-        <v>322.0035400390625</v>
+        <v>309.1277465820312</v>
       </c>
       <c r="CE2" t="n">
-        <v>321.9529418945312</v>
+        <v>308.8624572753906</v>
       </c>
       <c r="CF2" t="n">
-        <v>321.90087890625</v>
+        <v>308.5243835449219</v>
       </c>
       <c r="CG2" t="n">
-        <v>321.8399047851562</v>
+        <v>308.3696899414062</v>
       </c>
       <c r="CH2" t="n">
-        <v>321.7759399414062</v>
+        <v>308.1483459472656</v>
       </c>
       <c r="CI2" t="n">
-        <v>321.7166442871094</v>
+        <v>308.0278625488281</v>
       </c>
       <c r="CJ2" t="n">
-        <v>321.65185546875</v>
+        <v>307.9473876953125</v>
       </c>
       <c r="CK2" t="n">
-        <v>321.5953979492188</v>
+        <v>307.7655029296875</v>
       </c>
       <c r="CL2" t="n">
-        <v>321.5713806152344</v>
+        <v>307.6430053710938</v>
       </c>
       <c r="CM2" t="n">
-        <v>321.5299987792969</v>
+        <v>307.5155944824219</v>
       </c>
       <c r="CN2" t="n">
-        <v>321.4922790527344</v>
+        <v>307.3875122070312</v>
       </c>
       <c r="CO2" t="n">
-        <v>321.475341796875</v>
+        <v>307.26416015625</v>
       </c>
       <c r="CP2" t="n">
-        <v>321.4563598632812</v>
+        <v>307.0040588378906</v>
       </c>
       <c r="CQ2" t="n">
-        <v>321.439453125</v>
+        <v>306.8872680664062</v>
       </c>
       <c r="CR2" t="n">
-        <v>321.4010925292969</v>
+        <v>306.7669067382812</v>
       </c>
       <c r="CS2" t="n">
-        <v>321.3660278320312</v>
+        <v>306.6497497558594</v>
       </c>
       <c r="CT2" t="n">
-        <v>321.3336791992188</v>
+        <v>306.6419982910156</v>
       </c>
       <c r="CU2" t="n">
-        <v>321.2820739746094</v>
+        <v>306.6187133789062</v>
       </c>
       <c r="CV2" t="n">
-        <v>321.2249145507812</v>
+        <v>306.6019592285156</v>
       </c>
       <c r="CW2" t="n">
-        <v>321.1584777832031</v>
+        <v>306.5691223144531</v>
       </c>
       <c r="CX2" t="n">
-        <v>321.0883178710938</v>
+        <v>306.5517272949219</v>
       </c>
       <c r="CY2" t="n">
-        <v>321.0210876464844</v>
+        <v>306.5364990234375</v>
       </c>
       <c r="CZ2" t="n">
-        <v>320.9570922851562</v>
+        <v>306.5260620117188</v>
       </c>
       <c r="DA2" t="n">
-        <v>320.8897705078125</v>
+        <v>306.523681640625</v>
       </c>
       <c r="DB2" t="n">
-        <v>320.7503662109375</v>
+        <v>306.5174560546875</v>
       </c>
       <c r="DC2" t="n">
-        <v>320.6825256347656</v>
+        <v>306.5128479003906</v>
       </c>
       <c r="DD2" t="n">
-        <v>320.6195373535156</v>
+        <v>306.5060729980469</v>
       </c>
       <c r="DE2" t="n">
-        <v>320.5442810058594</v>
+        <v>306.5069274902344</v>
       </c>
       <c r="DF2" t="n">
-        <v>320.4718627929688</v>
+        <v>306.5102233886719</v>
       </c>
       <c r="DG2" t="n">
-        <v>320.3938293457031</v>
+        <v>306.5224914550781</v>
       </c>
       <c r="DH2" t="n">
-        <v>320.2707214355469</v>
+        <v>306.5332336425781</v>
       </c>
       <c r="DI2" t="n">
-        <v>320.14453125</v>
+        <v>306.5575256347656</v>
       </c>
       <c r="DJ2" t="n">
-        <v>320.0252990722656</v>
+        <v>306.5709838867188</v>
       </c>
       <c r="DK2" t="n">
-        <v>319.8532104492188</v>
+        <v>306.5902404785156</v>
       </c>
       <c r="DL2" t="n">
-        <v>319.7696228027344</v>
+        <v>306.5948181152344</v>
       </c>
       <c r="DM2" t="n">
-        <v>319.7467956542969</v>
+        <v>306.5972900390625</v>
       </c>
       <c r="DN2" t="n">
-        <v>319.7043762207031</v>
+        <v>306.5978698730469</v>
       </c>
       <c r="DO2" t="n">
-        <v>319.6835327148438</v>
+        <v>306.5978088378906</v>
       </c>
       <c r="DP2" t="n">
-        <v>319.66064453125</v>
+        <v>306.5977172851562</v>
       </c>
       <c r="DQ2" t="n">
-        <v>319.6350402832031</v>
+        <v>306.59765625</v>
       </c>
       <c r="DR2" t="n">
-        <v>319.6093139648438</v>
+        <v>306.5976867675781</v>
       </c>
       <c r="DS2" t="n">
-        <v>319.5704345703125</v>
+        <v>306.5977783203125</v>
       </c>
       <c r="DT2" t="n">
-        <v>319.467041015625</v>
+        <v>306.5978088378906</v>
       </c>
       <c r="DU2" t="n">
-        <v>319.4071044921875</v>
+        <v>306.5978088378906</v>
       </c>
       <c r="DV2" t="n">
-        <v>319.2808532714844</v>
+        <v>306.5978698730469</v>
       </c>
       <c r="DW2" t="n">
-        <v>319.2105712890625</v>
+        <v>306.597900390625</v>
       </c>
       <c r="DX2" t="n">
-        <v>319.1289978027344</v>
+        <v>306.5979309082031</v>
       </c>
       <c r="DY2" t="n">
-        <v>318.9596557617188</v>
+        <v>306.5979614257812</v>
       </c>
       <c r="DZ2" t="n">
-        <v>318.870361328125</v>
+        <v>306.5980224609375</v>
       </c>
       <c r="EA2" t="n">
-        <v>318.6780395507812</v>
+        <v>306.5980834960938</v>
       </c>
       <c r="EB2" t="n">
-        <v>318.5835876464844</v>
+        <v>306.6118469238281</v>
       </c>
       <c r="EC2" t="n">
-        <v>318.4788818359375</v>
+        <v>306.6204833984375</v>
       </c>
       <c r="ED2" t="n">
-        <v>318.2848815917969</v>
+        <v>306.6286315917969</v>
       </c>
       <c r="EE2" t="n">
-        <v>318.1821594238281</v>
+        <v>306.6527099609375</v>
       </c>
       <c r="EF2" t="n">
-        <v>317.9844970703125</v>
+        <v>306.6646423339844</v>
       </c>
       <c r="EG2" t="n">
-        <v>317.8833618164062</v>
+        <v>306.6827087402344</v>
       </c>
       <c r="EH2" t="n">
-        <v>317.7816162109375</v>
+        <v>306.7198486328125</v>
       </c>
       <c r="EI2" t="n">
-        <v>317.6031799316406</v>
+        <v>306.7532348632812</v>
       </c>
       <c r="EJ2" t="n">
-        <v>317.56298828125</v>
+        <v>306.7687377929688</v>
       </c>
       <c r="EK2" t="n">
-        <v>317.523681640625</v>
+        <v>306.771728515625</v>
       </c>
       <c r="EL2" t="n">
-        <v>317.5068359375</v>
+        <v>306.7605895996094</v>
       </c>
       <c r="EM2" t="n">
-        <v>317.4889831542969</v>
+        <v>306.7506103515625</v>
       </c>
       <c r="EN2" t="n">
-        <v>317.4810485839844</v>
+        <v>306.7485961914062</v>
       </c>
       <c r="EO2" t="n">
-        <v>317.4476623535156</v>
+        <v>306.7462158203125</v>
       </c>
       <c r="EP2" t="n">
-        <v>317.4317932128906</v>
+        <v>306.744873046875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>317.41748046875</v>
+        <v>306.744384765625</v>
       </c>
       <c r="ER2" t="n">
-        <v>317.4124145507812</v>
+        <v>306.7437438964844</v>
       </c>
       <c r="ES2" t="n">
-        <v>317.4119262695312</v>
+        <v>306.7432861328125</v>
       </c>
       <c r="ET2" t="n">
-        <v>317.4114074707031</v>
+        <v>306.7400512695312</v>
       </c>
       <c r="EU2" t="n">
-        <v>317.4114074707031</v>
+        <v>306.7359619140625</v>
       </c>
       <c r="EV2" t="n">
-        <v>317.4114379882812</v>
+        <v>306.7760009765625</v>
       </c>
       <c r="EW2" t="n">
-        <v>317.4118957519531</v>
+        <v>306.7909545898438</v>
       </c>
       <c r="EX2" t="n">
-        <v>317.4136047363281</v>
+        <v>306.8040466308594</v>
       </c>
       <c r="EY2" t="n">
-        <v>317.4197998046875</v>
+        <v>306.8105163574219</v>
       </c>
       <c r="EZ2" t="n">
-        <v>317.4317932128906</v>
+        <v>306.8176574707031</v>
       </c>
       <c r="FA2" t="n">
-        <v>317.4674682617188</v>
+        <v>306.8182983398438</v>
       </c>
       <c r="FB2" t="n">
-        <v>317.4810180664062</v>
+        <v>306.8217468261719</v>
       </c>
       <c r="FC2" t="n">
-        <v>317.4871826171875</v>
+        <v>306.8236999511719</v>
       </c>
       <c r="FD2" t="n">
-        <v>317.4878234863281</v>
+        <v>306.824462890625</v>
       </c>
       <c r="FE2" t="n">
-        <v>317.4879455566406</v>
+        <v>306.8266906738281</v>
       </c>
       <c r="FF2" t="n">
-        <v>317.4865112304688</v>
+        <v>306.8306274414062</v>
       </c>
       <c r="FG2" t="n">
-        <v>317.4837951660156</v>
+        <v>306.8373107910156</v>
       </c>
       <c r="FH2" t="n">
-        <v>317.4820861816406</v>
+        <v>306.8443603515625</v>
       </c>
       <c r="FI2" t="n">
-        <v>317.4732666015625</v>
+        <v>306.8487243652344</v>
       </c>
       <c r="FJ2" t="n">
-        <v>317.4430541992188</v>
+        <v>306.8514709472656</v>
       </c>
       <c r="FK2" t="n">
-        <v>317.3993835449219</v>
+        <v>306.8629455566406</v>
       </c>
       <c r="FL2" t="n">
-        <v>317.2709350585938</v>
+        <v>306.870361328125</v>
       </c>
       <c r="FM2" t="n">
-        <v>317.189697265625</v>
+        <v>306.8761596679688</v>
       </c>
       <c r="FN2" t="n">
-        <v>317.0408630371094</v>
+        <v>306.8789672851562</v>
       </c>
       <c r="FO2" t="n">
-        <v>316.9743957519531</v>
+        <v>306.8817749023438</v>
       </c>
       <c r="FP2" t="n">
-        <v>316.8469543457031</v>
+        <v>306.8830871582031</v>
       </c>
       <c r="FQ2" t="n">
-        <v>316.785888671875</v>
+        <v>306.8836364746094</v>
       </c>
       <c r="FR2" t="n">
-        <v>316.6763916015625</v>
+        <v>306.8841552734375</v>
       </c>
       <c r="FS2" t="n">
-        <v>316.6254577636719</v>
+        <v>306.8848876953125</v>
       </c>
       <c r="FT2" t="n">
-        <v>316.5205383300781</v>
+        <v>306.8863830566406</v>
       </c>
       <c r="FU2" t="n">
-        <v>316.4269104003906</v>
+        <v>306.893798828125</v>
       </c>
       <c r="FV2" t="n">
-        <v>316.3622741699219</v>
+        <v>306.8961486816406</v>
       </c>
       <c r="FW2" t="n">
-        <v>316.2366943359375</v>
+        <v>306.8941955566406</v>
       </c>
       <c r="FX2" t="n">
-        <v>316.1746826171875</v>
+        <v>306.8812866210938</v>
       </c>
       <c r="FY2" t="n">
-        <v>315.9599914550781</v>
+        <v>306.8870849609375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>315.8685302734375</v>
+        <v>306.8895874023438</v>
       </c>
       <c r="GA2" t="n">
-        <v>315.7442626953125</v>
+        <v>306.8910522460938</v>
       </c>
       <c r="GB2" t="n">
-        <v>315.694091796875</v>
+        <v>306.891845703125</v>
       </c>
       <c r="GC2" t="n">
-        <v>315.6114807128906</v>
+        <v>306.8925170898438</v>
       </c>
       <c r="GD2" t="n">
-        <v>315.55615234375</v>
+        <v>306.8934631347656</v>
       </c>
       <c r="GE2" t="n">
-        <v>315.4570922851562</v>
+        <v>306.8939514160156</v>
       </c>
       <c r="GF2" t="n">
-        <v>315.3604125976562</v>
+        <v>306.7131958007812</v>
       </c>
       <c r="GG2" t="n">
-        <v>315.3431091308594</v>
+        <v>306.4338989257812</v>
       </c>
       <c r="GH2" t="n">
-        <v>315.3129577636719</v>
+        <v>306.2424621582031</v>
       </c>
       <c r="GI2" t="n">
-        <v>315.3013000488281</v>
+        <v>306.0791320800781</v>
       </c>
       <c r="GJ2" t="n">
-        <v>315.2995300292969</v>
+        <v>306.0016479492188</v>
       </c>
       <c r="GK2" t="n">
-        <v>315.3031616210938</v>
+        <v>305.980224609375</v>
       </c>
       <c r="GL2" t="n">
-        <v>315.3291625976562</v>
+        <v>305.9888610839844</v>
       </c>
       <c r="GM2" t="n">
-        <v>315.3987731933594</v>
+        <v>305.9898071289062</v>
       </c>
       <c r="GN2" t="n">
-        <v>315.4156188964844</v>
+        <v>305.9937744140625</v>
       </c>
       <c r="GO2" t="n">
-        <v>315.4301147460938</v>
+        <v>305.998046875</v>
       </c>
       <c r="GP2" t="n">
-        <v>315.4347839355469</v>
+        <v>306.003173828125</v>
       </c>
       <c r="GQ2" t="n">
-        <v>315.4375610351562</v>
+        <v>306.0116577148438</v>
       </c>
       <c r="GR2" t="n">
-        <v>315.4383544921875</v>
+        <v>306.0169067382812</v>
       </c>
       <c r="GS2" t="n">
-        <v>315.439697265625</v>
+        <v>306.0236206054688</v>
       </c>
       <c r="GT2" t="n">
-        <v>315.3833923339844</v>
+        <v>306.0474853515625</v>
       </c>
       <c r="GU2" t="n">
-        <v>315.3252258300781</v>
+        <v>306.0703430175781</v>
       </c>
       <c r="GV2" t="n">
-        <v>315.2584838867188</v>
+        <v>306.0808410644531</v>
       </c>
       <c r="GW2" t="n">
-        <v>315.1956176757812</v>
+        <v>306.1755676269531</v>
       </c>
       <c r="GX2" t="n">
-        <v>315.1316833496094</v>
+        <v>306.3605041503906</v>
       </c>
       <c r="GY2" t="n">
-        <v>315.0785827636719</v>
+        <v>306.5337829589844</v>
       </c>
       <c r="GZ2" t="n">
-        <v>315.0482177734375</v>
+        <v>306.712646484375</v>
       </c>
       <c r="HA2" t="n">
-        <v>315.0181274414062</v>
+        <v>306.8908996582031</v>
       </c>
       <c r="HB2" t="n">
-        <v>315.0127868652344</v>
+        <v>307.0768737792969</v>
       </c>
       <c r="HC2" t="n">
-        <v>315.0094299316406</v>
+        <v>307.1185913085938</v>
       </c>
       <c r="HD2" t="n">
-        <v>315.0088195800781</v>
+        <v>307.1135864257812</v>
       </c>
       <c r="HE2" t="n">
-        <v>315.0050354003906</v>
+        <v>307.1116027832031</v>
       </c>
       <c r="HF2" t="n">
-        <v>314.9862365722656</v>
+        <v>307.1102600097656</v>
       </c>
       <c r="HG2" t="n">
-        <v>314.9223327636719</v>
+        <v>307.1094055175781</v>
       </c>
       <c r="HH2" t="n">
-        <v>314.8846435546875</v>
+        <v>307.1086120605469</v>
       </c>
       <c r="HI2" t="n">
-        <v>314.8858032226562</v>
+        <v>307.1078796386719</v>
       </c>
       <c r="HJ2" t="n">
-        <v>314.8895874023438</v>
+        <v>307.1074829101562</v>
       </c>
       <c r="HK2" t="n">
-        <v>314.8935241699219</v>
+        <v>307.1116333007812</v>
       </c>
       <c r="HL2" t="n">
-        <v>314.8966369628906</v>
+        <v>307.11083984375</v>
       </c>
       <c r="HM2" t="n">
-        <v>314.8966064453125</v>
+        <v>307.1065979003906</v>
       </c>
       <c r="HN2" t="n">
-        <v>314.8972778320312</v>
+        <v>307.1026611328125</v>
       </c>
       <c r="HO2" t="n">
-        <v>314.8971252441406</v>
+        <v>306.9625854492188</v>
       </c>
       <c r="HP2" t="n">
-        <v>314.8957214355469</v>
+        <v>306.9207763671875</v>
       </c>
       <c r="HQ2" t="n">
-        <v>314.8958129882812</v>
+        <v>306.7530822753906</v>
       </c>
       <c r="HR2" t="n">
-        <v>314.9295043945312</v>
+        <v>306.5166931152344</v>
       </c>
       <c r="HS2" t="n">
-        <v>314.9831237792969</v>
+        <v>306.4270629882812</v>
       </c>
       <c r="HT2" t="n">
-        <v>315.0140075683594</v>
+        <v>306.3623046875</v>
       </c>
       <c r="HU2" t="n">
-        <v>315.0130615234375</v>
+        <v>306.3607177734375</v>
       </c>
       <c r="HV2" t="n">
-        <v>315.0105590820312</v>
+        <v>306.3633728027344</v>
       </c>
       <c r="HW2" t="n">
-        <v>315.0094604492188</v>
+        <v>306.3749389648438</v>
       </c>
       <c r="HX2" t="n">
-        <v>314.9865112304688</v>
+        <v>306.3762512207031</v>
       </c>
       <c r="HY2" t="n">
-        <v>314.9381103515625</v>
+        <v>306.3820190429688</v>
       </c>
       <c r="HZ2" t="n">
-        <v>314.9137268066406</v>
+        <v>306.3870849609375</v>
       </c>
       <c r="IA2" t="n">
-        <v>314.8086547851562</v>
+        <v>306.388671875</v>
       </c>
       <c r="IB2" t="n">
-        <v>314.7096557617188</v>
+        <v>306.6889343261719</v>
       </c>
       <c r="IC2" t="n">
-        <v>314.5384521484375</v>
+        <v>306.9093627929688</v>
       </c>
       <c r="ID2" t="n">
-        <v>314.4002685546875</v>
+        <v>307.0951538085938</v>
       </c>
       <c r="IE2" t="n">
-        <v>314.2601623535156</v>
+        <v>307.374755859375</v>
       </c>
       <c r="IF2" t="n">
-        <v>314.3792114257812</v>
+        <v>307.5099182128906</v>
       </c>
       <c r="IG2" t="n">
-        <v>314.4925231933594</v>
+        <v>307.5072937011719</v>
       </c>
       <c r="IH2" t="n">
-        <v>314.4845275878906</v>
+        <v>307.4931030273438</v>
       </c>
       <c r="II2" t="n">
-        <v>314.4689636230469</v>
+        <v>307.4899291992188</v>
       </c>
       <c r="IJ2" t="n">
-        <v>314.4634399414062</v>
+        <v>307.4889831542969</v>
       </c>
       <c r="IK2" t="n">
-        <v>314.4606018066406</v>
+        <v>307.3772888183594</v>
       </c>
       <c r="IL2" t="n">
-        <v>314.4590454101562</v>
+        <v>307.1269226074219</v>
       </c>
       <c r="IM2" t="n">
-        <v>314.424072265625</v>
+        <v>306.7405700683594</v>
       </c>
       <c r="IN2" t="n">
-        <v>314.3720397949219</v>
+        <v>306.3979187011719</v>
       </c>
       <c r="IO2" t="n">
-        <v>314.3550109863281</v>
+        <v>306.1651000976562</v>
       </c>
       <c r="IP2" t="n">
-        <v>314.3494567871094</v>
+        <v>306.0121154785156</v>
       </c>
       <c r="IQ2" t="n">
-        <v>314.347900390625</v>
+        <v>305.9804382324219</v>
       </c>
       <c r="IR2" t="n">
-        <v>314.3474731445312</v>
+        <v>305.9817504882812</v>
       </c>
       <c r="IS2" t="n">
-        <v>314.3515014648438</v>
+        <v>305.9833679199219</v>
       </c>
       <c r="IT2" t="n">
-        <v>314.3597106933594</v>
+        <v>305.9866027832031</v>
       </c>
       <c r="IU2" t="n">
-        <v>314.3673095703125</v>
+        <v>305.9879455566406</v>
       </c>
       <c r="IV2" t="n">
-        <v>315.0992431640625</v>
+        <v>305.9886169433594</v>
       </c>
       <c r="IW2" t="n">
-        <v>315.5579223632812</v>
+        <v>305.9906921386719</v>
       </c>
       <c r="IX2" t="n">
-        <v>315.7560424804688</v>
+        <v>305.9907531738281</v>
       </c>
       <c r="IY2" t="n">
-        <v>315.7825317382812</v>
+        <v>305.9901123046875</v>
       </c>
       <c r="IZ2" t="n">
-        <v>315.7754821777344</v>
+        <v>305.9893188476562</v>
       </c>
       <c r="JA2" t="n">
-        <v>315.7646179199219</v>
+        <v>305.9878845214844</v>
       </c>
       <c r="JB2" t="n">
-        <v>315.7461547851562</v>
+        <v>305.9867858886719</v>
       </c>
       <c r="JC2" t="n">
-        <v>315.7278137207031</v>
+        <v>305.9848022460938</v>
       </c>
       <c r="JD2" t="n">
-        <v>315.62744140625</v>
+        <v>305.6889343261719</v>
       </c>
       <c r="JE2" t="n">
-        <v>315.458740234375</v>
+        <v>305.0943908691406</v>
       </c>
       <c r="JF2" t="n">
-        <v>315.27978515625</v>
+        <v>305.0847778320312</v>
       </c>
       <c r="JG2" t="n">
-        <v>314.9988708496094</v>
+        <v>305.2033996582031</v>
       </c>
       <c r="JH2" t="n">
-        <v>314.5350341796875</v>
+        <v>305.428955078125</v>
       </c>
       <c r="JI2" t="n">
-        <v>314.1677551269531</v>
+        <v>305.6327209472656</v>
       </c>
       <c r="JJ2" t="n">
-        <v>313.8027038574219</v>
+        <v>305.891845703125</v>
       </c>
       <c r="JK2" t="n">
-        <v>313.4620971679688</v>
+        <v>305.9712524414062</v>
       </c>
       <c r="JL2" t="n">
-        <v>313.1032104492188</v>
+        <v>306.0043029785156</v>
       </c>
       <c r="JM2" t="n">
-        <v>312.769287109375</v>
+        <v>306.0939636230469</v>
       </c>
       <c r="JN2" t="n">
-        <v>312.470703125</v>
+        <v>306.162841796875</v>
       </c>
       <c r="JO2" t="n">
-        <v>312.41162109375</v>
+        <v>306.2103271484375</v>
       </c>
       <c r="JP2" t="n">
-        <v>312.460205078125</v>
+        <v>306.2783813476562</v>
       </c>
       <c r="JQ2" t="n">
-        <v>312.6200561523438</v>
+        <v>306.3715515136719</v>
       </c>
       <c r="JR2" t="n">
-        <v>313.1585693359375</v>
+        <v>306.5062561035156</v>
       </c>
       <c r="JS2" t="n">
-        <v>313.5589904785156</v>
+        <v>306.6796875</v>
       </c>
       <c r="JT2" t="n">
-        <v>313.6705322265625</v>
+        <v>306.5939331054688</v>
       </c>
       <c r="JU2" t="n">
-        <v>313.6832275390625</v>
+        <v>306.4551086425781</v>
       </c>
       <c r="JV2" t="n">
-        <v>313.6850891113281</v>
+        <v>306.4703979492188</v>
       </c>
       <c r="JW2" t="n">
-        <v>313.6886596679688</v>
+        <v>306.4750671386719</v>
       </c>
       <c r="JX2" t="n">
-        <v>313.3435363769531</v>
+        <v>306.4773559570312</v>
       </c>
       <c r="JY2" t="n">
-        <v>313.0244445800781</v>
+        <v>306.4808349609375</v>
       </c>
       <c r="JZ2" t="n">
-        <v>312.6165771484375</v>
+        <v>306.4867858886719</v>
       </c>
       <c r="KA2" t="n">
-        <v>310.3224487304688</v>
+        <v>306.5476989746094</v>
       </c>
       <c r="KB2" t="n">
-        <v>308.91748046875</v>
+        <v>307.5553894042969</v>
       </c>
       <c r="KC2" t="n">
-        <v>308.4203491210938</v>
+        <v>310.4253540039062</v>
       </c>
       <c r="KD2" t="n">
-        <v>307.7113037109375</v>
+        <v>311.2851867675781</v>
       </c>
       <c r="KE2" t="n">
-        <v>307.4568176269531</v>
+        <v>311.4630432128906</v>
       </c>
       <c r="KF2" t="n">
-        <v>306.9488830566406</v>
+        <v>311.4971008300781</v>
       </c>
       <c r="KG2" t="n">
-        <v>303.3173217773438</v>
+        <v>311.5029907226562</v>
       </c>
       <c r="KH2" t="n">
-        <v>302.2128295898438</v>
+        <v>311.5159606933594</v>
       </c>
       <c r="KI2" t="n">
-        <v>301.865234375</v>
+        <v>311.5245361328125</v>
       </c>
       <c r="KJ2" t="n">
-        <v>303.447509765625</v>
+        <v>311.5218505859375</v>
       </c>
       <c r="KK2" t="n">
-        <v>304.0953674316406</v>
+        <v>311.5140075683594</v>
       </c>
       <c r="KL2" t="n">
-        <v>305.4018859863281</v>
+        <v>311.5024719238281</v>
       </c>
       <c r="KM2" t="n">
-        <v>306.9219055175781</v>
+        <v>311.5027465820312</v>
       </c>
       <c r="KN2" t="n">
-        <v>309.235107421875</v>
+        <v>311.5045166015625</v>
       </c>
       <c r="KO2" t="n">
-        <v>315.8019104003906</v>
+        <v>313.7509155273438</v>
       </c>
       <c r="KP2" t="n">
-        <v>318.2457885742188</v>
+        <v>316.2109375</v>
       </c>
       <c r="KQ2" t="n">
-        <v>319.3001098632812</v>
+        <v>317.3585205078125</v>
       </c>
       <c r="KR2" t="n">
-        <v>320.4422302246094</v>
+        <v>318.5733642578125</v>
       </c>
       <c r="KS2" t="n">
-        <v>320.99267578125</v>
+        <v>319.3448791503906</v>
       </c>
       <c r="KT2" t="n">
-        <v>320.8732299804688</v>
+        <v>320.2796020507812</v>
       </c>
       <c r="KU2" t="n">
-        <v>320.6600341796875</v>
+        <v>320.4238586425781</v>
       </c>
       <c r="KV2" t="n">
-        <v>319.5611572265625</v>
+        <v>319.6911010742188</v>
       </c>
       <c r="KW2" t="n">
-        <v>316.4966735839844</v>
+        <v>315.239013671875</v>
       </c>
       <c r="KX2" t="n">
-        <v>308.2821044921875</v>
+        <v>310.8271789550781</v>
       </c>
       <c r="KY2" t="n">
-        <v>306.2554931640625</v>
+        <v>309.7097778320312</v>
       </c>
       <c r="KZ2" t="n">
-        <v>305.4930725097656</v>
+        <v>308.5916748046875</v>
       </c>
       <c r="LA2" t="n">
-        <v>304.36865234375</v>
+        <v>306.8458557128906</v>
       </c>
       <c r="LB2" t="n">
-        <v>303.5699157714844</v>
+        <v>310.4974365234375</v>
       </c>
       <c r="LC2" t="n">
-        <v>302.6882934570312</v>
+        <v>312.4524536132812</v>
       </c>
       <c r="LD2" t="n">
-        <v>301.463623046875</v>
+        <v>315.965576171875</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>319.1126708984375</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>319.7235107421875</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>316.8390502929688</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>314.2305603027344</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>312.2824096679688</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>309.9581909179688</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>305.675537109375</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>288.1883544921875</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>279.3144836425781</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>294.2773742675781</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>315.8886108398438</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>321.6050720214844</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>319.7168579101562</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>341.5593872070312</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>356.8125</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>359.9898071289062</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>364.0231018066406</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>368.62109375</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>377.8609924316406</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>387.114990234375</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>388.5091552734375</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>390.07763671875</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>392.8665771484375</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>402.5647277832031</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>422.7379760742188</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>423.7738342285156</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>423.0142822265625</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>422.5094299316406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>312.7689208984375</v>
+        <v>293.6532287597656</v>
       </c>
       <c r="B3" t="n">
-        <v>311.426513671875</v>
+        <v>291.7953491210938</v>
       </c>
       <c r="C3" t="n">
-        <v>311.5634460449219</v>
+        <v>289.2275085449219</v>
       </c>
       <c r="D3" t="n">
-        <v>310.5093383789062</v>
+        <v>286.542724609375</v>
       </c>
       <c r="E3" t="n">
-        <v>306.6249084472656</v>
+        <v>284.0864868164062</v>
       </c>
       <c r="F3" t="n">
-        <v>303.6103820800781</v>
+        <v>282.9493408203125</v>
       </c>
       <c r="G3" t="n">
-        <v>301.8594665527344</v>
+        <v>282.7289428710938</v>
       </c>
       <c r="H3" t="n">
-        <v>300.9269409179688</v>
+        <v>282.1472473144531</v>
       </c>
       <c r="I3" t="n">
-        <v>301.7634582519531</v>
+        <v>281.2093811035156</v>
       </c>
       <c r="J3" t="n">
-        <v>302.5257568359375</v>
+        <v>280.2527160644531</v>
       </c>
       <c r="K3" t="n">
-        <v>304.0387268066406</v>
+        <v>279.2584533691406</v>
       </c>
       <c r="L3" t="n">
-        <v>305.0259399414062</v>
+        <v>278.2314453125</v>
       </c>
       <c r="M3" t="n">
-        <v>305.9791564941406</v>
+        <v>276.4862060546875</v>
       </c>
       <c r="N3" t="n">
-        <v>305.6152954101562</v>
+        <v>273.1119689941406</v>
       </c>
       <c r="O3" t="n">
-        <v>304.9520874023438</v>
+        <v>270.6037292480469</v>
       </c>
       <c r="P3" t="n">
-        <v>303.9962158203125</v>
+        <v>268.662109375</v>
       </c>
       <c r="Q3" t="n">
-        <v>302.0640563964844</v>
+        <v>267.4936218261719</v>
       </c>
       <c r="R3" t="n">
-        <v>298.8891906738281</v>
+        <v>267.2461853027344</v>
       </c>
       <c r="S3" t="n">
-        <v>296.4949951171875</v>
+        <v>267.0316772460938</v>
       </c>
       <c r="T3" t="n">
-        <v>294.7578430175781</v>
+        <v>267.2322998046875</v>
       </c>
       <c r="U3" t="n">
-        <v>293.515869140625</v>
+        <v>267.537353515625</v>
       </c>
       <c r="V3" t="n">
-        <v>293.0928344726562</v>
+        <v>267.9836120605469</v>
       </c>
       <c r="W3" t="n">
-        <v>295.1629028320312</v>
+        <v>267.564208984375</v>
       </c>
       <c r="X3" t="n">
-        <v>297.5220336914062</v>
+        <v>267.3454284667969</v>
       </c>
       <c r="Y3" t="n">
-        <v>299.3203430175781</v>
+        <v>267.1698608398438</v>
       </c>
       <c r="Z3" t="n">
-        <v>301.8486328125</v>
+        <v>266.9789733886719</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.95068359375</v>
+        <v>266.6211242675781</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.1094360351562</v>
+        <v>266.2320251464844</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.0000915527344</v>
+        <v>265.501220703125</v>
       </c>
       <c r="AD3" t="n">
-        <v>309.9933166503906</v>
+        <v>264.6260070800781</v>
       </c>
       <c r="AE3" t="n">
-        <v>310.1451416015625</v>
+        <v>263.5425415039062</v>
       </c>
       <c r="AF3" t="n">
-        <v>310.3563842773438</v>
+        <v>261.5006408691406</v>
       </c>
       <c r="AG3" t="n">
-        <v>310.4226989746094</v>
+        <v>259.6366882324219</v>
       </c>
       <c r="AH3" t="n">
-        <v>310.5006713867188</v>
+        <v>257.6240844726562</v>
       </c>
       <c r="AI3" t="n">
-        <v>310.2406005859375</v>
+        <v>257.072265625</v>
       </c>
       <c r="AJ3" t="n">
-        <v>309.6710815429688</v>
+        <v>257.2610168457031</v>
       </c>
       <c r="AK3" t="n">
-        <v>309.2031860351562</v>
+        <v>257.0107421875</v>
       </c>
       <c r="AL3" t="n">
-        <v>309.0292663574219</v>
+        <v>256.4797973632812</v>
       </c>
       <c r="AM3" t="n">
-        <v>309.0438537597656</v>
+        <v>255.7226867675781</v>
       </c>
       <c r="AN3" t="n">
-        <v>309.0888671875</v>
+        <v>254.2330780029297</v>
       </c>
       <c r="AO3" t="n">
-        <v>309.2944641113281</v>
+        <v>253.6820068359375</v>
       </c>
       <c r="AP3" t="n">
-        <v>308.7243347167969</v>
+        <v>253.7388610839844</v>
       </c>
       <c r="AQ3" t="n">
-        <v>308.2331237792969</v>
+        <v>253.7232666015625</v>
       </c>
       <c r="AR3" t="n">
-        <v>307.7848205566406</v>
+        <v>253.5737457275391</v>
       </c>
       <c r="AS3" t="n">
-        <v>307.3950805664062</v>
+        <v>253.5465393066406</v>
       </c>
       <c r="AT3" t="n">
-        <v>307.0378112792969</v>
+        <v>253.3703918457031</v>
       </c>
       <c r="AU3" t="n">
-        <v>306.9130554199219</v>
+        <v>253.4368591308594</v>
       </c>
       <c r="AV3" t="n">
-        <v>307.2442932128906</v>
+        <v>253.9319000244141</v>
       </c>
       <c r="AW3" t="n">
-        <v>308.0095520019531</v>
+        <v>254.4972076416016</v>
       </c>
       <c r="AX3" t="n">
-        <v>309.677734375</v>
+        <v>254.8213500976562</v>
       </c>
       <c r="AY3" t="n">
-        <v>310.7287292480469</v>
+        <v>254.8987426757812</v>
       </c>
       <c r="AZ3" t="n">
-        <v>311.5367126464844</v>
+        <v>254.4674530029297</v>
       </c>
       <c r="BA3" t="n">
-        <v>312.0050354003906</v>
+        <v>253.6736297607422</v>
       </c>
       <c r="BB3" t="n">
-        <v>312.3241882324219</v>
+        <v>253.0336761474609</v>
       </c>
       <c r="BC3" t="n">
-        <v>312.5179748535156</v>
+        <v>252.2672729492188</v>
       </c>
       <c r="BD3" t="n">
-        <v>312.6177062988281</v>
+        <v>251.8284912109375</v>
       </c>
       <c r="BE3" t="n">
-        <v>312.7049865722656</v>
+        <v>252.2664031982422</v>
       </c>
       <c r="BF3" t="n">
-        <v>312.6712341308594</v>
+        <v>252.8179626464844</v>
       </c>
       <c r="BG3" t="n">
-        <v>312.5422668457031</v>
+        <v>253.0035247802734</v>
       </c>
       <c r="BH3" t="n">
-        <v>312.453125</v>
+        <v>253.0849761962891</v>
       </c>
       <c r="BI3" t="n">
-        <v>312.4463195800781</v>
+        <v>253.1747283935547</v>
       </c>
       <c r="BJ3" t="n">
-        <v>312.4987487792969</v>
+        <v>253.2320556640625</v>
       </c>
       <c r="BK3" t="n">
-        <v>312.5667724609375</v>
+        <v>253.3394012451172</v>
       </c>
       <c r="BL3" t="n">
-        <v>312.760009765625</v>
+        <v>253.4631500244141</v>
       </c>
       <c r="BM3" t="n">
-        <v>312.9758605957031</v>
+        <v>253.597900390625</v>
       </c>
       <c r="BN3" t="n">
-        <v>313.1001281738281</v>
+        <v>253.7412414550781</v>
       </c>
       <c r="BO3" t="n">
-        <v>313.1526184082031</v>
+        <v>253.9388732910156</v>
       </c>
       <c r="BP3" t="n">
-        <v>313.1636352539062</v>
+        <v>254.2175598144531</v>
       </c>
       <c r="BQ3" t="n">
-        <v>313.1187744140625</v>
+        <v>254.4476165771484</v>
       </c>
       <c r="BR3" t="n">
-        <v>313.0690002441406</v>
+        <v>254.6280975341797</v>
       </c>
       <c r="BS3" t="n">
-        <v>313.0247192382812</v>
+        <v>254.8246765136719</v>
       </c>
       <c r="BT3" t="n">
-        <v>312.9962463378906</v>
+        <v>255.0015106201172</v>
       </c>
       <c r="BU3" t="n">
-        <v>312.9718627929688</v>
+        <v>255.1694946289062</v>
       </c>
       <c r="BV3" t="n">
-        <v>312.9578857421875</v>
+        <v>255.5299682617188</v>
       </c>
       <c r="BW3" t="n">
-        <v>312.9544982910156</v>
+        <v>256.3074645996094</v>
       </c>
       <c r="BX3" t="n">
-        <v>312.9570922851562</v>
+        <v>257.3759460449219</v>
       </c>
       <c r="BY3" t="n">
-        <v>312.9680480957031</v>
+        <v>257.6174621582031</v>
       </c>
       <c r="BZ3" t="n">
-        <v>312.9865112304688</v>
+        <v>257.6915893554688</v>
       </c>
       <c r="CA3" t="n">
-        <v>313.0688781738281</v>
+        <v>257.5337829589844</v>
       </c>
       <c r="CB3" t="n">
-        <v>313.1423034667969</v>
+        <v>257.4526062011719</v>
       </c>
       <c r="CC3" t="n">
-        <v>313.198974609375</v>
+        <v>257.3686828613281</v>
       </c>
       <c r="CD3" t="n">
-        <v>313.2378234863281</v>
+        <v>257.4152526855469</v>
       </c>
       <c r="CE3" t="n">
-        <v>313.2909545898438</v>
+        <v>257.458740234375</v>
       </c>
       <c r="CF3" t="n">
-        <v>313.3354187011719</v>
+        <v>257.4977111816406</v>
       </c>
       <c r="CG3" t="n">
-        <v>313.3709411621094</v>
+        <v>257.5260009765625</v>
       </c>
       <c r="CH3" t="n">
-        <v>313.389892578125</v>
+        <v>257.5244445800781</v>
       </c>
       <c r="CI3" t="n">
-        <v>313.4251098632812</v>
+        <v>257.5191650390625</v>
       </c>
       <c r="CJ3" t="n">
-        <v>313.4572143554688</v>
+        <v>257.5146789550781</v>
       </c>
       <c r="CK3" t="n">
-        <v>313.4446411132812</v>
+        <v>257.5121765136719</v>
       </c>
       <c r="CL3" t="n">
-        <v>313.4154968261719</v>
+        <v>257.5093688964844</v>
       </c>
       <c r="CM3" t="n">
-        <v>313.3768615722656</v>
+        <v>257.5081787109375</v>
       </c>
       <c r="CN3" t="n">
-        <v>313.3665466308594</v>
+        <v>257.5060729980469</v>
       </c>
       <c r="CO3" t="n">
-        <v>313.36572265625</v>
+        <v>257.5054016113281</v>
       </c>
       <c r="CP3" t="n">
-        <v>313.3597717285156</v>
+        <v>257.5025329589844</v>
       </c>
       <c r="CQ3" t="n">
-        <v>313.35986328125</v>
+        <v>257.5000305175781</v>
       </c>
       <c r="CR3" t="n">
-        <v>313.3616333007812</v>
+        <v>257.4993286132812</v>
       </c>
       <c r="CS3" t="n">
-        <v>313.36669921875</v>
+        <v>258.4556274414062</v>
       </c>
       <c r="CT3" t="n">
-        <v>313.5819702148438</v>
+        <v>258.2630004882812</v>
       </c>
       <c r="CU3" t="n">
-        <v>312.9277038574219</v>
+        <v>257.98486328125</v>
       </c>
       <c r="CV3" t="n">
-        <v>312.3156127929688</v>
+        <v>257.8846740722656</v>
       </c>
       <c r="CW3" t="n">
-        <v>311.6961975097656</v>
+        <v>257.739013671875</v>
       </c>
       <c r="CX3" t="n">
-        <v>311.1891479492188</v>
+        <v>257.6867980957031</v>
       </c>
       <c r="CY3" t="n">
-        <v>310.8396606445312</v>
+        <v>257.6434020996094</v>
       </c>
       <c r="CZ3" t="n">
-        <v>310.6734924316406</v>
+        <v>257.5792236328125</v>
       </c>
       <c r="DA3" t="n">
-        <v>310.5847778320312</v>
+        <v>257.5570678710938</v>
       </c>
       <c r="DB3" t="n">
-        <v>310.4328918457031</v>
+        <v>257.5258483886719</v>
       </c>
       <c r="DC3" t="n">
-        <v>310.4007263183594</v>
+        <v>257.5154724121094</v>
       </c>
       <c r="DD3" t="n">
-        <v>310.3921203613281</v>
+        <v>257.4990844726562</v>
       </c>
       <c r="DE3" t="n">
-        <v>310.4046325683594</v>
+        <v>257.4876708984375</v>
       </c>
       <c r="DF3" t="n">
-        <v>310.41015625</v>
+        <v>257.4752502441406</v>
       </c>
       <c r="DG3" t="n">
-        <v>310.4317321777344</v>
+        <v>257.4502258300781</v>
       </c>
       <c r="DH3" t="n">
-        <v>310.4583435058594</v>
+        <v>257.4294738769531</v>
       </c>
       <c r="DI3" t="n">
-        <v>310.4472351074219</v>
+        <v>257.3882751464844</v>
       </c>
       <c r="DJ3" t="n">
-        <v>310.4414672851562</v>
+        <v>257.3701782226562</v>
       </c>
       <c r="DK3" t="n">
-        <v>311.4800415039062</v>
+        <v>257.3261413574219</v>
       </c>
       <c r="DL3" t="n">
-        <v>313.5783386230469</v>
+        <v>257.3151245117188</v>
       </c>
       <c r="DM3" t="n">
-        <v>314.3531494140625</v>
+        <v>257.3087768554688</v>
       </c>
       <c r="DN3" t="n">
-        <v>315.2344665527344</v>
+        <v>257.3069763183594</v>
       </c>
       <c r="DO3" t="n">
-        <v>315.4718933105469</v>
+        <v>257.3070983886719</v>
       </c>
       <c r="DP3" t="n">
-        <v>315.6154479980469</v>
+        <v>257.3073120117188</v>
       </c>
       <c r="DQ3" t="n">
-        <v>315.7002258300781</v>
+        <v>257.3074951171875</v>
       </c>
       <c r="DR3" t="n">
-        <v>315.7252807617188</v>
+        <v>257.3073425292969</v>
       </c>
       <c r="DS3" t="n">
-        <v>315.7480163574219</v>
+        <v>257.3070373535156</v>
       </c>
       <c r="DT3" t="n">
-        <v>315.7972106933594</v>
+        <v>257.3071594238281</v>
       </c>
       <c r="DU3" t="n">
-        <v>315.8483276367188</v>
+        <v>257.3072814941406</v>
       </c>
       <c r="DV3" t="n">
-        <v>315.9459838867188</v>
+        <v>257.3073120117188</v>
       </c>
       <c r="DW3" t="n">
-        <v>315.9975280761719</v>
+        <v>257.3073120117188</v>
       </c>
       <c r="DX3" t="n">
-        <v>316.056396484375</v>
+        <v>257.3073120117188</v>
       </c>
       <c r="DY3" t="n">
-        <v>316.0923156738281</v>
+        <v>257.30712890625</v>
       </c>
       <c r="DZ3" t="n">
-        <v>316.1108703613281</v>
+        <v>257.306884765625</v>
       </c>
       <c r="EA3" t="n">
-        <v>316.1670227050781</v>
+        <v>257.3067626953125</v>
       </c>
       <c r="EB3" t="n">
-        <v>316.1962280273438</v>
+        <v>257.3039855957031</v>
       </c>
       <c r="EC3" t="n">
-        <v>316.2214660644531</v>
+        <v>257.303955078125</v>
       </c>
       <c r="ED3" t="n">
-        <v>316.2574462890625</v>
+        <v>257.3039245605469</v>
       </c>
       <c r="EE3" t="n">
-        <v>316.2858276367188</v>
+        <v>257.305908203125</v>
       </c>
       <c r="EF3" t="n">
-        <v>316.3835754394531</v>
+        <v>257.3092956542969</v>
       </c>
       <c r="EG3" t="n">
-        <v>316.4623718261719</v>
+        <v>257.326416015625</v>
       </c>
       <c r="EH3" t="n">
-        <v>316.5385131835938</v>
+        <v>259.0836791992188</v>
       </c>
       <c r="EI3" t="n">
-        <v>316.6834106445312</v>
+        <v>260.2142639160156</v>
       </c>
       <c r="EJ3" t="n">
-        <v>316.7135009765625</v>
+        <v>260.9436645507812</v>
       </c>
       <c r="EK3" t="n">
-        <v>316.7307434082031</v>
+        <v>261.2030639648438</v>
       </c>
       <c r="EL3" t="n">
-        <v>316.73291015625</v>
+        <v>260.6250915527344</v>
       </c>
       <c r="EM3" t="n">
-        <v>316.6706237792969</v>
+        <v>259.4795532226562</v>
       </c>
       <c r="EN3" t="n">
-        <v>316.6455993652344</v>
+        <v>259.0692443847656</v>
       </c>
       <c r="EO3" t="n">
-        <v>315.5890808105469</v>
+        <v>258.4774169921875</v>
       </c>
       <c r="EP3" t="n">
-        <v>314.8090515136719</v>
+        <v>258.0984497070312</v>
       </c>
       <c r="EQ3" t="n">
-        <v>313.6768188476562</v>
+        <v>257.9636840820312</v>
       </c>
       <c r="ER3" t="n">
-        <v>312.9448852539062</v>
+        <v>257.7695617675781</v>
       </c>
       <c r="ES3" t="n">
-        <v>312.7005920410156</v>
+        <v>257.700439453125</v>
       </c>
       <c r="ET3" t="n">
-        <v>312.35693359375</v>
+        <v>257.5947570800781</v>
       </c>
       <c r="EU3" t="n">
-        <v>312.2416076660156</v>
+        <v>257.4863586425781</v>
       </c>
       <c r="EV3" t="n">
-        <v>312.1487731933594</v>
+        <v>259.1797790527344</v>
       </c>
       <c r="EW3" t="n">
-        <v>312.0010986328125</v>
+        <v>259.7595825195312</v>
       </c>
       <c r="EX3" t="n">
-        <v>311.8880004882812</v>
+        <v>260.5472412109375</v>
       </c>
       <c r="EY3" t="n">
-        <v>311.9238891601562</v>
+        <v>261.0846252441406</v>
       </c>
       <c r="EZ3" t="n">
-        <v>312.0362548828125</v>
+        <v>261.4820556640625</v>
       </c>
       <c r="FA3" t="n">
-        <v>313.8989562988281</v>
+        <v>260.0199584960938</v>
       </c>
       <c r="FB3" t="n">
-        <v>314.2787780761719</v>
+        <v>259.086669921875</v>
       </c>
       <c r="FC3" t="n">
-        <v>314.5516662597656</v>
+        <v>258.488525390625</v>
       </c>
       <c r="FD3" t="n">
-        <v>314.7024841308594</v>
+        <v>258.2747497558594</v>
       </c>
       <c r="FE3" t="n">
-        <v>314.7712097167969</v>
+        <v>257.965576171875</v>
       </c>
       <c r="FF3" t="n">
-        <v>314.8231811523438</v>
+        <v>257.7621459960938</v>
       </c>
       <c r="FG3" t="n">
-        <v>315.0454711914062</v>
+        <v>258.6545104980469</v>
       </c>
       <c r="FH3" t="n">
-        <v>315.1685180664062</v>
+        <v>258.9885864257812</v>
       </c>
       <c r="FI3" t="n">
-        <v>315.3953247070312</v>
+        <v>258.4353332519531</v>
       </c>
       <c r="FJ3" t="n">
-        <v>315.5553894042969</v>
+        <v>258.0694885253906</v>
       </c>
       <c r="FK3" t="n">
-        <v>315.6156311035156</v>
+        <v>259.5668029785156</v>
       </c>
       <c r="FL3" t="n">
-        <v>315.7163391113281</v>
+        <v>260.7368774414062</v>
       </c>
       <c r="FM3" t="n">
-        <v>315.7454833984375</v>
+        <v>261.5258178710938</v>
       </c>
       <c r="FN3" t="n">
-        <v>315.8100280761719</v>
+        <v>261.9396057128906</v>
       </c>
       <c r="FO3" t="n">
-        <v>315.8416137695312</v>
+        <v>262.1663513183594</v>
       </c>
       <c r="FP3" t="n">
-        <v>316.1197204589844</v>
+        <v>262.3055114746094</v>
       </c>
       <c r="FQ3" t="n">
-        <v>316.2929077148438</v>
+        <v>262.3939819335938</v>
       </c>
       <c r="FR3" t="n">
-        <v>316.6269226074219</v>
+        <v>262.4449157714844</v>
       </c>
       <c r="FS3" t="n">
-        <v>316.7413330078125</v>
+        <v>262.4670104980469</v>
       </c>
       <c r="FT3" t="n">
-        <v>316.9079284667969</v>
+        <v>262.4780883789062</v>
       </c>
       <c r="FU3" t="n">
-        <v>317.0036926269531</v>
+        <v>262.5047912597656</v>
       </c>
       <c r="FV3" t="n">
-        <v>317.0280456542969</v>
+        <v>262.513916015625</v>
       </c>
       <c r="FW3" t="n">
-        <v>317.0205383300781</v>
+        <v>262.4779968261719</v>
       </c>
       <c r="FX3" t="n">
-        <v>316.9955139160156</v>
+        <v>262.4536743164062</v>
       </c>
       <c r="FY3" t="n">
-        <v>316.0209045410156</v>
+        <v>262.4683227539062</v>
       </c>
       <c r="FZ3" t="n">
-        <v>315.113525390625</v>
+        <v>262.4883728027344</v>
       </c>
       <c r="GA3" t="n">
-        <v>313.9240112304688</v>
+        <v>262.5098266601562</v>
       </c>
       <c r="GB3" t="n">
-        <v>313.519775390625</v>
+        <v>262.5179443359375</v>
       </c>
       <c r="GC3" t="n">
-        <v>312.926025390625</v>
+        <v>262.519775390625</v>
       </c>
       <c r="GD3" t="n">
-        <v>312.6949157714844</v>
+        <v>262.5186767578125</v>
       </c>
       <c r="GE3" t="n">
-        <v>312.3670349121094</v>
+        <v>262.5174560546875</v>
       </c>
       <c r="GF3" t="n">
-        <v>312.1708984375</v>
+        <v>262.4983520507812</v>
       </c>
       <c r="GG3" t="n">
-        <v>312.1061401367188</v>
+        <v>262.5537414550781</v>
       </c>
       <c r="GH3" t="n">
-        <v>312.0124816894531</v>
+        <v>262.5906372070312</v>
       </c>
       <c r="GI3" t="n">
-        <v>311.9556884765625</v>
+        <v>261.6558532714844</v>
       </c>
       <c r="GJ3" t="n">
-        <v>311.9212951660156</v>
+        <v>262.0187072753906</v>
       </c>
       <c r="GK3" t="n">
-        <v>311.9092712402344</v>
+        <v>262.2459411621094</v>
       </c>
       <c r="GL3" t="n">
-        <v>312.9608764648438</v>
+        <v>262.3943176269531</v>
       </c>
       <c r="GM3" t="n">
-        <v>314.3883666992188</v>
+        <v>262.451904296875</v>
       </c>
       <c r="GN3" t="n">
-        <v>314.728271484375</v>
+        <v>262.5646667480469</v>
       </c>
       <c r="GO3" t="n">
-        <v>315.0578918457031</v>
+        <v>262.6051635742188</v>
       </c>
       <c r="GP3" t="n">
-        <v>315.1857604980469</v>
+        <v>262.6322326660156</v>
       </c>
       <c r="GQ3" t="n">
-        <v>315.3259887695312</v>
+        <v>262.6499328613281</v>
       </c>
       <c r="GR3" t="n">
-        <v>315.3855895996094</v>
+        <v>262.65625</v>
       </c>
       <c r="GS3" t="n">
-        <v>315.4877319335938</v>
+        <v>260.9365234375</v>
       </c>
       <c r="GT3" t="n">
-        <v>315.5249938964844</v>
+        <v>259.4515380859375</v>
       </c>
       <c r="GU3" t="n">
-        <v>315.5711669921875</v>
+        <v>258.89013671875</v>
       </c>
       <c r="GV3" t="n">
-        <v>315.6452331542969</v>
+        <v>258.6868591308594</v>
       </c>
       <c r="GW3" t="n">
-        <v>315.7221984863281</v>
+        <v>258.38427734375</v>
       </c>
       <c r="GX3" t="n">
-        <v>315.7560424804688</v>
+        <v>258.1845397949219</v>
       </c>
       <c r="GY3" t="n">
-        <v>315.7637939453125</v>
+        <v>258.0628356933594</v>
       </c>
       <c r="GZ3" t="n">
-        <v>315.7751159667969</v>
+        <v>257.9855041503906</v>
       </c>
       <c r="HA3" t="n">
-        <v>315.7876892089844</v>
+        <v>257.9350280761719</v>
       </c>
       <c r="HB3" t="n">
-        <v>315.7933654785156</v>
+        <v>257.8901672363281</v>
       </c>
       <c r="HC3" t="n">
-        <v>315.8025512695312</v>
+        <v>257.8735046386719</v>
       </c>
       <c r="HD3" t="n">
-        <v>315.8089599609375</v>
+        <v>257.8634643554688</v>
       </c>
       <c r="HE3" t="n">
-        <v>315.7946166992188</v>
+        <v>257.8365173339844</v>
       </c>
       <c r="HF3" t="n">
-        <v>315.8683471679688</v>
+        <v>257.8067016601562</v>
       </c>
       <c r="HG3" t="n">
-        <v>315.0266723632812</v>
+        <v>257.7984008789062</v>
       </c>
       <c r="HH3" t="n">
-        <v>313.7659912109375</v>
+        <v>257.7973327636719</v>
       </c>
       <c r="HI3" t="n">
-        <v>313.0838317871094</v>
+        <v>257.797119140625</v>
       </c>
       <c r="HJ3" t="n">
-        <v>312.6739501953125</v>
+        <v>257.7966918945312</v>
       </c>
       <c r="HK3" t="n">
-        <v>312.4320068359375</v>
+        <v>257.7872619628906</v>
       </c>
       <c r="HL3" t="n">
-        <v>312.2667541503906</v>
+        <v>257.7800903320312</v>
       </c>
       <c r="HM3" t="n">
-        <v>312.2064208984375</v>
+        <v>257.7764892578125</v>
       </c>
       <c r="HN3" t="n">
-        <v>312.1210632324219</v>
+        <v>257.7759094238281</v>
       </c>
       <c r="HO3" t="n">
-        <v>312.0754699707031</v>
+        <v>257.7713012695312</v>
       </c>
       <c r="HP3" t="n">
-        <v>312.0550231933594</v>
+        <v>257.7702331542969</v>
       </c>
       <c r="HQ3" t="n">
-        <v>312.0514221191406</v>
+        <v>257.7480773925781</v>
       </c>
       <c r="HR3" t="n">
-        <v>313.2631530761719</v>
+        <v>257.7331848144531</v>
       </c>
       <c r="HS3" t="n">
-        <v>314.6309204101562</v>
+        <v>257.7320861816406</v>
       </c>
       <c r="HT3" t="n">
-        <v>315.1877136230469</v>
+        <v>257.7226867675781</v>
       </c>
       <c r="HU3" t="n">
-        <v>315.4164428710938</v>
+        <v>258.6734313964844</v>
       </c>
       <c r="HV3" t="n">
-        <v>315.6008911132812</v>
+        <v>258.18408203125</v>
       </c>
       <c r="HW3" t="n">
-        <v>315.7306213378906</v>
+        <v>257.8618469238281</v>
       </c>
       <c r="HX3" t="n">
-        <v>315.7792663574219</v>
+        <v>257.7835083007812</v>
       </c>
       <c r="HY3" t="n">
-        <v>315.8577575683594</v>
+        <v>257.7055969238281</v>
       </c>
       <c r="HZ3" t="n">
-        <v>315.9282531738281</v>
+        <v>257.6799926757812</v>
       </c>
       <c r="IA3" t="n">
-        <v>315.9629516601562</v>
+        <v>257.6756286621094</v>
       </c>
       <c r="IB3" t="n">
-        <v>315.9210205078125</v>
+        <v>259.2971496582031</v>
       </c>
       <c r="IC3" t="n">
-        <v>315.8261413574219</v>
+        <v>260.2528686523438</v>
       </c>
       <c r="ID3" t="n">
-        <v>315.7578430175781</v>
+        <v>260.8330688476562</v>
       </c>
       <c r="IE3" t="n">
-        <v>315.7182922363281</v>
+        <v>261.3261108398438</v>
       </c>
       <c r="IF3" t="n">
-        <v>315.6978149414062</v>
+        <v>261.4908142089844</v>
       </c>
       <c r="IG3" t="n">
-        <v>315.6729125976562</v>
+        <v>261.5909729003906</v>
       </c>
       <c r="IH3" t="n">
-        <v>315.6533813476562</v>
+        <v>261.6748962402344</v>
       </c>
       <c r="II3" t="n">
-        <v>315.6422119140625</v>
+        <v>261.7138977050781</v>
       </c>
       <c r="IJ3" t="n">
-        <v>315.63525390625</v>
+        <v>261.7240905761719</v>
       </c>
       <c r="IK3" t="n">
-        <v>315.6308288574219</v>
+        <v>261.7617492675781</v>
       </c>
       <c r="IL3" t="n">
-        <v>315.6279296875</v>
+        <v>261.81640625</v>
       </c>
       <c r="IM3" t="n">
-        <v>315.8982543945312</v>
+        <v>261.8749694824219</v>
       </c>
       <c r="IN3" t="n">
-        <v>314.2933959960938</v>
+        <v>261.9189758300781</v>
       </c>
       <c r="IO3" t="n">
-        <v>313.3982849121094</v>
+        <v>262.0148315429688</v>
       </c>
       <c r="IP3" t="n">
-        <v>312.8738098144531</v>
+        <v>262.0418395996094</v>
       </c>
       <c r="IQ3" t="n">
-        <v>312.5196838378906</v>
+        <v>262.0452575683594</v>
       </c>
       <c r="IR3" t="n">
-        <v>312.2739562988281</v>
+        <v>262.0462951660156</v>
       </c>
       <c r="IS3" t="n">
-        <v>312.1603698730469</v>
+        <v>262.0475769042969</v>
       </c>
       <c r="IT3" t="n">
-        <v>312.1468505859375</v>
+        <v>262.0519409179688</v>
       </c>
       <c r="IU3" t="n">
-        <v>312.150390625</v>
+        <v>262.0760498046875</v>
       </c>
       <c r="IV3" t="n">
-        <v>312.1784362792969</v>
+        <v>262.0881958007812</v>
       </c>
       <c r="IW3" t="n">
-        <v>314.0527954101562</v>
+        <v>262.0601501464844</v>
       </c>
       <c r="IX3" t="n">
-        <v>315.1815490722656</v>
+        <v>262.0435180664062</v>
       </c>
       <c r="IY3" t="n">
-        <v>315.8678588867188</v>
+        <v>262.0354919433594</v>
       </c>
       <c r="IZ3" t="n">
-        <v>316.0806579589844</v>
+        <v>262.0308532714844</v>
       </c>
       <c r="JA3" t="n">
-        <v>316.1207275390625</v>
+        <v>262.004638671875</v>
       </c>
       <c r="JB3" t="n">
-        <v>316.0042114257812</v>
+        <v>262.0094299316406</v>
       </c>
       <c r="JC3" t="n">
-        <v>315.9603576660156</v>
+        <v>262.0685729980469</v>
       </c>
       <c r="JD3" t="n">
-        <v>316.26220703125</v>
+        <v>262.0979919433594</v>
       </c>
       <c r="JE3" t="n">
-        <v>316.4314575195312</v>
+        <v>261.8929748535156</v>
       </c>
       <c r="JF3" t="n">
-        <v>316.4865112304688</v>
+        <v>261.8191833496094</v>
       </c>
       <c r="JG3" t="n">
-        <v>316.4852600097656</v>
+        <v>261.0316772460938</v>
       </c>
       <c r="JH3" t="n">
-        <v>316.4591979980469</v>
+        <v>260.1736450195312</v>
       </c>
       <c r="JI3" t="n">
-        <v>316.43359375</v>
+        <v>261.3832092285156</v>
       </c>
       <c r="JJ3" t="n">
-        <v>316.4022216796875</v>
+        <v>260.3061218261719</v>
       </c>
       <c r="JK3" t="n">
-        <v>316.3677062988281</v>
+        <v>258.3667907714844</v>
       </c>
       <c r="JL3" t="n">
-        <v>316.3338012695312</v>
+        <v>257.9553527832031</v>
       </c>
       <c r="JM3" t="n">
-        <v>316.3033447265625</v>
+        <v>257.7435302734375</v>
       </c>
       <c r="JN3" t="n">
-        <v>316.2799682617188</v>
+        <v>257.7117309570312</v>
       </c>
       <c r="JO3" t="n">
-        <v>316.2574768066406</v>
+        <v>257.7018737792969</v>
       </c>
       <c r="JP3" t="n">
-        <v>316.2335205078125</v>
+        <v>257.6903991699219</v>
       </c>
       <c r="JQ3" t="n">
-        <v>316.1473999023438</v>
+        <v>258.5651550292969</v>
       </c>
       <c r="JR3" t="n">
-        <v>316.0208129882812</v>
+        <v>259.6450500488281</v>
       </c>
       <c r="JS3" t="n">
-        <v>315.1051940917969</v>
+        <v>260.5641174316406</v>
       </c>
       <c r="JT3" t="n">
-        <v>313.5274047851562</v>
+        <v>260.9132080078125</v>
       </c>
       <c r="JU3" t="n">
-        <v>313.0201110839844</v>
+        <v>261.2769165039062</v>
       </c>
       <c r="JV3" t="n">
-        <v>312.7478637695312</v>
+        <v>261.4028930664062</v>
       </c>
       <c r="JW3" t="n">
-        <v>312.8255004882812</v>
+        <v>261.4520874023438</v>
       </c>
       <c r="JX3" t="n">
-        <v>313.1961059570312</v>
+        <v>261.4881896972656</v>
       </c>
       <c r="JY3" t="n">
-        <v>313.5650634765625</v>
+        <v>261.5226135253906</v>
       </c>
       <c r="JZ3" t="n">
-        <v>315.3458251953125</v>
+        <v>261.5292663574219</v>
       </c>
       <c r="KA3" t="n">
-        <v>316.3538513183594</v>
+        <v>261.5060424804688</v>
       </c>
       <c r="KB3" t="n">
-        <v>316.8883666992188</v>
+        <v>261.51416015625</v>
       </c>
       <c r="KC3" t="n">
-        <v>317.0844116210938</v>
+        <v>261.6625061035156</v>
       </c>
       <c r="KD3" t="n">
-        <v>316.9901428222656</v>
+        <v>261.6611328125</v>
       </c>
       <c r="KE3" t="n">
-        <v>316.3755798339844</v>
+        <v>261.6284484863281</v>
       </c>
       <c r="KF3" t="n">
-        <v>315.1598815917969</v>
+        <v>261.6014404296875</v>
       </c>
       <c r="KG3" t="n">
-        <v>314.3020324707031</v>
+        <v>261.6029663085938</v>
       </c>
       <c r="KH3" t="n">
-        <v>314.3640747070312</v>
+        <v>261.6968383789062</v>
       </c>
       <c r="KI3" t="n">
-        <v>314.3376770019531</v>
+        <v>261.7810363769531</v>
       </c>
       <c r="KJ3" t="n">
-        <v>313.20751953125</v>
+        <v>261.8409118652344</v>
       </c>
       <c r="KK3" t="n">
-        <v>313.1744079589844</v>
+        <v>261.8955078125</v>
       </c>
       <c r="KL3" t="n">
-        <v>314.7712097167969</v>
+        <v>261.9473266601562</v>
       </c>
       <c r="KM3" t="n">
-        <v>316.5497436523438</v>
+        <v>261.9421997070312</v>
       </c>
       <c r="KN3" t="n">
-        <v>317.6167602539062</v>
+        <v>261.9306640625</v>
       </c>
       <c r="KO3" t="n">
-        <v>310.1169128417969</v>
+        <v>261.1713256835938</v>
       </c>
       <c r="KP3" t="n">
-        <v>308.0101318359375</v>
+        <v>259.9794006347656</v>
       </c>
       <c r="KQ3" t="n">
-        <v>306.5267639160156</v>
+        <v>259.5276489257812</v>
       </c>
       <c r="KR3" t="n">
-        <v>304.7154235839844</v>
+        <v>260.4449768066406</v>
       </c>
       <c r="KS3" t="n">
-        <v>298.5977478027344</v>
+        <v>261.8676452636719</v>
       </c>
       <c r="KT3" t="n">
-        <v>297.7954406738281</v>
+        <v>261.3977355957031</v>
       </c>
       <c r="KU3" t="n">
-        <v>299.6952514648438</v>
+        <v>265.9426574707031</v>
       </c>
       <c r="KV3" t="n">
-        <v>302.0953063964844</v>
+        <v>274.53857421875</v>
       </c>
       <c r="KW3" t="n">
-        <v>304.2991027832031</v>
+        <v>277.9588317871094</v>
       </c>
       <c r="KX3" t="n">
-        <v>302.4795532226562</v>
+        <v>278.7323608398438</v>
       </c>
       <c r="KY3" t="n">
-        <v>299.5913391113281</v>
+        <v>277.3190307617188</v>
       </c>
       <c r="KZ3" t="n">
-        <v>296.4118041992188</v>
+        <v>273.7455444335938</v>
       </c>
       <c r="LA3" t="n">
-        <v>297.20947265625</v>
+        <v>273.6441040039062</v>
       </c>
       <c r="LB3" t="n">
-        <v>294.8460083007812</v>
+        <v>280.2987060546875</v>
       </c>
       <c r="LC3" t="n">
-        <v>294.20751953125</v>
+        <v>290.6759948730469</v>
       </c>
       <c r="LD3" t="n">
-        <v>293.7954711914062</v>
+        <v>297.4443054199219</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>297.5653076171875</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>299.5527038574219</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>302.3121643066406</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>313.3816223144531</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>335.1744079589844</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>362.5426330566406</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>387.1206665039062</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>427.7160339355469</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>467.2340698242188</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>478.7817993164062</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>477.2591552734375</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>480.3499755859375</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>480.6864624023438</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>480.3329162597656</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>478.7971801757812</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>477.0175170898438</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>475.3880004882812</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>477.5400085449219</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>489.5119934082031</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>496.1696472167969</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>502.8391418457031</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>508.793212890625</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>512.3113403320312</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>513.3934326171875</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>512.63720703125</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>512.354736328125</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>510.4919128417969</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>508.0372314453125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>970.64453125</v>
+        <v>830.0299072265625</v>
       </c>
       <c r="B4" t="n">
-        <v>972.642578125</v>
+        <v>859.5249633789062</v>
       </c>
       <c r="C4" t="n">
-        <v>973.5866088867188</v>
+        <v>888.2631225585938</v>
       </c>
       <c r="D4" t="n">
-        <v>986.24072265625</v>
+        <v>918.1874389648438</v>
       </c>
       <c r="E4" t="n">
-        <v>1021.614868164062</v>
+        <v>951.4404907226562</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.772583007812</v>
+        <v>985.025146484375</v>
       </c>
       <c r="G4" t="n">
-        <v>1101.74072265625</v>
+        <v>1017.211486816406</v>
       </c>
       <c r="H4" t="n">
-        <v>1135.855590820312</v>
+        <v>1051.471557617188</v>
       </c>
       <c r="I4" t="n">
-        <v>1165.18359375</v>
+        <v>1086.122680664062</v>
       </c>
       <c r="J4" t="n">
-        <v>1194.730346679688</v>
+        <v>1117.672607421875</v>
       </c>
       <c r="K4" t="n">
-        <v>1228.83984375</v>
+        <v>1146.234008789062</v>
       </c>
       <c r="L4" t="n">
-        <v>1266.140380859375</v>
+        <v>1173.111083984375</v>
       </c>
       <c r="M4" t="n">
-        <v>1306.8271484375</v>
+        <v>1197.109252929688</v>
       </c>
       <c r="N4" t="n">
-        <v>1347.389526367188</v>
+        <v>1224.78271484375</v>
       </c>
       <c r="O4" t="n">
-        <v>1384.604736328125</v>
+        <v>1251.034790039062</v>
       </c>
       <c r="P4" t="n">
-        <v>1418.6650390625</v>
+        <v>1276.35693359375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1449.731201171875</v>
+        <v>1301.587768554688</v>
       </c>
       <c r="R4" t="n">
-        <v>1479.882446289062</v>
+        <v>1323.032470703125</v>
       </c>
       <c r="S4" t="n">
-        <v>1507.572387695312</v>
+        <v>1348.730346679688</v>
       </c>
       <c r="T4" t="n">
-        <v>1531.46630859375</v>
+        <v>1378.110229492188</v>
       </c>
       <c r="U4" t="n">
-        <v>1556.292846679688</v>
+        <v>1408.996948242188</v>
       </c>
       <c r="V4" t="n">
-        <v>1578.916259765625</v>
+        <v>1441.368041992188</v>
       </c>
       <c r="W4" t="n">
-        <v>1601.451538085938</v>
+        <v>1470.52783203125</v>
       </c>
       <c r="X4" t="n">
-        <v>1627.969360351562</v>
+        <v>1500.125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1656.952758789062</v>
+        <v>1533.790161132812</v>
       </c>
       <c r="Z4" t="n">
-        <v>1682.297119140625</v>
+        <v>1572.462158203125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1704.906005859375</v>
+        <v>1613.7451171875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1733.878173828125</v>
+        <v>1653.851928710938</v>
       </c>
       <c r="AC4" t="n">
-        <v>1766.635864257812</v>
+        <v>1694.109985351562</v>
       </c>
       <c r="AD4" t="n">
-        <v>1801.814819335938</v>
+        <v>1730.47998046875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1834.067626953125</v>
+        <v>1760.948608398438</v>
       </c>
       <c r="AF4" t="n">
-        <v>1861.22607421875</v>
+        <v>1788.410766601562</v>
       </c>
       <c r="AG4" t="n">
-        <v>1884.688232421875</v>
+        <v>1815.14306640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1903.160522460938</v>
+        <v>1836.30078125</v>
       </c>
       <c r="AI4" t="n">
-        <v>1918.732788085938</v>
+        <v>1854.181396484375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1934.7431640625</v>
+        <v>1868.69775390625</v>
       </c>
       <c r="AK4" t="n">
-        <v>1946.783813476562</v>
+        <v>1889.679443359375</v>
       </c>
       <c r="AL4" t="n">
-        <v>1958.4990234375</v>
+        <v>1918.12744140625</v>
       </c>
       <c r="AM4" t="n">
-        <v>1971.26025390625</v>
+        <v>1942.515625</v>
       </c>
       <c r="AN4" t="n">
-        <v>1982.775024414062</v>
+        <v>1959.324951171875</v>
       </c>
       <c r="AO4" t="n">
-        <v>1993.246704101562</v>
+        <v>1969.179443359375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1998.299072265625</v>
+        <v>1979.567260742188</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2000.880126953125</v>
+        <v>1997.284912109375</v>
       </c>
       <c r="AR4" t="n">
-        <v>2002.571411132812</v>
+        <v>2020.577758789062</v>
       </c>
       <c r="AS4" t="n">
-        <v>2003.8642578125</v>
+        <v>2045.604736328125</v>
       </c>
       <c r="AT4" t="n">
-        <v>2005.112670898438</v>
+        <v>2068.86376953125</v>
       </c>
       <c r="AU4" t="n">
-        <v>2006.047607421875</v>
+        <v>2089.07275390625</v>
       </c>
       <c r="AV4" t="n">
-        <v>2007.002807617188</v>
+        <v>2101.978515625</v>
       </c>
       <c r="AW4" t="n">
-        <v>2010.112915039062</v>
+        <v>2111.67919921875</v>
       </c>
       <c r="AX4" t="n">
-        <v>2014.854248046875</v>
+        <v>2126.5185546875</v>
       </c>
       <c r="AY4" t="n">
-        <v>2022.91748046875</v>
+        <v>2141.1455078125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2032.596435546875</v>
+        <v>2159.3203125</v>
       </c>
       <c r="BA4" t="n">
-        <v>2038.014892578125</v>
+        <v>2177.56689453125</v>
       </c>
       <c r="BB4" t="n">
-        <v>2040.684692382812</v>
+        <v>2188.452880859375</v>
       </c>
       <c r="BC4" t="n">
-        <v>2044.603637695312</v>
+        <v>2199.3125</v>
       </c>
       <c r="BD4" t="n">
-        <v>2048.153564453125</v>
+        <v>2210.47509765625</v>
       </c>
       <c r="BE4" t="n">
-        <v>2051.38623046875</v>
+        <v>2224.498779296875</v>
       </c>
       <c r="BF4" t="n">
-        <v>2053.28759765625</v>
+        <v>2236.17626953125</v>
       </c>
       <c r="BG4" t="n">
-        <v>2055.466796875</v>
+        <v>2248.14599609375</v>
       </c>
       <c r="BH4" t="n">
-        <v>2057.1796875</v>
+        <v>2257.572998046875</v>
       </c>
       <c r="BI4" t="n">
-        <v>2058.24755859375</v>
+        <v>2263.982177734375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2059.618408203125</v>
+        <v>2268.959716796875</v>
       </c>
       <c r="BK4" t="n">
-        <v>2060.98779296875</v>
+        <v>2271.419921875</v>
       </c>
       <c r="BL4" t="n">
-        <v>2064.46875</v>
+        <v>2273.780517578125</v>
       </c>
       <c r="BM4" t="n">
-        <v>2069.31396484375</v>
+        <v>2275.967041015625</v>
       </c>
       <c r="BN4" t="n">
-        <v>2073.142578125</v>
+        <v>2279.822509765625</v>
       </c>
       <c r="BO4" t="n">
-        <v>2075.724609375</v>
+        <v>2284.04833984375</v>
       </c>
       <c r="BP4" t="n">
-        <v>2078.6083984375</v>
+        <v>2287.048583984375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2077.8798828125</v>
+        <v>2290.25634765625</v>
       </c>
       <c r="BR4" t="n">
-        <v>2076.919677734375</v>
+        <v>2293.438232421875</v>
       </c>
       <c r="BS4" t="n">
-        <v>2075.846923828125</v>
+        <v>2294.839599609375</v>
       </c>
       <c r="BT4" t="n">
-        <v>2075.30908203125</v>
+        <v>2296.058349609375</v>
       </c>
       <c r="BU4" t="n">
-        <v>2074.239501953125</v>
+        <v>2296.028076171875</v>
       </c>
       <c r="BV4" t="n">
-        <v>2073.0078125</v>
+        <v>2295.3857421875</v>
       </c>
       <c r="BW4" t="n">
-        <v>2071.840576171875</v>
+        <v>2295.00341796875</v>
       </c>
       <c r="BX4" t="n">
-        <v>2070.449951171875</v>
+        <v>2294.55712890625</v>
       </c>
       <c r="BY4" t="n">
-        <v>2068.8515625</v>
+        <v>2293.893310546875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2067.05712890625</v>
+        <v>2293.31982421875</v>
       </c>
       <c r="CA4" t="n">
-        <v>2064.611328125</v>
+        <v>2292.807861328125</v>
       </c>
       <c r="CB4" t="n">
-        <v>2064.643798828125</v>
+        <v>2292.100341796875</v>
       </c>
       <c r="CC4" t="n">
-        <v>2064.70458984375</v>
+        <v>2289.7861328125</v>
       </c>
       <c r="CD4" t="n">
-        <v>2064.801025390625</v>
+        <v>2281.446533203125</v>
       </c>
       <c r="CE4" t="n">
-        <v>2064.7451171875</v>
+        <v>2277.333740234375</v>
       </c>
       <c r="CF4" t="n">
-        <v>2064.690185546875</v>
+        <v>2272.323486328125</v>
       </c>
       <c r="CG4" t="n">
-        <v>2064.66162109375</v>
+        <v>2268.0556640625</v>
       </c>
       <c r="CH4" t="n">
-        <v>2064.613037109375</v>
+        <v>2266.75341796875</v>
       </c>
       <c r="CI4" t="n">
-        <v>2064.529052734375</v>
+        <v>2266.5556640625</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2064.46044921875</v>
+        <v>2266.42138671875</v>
       </c>
       <c r="CK4" t="n">
-        <v>2064.4853515625</v>
+        <v>2266.555419921875</v>
       </c>
       <c r="CL4" t="n">
-        <v>2064.517822265625</v>
+        <v>2266.70263671875</v>
       </c>
       <c r="CM4" t="n">
-        <v>2064.562744140625</v>
+        <v>2266.841796875</v>
       </c>
       <c r="CN4" t="n">
-        <v>2064.578369140625</v>
+        <v>2266.988525390625</v>
       </c>
       <c r="CO4" t="n">
-        <v>2064.585693359375</v>
+        <v>2267.02734375</v>
       </c>
       <c r="CP4" t="n">
-        <v>2064.598388671875</v>
+        <v>2267.20654296875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2064.604248046875</v>
+        <v>2267.33544921875</v>
       </c>
       <c r="CR4" t="n">
-        <v>2064.693603515625</v>
+        <v>2267.330810546875</v>
       </c>
       <c r="CS4" t="n">
-        <v>2065.530029296875</v>
+        <v>2267.54248046875</v>
       </c>
       <c r="CT4" t="n">
-        <v>2066.548095703125</v>
+        <v>2267.593505859375</v>
       </c>
       <c r="CU4" t="n">
-        <v>2065.446533203125</v>
+        <v>2267.837158203125</v>
       </c>
       <c r="CV4" t="n">
-        <v>2061.341796875</v>
+        <v>2268.023681640625</v>
       </c>
       <c r="CW4" t="n">
-        <v>2058.197998046875</v>
+        <v>2268.416259765625</v>
       </c>
       <c r="CX4" t="n">
-        <v>2055.899658203125</v>
+        <v>2268.600341796875</v>
       </c>
       <c r="CY4" t="n">
-        <v>2055.10205078125</v>
+        <v>2268.883056640625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2054.95458984375</v>
+        <v>2269.552490234375</v>
       </c>
       <c r="DA4" t="n">
-        <v>2054.937255859375</v>
+        <v>2269.900390625</v>
       </c>
       <c r="DB4" t="n">
-        <v>2054.908447265625</v>
+        <v>2270.510498046875</v>
       </c>
       <c r="DC4" t="n">
-        <v>2054.95751953125</v>
+        <v>2270.747314453125</v>
       </c>
       <c r="DD4" t="n">
-        <v>2054.989013671875</v>
+        <v>2271.3671875</v>
       </c>
       <c r="DE4" t="n">
-        <v>2055.00048828125</v>
+        <v>2272.088134765625</v>
       </c>
       <c r="DF4" t="n">
-        <v>2055.018798828125</v>
+        <v>2273.226318359375</v>
       </c>
       <c r="DG4" t="n">
-        <v>2055.030517578125</v>
+        <v>2275.532958984375</v>
       </c>
       <c r="DH4" t="n">
-        <v>2055.034423828125</v>
+        <v>2276.958740234375</v>
       </c>
       <c r="DI4" t="n">
-        <v>2055.087890625</v>
+        <v>2279.72802734375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2055.13427734375</v>
+        <v>2280.9228515625</v>
       </c>
       <c r="DK4" t="n">
-        <v>2053.986083984375</v>
+        <v>2283.717529296875</v>
       </c>
       <c r="DL4" t="n">
-        <v>2058.443115234375</v>
+        <v>2284.366455078125</v>
       </c>
       <c r="DM4" t="n">
-        <v>2064.50830078125</v>
+        <v>2284.724609375</v>
       </c>
       <c r="DN4" t="n">
-        <v>2071.310302734375</v>
+        <v>2284.806640625</v>
       </c>
       <c r="DO4" t="n">
-        <v>2070.994873046875</v>
+        <v>2284.789794921875</v>
       </c>
       <c r="DP4" t="n">
-        <v>2070.43310546875</v>
+        <v>2284.770751953125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2069.855712890625</v>
+        <v>2284.751708984375</v>
       </c>
       <c r="DR4" t="n">
-        <v>2069.323974609375</v>
+        <v>2284.750244140625</v>
       </c>
       <c r="DS4" t="n">
-        <v>2068.953857421875</v>
+        <v>2284.757080078125</v>
       </c>
       <c r="DT4" t="n">
-        <v>2068.3037109375</v>
+        <v>2284.757568359375</v>
       </c>
       <c r="DU4" t="n">
-        <v>2067.972900390625</v>
+        <v>2284.758056640625</v>
       </c>
       <c r="DV4" t="n">
-        <v>2067.34130859375</v>
+        <v>2284.75927734375</v>
       </c>
       <c r="DW4" t="n">
-        <v>2067.048583984375</v>
+        <v>2284.761474609375</v>
       </c>
       <c r="DX4" t="n">
-        <v>2066.5361328125</v>
+        <v>2284.761962890625</v>
       </c>
       <c r="DY4" t="n">
-        <v>2065.06201171875</v>
+        <v>2284.761962890625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2063.997802734375</v>
+        <v>2284.76318359375</v>
       </c>
       <c r="EA4" t="n">
-        <v>2062.217529296875</v>
+        <v>2284.76611328125</v>
       </c>
       <c r="EB4" t="n">
-        <v>2061.98388671875</v>
+        <v>2284.9228515625</v>
       </c>
       <c r="EC4" t="n">
-        <v>2061.903564453125</v>
+        <v>2284.925048828125</v>
       </c>
       <c r="ED4" t="n">
-        <v>2061.744140625</v>
+        <v>2284.92724609375</v>
       </c>
       <c r="EE4" t="n">
-        <v>2061.657470703125</v>
+        <v>2284.950439453125</v>
       </c>
       <c r="EF4" t="n">
-        <v>2061.462890625</v>
+        <v>2284.984619140625</v>
       </c>
       <c r="EG4" t="n">
-        <v>2061.379150390625</v>
+        <v>2284.423583984375</v>
       </c>
       <c r="EH4" t="n">
-        <v>2061.298095703125</v>
+        <v>2284.675048828125</v>
       </c>
       <c r="EI4" t="n">
-        <v>2061.138427734375</v>
+        <v>2284.650390625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2061.104736328125</v>
+        <v>2284.489013671875</v>
       </c>
       <c r="EK4" t="n">
-        <v>2061.08642578125</v>
+        <v>2284.371337890625</v>
       </c>
       <c r="EL4" t="n">
-        <v>2061.0771484375</v>
+        <v>2282.56494140625</v>
       </c>
       <c r="EM4" t="n">
-        <v>2058.716064453125</v>
+        <v>2281.457763671875</v>
       </c>
       <c r="EN4" t="n">
-        <v>2053.34716796875</v>
+        <v>2281.332275390625</v>
       </c>
       <c r="EO4" t="n">
-        <v>2041.865844726562</v>
+        <v>2281.2451171875</v>
       </c>
       <c r="EP4" t="n">
-        <v>2041.066162109375</v>
+        <v>2281.210693359375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2042.378051757812</v>
+        <v>2281.201171875</v>
       </c>
       <c r="ER4" t="n">
-        <v>2043.817260742188</v>
+        <v>2281.1923828125</v>
       </c>
       <c r="ES4" t="n">
-        <v>2044.088012695312</v>
+        <v>2281.148681640625</v>
       </c>
       <c r="ET4" t="n">
-        <v>2044.5283203125</v>
+        <v>2280.651123046875</v>
       </c>
       <c r="EU4" t="n">
-        <v>2044.714599609375</v>
+        <v>2280.00537109375</v>
       </c>
       <c r="EV4" t="n">
-        <v>2044.869384765625</v>
+        <v>2280.138671875</v>
       </c>
       <c r="EW4" t="n">
-        <v>2045.132202148438</v>
+        <v>2280.093994140625</v>
       </c>
       <c r="EX4" t="n">
-        <v>2045.3544921875</v>
+        <v>2280.186279296875</v>
       </c>
       <c r="EY4" t="n">
-        <v>2047.39697265625</v>
+        <v>2280.172119140625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2051.294189453125</v>
+        <v>2280.115478515625</v>
       </c>
       <c r="FA4" t="n">
-        <v>2060.394287109375</v>
+        <v>2280.02734375</v>
       </c>
       <c r="FB4" t="n">
-        <v>2064.508544921875</v>
+        <v>2280.068603515625</v>
       </c>
       <c r="FC4" t="n">
-        <v>2065.402099609375</v>
+        <v>2280.062255859375</v>
       </c>
       <c r="FD4" t="n">
-        <v>2064.846923828125</v>
+        <v>2280.1279296875</v>
       </c>
       <c r="FE4" t="n">
-        <v>2064.539794921875</v>
+        <v>2280.259765625</v>
       </c>
       <c r="FF4" t="n">
-        <v>2063.33544921875</v>
+        <v>2280.76025390625</v>
       </c>
       <c r="FG4" t="n">
-        <v>2060.499755859375</v>
+        <v>2281.185791015625</v>
       </c>
       <c r="FH4" t="n">
-        <v>2059.024658203125</v>
+        <v>2282.05810546875</v>
       </c>
       <c r="FI4" t="n">
-        <v>2057.54296875</v>
+        <v>2283.188232421875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2056.833740234375</v>
+        <v>2283.919921875</v>
       </c>
       <c r="FK4" t="n">
-        <v>2056.6982421875</v>
+        <v>2284.730224609375</v>
       </c>
       <c r="FL4" t="n">
-        <v>2056.5146484375</v>
+        <v>2285.102783203125</v>
       </c>
       <c r="FM4" t="n">
-        <v>2056.4697265625</v>
+        <v>2285.495849609375</v>
       </c>
       <c r="FN4" t="n">
-        <v>2056.3603515625</v>
+        <v>2285.650146484375</v>
       </c>
       <c r="FO4" t="n">
-        <v>2056.306884765625</v>
+        <v>2285.960205078125</v>
       </c>
       <c r="FP4" t="n">
-        <v>2056.819580078125</v>
+        <v>2286.078369140625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2056.899658203125</v>
+        <v>2286.100830078125</v>
       </c>
       <c r="FR4" t="n">
-        <v>2056.791015625</v>
+        <v>2286.115966796875</v>
       </c>
       <c r="FS4" t="n">
-        <v>2056.678466796875</v>
+        <v>2286.161376953125</v>
       </c>
       <c r="FT4" t="n">
-        <v>2056.7421875</v>
+        <v>2286.307373046875</v>
       </c>
       <c r="FU4" t="n">
-        <v>2057.1953125</v>
+        <v>2286.342041015625</v>
       </c>
       <c r="FV4" t="n">
-        <v>2057.43701171875</v>
+        <v>2286.330078125</v>
       </c>
       <c r="FW4" t="n">
-        <v>2057.46630859375</v>
+        <v>2284.46435546875</v>
       </c>
       <c r="FX4" t="n">
-        <v>2057.487548828125</v>
+        <v>2281.4443359375</v>
       </c>
       <c r="FY4" t="n">
-        <v>2050.60498046875</v>
+        <v>2280.6611328125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2045.5673828125</v>
+        <v>2280.746337890625</v>
       </c>
       <c r="GA4" t="n">
-        <v>2043.634643554688</v>
+        <v>2280.936279296875</v>
       </c>
       <c r="GB4" t="n">
-        <v>2043.829711914062</v>
+        <v>2281.0478515625</v>
       </c>
       <c r="GC4" t="n">
-        <v>2044.549194335938</v>
+        <v>2281.176025390625</v>
       </c>
       <c r="GD4" t="n">
-        <v>2044.692138671875</v>
+        <v>2281.359130859375</v>
       </c>
       <c r="GE4" t="n">
-        <v>2044.7861328125</v>
+        <v>2281.461669921875</v>
       </c>
       <c r="GF4" t="n">
-        <v>2044.533203125</v>
+        <v>2283.3271484375</v>
       </c>
       <c r="GG4" t="n">
-        <v>2044.4873046875</v>
+        <v>2284.387939453125</v>
       </c>
       <c r="GH4" t="n">
-        <v>2044.424194335938</v>
+        <v>2284.904541015625</v>
       </c>
       <c r="GI4" t="n">
-        <v>2044.467041015625</v>
+        <v>2285.267578125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2044.54443359375</v>
+        <v>2285.914306640625</v>
       </c>
       <c r="GK4" t="n">
-        <v>2044.860229492188</v>
+        <v>2286.533447265625</v>
       </c>
       <c r="GL4" t="n">
-        <v>2046.646240234375</v>
+        <v>2287.100341796875</v>
       </c>
       <c r="GM4" t="n">
-        <v>2059.898193359375</v>
+        <v>2287.0693359375</v>
       </c>
       <c r="GN4" t="n">
-        <v>2062.76220703125</v>
+        <v>2286.855712890625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2063.1279296875</v>
+        <v>2286.772705078125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2062.697265625</v>
+        <v>2286.685791015625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2062.271484375</v>
+        <v>2286.6328125</v>
       </c>
       <c r="GR4" t="n">
-        <v>2062.1123046875</v>
+        <v>2286.619384765625</v>
       </c>
       <c r="GS4" t="n">
-        <v>2061.826904296875</v>
+        <v>2286.37255859375</v>
       </c>
       <c r="GT4" t="n">
-        <v>2058.1162109375</v>
+        <v>2286.56298828125</v>
       </c>
       <c r="GU4" t="n">
-        <v>2056.20166015625</v>
+        <v>2287.4560546875</v>
       </c>
       <c r="GV4" t="n">
-        <v>2055.4599609375</v>
+        <v>2287.823486328125</v>
       </c>
       <c r="GW4" t="n">
-        <v>2055.131591796875</v>
+        <v>2289.466064453125</v>
       </c>
       <c r="GX4" t="n">
-        <v>2054.86962890625</v>
+        <v>2291.074951171875</v>
       </c>
       <c r="GY4" t="n">
-        <v>2054.892333984375</v>
+        <v>2291.3115234375</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2054.910888671875</v>
+        <v>2291.279541015625</v>
       </c>
       <c r="HA4" t="n">
-        <v>2054.91259765625</v>
+        <v>2291.237548828125</v>
       </c>
       <c r="HB4" t="n">
-        <v>2054.91259765625</v>
+        <v>2291.193359375</v>
       </c>
       <c r="HC4" t="n">
-        <v>2054.9072265625</v>
+        <v>2291.177001953125</v>
       </c>
       <c r="HD4" t="n">
-        <v>2054.896240234375</v>
+        <v>2291.167236328125</v>
       </c>
       <c r="HE4" t="n">
-        <v>2053.8759765625</v>
+        <v>2291.16162109375</v>
       </c>
       <c r="HF4" t="n">
-        <v>2049.935791015625</v>
+        <v>2291.157958984375</v>
       </c>
       <c r="HG4" t="n">
-        <v>2037.441650390625</v>
+        <v>2291.15478515625</v>
       </c>
       <c r="HH4" t="n">
-        <v>2033.414428710938</v>
+        <v>2291.158935546875</v>
       </c>
       <c r="HI4" t="n">
-        <v>2034.547485351562</v>
+        <v>2291.158935546875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2035.493896484375</v>
+        <v>2291.158935546875</v>
       </c>
       <c r="HK4" t="n">
-        <v>2036.571533203125</v>
+        <v>2292.06640625</v>
       </c>
       <c r="HL4" t="n">
-        <v>2036.968017578125</v>
+        <v>2292.750732421875</v>
       </c>
       <c r="HM4" t="n">
-        <v>2037.0712890625</v>
+        <v>2293.08984375</v>
       </c>
       <c r="HN4" t="n">
-        <v>2037.2783203125</v>
+        <v>2293.753662109375</v>
       </c>
       <c r="HO4" t="n">
-        <v>2037.656005859375</v>
+        <v>2294.744140625</v>
       </c>
       <c r="HP4" t="n">
-        <v>2038.155029296875</v>
+        <v>2294.853759765625</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2038.757568359375</v>
+        <v>2294.947998046875</v>
       </c>
       <c r="HR4" t="n">
-        <v>2044.9755859375</v>
+        <v>2294.947998046875</v>
       </c>
       <c r="HS4" t="n">
-        <v>2056.3232421875</v>
+        <v>2293.0869140625</v>
       </c>
       <c r="HT4" t="n">
-        <v>2062.720703125</v>
+        <v>2292.79052734375</v>
       </c>
       <c r="HU4" t="n">
-        <v>2060.711669921875</v>
+        <v>2292.618408203125</v>
       </c>
       <c r="HV4" t="n">
-        <v>2058.9208984375</v>
+        <v>2294.404541015625</v>
       </c>
       <c r="HW4" t="n">
-        <v>2057.870849609375</v>
+        <v>2295.931884765625</v>
       </c>
       <c r="HX4" t="n">
-        <v>2057.571533203125</v>
+        <v>2295.81689453125</v>
       </c>
       <c r="HY4" t="n">
-        <v>2057.177978515625</v>
+        <v>2295.887939453125</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2056.614013671875</v>
+        <v>2295.796142578125</v>
       </c>
       <c r="IA4" t="n">
-        <v>2056.087890625</v>
+        <v>2295.646728515625</v>
       </c>
       <c r="IB4" t="n">
-        <v>2055.863525390625</v>
+        <v>2294.81201171875</v>
       </c>
       <c r="IC4" t="n">
-        <v>2055.451171875</v>
+        <v>2294.464111328125</v>
       </c>
       <c r="ID4" t="n">
-        <v>2055.216796875</v>
+        <v>2295.326171875</v>
       </c>
       <c r="IE4" t="n">
-        <v>2055.017578125</v>
+        <v>2295.142333984375</v>
       </c>
       <c r="IF4" t="n">
-        <v>2054.91748046875</v>
+        <v>2294.996337890625</v>
       </c>
       <c r="IG4" t="n">
-        <v>2054.911865234375</v>
+        <v>2294.82958984375</v>
       </c>
       <c r="IH4" t="n">
-        <v>2054.94140625</v>
+        <v>2294.490966796875</v>
       </c>
       <c r="II4" t="n">
-        <v>2054.96240234375</v>
+        <v>2294.23486328125</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2054.969970703125</v>
+        <v>2294.042724609375</v>
       </c>
       <c r="IK4" t="n">
-        <v>2054.973876953125</v>
+        <v>2293.9248046875</v>
       </c>
       <c r="IL4" t="n">
-        <v>2054.97216796875</v>
+        <v>2293.90673828125</v>
       </c>
       <c r="IM4" t="n">
-        <v>2045.485961914062</v>
+        <v>2293.847900390625</v>
       </c>
       <c r="IN4" t="n">
-        <v>2033.760131835938</v>
+        <v>2292.585693359375</v>
       </c>
       <c r="IO4" t="n">
-        <v>2031.288330078125</v>
+        <v>2283.54150390625</v>
       </c>
       <c r="IP4" t="n">
-        <v>2031.40234375</v>
+        <v>2281.724365234375</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2031.84716796875</v>
+        <v>2281.752197265625</v>
       </c>
       <c r="IR4" t="n">
-        <v>2032.33984375</v>
+        <v>2281.9384765625</v>
       </c>
       <c r="IS4" t="n">
-        <v>2033.484619140625</v>
+        <v>2282.210693359375</v>
       </c>
       <c r="IT4" t="n">
-        <v>2035.765991210938</v>
+        <v>2282.734375</v>
       </c>
       <c r="IU4" t="n">
-        <v>2037.792358398438</v>
+        <v>2282.96044921875</v>
       </c>
       <c r="IV4" t="n">
-        <v>2040.3623046875</v>
+        <v>2283.072509765625</v>
       </c>
       <c r="IW4" t="n">
-        <v>2043.311889648438</v>
+        <v>2283.4453125</v>
       </c>
       <c r="IX4" t="n">
-        <v>2051.92236328125</v>
+        <v>2283.49609375</v>
       </c>
       <c r="IY4" t="n">
-        <v>2054.5634765625</v>
+        <v>2283.479248046875</v>
       </c>
       <c r="IZ4" t="n">
-        <v>2052.984375</v>
+        <v>2283.47021484375</v>
       </c>
       <c r="JA4" t="n">
-        <v>2051.44287109375</v>
+        <v>2283.4638671875</v>
       </c>
       <c r="JB4" t="n">
-        <v>2049.3525390625</v>
+        <v>2283.464599609375</v>
       </c>
       <c r="JC4" t="n">
-        <v>2047.075805664062</v>
+        <v>2283.474365234375</v>
       </c>
       <c r="JD4" t="n">
-        <v>2044.643310546875</v>
+        <v>2282.3359375</v>
       </c>
       <c r="JE4" t="n">
-        <v>2042.897338867188</v>
+        <v>2282.12158203125</v>
       </c>
       <c r="JF4" t="n">
-        <v>2042.34130859375</v>
+        <v>2282.155029296875</v>
       </c>
       <c r="JG4" t="n">
-        <v>2042.31689453125</v>
+        <v>2284.857421875</v>
       </c>
       <c r="JH4" t="n">
-        <v>2042.329467773438</v>
+        <v>2285.323974609375</v>
       </c>
       <c r="JI4" t="n">
-        <v>2042.36865234375</v>
+        <v>2284.013671875</v>
       </c>
       <c r="JJ4" t="n">
-        <v>2042.418212890625</v>
+        <v>2282.922119140625</v>
       </c>
       <c r="JK4" t="n">
-        <v>2042.474975585938</v>
+        <v>2280.651123046875</v>
       </c>
       <c r="JL4" t="n">
-        <v>2042.541259765625</v>
+        <v>2280.533935546875</v>
       </c>
       <c r="JM4" t="n">
-        <v>2042.615234375</v>
+        <v>2280.684326171875</v>
       </c>
       <c r="JN4" t="n">
-        <v>2042.732421875</v>
+        <v>2280.56103515625</v>
       </c>
       <c r="JO4" t="n">
-        <v>2042.884887695312</v>
+        <v>2280.36083984375</v>
       </c>
       <c r="JP4" t="n">
-        <v>2042.9853515625</v>
+        <v>2279.56005859375</v>
       </c>
       <c r="JQ4" t="n">
-        <v>2040.722900390625</v>
+        <v>2278.37451171875</v>
       </c>
       <c r="JR4" t="n">
-        <v>2029.113525390625</v>
+        <v>2277.482666015625</v>
       </c>
       <c r="JS4" t="n">
-        <v>2025.68994140625</v>
+        <v>2276.77099609375</v>
       </c>
       <c r="JT4" t="n">
-        <v>2025.153198242188</v>
+        <v>2276.311767578125</v>
       </c>
       <c r="JU4" t="n">
-        <v>2026.534912109375</v>
+        <v>2276.359130859375</v>
       </c>
       <c r="JV4" t="n">
-        <v>2027.90380859375</v>
+        <v>2276.54931640625</v>
       </c>
       <c r="JW4" t="n">
-        <v>2027.42236328125</v>
+        <v>2276.640380859375</v>
       </c>
       <c r="JX4" t="n">
-        <v>2021.6943359375</v>
+        <v>2276.73095703125</v>
       </c>
       <c r="JY4" t="n">
-        <v>2014.19921875</v>
+        <v>2276.804443359375</v>
       </c>
       <c r="JZ4" t="n">
-        <v>1998.821166992188</v>
+        <v>2277.323974609375</v>
       </c>
       <c r="KA4" t="n">
-        <v>1986.475341796875</v>
+        <v>2278.076416015625</v>
       </c>
       <c r="KB4" t="n">
-        <v>1983.537353515625</v>
+        <v>2278.150390625</v>
       </c>
       <c r="KC4" t="n">
-        <v>1981.24365234375</v>
+        <v>2278.480224609375</v>
       </c>
       <c r="KD4" t="n">
-        <v>1983.4794921875</v>
+        <v>2278.760986328125</v>
       </c>
       <c r="KE4" t="n">
-        <v>1988.895629882812</v>
+        <v>2278.98779296875</v>
       </c>
       <c r="KF4" t="n">
-        <v>1993.527465820312</v>
+        <v>2279.14111328125</v>
       </c>
       <c r="KG4" t="n">
-        <v>1982.591674804688</v>
+        <v>2279.1806640625</v>
       </c>
       <c r="KH4" t="n">
-        <v>1957.234619140625</v>
+        <v>2279.284423828125</v>
       </c>
       <c r="KI4" t="n">
-        <v>1930.96533203125</v>
+        <v>2278.59814453125</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1909.011596679688</v>
+        <v>2276.5458984375</v>
       </c>
       <c r="KK4" t="n">
-        <v>1871.818969726562</v>
+        <v>2272.91015625</v>
       </c>
       <c r="KL4" t="n">
-        <v>1809.52490234375</v>
+        <v>2270.02099609375</v>
       </c>
       <c r="KM4" t="n">
-        <v>1758.147338867188</v>
+        <v>2270.326171875</v>
       </c>
       <c r="KN4" t="n">
-        <v>1690.539794921875</v>
+        <v>2270.82568359375</v>
       </c>
       <c r="KO4" t="n">
-        <v>1598.2353515625</v>
+        <v>2274.6201171875</v>
       </c>
       <c r="KP4" t="n">
-        <v>1544.592407226562</v>
+        <v>2284.817138671875</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1498.935913085938</v>
+        <v>2270.593505859375</v>
       </c>
       <c r="KR4" t="n">
-        <v>1446.9384765625</v>
+        <v>2211.992919921875</v>
       </c>
       <c r="KS4" t="n">
-        <v>1384.979736328125</v>
+        <v>2161.017822265625</v>
       </c>
       <c r="KT4" t="n">
-        <v>1332.673583984375</v>
+        <v>2117.706298828125</v>
       </c>
       <c r="KU4" t="n">
-        <v>1249.050048828125</v>
+        <v>2060.18994140625</v>
       </c>
       <c r="KV4" t="n">
-        <v>1192.315673828125</v>
+        <v>1940.875244140625</v>
       </c>
       <c r="KW4" t="n">
-        <v>1135.1376953125</v>
+        <v>1862.963134765625</v>
       </c>
       <c r="KX4" t="n">
-        <v>1068.923706054688</v>
+        <v>1733.815063476562</v>
       </c>
       <c r="KY4" t="n">
-        <v>1028.303955078125</v>
+        <v>1661.461791992188</v>
       </c>
       <c r="KZ4" t="n">
-        <v>997.03173828125</v>
+        <v>1562.88330078125</v>
       </c>
       <c r="LA4" t="n">
-        <v>956.326171875</v>
+        <v>1454.975341796875</v>
       </c>
       <c r="LB4" t="n">
-        <v>933.206298828125</v>
+        <v>1348.1259765625</v>
       </c>
       <c r="LC4" t="n">
-        <v>914.1893310546875</v>
+        <v>1223.760375976562</v>
       </c>
       <c r="LD4" t="n">
-        <v>894.6995849609375</v>
+        <v>1092.856567382812</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>991.7030029296875</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>896.4457397460938</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>838.2050170898438</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>750.1251831054688</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>655.6129760742188</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>567.635986328125</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>529.108642578125</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>478.8135986328125</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>444.9376220703125</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>437.0119323730469</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>431.8260192871094</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>416.4458618164062</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>402.5868225097656</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>398.8378295898438</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>400.3796997070312</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>402.50927734375</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>404.8943786621094</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>406.7850036621094</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>405.2477111816406</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>399.341552734375</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>390.6885375976562</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>382.0832824707031</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>376.4305419921875</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>372.9594116210938</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>369.9214782714844</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>368.7015380859375</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>368.0964660644531</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>367.8546447753906</v>
       </c>
     </row>
   </sheetData>
